--- a/docs/stm32f1_mcumap_gen.xlsx
+++ b/docs/stm32f1_mcumap_gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DD90A-ACFA-419E-BC3D-1941962E5914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EED800-E3AB-48FC-82C3-191CC6EDAA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -847,7 +847,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" s="4" customFormat="1" ht="225.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="4" customFormat="1" ht="315.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2440,6 +2440,13 @@
 #else
 #define "&amp;C23&amp;"_CCMREG CCMR1
 #endif
+#if ("&amp;C23&amp;"_TIMER==1)
+#define "&amp;C23&amp;"_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif ("&amp;C23&amp;"_TIMER==8)
+#define "&amp;C23&amp;"_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define "&amp;C23&amp;"_ENOUTPUT {}
+#endif
 #define "&amp;C23&amp;"_CCR __ccr__("&amp;C23&amp;"_CHANNEL)
 #define "&amp;B23&amp;"_TIMER "&amp;C23&amp;"_TIMER
 #define "&amp;B23&amp;"_CHANNEL "&amp;C23&amp;"_CHANNEL
@@ -2451,6 +2458,7 @@
 #define "&amp;B23&amp;"_MODE "&amp;C23&amp;"_MODE
 #define "&amp;B23&amp;"_CCMREG "&amp;C23&amp;"_CCMREG
 #define "&amp;B23&amp;"_CCR "&amp;C23&amp;"_CCR
+#define "&amp;B23&amp;"_ENOUTPUT "&amp;C23&amp;"_ENOUTPUT
 #endif"</f>
         <v>#if (defined(PWM0_CHANNEL) &amp;&amp; defined(PWM0_TIMER) &amp;&amp; defined(PWM0))
 #if (PWM0_TIMER==1 || (PWM0_TIMER&gt;=8 &amp; PWM0_TIMER&lt;=11))
@@ -2474,6 +2482,13 @@
 #else
 #define PWM0_CCMREG CCMR1
 #endif
+#if (PWM0_TIMER==1)
+#define PWM0_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM0_TIMER==8)
+#define PWM0_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM0_ENOUTPUT {}
+#endif
 #define PWM0_CCR __ccr__(PWM0_CHANNEL)
 #define DIO20_TIMER PWM0_TIMER
 #define DIO20_CHANNEL PWM0_CHANNEL
@@ -2485,6 +2500,7 @@
 #define DIO20_MODE PWM0_MODE
 #define DIO20_CCMREG PWM0_CCMREG
 #define DIO20_CCR PWM0_CCR
+#define DIO20_ENOUTPUT PWM0_ENOUTPUT
 #endif</v>
       </c>
       <c r="I23" s="3" t="str">
@@ -2562,10 +2578,10 @@
       <c r="H24" s="6" t="str">
         <f t="shared" ref="H24:H38" si="4">"#if (defined("&amp;C24&amp;"_CHANNEL) &amp;&amp; defined("&amp;C24&amp;"_TIMER) &amp;&amp; defined("&amp;C24&amp;"))
 #if ("&amp;C24&amp;"_TIMER==1 || ("&amp;C24&amp;"_TIMER&gt;=8 &amp; "&amp;C24&amp;"_TIMER&lt;=11))
-#define "&amp;C24&amp;"_ENREG APB2ENR
+#define "&amp;C24&amp;"_ENREG RCC-&gt;APB2ENR
 #define "&amp;C24&amp;"_APBEN __helper__(RCC_APB2ENR_TIM,"&amp;C24&amp;"_TIMER, EN)
 #else
-#define "&amp;C24&amp;"_ENREG APB1ENR
+#define "&amp;C24&amp;"_ENREG RCC-&gt;APB1ENR
 #define "&amp;C24&amp;"_APBEN __helper__(RCC_APB1ENR_TIM,"&amp;C24&amp;"_TIMER, EN)
 #endif
 #define "&amp;C24&amp;"_TIMREG (__tim__("&amp;C24&amp;"_TIMER))
@@ -2582,6 +2598,13 @@
 #else
 #define "&amp;C24&amp;"_CCMREG CCMR1
 #endif
+#if ("&amp;C24&amp;"_TIMER==1)
+#define "&amp;C24&amp;"_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif ("&amp;C24&amp;"_TIMER==8)
+#define "&amp;C24&amp;"_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define "&amp;C24&amp;"_ENOUTPUT {}
+#endif
 #define "&amp;C24&amp;"_CCR __ccr__("&amp;C24&amp;"_CHANNEL)
 #define "&amp;B24&amp;"_TIMER "&amp;C24&amp;"_TIMER
 #define "&amp;B24&amp;"_CHANNEL "&amp;C24&amp;"_CHANNEL
@@ -2593,13 +2616,14 @@
 #define "&amp;B24&amp;"_MODE "&amp;C24&amp;"_MODE
 #define "&amp;B24&amp;"_CCMREG "&amp;C24&amp;"_CCMREG
 #define "&amp;B24&amp;"_CCR "&amp;C24&amp;"_CCR
+#define "&amp;B24&amp;"_ENOUTPUT "&amp;C24&amp;"_ENOUTPUT
 #endif"</f>
         <v>#if (defined(PWM1_CHANNEL) &amp;&amp; defined(PWM1_TIMER) &amp;&amp; defined(PWM1))
 #if (PWM1_TIMER==1 || (PWM1_TIMER&gt;=8 &amp; PWM1_TIMER&lt;=11))
-#define PWM1_ENREG APB2ENR
+#define PWM1_ENREG RCC-&gt;APB2ENR
 #define PWM1_APBEN __helper__(RCC_APB2ENR_TIM,PWM1_TIMER, EN)
 #else
-#define PWM1_ENREG APB1ENR
+#define PWM1_ENREG RCC-&gt;APB1ENR
 #define PWM1_APBEN __helper__(RCC_APB1ENR_TIM,PWM1_TIMER, EN)
 #endif
 #define PWM1_TIMREG (__tim__(PWM1_TIMER))
@@ -2616,6 +2640,13 @@
 #else
 #define PWM1_CCMREG CCMR1
 #endif
+#if (PWM1_TIMER==1)
+#define PWM1_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM1_TIMER==8)
+#define PWM1_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM1_ENOUTPUT {}
+#endif
 #define PWM1_CCR __ccr__(PWM1_CHANNEL)
 #define DIO21_TIMER PWM1_TIMER
 #define DIO21_CHANNEL PWM1_CHANNEL
@@ -2627,6 +2658,7 @@
 #define DIO21_MODE PWM1_MODE
 #define DIO21_CCMREG PWM1_CCMREG
 #define DIO21_CCR PWM1_CCR
+#define DIO21_ENOUTPUT PWM1_ENOUTPUT
 #endif</v>
       </c>
       <c r="I24" s="3" t="str">
@@ -2705,10 +2737,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM2_CHANNEL) &amp;&amp; defined(PWM2_TIMER) &amp;&amp; defined(PWM2))
 #if (PWM2_TIMER==1 || (PWM2_TIMER&gt;=8 &amp; PWM2_TIMER&lt;=11))
-#define PWM2_ENREG APB2ENR
+#define PWM2_ENREG RCC-&gt;APB2ENR
 #define PWM2_APBEN __helper__(RCC_APB2ENR_TIM,PWM2_TIMER, EN)
 #else
-#define PWM2_ENREG APB1ENR
+#define PWM2_ENREG RCC-&gt;APB1ENR
 #define PWM2_APBEN __helper__(RCC_APB1ENR_TIM,PWM2_TIMER, EN)
 #endif
 #define PWM2_TIMREG (__tim__(PWM2_TIMER))
@@ -2725,6 +2757,13 @@
 #else
 #define PWM2_CCMREG CCMR1
 #endif
+#if (PWM2_TIMER==1)
+#define PWM2_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM2_TIMER==8)
+#define PWM2_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM2_ENOUTPUT {}
+#endif
 #define PWM2_CCR __ccr__(PWM2_CHANNEL)
 #define DIO22_TIMER PWM2_TIMER
 #define DIO22_CHANNEL PWM2_CHANNEL
@@ -2736,6 +2775,7 @@
 #define DIO22_MODE PWM2_MODE
 #define DIO22_CCMREG PWM2_CCMREG
 #define DIO22_CCR PWM2_CCR
+#define DIO22_ENOUTPUT PWM2_ENOUTPUT
 #endif</v>
       </c>
       <c r="I25" s="3" t="str">
@@ -2809,10 +2849,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM3_CHANNEL) &amp;&amp; defined(PWM3_TIMER) &amp;&amp; defined(PWM3))
 #if (PWM3_TIMER==1 || (PWM3_TIMER&gt;=8 &amp; PWM3_TIMER&lt;=11))
-#define PWM3_ENREG APB2ENR
+#define PWM3_ENREG RCC-&gt;APB2ENR
 #define PWM3_APBEN __helper__(RCC_APB2ENR_TIM,PWM3_TIMER, EN)
 #else
-#define PWM3_ENREG APB1ENR
+#define PWM3_ENREG RCC-&gt;APB1ENR
 #define PWM3_APBEN __helper__(RCC_APB1ENR_TIM,PWM3_TIMER, EN)
 #endif
 #define PWM3_TIMREG (__tim__(PWM3_TIMER))
@@ -2829,6 +2869,13 @@
 #else
 #define PWM3_CCMREG CCMR1
 #endif
+#if (PWM3_TIMER==1)
+#define PWM3_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM3_TIMER==8)
+#define PWM3_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM3_ENOUTPUT {}
+#endif
 #define PWM3_CCR __ccr__(PWM3_CHANNEL)
 #define DIO23_TIMER PWM3_TIMER
 #define DIO23_CHANNEL PWM3_CHANNEL
@@ -2840,6 +2887,7 @@
 #define DIO23_MODE PWM3_MODE
 #define DIO23_CCMREG PWM3_CCMREG
 #define DIO23_CCR PWM3_CCR
+#define DIO23_ENOUTPUT PWM3_ENOUTPUT
 #endif</v>
       </c>
       <c r="I26" s="3" t="str">
@@ -2913,10 +2961,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM4_CHANNEL) &amp;&amp; defined(PWM4_TIMER) &amp;&amp; defined(PWM4))
 #if (PWM4_TIMER==1 || (PWM4_TIMER&gt;=8 &amp; PWM4_TIMER&lt;=11))
-#define PWM4_ENREG APB2ENR
+#define PWM4_ENREG RCC-&gt;APB2ENR
 #define PWM4_APBEN __helper__(RCC_APB2ENR_TIM,PWM4_TIMER, EN)
 #else
-#define PWM4_ENREG APB1ENR
+#define PWM4_ENREG RCC-&gt;APB1ENR
 #define PWM4_APBEN __helper__(RCC_APB1ENR_TIM,PWM4_TIMER, EN)
 #endif
 #define PWM4_TIMREG (__tim__(PWM4_TIMER))
@@ -2933,6 +2981,13 @@
 #else
 #define PWM4_CCMREG CCMR1
 #endif
+#if (PWM4_TIMER==1)
+#define PWM4_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM4_TIMER==8)
+#define PWM4_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM4_ENOUTPUT {}
+#endif
 #define PWM4_CCR __ccr__(PWM4_CHANNEL)
 #define DIO24_TIMER PWM4_TIMER
 #define DIO24_CHANNEL PWM4_CHANNEL
@@ -2944,6 +2999,7 @@
 #define DIO24_MODE PWM4_MODE
 #define DIO24_CCMREG PWM4_CCMREG
 #define DIO24_CCR PWM4_CCR
+#define DIO24_ENOUTPUT PWM4_ENOUTPUT
 #endif</v>
       </c>
       <c r="I27" s="3" t="str">
@@ -3017,10 +3073,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM5_CHANNEL) &amp;&amp; defined(PWM5_TIMER) &amp;&amp; defined(PWM5))
 #if (PWM5_TIMER==1 || (PWM5_TIMER&gt;=8 &amp; PWM5_TIMER&lt;=11))
-#define PWM5_ENREG APB2ENR
+#define PWM5_ENREG RCC-&gt;APB2ENR
 #define PWM5_APBEN __helper__(RCC_APB2ENR_TIM,PWM5_TIMER, EN)
 #else
-#define PWM5_ENREG APB1ENR
+#define PWM5_ENREG RCC-&gt;APB1ENR
 #define PWM5_APBEN __helper__(RCC_APB1ENR_TIM,PWM5_TIMER, EN)
 #endif
 #define PWM5_TIMREG (__tim__(PWM5_TIMER))
@@ -3037,6 +3093,13 @@
 #else
 #define PWM5_CCMREG CCMR1
 #endif
+#if (PWM5_TIMER==1)
+#define PWM5_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM5_TIMER==8)
+#define PWM5_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM5_ENOUTPUT {}
+#endif
 #define PWM5_CCR __ccr__(PWM5_CHANNEL)
 #define DIO25_TIMER PWM5_TIMER
 #define DIO25_CHANNEL PWM5_CHANNEL
@@ -3048,6 +3111,7 @@
 #define DIO25_MODE PWM5_MODE
 #define DIO25_CCMREG PWM5_CCMREG
 #define DIO25_CCR PWM5_CCR
+#define DIO25_ENOUTPUT PWM5_ENOUTPUT
 #endif</v>
       </c>
       <c r="I28" s="3" t="str">
@@ -3121,10 +3185,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM6_CHANNEL) &amp;&amp; defined(PWM6_TIMER) &amp;&amp; defined(PWM6))
 #if (PWM6_TIMER==1 || (PWM6_TIMER&gt;=8 &amp; PWM6_TIMER&lt;=11))
-#define PWM6_ENREG APB2ENR
+#define PWM6_ENREG RCC-&gt;APB2ENR
 #define PWM6_APBEN __helper__(RCC_APB2ENR_TIM,PWM6_TIMER, EN)
 #else
-#define PWM6_ENREG APB1ENR
+#define PWM6_ENREG RCC-&gt;APB1ENR
 #define PWM6_APBEN __helper__(RCC_APB1ENR_TIM,PWM6_TIMER, EN)
 #endif
 #define PWM6_TIMREG (__tim__(PWM6_TIMER))
@@ -3141,6 +3205,13 @@
 #else
 #define PWM6_CCMREG CCMR1
 #endif
+#if (PWM6_TIMER==1)
+#define PWM6_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM6_TIMER==8)
+#define PWM6_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM6_ENOUTPUT {}
+#endif
 #define PWM6_CCR __ccr__(PWM6_CHANNEL)
 #define DIO26_TIMER PWM6_TIMER
 #define DIO26_CHANNEL PWM6_CHANNEL
@@ -3152,6 +3223,7 @@
 #define DIO26_MODE PWM6_MODE
 #define DIO26_CCMREG PWM6_CCMREG
 #define DIO26_CCR PWM6_CCR
+#define DIO26_ENOUTPUT PWM6_ENOUTPUT
 #endif</v>
       </c>
       <c r="I29" s="3" t="str">
@@ -3225,10 +3297,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM7_CHANNEL) &amp;&amp; defined(PWM7_TIMER) &amp;&amp; defined(PWM7))
 #if (PWM7_TIMER==1 || (PWM7_TIMER&gt;=8 &amp; PWM7_TIMER&lt;=11))
-#define PWM7_ENREG APB2ENR
+#define PWM7_ENREG RCC-&gt;APB2ENR
 #define PWM7_APBEN __helper__(RCC_APB2ENR_TIM,PWM7_TIMER, EN)
 #else
-#define PWM7_ENREG APB1ENR
+#define PWM7_ENREG RCC-&gt;APB1ENR
 #define PWM7_APBEN __helper__(RCC_APB1ENR_TIM,PWM7_TIMER, EN)
 #endif
 #define PWM7_TIMREG (__tim__(PWM7_TIMER))
@@ -3245,6 +3317,13 @@
 #else
 #define PWM7_CCMREG CCMR1
 #endif
+#if (PWM7_TIMER==1)
+#define PWM7_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM7_TIMER==8)
+#define PWM7_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM7_ENOUTPUT {}
+#endif
 #define PWM7_CCR __ccr__(PWM7_CHANNEL)
 #define DIO27_TIMER PWM7_TIMER
 #define DIO27_CHANNEL PWM7_CHANNEL
@@ -3256,6 +3335,7 @@
 #define DIO27_MODE PWM7_MODE
 #define DIO27_CCMREG PWM7_CCMREG
 #define DIO27_CCR PWM7_CCR
+#define DIO27_ENOUTPUT PWM7_ENOUTPUT
 #endif</v>
       </c>
       <c r="I30" s="3" t="str">
@@ -3329,10 +3409,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM8_CHANNEL) &amp;&amp; defined(PWM8_TIMER) &amp;&amp; defined(PWM8))
 #if (PWM8_TIMER==1 || (PWM8_TIMER&gt;=8 &amp; PWM8_TIMER&lt;=11))
-#define PWM8_ENREG APB2ENR
+#define PWM8_ENREG RCC-&gt;APB2ENR
 #define PWM8_APBEN __helper__(RCC_APB2ENR_TIM,PWM8_TIMER, EN)
 #else
-#define PWM8_ENREG APB1ENR
+#define PWM8_ENREG RCC-&gt;APB1ENR
 #define PWM8_APBEN __helper__(RCC_APB1ENR_TIM,PWM8_TIMER, EN)
 #endif
 #define PWM8_TIMREG (__tim__(PWM8_TIMER))
@@ -3349,6 +3429,13 @@
 #else
 #define PWM8_CCMREG CCMR1
 #endif
+#if (PWM8_TIMER==1)
+#define PWM8_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM8_TIMER==8)
+#define PWM8_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM8_ENOUTPUT {}
+#endif
 #define PWM8_CCR __ccr__(PWM8_CHANNEL)
 #define DIO28_TIMER PWM8_TIMER
 #define DIO28_CHANNEL PWM8_CHANNEL
@@ -3360,6 +3447,7 @@
 #define DIO28_MODE PWM8_MODE
 #define DIO28_CCMREG PWM8_CCMREG
 #define DIO28_CCR PWM8_CCR
+#define DIO28_ENOUTPUT PWM8_ENOUTPUT
 #endif</v>
       </c>
       <c r="I31" s="3" t="str">
@@ -3433,10 +3521,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM9_CHANNEL) &amp;&amp; defined(PWM9_TIMER) &amp;&amp; defined(PWM9))
 #if (PWM9_TIMER==1 || (PWM9_TIMER&gt;=8 &amp; PWM9_TIMER&lt;=11))
-#define PWM9_ENREG APB2ENR
+#define PWM9_ENREG RCC-&gt;APB2ENR
 #define PWM9_APBEN __helper__(RCC_APB2ENR_TIM,PWM9_TIMER, EN)
 #else
-#define PWM9_ENREG APB1ENR
+#define PWM9_ENREG RCC-&gt;APB1ENR
 #define PWM9_APBEN __helper__(RCC_APB1ENR_TIM,PWM9_TIMER, EN)
 #endif
 #define PWM9_TIMREG (__tim__(PWM9_TIMER))
@@ -3453,6 +3541,13 @@
 #else
 #define PWM9_CCMREG CCMR1
 #endif
+#if (PWM9_TIMER==1)
+#define PWM9_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM9_TIMER==8)
+#define PWM9_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM9_ENOUTPUT {}
+#endif
 #define PWM9_CCR __ccr__(PWM9_CHANNEL)
 #define DIO29_TIMER PWM9_TIMER
 #define DIO29_CHANNEL PWM9_CHANNEL
@@ -3464,6 +3559,7 @@
 #define DIO29_MODE PWM9_MODE
 #define DIO29_CCMREG PWM9_CCMREG
 #define DIO29_CCR PWM9_CCR
+#define DIO29_ENOUTPUT PWM9_ENOUTPUT
 #endif</v>
       </c>
       <c r="I32" s="3" t="str">
@@ -3537,10 +3633,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM10_CHANNEL) &amp;&amp; defined(PWM10_TIMER) &amp;&amp; defined(PWM10))
 #if (PWM10_TIMER==1 || (PWM10_TIMER&gt;=8 &amp; PWM10_TIMER&lt;=11))
-#define PWM10_ENREG APB2ENR
+#define PWM10_ENREG RCC-&gt;APB2ENR
 #define PWM10_APBEN __helper__(RCC_APB2ENR_TIM,PWM10_TIMER, EN)
 #else
-#define PWM10_ENREG APB1ENR
+#define PWM10_ENREG RCC-&gt;APB1ENR
 #define PWM10_APBEN __helper__(RCC_APB1ENR_TIM,PWM10_TIMER, EN)
 #endif
 #define PWM10_TIMREG (__tim__(PWM10_TIMER))
@@ -3557,6 +3653,13 @@
 #else
 #define PWM10_CCMREG CCMR1
 #endif
+#if (PWM10_TIMER==1)
+#define PWM10_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM10_TIMER==8)
+#define PWM10_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM10_ENOUTPUT {}
+#endif
 #define PWM10_CCR __ccr__(PWM10_CHANNEL)
 #define DIO30_TIMER PWM10_TIMER
 #define DIO30_CHANNEL PWM10_CHANNEL
@@ -3568,6 +3671,7 @@
 #define DIO30_MODE PWM10_MODE
 #define DIO30_CCMREG PWM10_CCMREG
 #define DIO30_CCR PWM10_CCR
+#define DIO30_ENOUTPUT PWM10_ENOUTPUT
 #endif</v>
       </c>
       <c r="I33" s="3" t="str">
@@ -3641,10 +3745,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM11_CHANNEL) &amp;&amp; defined(PWM11_TIMER) &amp;&amp; defined(PWM11))
 #if (PWM11_TIMER==1 || (PWM11_TIMER&gt;=8 &amp; PWM11_TIMER&lt;=11))
-#define PWM11_ENREG APB2ENR
+#define PWM11_ENREG RCC-&gt;APB2ENR
 #define PWM11_APBEN __helper__(RCC_APB2ENR_TIM,PWM11_TIMER, EN)
 #else
-#define PWM11_ENREG APB1ENR
+#define PWM11_ENREG RCC-&gt;APB1ENR
 #define PWM11_APBEN __helper__(RCC_APB1ENR_TIM,PWM11_TIMER, EN)
 #endif
 #define PWM11_TIMREG (__tim__(PWM11_TIMER))
@@ -3661,6 +3765,13 @@
 #else
 #define PWM11_CCMREG CCMR1
 #endif
+#if (PWM11_TIMER==1)
+#define PWM11_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM11_TIMER==8)
+#define PWM11_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM11_ENOUTPUT {}
+#endif
 #define PWM11_CCR __ccr__(PWM11_CHANNEL)
 #define DIO31_TIMER PWM11_TIMER
 #define DIO31_CHANNEL PWM11_CHANNEL
@@ -3672,6 +3783,7 @@
 #define DIO31_MODE PWM11_MODE
 #define DIO31_CCMREG PWM11_CCMREG
 #define DIO31_CCR PWM11_CCR
+#define DIO31_ENOUTPUT PWM11_ENOUTPUT
 #endif</v>
       </c>
       <c r="I34" s="3" t="str">
@@ -3745,10 +3857,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM12_CHANNEL) &amp;&amp; defined(PWM12_TIMER) &amp;&amp; defined(PWM12))
 #if (PWM12_TIMER==1 || (PWM12_TIMER&gt;=8 &amp; PWM12_TIMER&lt;=11))
-#define PWM12_ENREG APB2ENR
+#define PWM12_ENREG RCC-&gt;APB2ENR
 #define PWM12_APBEN __helper__(RCC_APB2ENR_TIM,PWM12_TIMER, EN)
 #else
-#define PWM12_ENREG APB1ENR
+#define PWM12_ENREG RCC-&gt;APB1ENR
 #define PWM12_APBEN __helper__(RCC_APB1ENR_TIM,PWM12_TIMER, EN)
 #endif
 #define PWM12_TIMREG (__tim__(PWM12_TIMER))
@@ -3765,6 +3877,13 @@
 #else
 #define PWM12_CCMREG CCMR1
 #endif
+#if (PWM12_TIMER==1)
+#define PWM12_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM12_TIMER==8)
+#define PWM12_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM12_ENOUTPUT {}
+#endif
 #define PWM12_CCR __ccr__(PWM12_CHANNEL)
 #define DIO32_TIMER PWM12_TIMER
 #define DIO32_CHANNEL PWM12_CHANNEL
@@ -3776,6 +3895,7 @@
 #define DIO32_MODE PWM12_MODE
 #define DIO32_CCMREG PWM12_CCMREG
 #define DIO32_CCR PWM12_CCR
+#define DIO32_ENOUTPUT PWM12_ENOUTPUT
 #endif</v>
       </c>
       <c r="I35" s="3" t="str">
@@ -3849,10 +3969,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM13_CHANNEL) &amp;&amp; defined(PWM13_TIMER) &amp;&amp; defined(PWM13))
 #if (PWM13_TIMER==1 || (PWM13_TIMER&gt;=8 &amp; PWM13_TIMER&lt;=11))
-#define PWM13_ENREG APB2ENR
+#define PWM13_ENREG RCC-&gt;APB2ENR
 #define PWM13_APBEN __helper__(RCC_APB2ENR_TIM,PWM13_TIMER, EN)
 #else
-#define PWM13_ENREG APB1ENR
+#define PWM13_ENREG RCC-&gt;APB1ENR
 #define PWM13_APBEN __helper__(RCC_APB1ENR_TIM,PWM13_TIMER, EN)
 #endif
 #define PWM13_TIMREG (__tim__(PWM13_TIMER))
@@ -3869,6 +3989,13 @@
 #else
 #define PWM13_CCMREG CCMR1
 #endif
+#if (PWM13_TIMER==1)
+#define PWM13_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM13_TIMER==8)
+#define PWM13_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM13_ENOUTPUT {}
+#endif
 #define PWM13_CCR __ccr__(PWM13_CHANNEL)
 #define DIO33_TIMER PWM13_TIMER
 #define DIO33_CHANNEL PWM13_CHANNEL
@@ -3880,6 +4007,7 @@
 #define DIO33_MODE PWM13_MODE
 #define DIO33_CCMREG PWM13_CCMREG
 #define DIO33_CCR PWM13_CCR
+#define DIO33_ENOUTPUT PWM13_ENOUTPUT
 #endif</v>
       </c>
       <c r="I36" s="3" t="str">
@@ -3953,10 +4081,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM14_CHANNEL) &amp;&amp; defined(PWM14_TIMER) &amp;&amp; defined(PWM14))
 #if (PWM14_TIMER==1 || (PWM14_TIMER&gt;=8 &amp; PWM14_TIMER&lt;=11))
-#define PWM14_ENREG APB2ENR
+#define PWM14_ENREG RCC-&gt;APB2ENR
 #define PWM14_APBEN __helper__(RCC_APB2ENR_TIM,PWM14_TIMER, EN)
 #else
-#define PWM14_ENREG APB1ENR
+#define PWM14_ENREG RCC-&gt;APB1ENR
 #define PWM14_APBEN __helper__(RCC_APB1ENR_TIM,PWM14_TIMER, EN)
 #endif
 #define PWM14_TIMREG (__tim__(PWM14_TIMER))
@@ -3973,6 +4101,13 @@
 #else
 #define PWM14_CCMREG CCMR1
 #endif
+#if (PWM14_TIMER==1)
+#define PWM14_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM14_TIMER==8)
+#define PWM14_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM14_ENOUTPUT {}
+#endif
 #define PWM14_CCR __ccr__(PWM14_CHANNEL)
 #define DIO34_TIMER PWM14_TIMER
 #define DIO34_CHANNEL PWM14_CHANNEL
@@ -3984,6 +4119,7 @@
 #define DIO34_MODE PWM14_MODE
 #define DIO34_CCMREG PWM14_CCMREG
 #define DIO34_CCR PWM14_CCR
+#define DIO34_ENOUTPUT PWM14_ENOUTPUT
 #endif</v>
       </c>
       <c r="I37" s="3" t="str">
@@ -4057,10 +4193,10 @@
         <f t="shared" si="4"/>
         <v>#if (defined(PWM15_CHANNEL) &amp;&amp; defined(PWM15_TIMER) &amp;&amp; defined(PWM15))
 #if (PWM15_TIMER==1 || (PWM15_TIMER&gt;=8 &amp; PWM15_TIMER&lt;=11))
-#define PWM15_ENREG APB2ENR
+#define PWM15_ENREG RCC-&gt;APB2ENR
 #define PWM15_APBEN __helper__(RCC_APB2ENR_TIM,PWM15_TIMER, EN)
 #else
-#define PWM15_ENREG APB1ENR
+#define PWM15_ENREG RCC-&gt;APB1ENR
 #define PWM15_APBEN __helper__(RCC_APB1ENR_TIM,PWM15_TIMER, EN)
 #endif
 #define PWM15_TIMREG (__tim__(PWM15_TIMER))
@@ -4077,6 +4213,13 @@
 #else
 #define PWM15_CCMREG CCMR1
 #endif
+#if (PWM15_TIMER==1)
+#define PWM15_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif (PWM15_TIMER==8)
+#define PWM15_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#else
+#define PWM15_ENOUTPUT {}
+#endif
 #define PWM15_CCR __ccr__(PWM15_CHANNEL)
 #define DIO35_TIMER PWM15_TIMER
 #define DIO35_CHANNEL PWM15_CHANNEL
@@ -4088,6 +4231,7 @@
 #define DIO35_MODE PWM15_MODE
 #define DIO35_CCMREG PWM15_CCMREG
 #define DIO35_CCR PWM15_CCR
+#define DIO35_ENOUTPUT PWM15_ENOUTPUT
 #endif</v>
       </c>
       <c r="I38" s="3" t="str">

--- a/docs/stm32f1_mcumap_gen.xlsx
+++ b/docs/stm32f1_mcumap_gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EED800-E3AB-48FC-82C3-191CC6EDAA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFCE7B-5A10-4E63-8916-2AF48D8A2359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
 #define "&amp;C3&amp;"_CROFF "&amp;C3&amp;"_BIT
 #define "&amp;C3&amp;"_CR CRL
 #else
-#define "&amp;C3&amp;"_CROFF "&amp;C3&amp;"_BIT - 8
+#define "&amp;C3&amp;"_CROFF ("&amp;C3&amp;"_BIT&amp;0x03)
 #define "&amp;C3&amp;"_CR CRH
 #endif
 #define "&amp;B3&amp;" "&amp;A3&amp;"
@@ -889,7 +889,7 @@
 #define STEP0_CROFF STEP0_BIT
 #define STEP0_CR CRL
 #else
-#define STEP0_CROFF STEP0_BIT - 8
+#define STEP0_CROFF (STEP0_BIT&amp;0x03)
 #define STEP0_CR CRH
 #endif
 #define DIO0 0
@@ -905,11 +905,11 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I22" si="1">"#ifdef "&amp;C3&amp;"
-SETBIT("&amp;C3&amp;"_DIRREG, "&amp;C3&amp;"_BIT);
+        <f>"#ifdef "&amp;C3&amp;"
+mcu_config_output("&amp;C3&amp;");
 #endif"</f>
         <v>#ifdef STEP0
-SETBIT(STEP0_DIRREG, STEP0_BIT);
+mcu_config_output(STEP0);
 #endif</v>
       </c>
       <c r="J3" s="3">
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E67" si="2">"#if (defined("&amp;C4&amp;"_PORT) &amp;&amp; defined("&amp;C4&amp;"_BIT))
+        <f t="shared" ref="E4:E67" si="1">"#if (defined("&amp;C4&amp;"_PORT) &amp;&amp; defined("&amp;C4&amp;"_BIT))
 #define "&amp;C4&amp;" "&amp;A4&amp;"
 #define "&amp;C4&amp;"_APB2EN (__rccapb2gpioen__("&amp;C4&amp;"_PORT))
 #define "&amp;C4&amp;"_GPIO (__gpio__("&amp;C4&amp;"_PORT))
@@ -990,7 +990,7 @@
 #define "&amp;C4&amp;"_CROFF "&amp;C4&amp;"_BIT
 #define "&amp;C4&amp;"_CR CRL
 #else
-#define "&amp;C4&amp;"_CROFF "&amp;C4&amp;"_BIT - 8
+#define "&amp;C4&amp;"_CROFF ("&amp;C4&amp;"_BIT&amp;0x03)
 #define "&amp;C4&amp;"_CR CRH
 #endif
 #define "&amp;B4&amp;" "&amp;A4&amp;"
@@ -1009,7 +1009,7 @@
 #define STEP1_CROFF STEP1_BIT
 #define STEP1_CR CRL
 #else
-#define STEP1_CROFF STEP1_BIT - 8
+#define STEP1_CROFF (STEP1_BIT&amp;0x03)
 #define STEP1_CR CRH
 #endif
 #define DIO1 1
@@ -1025,9 +1025,11 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I4:I55" si="2">"#ifdef "&amp;C4&amp;"
+mcu_config_output("&amp;C4&amp;");
+#endif"</f>
         <v>#ifdef STEP1
-SETBIT(STEP1_DIRREG, STEP1_BIT);
+mcu_config_output(STEP1);
 #endif</v>
       </c>
       <c r="J4" s="3">
@@ -1100,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP2_PORT) &amp;&amp; defined(STEP2_BIT))
 #define STEP2 2
 #define STEP2_APB2EN (__rccapb2gpioen__(STEP2_PORT))
@@ -1109,7 +1111,7 @@
 #define STEP2_CROFF STEP2_BIT
 #define STEP2_CR CRL
 #else
-#define STEP2_CROFF STEP2_BIT - 8
+#define STEP2_CROFF (STEP2_BIT&amp;0x03)
 #define STEP2_CR CRH
 #endif
 #define DIO2 2
@@ -1125,9 +1127,9 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP2
-SETBIT(STEP2_DIRREG, STEP2_BIT);
+mcu_config_output(STEP2);
 #endif</v>
       </c>
       <c r="J5" s="3">
@@ -1187,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP3_PORT) &amp;&amp; defined(STEP3_BIT))
 #define STEP3 3
 #define STEP3_APB2EN (__rccapb2gpioen__(STEP3_PORT))
@@ -1196,7 +1198,7 @@
 #define STEP3_CROFF STEP3_BIT
 #define STEP3_CR CRL
 #else
-#define STEP3_CROFF STEP3_BIT - 8
+#define STEP3_CROFF (STEP3_BIT&amp;0x03)
 #define STEP3_CR CRH
 #endif
 #define DIO3 3
@@ -1212,9 +1214,9 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP3
-SETBIT(STEP3_DIRREG, STEP3_BIT);
+mcu_config_output(STEP3);
 #endif</v>
       </c>
       <c r="J6" s="3">
@@ -1274,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP4_PORT) &amp;&amp; defined(STEP4_BIT))
 #define STEP4 4
 #define STEP4_APB2EN (__rccapb2gpioen__(STEP4_PORT))
@@ -1283,7 +1285,7 @@
 #define STEP4_CROFF STEP4_BIT
 #define STEP4_CR CRL
 #else
-#define STEP4_CROFF STEP4_BIT - 8
+#define STEP4_CROFF (STEP4_BIT&amp;0x03)
 #define STEP4_CR CRH
 #endif
 #define DIO4 4
@@ -1299,9 +1301,9 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP4
-SETBIT(STEP4_DIRREG, STEP4_BIT);
+mcu_config_output(STEP4);
 #endif</v>
       </c>
       <c r="J7" s="3">
@@ -1361,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP5_PORT) &amp;&amp; defined(STEP5_BIT))
 #define STEP5 5
 #define STEP5_APB2EN (__rccapb2gpioen__(STEP5_PORT))
@@ -1370,7 +1372,7 @@
 #define STEP5_CROFF STEP5_BIT
 #define STEP5_CR CRL
 #else
-#define STEP5_CROFF STEP5_BIT - 8
+#define STEP5_CROFF (STEP5_BIT&amp;0x03)
 #define STEP5_CR CRH
 #endif
 #define DIO5 5
@@ -1386,9 +1388,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP5
-SETBIT(STEP5_DIRREG, STEP5_BIT);
+mcu_config_output(STEP5);
 #endif</v>
       </c>
       <c r="J8" s="3">
@@ -1448,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP6_PORT) &amp;&amp; defined(STEP6_BIT))
 #define STEP6 6
 #define STEP6_APB2EN (__rccapb2gpioen__(STEP6_PORT))
@@ -1457,7 +1459,7 @@
 #define STEP6_CROFF STEP6_BIT
 #define STEP6_CR CRL
 #else
-#define STEP6_CROFF STEP6_BIT - 8
+#define STEP6_CROFF (STEP6_BIT&amp;0x03)
 #define STEP6_CR CRH
 #endif
 #define DIO6 6
@@ -1472,7 +1474,12 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#ifdef STEP6
+mcu_config_output(STEP6);
+#endif</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1508,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP7_PORT) &amp;&amp; defined(STEP7_BIT))
 #define STEP7 7
 #define STEP7_APB2EN (__rccapb2gpioen__(STEP7_PORT))
@@ -1517,7 +1524,7 @@
 #define STEP7_CROFF STEP7_BIT
 #define STEP7_CR CRL
 #else
-#define STEP7_CROFF STEP7_BIT - 8
+#define STEP7_CROFF (STEP7_BIT&amp;0x03)
 #define STEP7_CR CRH
 #endif
 #define DIO7 7
@@ -1532,7 +1539,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#ifdef STEP7
+mcu_config_output(STEP7);
+#endif</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1568,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP0_EN_PORT) &amp;&amp; defined(STEP0_EN_BIT))
 #define STEP0_EN 8
 #define STEP0_EN_APB2EN (__rccapb2gpioen__(STEP0_EN_PORT))
@@ -1577,7 +1589,7 @@
 #define STEP0_EN_CROFF STEP0_EN_BIT
 #define STEP0_EN_CR CRL
 #else
-#define STEP0_EN_CROFF STEP0_EN_BIT - 8
+#define STEP0_EN_CROFF (STEP0_EN_BIT&amp;0x03)
 #define STEP0_EN_CR CRH
 #endif
 #define DIO8 8
@@ -1593,9 +1605,9 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP0_EN
-SETBIT(STEP0_EN_DIRREG, STEP0_EN_BIT);
+mcu_config_output(STEP0_EN);
 #endif</v>
       </c>
       <c r="J11" s="3">
@@ -1655,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP1_EN_PORT) &amp;&amp; defined(STEP1_EN_BIT))
 #define STEP1_EN 9
 #define STEP1_EN_APB2EN (__rccapb2gpioen__(STEP1_EN_PORT))
@@ -1664,7 +1676,7 @@
 #define STEP1_EN_CROFF STEP1_EN_BIT
 #define STEP1_EN_CR CRL
 #else
-#define STEP1_EN_CROFF STEP1_EN_BIT - 8
+#define STEP1_EN_CROFF (STEP1_EN_BIT&amp;0x03)
 #define STEP1_EN_CR CRH
 #endif
 #define DIO9 9
@@ -1680,9 +1692,9 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP1_EN
-SETBIT(STEP1_EN_DIRREG, STEP1_EN_BIT);
+mcu_config_output(STEP1_EN);
 #endif</v>
       </c>
       <c r="J12" s="3">
@@ -1742,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP2_EN_PORT) &amp;&amp; defined(STEP2_EN_BIT))
 #define STEP2_EN 10
 #define STEP2_EN_APB2EN (__rccapb2gpioen__(STEP2_EN_PORT))
@@ -1751,7 +1763,7 @@
 #define STEP2_EN_CROFF STEP2_EN_BIT
 #define STEP2_EN_CR CRL
 #else
-#define STEP2_EN_CROFF STEP2_EN_BIT - 8
+#define STEP2_EN_CROFF (STEP2_EN_BIT&amp;0x03)
 #define STEP2_EN_CR CRH
 #endif
 #define DIO10 10
@@ -1767,9 +1779,9 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP2_EN
-SETBIT(STEP2_EN_DIRREG, STEP2_EN_BIT);
+mcu_config_output(STEP2_EN);
 #endif</v>
       </c>
       <c r="J13" s="3"/>
@@ -1807,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP3_EN_PORT) &amp;&amp; defined(STEP3_EN_BIT))
 #define STEP3_EN 11
 #define STEP3_EN_APB2EN (__rccapb2gpioen__(STEP3_EN_PORT))
@@ -1816,7 +1828,7 @@
 #define STEP3_EN_CROFF STEP3_EN_BIT
 #define STEP3_EN_CR CRL
 #else
-#define STEP3_EN_CROFF STEP3_EN_BIT - 8
+#define STEP3_EN_CROFF (STEP3_EN_BIT&amp;0x03)
 #define STEP3_EN_CR CRH
 #endif
 #define DIO11 11
@@ -1832,9 +1844,9 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP3_EN
-SETBIT(STEP3_EN_DIRREG, STEP3_EN_BIT);
+mcu_config_output(STEP3_EN);
 #endif</v>
       </c>
       <c r="J14" s="3"/>
@@ -1872,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP4_EN_PORT) &amp;&amp; defined(STEP4_EN_BIT))
 #define STEP4_EN 12
 #define STEP4_EN_APB2EN (__rccapb2gpioen__(STEP4_EN_PORT))
@@ -1881,7 +1893,7 @@
 #define STEP4_EN_CROFF STEP4_EN_BIT
 #define STEP4_EN_CR CRL
 #else
-#define STEP4_EN_CROFF STEP4_EN_BIT - 8
+#define STEP4_EN_CROFF (STEP4_EN_BIT&amp;0x03)
 #define STEP4_EN_CR CRH
 #endif
 #define DIO12 12
@@ -1897,9 +1909,9 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP4_EN
-SETBIT(STEP4_EN_DIRREG, STEP4_EN_BIT);
+mcu_config_output(STEP4_EN);
 #endif</v>
       </c>
       <c r="J15" s="3"/>
@@ -1937,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(STEP5_EN_PORT) &amp;&amp; defined(STEP5_EN_BIT))
 #define STEP5_EN 13
 #define STEP5_EN_APB2EN (__rccapb2gpioen__(STEP5_EN_PORT))
@@ -1946,7 +1958,7 @@
 #define STEP5_EN_CROFF STEP5_EN_BIT
 #define STEP5_EN_CR CRL
 #else
-#define STEP5_EN_CROFF STEP5_EN_BIT - 8
+#define STEP5_EN_CROFF (STEP5_EN_BIT&amp;0x03)
 #define STEP5_EN_CR CRH
 #endif
 #define DIO13 13
@@ -1962,9 +1974,9 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef STEP5_EN
-SETBIT(STEP5_EN_DIRREG, STEP5_EN_BIT);
+mcu_config_output(STEP5_EN);
 #endif</v>
       </c>
       <c r="J16" s="3"/>
@@ -2002,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DIR0_PORT) &amp;&amp; defined(DIR0_BIT))
 #define DIR0 14
 #define DIR0_APB2EN (__rccapb2gpioen__(DIR0_PORT))
@@ -2011,7 +2023,7 @@
 #define DIR0_CROFF DIR0_BIT
 #define DIR0_CR CRL
 #else
-#define DIR0_CROFF DIR0_BIT - 8
+#define DIR0_CROFF (DIR0_BIT&amp;0x03)
 #define DIR0_CR CRH
 #endif
 #define DIO14 14
@@ -2027,9 +2039,9 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DIR0
-SETBIT(DIR0_DIRREG, DIR0_BIT);
+mcu_config_output(DIR0);
 #endif</v>
       </c>
       <c r="J17" s="3"/>
@@ -2067,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DIR1_PORT) &amp;&amp; defined(DIR1_BIT))
 #define DIR1 15
 #define DIR1_APB2EN (__rccapb2gpioen__(DIR1_PORT))
@@ -2076,7 +2088,7 @@
 #define DIR1_CROFF DIR1_BIT
 #define DIR1_CR CRL
 #else
-#define DIR1_CROFF DIR1_BIT - 8
+#define DIR1_CROFF (DIR1_BIT&amp;0x03)
 #define DIR1_CR CRH
 #endif
 #define DIO15 15
@@ -2092,9 +2104,9 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DIR1
-SETBIT(DIR1_DIRREG, DIR1_BIT);
+mcu_config_output(DIR1);
 #endif</v>
       </c>
       <c r="J18" s="3"/>
@@ -2132,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DIR2_PORT) &amp;&amp; defined(DIR2_BIT))
 #define DIR2 16
 #define DIR2_APB2EN (__rccapb2gpioen__(DIR2_PORT))
@@ -2141,7 +2153,7 @@
 #define DIR2_CROFF DIR2_BIT
 #define DIR2_CR CRL
 #else
-#define DIR2_CROFF DIR2_BIT - 8
+#define DIR2_CROFF (DIR2_BIT&amp;0x03)
 #define DIR2_CR CRH
 #endif
 #define DIO16 16
@@ -2157,9 +2169,9 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DIR2
-SETBIT(DIR2_DIRREG, DIR2_BIT);
+mcu_config_output(DIR2);
 #endif</v>
       </c>
       <c r="J19" s="3"/>
@@ -2197,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DIR3_PORT) &amp;&amp; defined(DIR3_BIT))
 #define DIR3 17
 #define DIR3_APB2EN (__rccapb2gpioen__(DIR3_PORT))
@@ -2206,7 +2218,7 @@
 #define DIR3_CROFF DIR3_BIT
 #define DIR3_CR CRL
 #else
-#define DIR3_CROFF DIR3_BIT - 8
+#define DIR3_CROFF (DIR3_BIT&amp;0x03)
 #define DIR3_CR CRH
 #endif
 #define DIO17 17
@@ -2222,9 +2234,9 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DIR3
-SETBIT(DIR3_DIRREG, DIR3_BIT);
+mcu_config_output(DIR3);
 #endif</v>
       </c>
       <c r="J20" s="3"/>
@@ -2262,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DIR4_PORT) &amp;&amp; defined(DIR4_BIT))
 #define DIR4 18
 #define DIR4_APB2EN (__rccapb2gpioen__(DIR4_PORT))
@@ -2271,7 +2283,7 @@
 #define DIR4_CROFF DIR4_BIT
 #define DIR4_CR CRL
 #else
-#define DIR4_CROFF DIR4_BIT - 8
+#define DIR4_CROFF (DIR4_BIT&amp;0x03)
 #define DIR4_CR CRH
 #endif
 #define DIO18 18
@@ -2287,9 +2299,9 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DIR4
-SETBIT(DIR4_DIRREG, DIR4_BIT);
+mcu_config_output(DIR4);
 #endif</v>
       </c>
       <c r="J21" s="3"/>
@@ -2327,7 +2339,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DIR5_PORT) &amp;&amp; defined(DIR5_BIT))
 #define DIR5 19
 #define DIR5_APB2EN (__rccapb2gpioen__(DIR5_PORT))
@@ -2336,7 +2348,7 @@
 #define DIR5_CROFF DIR5_BIT
 #define DIR5_CR CRL
 #else
-#define DIR5_CROFF DIR5_BIT - 8
+#define DIR5_CROFF (DIR5_BIT&amp;0x03)
 #define DIR5_CR CRH
 #endif
 #define DIO19 19
@@ -2354,9 +2366,9 @@
         <v>108</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DIR5
-SETBIT(DIR5_DIRREG, DIR5_BIT);
+mcu_config_output(DIR5);
 #endif</v>
       </c>
       <c r="J22" s="3"/>
@@ -2394,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM0_PORT) &amp;&amp; defined(PWM0_BIT))
 #define PWM0 20
 #define PWM0_APB2EN (__rccapb2gpioen__(PWM0_PORT))
@@ -2403,7 +2415,7 @@
 #define PWM0_CROFF PWM0_BIT
 #define PWM0_CR CRL
 #else
-#define PWM0_CROFF PWM0_BIT - 8
+#define PWM0_CROFF (PWM0_BIT&amp;0x03)
 #define PWM0_CR CRH
 #endif
 #define DIO20 20
@@ -2505,16 +2517,10 @@
       </c>
       <c r="I23" s="3" t="str">
         <f>"#ifdef "&amp;C23&amp;"
-SETBIT("&amp;C23&amp;"_DIRREG, "&amp;C23&amp;"_BIT);
-"&amp;C23&amp;"_TMRAREG = "&amp;C23&amp;"_MODE;
-"&amp;C23&amp;"_TMRBREG = "&amp;C23&amp;"_PRESCALLER;
-"&amp;C23&amp;"_OCRREG = 0;
+mcu_config_pwm("&amp;C23&amp;");
 #endif"</f>
         <v>#ifdef PWM0
-SETBIT(PWM0_DIRREG, PWM0_BIT);
-PWM0_TMRAREG = PWM0_MODE;
-PWM0_TMRBREG = PWM0_PRESCALLER;
-PWM0_OCRREG = 0;
+mcu_config_pwm(PWM0);
 #endif</v>
       </c>
       <c r="J23" s="3"/>
@@ -2552,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM1_PORT) &amp;&amp; defined(PWM1_BIT))
 #define PWM1 21
 #define PWM1_APB2EN (__rccapb2gpioen__(PWM1_PORT))
@@ -2561,7 +2567,7 @@
 #define PWM1_CROFF PWM1_BIT
 #define PWM1_CR CRL
 #else
-#define PWM1_CROFF PWM1_BIT - 8
+#define PWM1_CROFF (PWM1_BIT&amp;0x03)
 #define PWM1_CR CRH
 #endif
 #define DIO21 21
@@ -2663,16 +2669,10 @@
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" ref="I24:I38" si="5">"#ifdef "&amp;C24&amp;"
-SETBIT("&amp;C24&amp;"_DIRREG, "&amp;C24&amp;"_BIT);
-"&amp;C24&amp;"_TMRAREG = "&amp;C24&amp;"_MODE;
-"&amp;C24&amp;"_TMRBREG = "&amp;C24&amp;"_PRESCALLER;
-"&amp;C24&amp;"_OCRREG = 0;
+mcu_config_pwm("&amp;C24&amp;");
 #endif"</f>
         <v>#ifdef PWM1
-SETBIT(PWM1_DIRREG, PWM1_BIT);
-PWM1_TMRAREG = PWM1_MODE;
-PWM1_TMRBREG = PWM1_PRESCALLER;
-PWM1_OCRREG = 0;
+mcu_config_pwm(PWM1);
 #endif</v>
       </c>
       <c r="J24" s="3"/>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM2_PORT) &amp;&amp; defined(PWM2_BIT))
 #define PWM2 22
 #define PWM2_APB2EN (__rccapb2gpioen__(PWM2_PORT))
@@ -2719,7 +2719,7 @@
 #define PWM2_CROFF PWM2_BIT
 #define PWM2_CR CRL
 #else
-#define PWM2_CROFF PWM2_BIT - 8
+#define PWM2_CROFF (PWM2_BIT&amp;0x03)
 #define PWM2_CR CRH
 #endif
 #define DIO22 22
@@ -2781,10 +2781,7 @@
       <c r="I25" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM2
-SETBIT(PWM2_DIRREG, PWM2_BIT);
-PWM2_TMRAREG = PWM2_MODE;
-PWM2_TMRBREG = PWM2_PRESCALLER;
-PWM2_OCRREG = 0;
+mcu_config_pwm(PWM2);
 #endif</v>
       </c>
       <c r="J25" s="3"/>
@@ -2822,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM3_PORT) &amp;&amp; defined(PWM3_BIT))
 #define PWM3 23
 #define PWM3_APB2EN (__rccapb2gpioen__(PWM3_PORT))
@@ -2831,7 +2828,7 @@
 #define PWM3_CROFF PWM3_BIT
 #define PWM3_CR CRL
 #else
-#define PWM3_CROFF PWM3_BIT - 8
+#define PWM3_CROFF (PWM3_BIT&amp;0x03)
 #define PWM3_CR CRH
 #endif
 #define DIO23 23
@@ -2893,10 +2890,7 @@
       <c r="I26" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM3
-SETBIT(PWM3_DIRREG, PWM3_BIT);
-PWM3_TMRAREG = PWM3_MODE;
-PWM3_TMRBREG = PWM3_PRESCALLER;
-PWM3_OCRREG = 0;
+mcu_config_pwm(PWM3);
 #endif</v>
       </c>
       <c r="J26" s="3"/>
@@ -2934,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM4_PORT) &amp;&amp; defined(PWM4_BIT))
 #define PWM4 24
 #define PWM4_APB2EN (__rccapb2gpioen__(PWM4_PORT))
@@ -2943,7 +2937,7 @@
 #define PWM4_CROFF PWM4_BIT
 #define PWM4_CR CRL
 #else
-#define PWM4_CROFF PWM4_BIT - 8
+#define PWM4_CROFF (PWM4_BIT&amp;0x03)
 #define PWM4_CR CRH
 #endif
 #define DIO24 24
@@ -3005,10 +2999,7 @@
       <c r="I27" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM4
-SETBIT(PWM4_DIRREG, PWM4_BIT);
-PWM4_TMRAREG = PWM4_MODE;
-PWM4_TMRBREG = PWM4_PRESCALLER;
-PWM4_OCRREG = 0;
+mcu_config_pwm(PWM4);
 #endif</v>
       </c>
       <c r="J27" s="3"/>
@@ -3046,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM5_PORT) &amp;&amp; defined(PWM5_BIT))
 #define PWM5 25
 #define PWM5_APB2EN (__rccapb2gpioen__(PWM5_PORT))
@@ -3055,7 +3046,7 @@
 #define PWM5_CROFF PWM5_BIT
 #define PWM5_CR CRL
 #else
-#define PWM5_CROFF PWM5_BIT - 8
+#define PWM5_CROFF (PWM5_BIT&amp;0x03)
 #define PWM5_CR CRH
 #endif
 #define DIO25 25
@@ -3117,10 +3108,7 @@
       <c r="I28" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM5
-SETBIT(PWM5_DIRREG, PWM5_BIT);
-PWM5_TMRAREG = PWM5_MODE;
-PWM5_TMRBREG = PWM5_PRESCALLER;
-PWM5_OCRREG = 0;
+mcu_config_pwm(PWM5);
 #endif</v>
       </c>
       <c r="J28" s="3"/>
@@ -3158,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM6_PORT) &amp;&amp; defined(PWM6_BIT))
 #define PWM6 26
 #define PWM6_APB2EN (__rccapb2gpioen__(PWM6_PORT))
@@ -3167,7 +3155,7 @@
 #define PWM6_CROFF PWM6_BIT
 #define PWM6_CR CRL
 #else
-#define PWM6_CROFF PWM6_BIT - 8
+#define PWM6_CROFF (PWM6_BIT&amp;0x03)
 #define PWM6_CR CRH
 #endif
 #define DIO26 26
@@ -3229,10 +3217,7 @@
       <c r="I29" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM6
-SETBIT(PWM6_DIRREG, PWM6_BIT);
-PWM6_TMRAREG = PWM6_MODE;
-PWM6_TMRBREG = PWM6_PRESCALLER;
-PWM6_OCRREG = 0;
+mcu_config_pwm(PWM6);
 #endif</v>
       </c>
       <c r="J29" s="3"/>
@@ -3270,7 +3255,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM7_PORT) &amp;&amp; defined(PWM7_BIT))
 #define PWM7 27
 #define PWM7_APB2EN (__rccapb2gpioen__(PWM7_PORT))
@@ -3279,7 +3264,7 @@
 #define PWM7_CROFF PWM7_BIT
 #define PWM7_CR CRL
 #else
-#define PWM7_CROFF PWM7_BIT - 8
+#define PWM7_CROFF (PWM7_BIT&amp;0x03)
 #define PWM7_CR CRH
 #endif
 #define DIO27 27
@@ -3341,10 +3326,7 @@
       <c r="I30" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM7
-SETBIT(PWM7_DIRREG, PWM7_BIT);
-PWM7_TMRAREG = PWM7_MODE;
-PWM7_TMRBREG = PWM7_PRESCALLER;
-PWM7_OCRREG = 0;
+mcu_config_pwm(PWM7);
 #endif</v>
       </c>
       <c r="J30" s="3"/>
@@ -3382,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM8_PORT) &amp;&amp; defined(PWM8_BIT))
 #define PWM8 28
 #define PWM8_APB2EN (__rccapb2gpioen__(PWM8_PORT))
@@ -3391,7 +3373,7 @@
 #define PWM8_CROFF PWM8_BIT
 #define PWM8_CR CRL
 #else
-#define PWM8_CROFF PWM8_BIT - 8
+#define PWM8_CROFF (PWM8_BIT&amp;0x03)
 #define PWM8_CR CRH
 #endif
 #define DIO28 28
@@ -3453,10 +3435,7 @@
       <c r="I31" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM8
-SETBIT(PWM8_DIRREG, PWM8_BIT);
-PWM8_TMRAREG = PWM8_MODE;
-PWM8_TMRBREG = PWM8_PRESCALLER;
-PWM8_OCRREG = 0;
+mcu_config_pwm(PWM8);
 #endif</v>
       </c>
       <c r="J31" s="3"/>
@@ -3494,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM9_PORT) &amp;&amp; defined(PWM9_BIT))
 #define PWM9 29
 #define PWM9_APB2EN (__rccapb2gpioen__(PWM9_PORT))
@@ -3503,7 +3482,7 @@
 #define PWM9_CROFF PWM9_BIT
 #define PWM9_CR CRL
 #else
-#define PWM9_CROFF PWM9_BIT - 8
+#define PWM9_CROFF (PWM9_BIT&amp;0x03)
 #define PWM9_CR CRH
 #endif
 #define DIO29 29
@@ -3565,10 +3544,7 @@
       <c r="I32" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM9
-SETBIT(PWM9_DIRREG, PWM9_BIT);
-PWM9_TMRAREG = PWM9_MODE;
-PWM9_TMRBREG = PWM9_PRESCALLER;
-PWM9_OCRREG = 0;
+mcu_config_pwm(PWM9);
 #endif</v>
       </c>
       <c r="J32" s="3"/>
@@ -3606,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM10_PORT) &amp;&amp; defined(PWM10_BIT))
 #define PWM10 30
 #define PWM10_APB2EN (__rccapb2gpioen__(PWM10_PORT))
@@ -3615,7 +3591,7 @@
 #define PWM10_CROFF PWM10_BIT
 #define PWM10_CR CRL
 #else
-#define PWM10_CROFF PWM10_BIT - 8
+#define PWM10_CROFF (PWM10_BIT&amp;0x03)
 #define PWM10_CR CRH
 #endif
 #define DIO30 30
@@ -3677,10 +3653,7 @@
       <c r="I33" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM10
-SETBIT(PWM10_DIRREG, PWM10_BIT);
-PWM10_TMRAREG = PWM10_MODE;
-PWM10_TMRBREG = PWM10_PRESCALLER;
-PWM10_OCRREG = 0;
+mcu_config_pwm(PWM10);
 #endif</v>
       </c>
       <c r="J33" s="3"/>
@@ -3718,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM11_PORT) &amp;&amp; defined(PWM11_BIT))
 #define PWM11 31
 #define PWM11_APB2EN (__rccapb2gpioen__(PWM11_PORT))
@@ -3727,7 +3700,7 @@
 #define PWM11_CROFF PWM11_BIT
 #define PWM11_CR CRL
 #else
-#define PWM11_CROFF PWM11_BIT - 8
+#define PWM11_CROFF (PWM11_BIT&amp;0x03)
 #define PWM11_CR CRH
 #endif
 #define DIO31 31
@@ -3789,10 +3762,7 @@
       <c r="I34" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM11
-SETBIT(PWM11_DIRREG, PWM11_BIT);
-PWM11_TMRAREG = PWM11_MODE;
-PWM11_TMRBREG = PWM11_PRESCALLER;
-PWM11_OCRREG = 0;
+mcu_config_pwm(PWM11);
 #endif</v>
       </c>
       <c r="J34" s="3"/>
@@ -3830,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM12_PORT) &amp;&amp; defined(PWM12_BIT))
 #define PWM12 32
 #define PWM12_APB2EN (__rccapb2gpioen__(PWM12_PORT))
@@ -3839,7 +3809,7 @@
 #define PWM12_CROFF PWM12_BIT
 #define PWM12_CR CRL
 #else
-#define PWM12_CROFF PWM12_BIT - 8
+#define PWM12_CROFF (PWM12_BIT&amp;0x03)
 #define PWM12_CR CRH
 #endif
 #define DIO32 32
@@ -3901,10 +3871,7 @@
       <c r="I35" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM12
-SETBIT(PWM12_DIRREG, PWM12_BIT);
-PWM12_TMRAREG = PWM12_MODE;
-PWM12_TMRBREG = PWM12_PRESCALLER;
-PWM12_OCRREG = 0;
+mcu_config_pwm(PWM12);
 #endif</v>
       </c>
       <c r="J35" s="3"/>
@@ -3942,7 +3909,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM13_PORT) &amp;&amp; defined(PWM13_BIT))
 #define PWM13 33
 #define PWM13_APB2EN (__rccapb2gpioen__(PWM13_PORT))
@@ -3951,7 +3918,7 @@
 #define PWM13_CROFF PWM13_BIT
 #define PWM13_CR CRL
 #else
-#define PWM13_CROFF PWM13_BIT - 8
+#define PWM13_CROFF (PWM13_BIT&amp;0x03)
 #define PWM13_CR CRH
 #endif
 #define DIO33 33
@@ -4013,10 +3980,7 @@
       <c r="I36" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM13
-SETBIT(PWM13_DIRREG, PWM13_BIT);
-PWM13_TMRAREG = PWM13_MODE;
-PWM13_TMRBREG = PWM13_PRESCALLER;
-PWM13_OCRREG = 0;
+mcu_config_pwm(PWM13);
 #endif</v>
       </c>
       <c r="J36" s="3"/>
@@ -4054,7 +4018,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM14_PORT) &amp;&amp; defined(PWM14_BIT))
 #define PWM14 34
 #define PWM14_APB2EN (__rccapb2gpioen__(PWM14_PORT))
@@ -4063,7 +4027,7 @@
 #define PWM14_CROFF PWM14_BIT
 #define PWM14_CR CRL
 #else
-#define PWM14_CROFF PWM14_BIT - 8
+#define PWM14_CROFF (PWM14_BIT&amp;0x03)
 #define PWM14_CR CRH
 #endif
 #define DIO34 34
@@ -4125,10 +4089,7 @@
       <c r="I37" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM14
-SETBIT(PWM14_DIRREG, PWM14_BIT);
-PWM14_TMRAREG = PWM14_MODE;
-PWM14_TMRBREG = PWM14_PRESCALLER;
-PWM14_OCRREG = 0;
+mcu_config_pwm(PWM14);
 #endif</v>
       </c>
       <c r="J37" s="3"/>
@@ -4166,7 +4127,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PWM15_PORT) &amp;&amp; defined(PWM15_BIT))
 #define PWM15 35
 #define PWM15_APB2EN (__rccapb2gpioen__(PWM15_PORT))
@@ -4175,7 +4136,7 @@
 #define PWM15_CROFF PWM15_BIT
 #define PWM15_CR CRL
 #else
-#define PWM15_CROFF PWM15_BIT - 8
+#define PWM15_CROFF (PWM15_BIT&amp;0x03)
 #define PWM15_CR CRH
 #endif
 #define DIO35 35
@@ -4237,10 +4198,7 @@
       <c r="I38" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM15
-SETBIT(PWM15_DIRREG, PWM15_BIT);
-PWM15_TMRAREG = PWM15_MODE;
-PWM15_TMRBREG = PWM15_PRESCALLER;
-PWM15_OCRREG = 0;
+mcu_config_pwm(PWM15);
 #endif</v>
       </c>
       <c r="J38" s="3"/>
@@ -4276,7 +4234,7 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(TX_PORT) &amp;&amp; defined(TX_BIT))
 #define TX 36
 #define TX_APB2EN (__rccapb2gpioen__(TX_PORT))
@@ -4285,7 +4243,7 @@
 #define TX_CROFF TX_BIT
 #define TX_CR CRL
 #else
-#define TX_CROFF TX_BIT - 8
+#define TX_CROFF (TX_BIT&amp;0x03)
 #define TX_CR CRH
 #endif
 #define DIO36 36
@@ -4300,14 +4258,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="3" t="str">
-        <f t="shared" ref="I39:I55" si="6">"#ifdef "&amp;C39&amp;"
-SETBIT("&amp;C39&amp;"_DIRREG, "&amp;C39&amp;"_BIT);
-#endif"</f>
-        <v>#ifdef TX
-SETBIT(TX_DIRREG, TX_BIT);
-#endif</v>
-      </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -4343,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT0_PORT) &amp;&amp; defined(DOUT0_BIT))
 #define DOUT0 37
 #define DOUT0_APB2EN (__rccapb2gpioen__(DOUT0_PORT))
@@ -4352,7 +4303,7 @@
 #define DOUT0_CROFF DOUT0_BIT
 #define DOUT0_CR CRL
 #else
-#define DOUT0_CROFF DOUT0_BIT - 8
+#define DOUT0_CROFF (DOUT0_BIT&amp;0x03)
 #define DOUT0_CR CRH
 #endif
 #define DIO37 37
@@ -4368,9 +4319,9 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT0
-SETBIT(DOUT0_DIRREG, DOUT0_BIT);
+mcu_config_output(DOUT0);
 #endif</v>
       </c>
       <c r="J40" s="3"/>
@@ -4408,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT1_PORT) &amp;&amp; defined(DOUT1_BIT))
 #define DOUT1 38
 #define DOUT1_APB2EN (__rccapb2gpioen__(DOUT1_PORT))
@@ -4417,7 +4368,7 @@
 #define DOUT1_CROFF DOUT1_BIT
 #define DOUT1_CR CRL
 #else
-#define DOUT1_CROFF DOUT1_BIT - 8
+#define DOUT1_CROFF (DOUT1_BIT&amp;0x03)
 #define DOUT1_CR CRH
 #endif
 #define DIO38 38
@@ -4433,9 +4384,9 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT1
-SETBIT(DOUT1_DIRREG, DOUT1_BIT);
+mcu_config_output(DOUT1);
 #endif</v>
       </c>
       <c r="J41" s="3"/>
@@ -4473,7 +4424,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT2_PORT) &amp;&amp; defined(DOUT2_BIT))
 #define DOUT2 39
 #define DOUT2_APB2EN (__rccapb2gpioen__(DOUT2_PORT))
@@ -4482,7 +4433,7 @@
 #define DOUT2_CROFF DOUT2_BIT
 #define DOUT2_CR CRL
 #else
-#define DOUT2_CROFF DOUT2_BIT - 8
+#define DOUT2_CROFF (DOUT2_BIT&amp;0x03)
 #define DOUT2_CR CRH
 #endif
 #define DIO39 39
@@ -4498,9 +4449,9 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT2
-SETBIT(DOUT2_DIRREG, DOUT2_BIT);
+mcu_config_output(DOUT2);
 #endif</v>
       </c>
       <c r="J42" s="3"/>
@@ -4538,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT3_PORT) &amp;&amp; defined(DOUT3_BIT))
 #define DOUT3 40
 #define DOUT3_APB2EN (__rccapb2gpioen__(DOUT3_PORT))
@@ -4547,7 +4498,7 @@
 #define DOUT3_CROFF DOUT3_BIT
 #define DOUT3_CR CRL
 #else
-#define DOUT3_CROFF DOUT3_BIT - 8
+#define DOUT3_CROFF (DOUT3_BIT&amp;0x03)
 #define DOUT3_CR CRH
 #endif
 #define DIO40 40
@@ -4563,9 +4514,9 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT3
-SETBIT(DOUT3_DIRREG, DOUT3_BIT);
+mcu_config_output(DOUT3);
 #endif</v>
       </c>
       <c r="J43" s="3"/>
@@ -4603,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT4_PORT) &amp;&amp; defined(DOUT4_BIT))
 #define DOUT4 41
 #define DOUT4_APB2EN (__rccapb2gpioen__(DOUT4_PORT))
@@ -4612,7 +4563,7 @@
 #define DOUT4_CROFF DOUT4_BIT
 #define DOUT4_CR CRL
 #else
-#define DOUT4_CROFF DOUT4_BIT - 8
+#define DOUT4_CROFF (DOUT4_BIT&amp;0x03)
 #define DOUT4_CR CRH
 #endif
 #define DIO41 41
@@ -4628,9 +4579,9 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT4
-SETBIT(DOUT4_DIRREG, DOUT4_BIT);
+mcu_config_output(DOUT4);
 #endif</v>
       </c>
       <c r="J44" s="3"/>
@@ -4668,7 +4619,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT5_PORT) &amp;&amp; defined(DOUT5_BIT))
 #define DOUT5 42
 #define DOUT5_APB2EN (__rccapb2gpioen__(DOUT5_PORT))
@@ -4677,7 +4628,7 @@
 #define DOUT5_CROFF DOUT5_BIT
 #define DOUT5_CR CRL
 #else
-#define DOUT5_CROFF DOUT5_BIT - 8
+#define DOUT5_CROFF (DOUT5_BIT&amp;0x03)
 #define DOUT5_CR CRH
 #endif
 #define DIO42 42
@@ -4693,9 +4644,9 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT5
-SETBIT(DOUT5_DIRREG, DOUT5_BIT);
+mcu_config_output(DOUT5);
 #endif</v>
       </c>
       <c r="J45" s="3"/>
@@ -4733,7 +4684,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT6_PORT) &amp;&amp; defined(DOUT6_BIT))
 #define DOUT6 43
 #define DOUT6_APB2EN (__rccapb2gpioen__(DOUT6_PORT))
@@ -4742,7 +4693,7 @@
 #define DOUT6_CROFF DOUT6_BIT
 #define DOUT6_CR CRL
 #else
-#define DOUT6_CROFF DOUT6_BIT - 8
+#define DOUT6_CROFF (DOUT6_BIT&amp;0x03)
 #define DOUT6_CR CRH
 #endif
 #define DIO43 43
@@ -4758,9 +4709,9 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT6
-SETBIT(DOUT6_DIRREG, DOUT6_BIT);
+mcu_config_output(DOUT6);
 #endif</v>
       </c>
       <c r="J46" s="3"/>
@@ -4798,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT7_PORT) &amp;&amp; defined(DOUT7_BIT))
 #define DOUT7 44
 #define DOUT7_APB2EN (__rccapb2gpioen__(DOUT7_PORT))
@@ -4807,7 +4758,7 @@
 #define DOUT7_CROFF DOUT7_BIT
 #define DOUT7_CR CRL
 #else
-#define DOUT7_CROFF DOUT7_BIT - 8
+#define DOUT7_CROFF (DOUT7_BIT&amp;0x03)
 #define DOUT7_CR CRH
 #endif
 #define DIO44 44
@@ -4823,9 +4774,9 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT7
-SETBIT(DOUT7_DIRREG, DOUT7_BIT);
+mcu_config_output(DOUT7);
 #endif</v>
       </c>
       <c r="J47" s="3"/>
@@ -4863,7 +4814,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT8_PORT) &amp;&amp; defined(DOUT8_BIT))
 #define DOUT8 45
 #define DOUT8_APB2EN (__rccapb2gpioen__(DOUT8_PORT))
@@ -4872,7 +4823,7 @@
 #define DOUT8_CROFF DOUT8_BIT
 #define DOUT8_CR CRL
 #else
-#define DOUT8_CROFF DOUT8_BIT - 8
+#define DOUT8_CROFF (DOUT8_BIT&amp;0x03)
 #define DOUT8_CR CRH
 #endif
 #define DIO45 45
@@ -4888,9 +4839,9 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT8
-SETBIT(DOUT8_DIRREG, DOUT8_BIT);
+mcu_config_output(DOUT8);
 #endif</v>
       </c>
       <c r="J48" s="3"/>
@@ -4928,7 +4879,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT9_PORT) &amp;&amp; defined(DOUT9_BIT))
 #define DOUT9 46
 #define DOUT9_APB2EN (__rccapb2gpioen__(DOUT9_PORT))
@@ -4937,7 +4888,7 @@
 #define DOUT9_CROFF DOUT9_BIT
 #define DOUT9_CR CRL
 #else
-#define DOUT9_CROFF DOUT9_BIT - 8
+#define DOUT9_CROFF (DOUT9_BIT&amp;0x03)
 #define DOUT9_CR CRH
 #endif
 #define DIO46 46
@@ -4953,9 +4904,9 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT9
-SETBIT(DOUT9_DIRREG, DOUT9_BIT);
+mcu_config_output(DOUT9);
 #endif</v>
       </c>
       <c r="J49" s="3"/>
@@ -4993,7 +4944,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT10_PORT) &amp;&amp; defined(DOUT10_BIT))
 #define DOUT10 47
 #define DOUT10_APB2EN (__rccapb2gpioen__(DOUT10_PORT))
@@ -5002,7 +4953,7 @@
 #define DOUT10_CROFF DOUT10_BIT
 #define DOUT10_CR CRL
 #else
-#define DOUT10_CROFF DOUT10_BIT - 8
+#define DOUT10_CROFF (DOUT10_BIT&amp;0x03)
 #define DOUT10_CR CRH
 #endif
 #define DIO47 47
@@ -5018,9 +4969,9 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT10
-SETBIT(DOUT10_DIRREG, DOUT10_BIT);
+mcu_config_output(DOUT10);
 #endif</v>
       </c>
       <c r="J50" s="3"/>
@@ -5058,7 +5009,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT11_PORT) &amp;&amp; defined(DOUT11_BIT))
 #define DOUT11 48
 #define DOUT11_APB2EN (__rccapb2gpioen__(DOUT11_PORT))
@@ -5067,7 +5018,7 @@
 #define DOUT11_CROFF DOUT11_BIT
 #define DOUT11_CR CRL
 #else
-#define DOUT11_CROFF DOUT11_BIT - 8
+#define DOUT11_CROFF (DOUT11_BIT&amp;0x03)
 #define DOUT11_CR CRH
 #endif
 #define DIO48 48
@@ -5083,9 +5034,9 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT11
-SETBIT(DOUT11_DIRREG, DOUT11_BIT);
+mcu_config_output(DOUT11);
 #endif</v>
       </c>
       <c r="J51" s="3"/>
@@ -5123,7 +5074,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT12_PORT) &amp;&amp; defined(DOUT12_BIT))
 #define DOUT12 49
 #define DOUT12_APB2EN (__rccapb2gpioen__(DOUT12_PORT))
@@ -5132,7 +5083,7 @@
 #define DOUT12_CROFF DOUT12_BIT
 #define DOUT12_CR CRL
 #else
-#define DOUT12_CROFF DOUT12_BIT - 8
+#define DOUT12_CROFF (DOUT12_BIT&amp;0x03)
 #define DOUT12_CR CRH
 #endif
 #define DIO49 49
@@ -5148,9 +5099,9 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT12
-SETBIT(DOUT12_DIRREG, DOUT12_BIT);
+mcu_config_output(DOUT12);
 #endif</v>
       </c>
       <c r="J52" s="3"/>
@@ -5188,7 +5139,7 @@
         <v>13</v>
       </c>
       <c r="E53" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT13_PORT) &amp;&amp; defined(DOUT13_BIT))
 #define DOUT13 50
 #define DOUT13_APB2EN (__rccapb2gpioen__(DOUT13_PORT))
@@ -5197,7 +5148,7 @@
 #define DOUT13_CROFF DOUT13_BIT
 #define DOUT13_CR CRL
 #else
-#define DOUT13_CROFF DOUT13_BIT - 8
+#define DOUT13_CROFF (DOUT13_BIT&amp;0x03)
 #define DOUT13_CR CRH
 #endif
 #define DIO50 50
@@ -5213,9 +5164,9 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT13
-SETBIT(DOUT13_DIRREG, DOUT13_BIT);
+mcu_config_output(DOUT13);
 #endif</v>
       </c>
       <c r="J53" s="3"/>
@@ -5253,7 +5204,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT14_PORT) &amp;&amp; defined(DOUT14_BIT))
 #define DOUT14 51
 #define DOUT14_APB2EN (__rccapb2gpioen__(DOUT14_PORT))
@@ -5262,7 +5213,7 @@
 #define DOUT14_CROFF DOUT14_BIT
 #define DOUT14_CR CRL
 #else
-#define DOUT14_CROFF DOUT14_BIT - 8
+#define DOUT14_CROFF (DOUT14_BIT&amp;0x03)
 #define DOUT14_CR CRH
 #endif
 #define DIO51 51
@@ -5278,9 +5229,9 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT14
-SETBIT(DOUT14_DIRREG, DOUT14_BIT);
+mcu_config_output(DOUT14);
 #endif</v>
       </c>
       <c r="J54" s="3"/>
@@ -5318,7 +5269,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(DOUT15_PORT) &amp;&amp; defined(DOUT15_BIT))
 #define DOUT15 52
 #define DOUT15_APB2EN (__rccapb2gpioen__(DOUT15_PORT))
@@ -5327,7 +5278,7 @@
 #define DOUT15_CROFF DOUT15_BIT
 #define DOUT15_CR CRL
 #else
-#define DOUT15_CROFF DOUT15_BIT - 8
+#define DOUT15_CROFF (DOUT15_BIT&amp;0x03)
 #define DOUT15_CR CRH
 #endif
 #define DIO52 52
@@ -5347,9 +5298,9 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>#ifdef DOUT15
-SETBIT(DOUT15_DIRREG, DOUT15_BIT);
+mcu_config_output(DOUT15);
 #endif</v>
       </c>
       <c r="J55" s="3"/>
@@ -5387,25 +5338,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="6" t="str">
-        <f>"#if (defined("&amp;C56&amp;"_PORT) &amp;&amp; defined("&amp;C56&amp;"_BIT))
-#define "&amp;C56&amp;" "&amp;A56&amp;"
-#define "&amp;C56&amp;"_APB2EN (__rccapb2gpioen__("&amp;C56&amp;"_PORT))
-#define "&amp;C56&amp;"_GPIO (__gpio__("&amp;C56&amp;"_PORT))
-#if ("&amp;C56&amp;"_BIT &lt; 8)
-#define "&amp;C56&amp;"_CROFF "&amp;C56&amp;"_BIT
-#define "&amp;C56&amp;"_CR CRL
-#else
-#define "&amp;C56&amp;"_CROFF "&amp;C56&amp;"_BIT - 8
-#define "&amp;C56&amp;"_CR CRH
-#endif
-#define "&amp;B56&amp;" "&amp;A56&amp;"
-#define "&amp;B56&amp;"_PORT "&amp;C56&amp;"_PORT
-#define "&amp;B56&amp;"_BIT "&amp;C56&amp;"_BIT
-#define "&amp;B56&amp;"_APB2EN "&amp;C56&amp;"_APB2EN
-#define "&amp;B56&amp;"_GPIO "&amp;C56&amp;"_GPIO
-#define "&amp;B56&amp;"_CR "&amp;C56&amp;"_CR
-#define "&amp;B56&amp;"_CROFF "&amp;C56&amp;"_CROFF
-#endif"</f>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_X_PORT) &amp;&amp; defined(LIMIT_X_BIT))
 #define LIMIT_X 53
 #define LIMIT_X_APB2EN (__rccapb2gpioen__(LIMIT_X_PORT))
@@ -5414,7 +5347,7 @@
 #define LIMIT_X_CROFF LIMIT_X_BIT
 #define LIMIT_X_CR CRL
 #else
-#define LIMIT_X_CROFF LIMIT_X_BIT - 8
+#define LIMIT_X_CROFF (LIMIT_X_BIT&amp;0x03)
 #define LIMIT_X_CR CRH
 #endif
 #define DIO53 53
@@ -5427,50 +5360,52 @@
 #endif</v>
       </c>
       <c r="F56" s="10" t="str">
-        <f>"#if (defined("&amp;C54&amp;"_ISR) &amp;&amp; defined("&amp;C54&amp;"))
-#define "&amp;C54&amp;"_EXTIREG ("&amp;C54&amp;"_BIT &gt;&gt; 2)
-#define "&amp;C54&amp;"_EXTIVAL (EXTINT("&amp;C54&amp;"_PORT) &lt;&lt; ("&amp;C54&amp;"_BIT &amp; 0x0F))
-#define "&amp;B54&amp;"_EXTIREG "&amp;C54&amp;"_EXTIREG
-#define "&amp;B54&amp;"_EXTIVAL "&amp;C54&amp;"_EXTIVAL
+        <f>"#if (defined("&amp;C56&amp;"_ISR) &amp;&amp; defined("&amp;C56&amp;"))
+#define "&amp;C56&amp;"_EXTIREG (("&amp;C56&amp;"_BIT &gt;&gt; 2) &amp; 0x03)
+#define "&amp;C56&amp;"_EXTIBITMASK (1&lt;&lt;"&amp;C56&amp;"_BIT)
+#define "&amp;C56&amp;"_IRQ EXTIRQ("&amp;C56&amp;"_BIT)
+#define "&amp;C56&amp;"_EXTIVAL (EXTINT("&amp;C56&amp;"_PORT) &lt;&lt; (("&amp;C56&amp;"_BIT &amp; 0x03)&lt;&lt;2))
+#define "&amp;B56&amp;"_EXTIREG "&amp;C56&amp;"_EXTIREG
+#define "&amp;B56&amp;"_EXTIVAL "&amp;C56&amp;"_EXTIVAL
+#define "&amp;B56&amp;"_IRQ "&amp;C56&amp;"_IRQ
+#define "&amp;B56&amp;"_EXTIBITMASK "&amp;C56&amp;"_EXTIBITMASK
+#else
+#define "&amp;C56&amp;"_EXTIMASK 0
+#define "&amp;C56&amp;"_EXTIBITMASK 0
 #endif"</f>
-        <v>#if (defined(DOUT14_ISR) &amp;&amp; defined(DOUT14))
-#define DOUT14_EXTIREG (DOUT14_BIT &gt;&gt; 2)
-#define DOUT14_EXTIVAL (EXTINT(DOUT14_PORT) &lt;&lt; (DOUT14_BIT &amp; 0x0F))
-#define DIO51_EXTIREG DOUT14_EXTIREG
-#define DIO51_EXTIVAL DOUT14_EXTIVAL
+        <v>#if (defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
+#define LIMIT_X_EXTIREG ((LIMIT_X_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_X_EXTIBITMASK (1&lt;&lt;LIMIT_X_BIT)
+#define LIMIT_X_IRQ EXTIRQ(LIMIT_X_BIT)
+#define LIMIT_X_EXTIVAL (EXTINT(LIMIT_X_PORT) &lt;&lt; ((LIMIT_X_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO53_EXTIREG LIMIT_X_EXTIREG
+#define DIO53_EXTIVAL LIMIT_X_EXTIVAL
+#define DIO53_IRQ LIMIT_X_IRQ
+#define DIO53_EXTIBITMASK LIMIT_X_EXTIBITMASK
+#else
+#define LIMIT_X_EXTIMASK 0
+#define LIMIT_X_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="3" t="str">
         <f>"#ifdef "&amp;C56&amp;"
-CLEARBIT("&amp;C56&amp;"_DIRREG, "&amp;C56&amp;"_BIT);
+mcu_config_input("&amp;C56&amp;");
 #ifdef "&amp;C56&amp;"_PULLUP
-SETBIT("&amp;C56&amp;"_PORTREG, "&amp;C56&amp;"_BIT);
+mcu_config_pullup("&amp;C56&amp;");
 #endif
 #ifdef "&amp;C56&amp;"_ISR
-#if("&amp;C56&amp;"_ISR&gt;=0)
-SETBIT("&amp;C56&amp;"_ISRREG, "&amp;C56&amp;"_BIT);
-#elif("&amp;C56&amp;"_ISR&lt;=-1 &amp;&amp; "&amp;C56&amp;"_ISR&gt;=-4)
-SETFLAG("&amp;C56&amp;"_ISRREG,"&amp;C56&amp;"_ISRA);
-#elif("&amp;C56&amp;"_ISR&lt;=-5 &amp;&amp; "&amp;C56&amp;"_ISR&gt;=-8)
-SETFLAG("&amp;C56&amp;"_ISRREG, "&amp;C56&amp;"_ISRB);
-#endif
+mcu_config_input_isr("&amp;C56&amp;");
 #endif
 #endif"</f>
         <v>#ifdef LIMIT_X
-CLEARBIT(LIMIT_X_DIRREG, LIMIT_X_BIT);
+mcu_config_input(LIMIT_X);
 #ifdef LIMIT_X_PULLUP
-SETBIT(LIMIT_X_PORTREG, LIMIT_X_BIT);
+mcu_config_pullup(LIMIT_X);
 #endif
 #ifdef LIMIT_X_ISR
-#if(LIMIT_X_ISR&gt;=0)
-SETBIT(LIMIT_X_ISRREG, LIMIT_X_BIT);
-#elif(LIMIT_X_ISR&lt;=-1 &amp;&amp; LIMIT_X_ISR&gt;=-4)
-SETFLAG(LIMIT_X_ISRREG,LIMIT_X_ISRA);
-#elif(LIMIT_X_ISR&lt;=-5 &amp;&amp; LIMIT_X_ISR&gt;=-8)
-SETFLAG(LIMIT_X_ISRREG, LIMIT_X_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_X);
 #endif
 #endif</v>
       </c>
@@ -5509,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_Y_PORT) &amp;&amp; defined(LIMIT_Y_BIT))
 #define LIMIT_Y 54
 #define LIMIT_Y_APB2EN (__rccapb2gpioen__(LIMIT_Y_PORT))
@@ -5518,7 +5453,7 @@
 #define LIMIT_Y_CROFF LIMIT_Y_BIT
 #define LIMIT_Y_CR CRL
 #else
-#define LIMIT_Y_CROFF LIMIT_Y_BIT - 8
+#define LIMIT_Y_CROFF (LIMIT_Y_BIT&amp;0x03)
 #define LIMIT_Y_CR CRH
 #endif
 #define DIO54 54
@@ -5531,50 +5466,52 @@
 #endif</v>
       </c>
       <c r="F57" s="10" t="str">
-        <f t="shared" ref="F57:F69" si="7">"#if (defined("&amp;C55&amp;"_ISR) &amp;&amp; defined("&amp;C55&amp;"))
-#define "&amp;C55&amp;"_EXTIREG ("&amp;C55&amp;"_BIT &gt;&gt; 2)
-#define "&amp;C55&amp;"_EXTIVAL (EXTINT("&amp;C55&amp;"_PORT) &lt;&lt; ("&amp;C55&amp;"_BIT &amp; 0x0F))
-#define "&amp;B55&amp;"_EXTIREG "&amp;C55&amp;"_EXTIREG
-#define "&amp;B55&amp;"_EXTIVAL "&amp;C55&amp;"_EXTIVAL
+        <f t="shared" ref="F57:F69" si="6">"#if (defined("&amp;C57&amp;"_ISR) &amp;&amp; defined("&amp;C57&amp;"))
+#define "&amp;C57&amp;"_EXTIREG (("&amp;C57&amp;"_BIT &gt;&gt; 2) &amp; 0x03)
+#define "&amp;C57&amp;"_EXTIBITMASK (1&lt;&lt;"&amp;C57&amp;"_BIT)
+#define "&amp;C57&amp;"_IRQ EXTIRQ("&amp;C57&amp;"_BIT)
+#define "&amp;C57&amp;"_EXTIVAL (EXTINT("&amp;C57&amp;"_PORT) &lt;&lt; (("&amp;C57&amp;"_BIT &amp; 0x03)&lt;&lt;2))
+#define "&amp;B57&amp;"_EXTIREG "&amp;C57&amp;"_EXTIREG
+#define "&amp;B57&amp;"_EXTIVAL "&amp;C57&amp;"_EXTIVAL
+#define "&amp;B57&amp;"_IRQ "&amp;C57&amp;"_IRQ
+#define "&amp;B57&amp;"_EXTIBITMASK "&amp;C57&amp;"_EXTIBITMASK
+#else
+#define "&amp;C57&amp;"_EXTIMASK 0
+#define "&amp;C57&amp;"_EXTIBITMASK 0
 #endif"</f>
-        <v>#if (defined(DOUT15_ISR) &amp;&amp; defined(DOUT15))
-#define DOUT15_EXTIREG (DOUT15_BIT &gt;&gt; 2)
-#define DOUT15_EXTIVAL (EXTINT(DOUT15_PORT) &lt;&lt; (DOUT15_BIT &amp; 0x0F))
-#define DIO52_EXTIREG DOUT15_EXTIREG
-#define DIO52_EXTIVAL DOUT15_EXTIVAL
+        <v>#if (defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
+#define LIMIT_Y_EXTIREG ((LIMIT_Y_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_Y_EXTIBITMASK (1&lt;&lt;LIMIT_Y_BIT)
+#define LIMIT_Y_IRQ EXTIRQ(LIMIT_Y_BIT)
+#define LIMIT_Y_EXTIVAL (EXTINT(LIMIT_Y_PORT) &lt;&lt; ((LIMIT_Y_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO54_EXTIREG LIMIT_Y_EXTIREG
+#define DIO54_EXTIVAL LIMIT_Y_EXTIVAL
+#define DIO54_IRQ LIMIT_Y_IRQ
+#define DIO54_EXTIBITMASK LIMIT_Y_EXTIBITMASK
+#else
+#define LIMIT_Y_EXTIMASK 0
+#define LIMIT_Y_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="3" t="str">
-        <f t="shared" ref="I57:I69" si="8">"#ifdef "&amp;C57&amp;"
-CLEARBIT("&amp;C57&amp;"_DIRREG, "&amp;C57&amp;"_BIT);
+        <f t="shared" ref="I57:I69" si="7">"#ifdef "&amp;C57&amp;"
+mcu_config_input("&amp;C57&amp;");
 #ifdef "&amp;C57&amp;"_PULLUP
-SETBIT("&amp;C57&amp;"_PORTREG, "&amp;C57&amp;"_BIT);
+mcu_config_pullup("&amp;C57&amp;");
 #endif
 #ifdef "&amp;C57&amp;"_ISR
-#if("&amp;C57&amp;"_ISR&gt;=0)
-SETBIT("&amp;C57&amp;"_ISRREG, "&amp;C57&amp;"_BIT);
-#elif("&amp;C57&amp;"_ISR&lt;=-1 &amp;&amp; "&amp;C57&amp;"_ISR&gt;=-4)
-SETFLAG("&amp;C57&amp;"_ISRREG,"&amp;C57&amp;"_ISRA);
-#elif("&amp;C57&amp;"_ISR&lt;=-5 &amp;&amp; "&amp;C57&amp;"_ISR&gt;=-8)
-SETFLAG("&amp;C57&amp;"_ISRREG, "&amp;C57&amp;"_ISRB);
-#endif
+mcu_config_input_isr("&amp;C57&amp;");
 #endif
 #endif"</f>
         <v>#ifdef LIMIT_Y
-CLEARBIT(LIMIT_Y_DIRREG, LIMIT_Y_BIT);
+mcu_config_input(LIMIT_Y);
 #ifdef LIMIT_Y_PULLUP
-SETBIT(LIMIT_Y_PORTREG, LIMIT_Y_BIT);
+mcu_config_pullup(LIMIT_Y);
 #endif
 #ifdef LIMIT_Y_ISR
-#if(LIMIT_Y_ISR&gt;=0)
-SETBIT(LIMIT_Y_ISRREG, LIMIT_Y_BIT);
-#elif(LIMIT_Y_ISR&lt;=-1 &amp;&amp; LIMIT_Y_ISR&gt;=-4)
-SETFLAG(LIMIT_Y_ISRREG,LIMIT_Y_ISRA);
-#elif(LIMIT_Y_ISR&lt;=-5 &amp;&amp; LIMIT_Y_ISR&gt;=-8)
-SETFLAG(LIMIT_Y_ISRREG, LIMIT_Y_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_Y);
 #endif
 #endif</v>
       </c>
@@ -5613,7 +5550,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_Z_PORT) &amp;&amp; defined(LIMIT_Z_BIT))
 #define LIMIT_Z 55
 #define LIMIT_Z_APB2EN (__rccapb2gpioen__(LIMIT_Z_PORT))
@@ -5622,7 +5559,7 @@
 #define LIMIT_Z_CROFF LIMIT_Z_BIT
 #define LIMIT_Z_CR CRL
 #else
-#define LIMIT_Z_CROFF LIMIT_Z_BIT - 8
+#define LIMIT_Z_CROFF (LIMIT_Z_BIT&amp;0x03)
 #define LIMIT_Z_CR CRH
 #endif
 #define DIO55 55
@@ -5635,31 +5572,32 @@
 #endif</v>
       </c>
       <c r="F58" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
-#define LIMIT_X_EXTIREG (LIMIT_X_BIT &gt;&gt; 2)
-#define LIMIT_X_EXTIVAL (EXTINT(LIMIT_X_PORT) &lt;&lt; (LIMIT_X_BIT &amp; 0x0F))
-#define DIO53_EXTIREG LIMIT_X_EXTIREG
-#define DIO53_EXTIVAL LIMIT_X_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
+#define LIMIT_Z_EXTIREG ((LIMIT_Z_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_Z_EXTIBITMASK (1&lt;&lt;LIMIT_Z_BIT)
+#define LIMIT_Z_IRQ EXTIRQ(LIMIT_Z_BIT)
+#define LIMIT_Z_EXTIVAL (EXTINT(LIMIT_Z_PORT) &lt;&lt; ((LIMIT_Z_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO55_EXTIREG LIMIT_Z_EXTIREG
+#define DIO55_EXTIVAL LIMIT_Z_EXTIVAL
+#define DIO55_IRQ LIMIT_Z_IRQ
+#define DIO55_EXTIBITMASK LIMIT_Z_EXTIBITMASK
+#else
+#define LIMIT_Z_EXTIMASK 0
+#define LIMIT_Z_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef LIMIT_Z
-CLEARBIT(LIMIT_Z_DIRREG, LIMIT_Z_BIT);
+mcu_config_input(LIMIT_Z);
 #ifdef LIMIT_Z_PULLUP
-SETBIT(LIMIT_Z_PORTREG, LIMIT_Z_BIT);
+mcu_config_pullup(LIMIT_Z);
 #endif
 #ifdef LIMIT_Z_ISR
-#if(LIMIT_Z_ISR&gt;=0)
-SETBIT(LIMIT_Z_ISRREG, LIMIT_Z_BIT);
-#elif(LIMIT_Z_ISR&lt;=-1 &amp;&amp; LIMIT_Z_ISR&gt;=-4)
-SETFLAG(LIMIT_Z_ISRREG,LIMIT_Z_ISRA);
-#elif(LIMIT_Z_ISR&lt;=-5 &amp;&amp; LIMIT_Z_ISR&gt;=-8)
-SETFLAG(LIMIT_Z_ISRREG, LIMIT_Z_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_Z);
 #endif
 #endif</v>
       </c>
@@ -5698,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_X2_PORT) &amp;&amp; defined(LIMIT_X2_BIT))
 #define LIMIT_X2 56
 #define LIMIT_X2_APB2EN (__rccapb2gpioen__(LIMIT_X2_PORT))
@@ -5707,7 +5645,7 @@
 #define LIMIT_X2_CROFF LIMIT_X2_BIT
 #define LIMIT_X2_CR CRL
 #else
-#define LIMIT_X2_CROFF LIMIT_X2_BIT - 8
+#define LIMIT_X2_CROFF (LIMIT_X2_BIT&amp;0x03)
 #define LIMIT_X2_CR CRH
 #endif
 #define DIO56 56
@@ -5720,31 +5658,32 @@
 #endif</v>
       </c>
       <c r="F59" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
-#define LIMIT_Y_EXTIREG (LIMIT_Y_BIT &gt;&gt; 2)
-#define LIMIT_Y_EXTIVAL (EXTINT(LIMIT_Y_PORT) &lt;&lt; (LIMIT_Y_BIT &amp; 0x0F))
-#define DIO54_EXTIREG LIMIT_Y_EXTIREG
-#define DIO54_EXTIVAL LIMIT_Y_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
+#define LIMIT_X2_EXTIREG ((LIMIT_X2_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_X2_EXTIBITMASK (1&lt;&lt;LIMIT_X2_BIT)
+#define LIMIT_X2_IRQ EXTIRQ(LIMIT_X2_BIT)
+#define LIMIT_X2_EXTIVAL (EXTINT(LIMIT_X2_PORT) &lt;&lt; ((LIMIT_X2_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO56_EXTIREG LIMIT_X2_EXTIREG
+#define DIO56_EXTIVAL LIMIT_X2_EXTIVAL
+#define DIO56_IRQ LIMIT_X2_IRQ
+#define DIO56_EXTIBITMASK LIMIT_X2_EXTIBITMASK
+#else
+#define LIMIT_X2_EXTIMASK 0
+#define LIMIT_X2_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef LIMIT_X2
-CLEARBIT(LIMIT_X2_DIRREG, LIMIT_X2_BIT);
+mcu_config_input(LIMIT_X2);
 #ifdef LIMIT_X2_PULLUP
-SETBIT(LIMIT_X2_PORTREG, LIMIT_X2_BIT);
+mcu_config_pullup(LIMIT_X2);
 #endif
 #ifdef LIMIT_X2_ISR
-#if(LIMIT_X2_ISR&gt;=0)
-SETBIT(LIMIT_X2_ISRREG, LIMIT_X2_BIT);
-#elif(LIMIT_X2_ISR&lt;=-1 &amp;&amp; LIMIT_X2_ISR&gt;=-4)
-SETFLAG(LIMIT_X2_ISRREG,LIMIT_X2_ISRA);
-#elif(LIMIT_X2_ISR&lt;=-5 &amp;&amp; LIMIT_X2_ISR&gt;=-8)
-SETFLAG(LIMIT_X2_ISRREG, LIMIT_X2_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_X2);
 #endif
 #endif</v>
       </c>
@@ -5783,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_Y2_PORT) &amp;&amp; defined(LIMIT_Y2_BIT))
 #define LIMIT_Y2 57
 #define LIMIT_Y2_APB2EN (__rccapb2gpioen__(LIMIT_Y2_PORT))
@@ -5792,7 +5731,7 @@
 #define LIMIT_Y2_CROFF LIMIT_Y2_BIT
 #define LIMIT_Y2_CR CRL
 #else
-#define LIMIT_Y2_CROFF LIMIT_Y2_BIT - 8
+#define LIMIT_Y2_CROFF (LIMIT_Y2_BIT&amp;0x03)
 #define LIMIT_Y2_CR CRH
 #endif
 #define DIO57 57
@@ -5805,31 +5744,32 @@
 #endif</v>
       </c>
       <c r="F60" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
-#define LIMIT_Z_EXTIREG (LIMIT_Z_BIT &gt;&gt; 2)
-#define LIMIT_Z_EXTIVAL (EXTINT(LIMIT_Z_PORT) &lt;&lt; (LIMIT_Z_BIT &amp; 0x0F))
-#define DIO55_EXTIREG LIMIT_Z_EXTIREG
-#define DIO55_EXTIVAL LIMIT_Z_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
+#define LIMIT_Y2_EXTIREG ((LIMIT_Y2_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_Y2_EXTIBITMASK (1&lt;&lt;LIMIT_Y2_BIT)
+#define LIMIT_Y2_IRQ EXTIRQ(LIMIT_Y2_BIT)
+#define LIMIT_Y2_EXTIVAL (EXTINT(LIMIT_Y2_PORT) &lt;&lt; ((LIMIT_Y2_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO57_EXTIREG LIMIT_Y2_EXTIREG
+#define DIO57_EXTIVAL LIMIT_Y2_EXTIVAL
+#define DIO57_IRQ LIMIT_Y2_IRQ
+#define DIO57_EXTIBITMASK LIMIT_Y2_EXTIBITMASK
+#else
+#define LIMIT_Y2_EXTIMASK 0
+#define LIMIT_Y2_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef LIMIT_Y2
-CLEARBIT(LIMIT_Y2_DIRREG, LIMIT_Y2_BIT);
+mcu_config_input(LIMIT_Y2);
 #ifdef LIMIT_Y2_PULLUP
-SETBIT(LIMIT_Y2_PORTREG, LIMIT_Y2_BIT);
+mcu_config_pullup(LIMIT_Y2);
 #endif
 #ifdef LIMIT_Y2_ISR
-#if(LIMIT_Y2_ISR&gt;=0)
-SETBIT(LIMIT_Y2_ISRREG, LIMIT_Y2_BIT);
-#elif(LIMIT_Y2_ISR&lt;=-1 &amp;&amp; LIMIT_Y2_ISR&gt;=-4)
-SETFLAG(LIMIT_Y2_ISRREG,LIMIT_Y2_ISRA);
-#elif(LIMIT_Y2_ISR&lt;=-5 &amp;&amp; LIMIT_Y2_ISR&gt;=-8)
-SETFLAG(LIMIT_Y2_ISRREG, LIMIT_Y2_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_Y2);
 #endif
 #endif</v>
       </c>
@@ -5868,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_Z2_PORT) &amp;&amp; defined(LIMIT_Z2_BIT))
 #define LIMIT_Z2 58
 #define LIMIT_Z2_APB2EN (__rccapb2gpioen__(LIMIT_Z2_PORT))
@@ -5877,7 +5817,7 @@
 #define LIMIT_Z2_CROFF LIMIT_Z2_BIT
 #define LIMIT_Z2_CR CRL
 #else
-#define LIMIT_Z2_CROFF LIMIT_Z2_BIT - 8
+#define LIMIT_Z2_CROFF (LIMIT_Z2_BIT&amp;0x03)
 #define LIMIT_Z2_CR CRH
 #endif
 #define DIO58 58
@@ -5890,31 +5830,32 @@
 #endif</v>
       </c>
       <c r="F61" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
-#define LIMIT_X2_EXTIREG (LIMIT_X2_BIT &gt;&gt; 2)
-#define LIMIT_X2_EXTIVAL (EXTINT(LIMIT_X2_PORT) &lt;&lt; (LIMIT_X2_BIT &amp; 0x0F))
-#define DIO56_EXTIREG LIMIT_X2_EXTIREG
-#define DIO56_EXTIVAL LIMIT_X2_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
+#define LIMIT_Z2_EXTIREG ((LIMIT_Z2_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_Z2_EXTIBITMASK (1&lt;&lt;LIMIT_Z2_BIT)
+#define LIMIT_Z2_IRQ EXTIRQ(LIMIT_Z2_BIT)
+#define LIMIT_Z2_EXTIVAL (EXTINT(LIMIT_Z2_PORT) &lt;&lt; ((LIMIT_Z2_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO58_EXTIREG LIMIT_Z2_EXTIREG
+#define DIO58_EXTIVAL LIMIT_Z2_EXTIVAL
+#define DIO58_IRQ LIMIT_Z2_IRQ
+#define DIO58_EXTIBITMASK LIMIT_Z2_EXTIBITMASK
+#else
+#define LIMIT_Z2_EXTIMASK 0
+#define LIMIT_Z2_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef LIMIT_Z2
-CLEARBIT(LIMIT_Z2_DIRREG, LIMIT_Z2_BIT);
+mcu_config_input(LIMIT_Z2);
 #ifdef LIMIT_Z2_PULLUP
-SETBIT(LIMIT_Z2_PORTREG, LIMIT_Z2_BIT);
+mcu_config_pullup(LIMIT_Z2);
 #endif
 #ifdef LIMIT_Z2_ISR
-#if(LIMIT_Z2_ISR&gt;=0)
-SETBIT(LIMIT_Z2_ISRREG, LIMIT_Z2_BIT);
-#elif(LIMIT_Z2_ISR&lt;=-1 &amp;&amp; LIMIT_Z2_ISR&gt;=-4)
-SETFLAG(LIMIT_Z2_ISRREG,LIMIT_Z2_ISRA);
-#elif(LIMIT_Z2_ISR&lt;=-5 &amp;&amp; LIMIT_Z2_ISR&gt;=-8)
-SETFLAG(LIMIT_Z2_ISRREG, LIMIT_Z2_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_Z2);
 #endif
 #endif</v>
       </c>
@@ -5953,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_A_PORT) &amp;&amp; defined(LIMIT_A_BIT))
 #define LIMIT_A 59
 #define LIMIT_A_APB2EN (__rccapb2gpioen__(LIMIT_A_PORT))
@@ -5962,7 +5903,7 @@
 #define LIMIT_A_CROFF LIMIT_A_BIT
 #define LIMIT_A_CR CRL
 #else
-#define LIMIT_A_CROFF LIMIT_A_BIT - 8
+#define LIMIT_A_CROFF (LIMIT_A_BIT&amp;0x03)
 #define LIMIT_A_CR CRH
 #endif
 #define DIO59 59
@@ -5975,31 +5916,32 @@
 #endif</v>
       </c>
       <c r="F62" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
-#define LIMIT_Y2_EXTIREG (LIMIT_Y2_BIT &gt;&gt; 2)
-#define LIMIT_Y2_EXTIVAL (EXTINT(LIMIT_Y2_PORT) &lt;&lt; (LIMIT_Y2_BIT &amp; 0x0F))
-#define DIO57_EXTIREG LIMIT_Y2_EXTIREG
-#define DIO57_EXTIVAL LIMIT_Y2_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
+#define LIMIT_A_EXTIREG ((LIMIT_A_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_A_EXTIBITMASK (1&lt;&lt;LIMIT_A_BIT)
+#define LIMIT_A_IRQ EXTIRQ(LIMIT_A_BIT)
+#define LIMIT_A_EXTIVAL (EXTINT(LIMIT_A_PORT) &lt;&lt; ((LIMIT_A_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO59_EXTIREG LIMIT_A_EXTIREG
+#define DIO59_EXTIVAL LIMIT_A_EXTIVAL
+#define DIO59_IRQ LIMIT_A_IRQ
+#define DIO59_EXTIBITMASK LIMIT_A_EXTIBITMASK
+#else
+#define LIMIT_A_EXTIMASK 0
+#define LIMIT_A_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef LIMIT_A
-CLEARBIT(LIMIT_A_DIRREG, LIMIT_A_BIT);
+mcu_config_input(LIMIT_A);
 #ifdef LIMIT_A_PULLUP
-SETBIT(LIMIT_A_PORTREG, LIMIT_A_BIT);
+mcu_config_pullup(LIMIT_A);
 #endif
 #ifdef LIMIT_A_ISR
-#if(LIMIT_A_ISR&gt;=0)
-SETBIT(LIMIT_A_ISRREG, LIMIT_A_BIT);
-#elif(LIMIT_A_ISR&lt;=-1 &amp;&amp; LIMIT_A_ISR&gt;=-4)
-SETFLAG(LIMIT_A_ISRREG,LIMIT_A_ISRA);
-#elif(LIMIT_A_ISR&lt;=-5 &amp;&amp; LIMIT_A_ISR&gt;=-8)
-SETFLAG(LIMIT_A_ISRREG, LIMIT_A_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_A);
 #endif
 #endif</v>
       </c>
@@ -6038,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_B_PORT) &amp;&amp; defined(LIMIT_B_BIT))
 #define LIMIT_B 60
 #define LIMIT_B_APB2EN (__rccapb2gpioen__(LIMIT_B_PORT))
@@ -6047,7 +5989,7 @@
 #define LIMIT_B_CROFF LIMIT_B_BIT
 #define LIMIT_B_CR CRL
 #else
-#define LIMIT_B_CROFF LIMIT_B_BIT - 8
+#define LIMIT_B_CROFF (LIMIT_B_BIT&amp;0x03)
 #define LIMIT_B_CR CRH
 #endif
 #define DIO60 60
@@ -6060,31 +6002,32 @@
 #endif</v>
       </c>
       <c r="F63" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
-#define LIMIT_Z2_EXTIREG (LIMIT_Z2_BIT &gt;&gt; 2)
-#define LIMIT_Z2_EXTIVAL (EXTINT(LIMIT_Z2_PORT) &lt;&lt; (LIMIT_Z2_BIT &amp; 0x0F))
-#define DIO58_EXTIREG LIMIT_Z2_EXTIREG
-#define DIO58_EXTIVAL LIMIT_Z2_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
+#define LIMIT_B_EXTIREG ((LIMIT_B_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_B_EXTIBITMASK (1&lt;&lt;LIMIT_B_BIT)
+#define LIMIT_B_IRQ EXTIRQ(LIMIT_B_BIT)
+#define LIMIT_B_EXTIVAL (EXTINT(LIMIT_B_PORT) &lt;&lt; ((LIMIT_B_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO60_EXTIREG LIMIT_B_EXTIREG
+#define DIO60_EXTIVAL LIMIT_B_EXTIVAL
+#define DIO60_IRQ LIMIT_B_IRQ
+#define DIO60_EXTIBITMASK LIMIT_B_EXTIBITMASK
+#else
+#define LIMIT_B_EXTIMASK 0
+#define LIMIT_B_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef LIMIT_B
-CLEARBIT(LIMIT_B_DIRREG, LIMIT_B_BIT);
+mcu_config_input(LIMIT_B);
 #ifdef LIMIT_B_PULLUP
-SETBIT(LIMIT_B_PORTREG, LIMIT_B_BIT);
+mcu_config_pullup(LIMIT_B);
 #endif
 #ifdef LIMIT_B_ISR
-#if(LIMIT_B_ISR&gt;=0)
-SETBIT(LIMIT_B_ISRREG, LIMIT_B_BIT);
-#elif(LIMIT_B_ISR&lt;=-1 &amp;&amp; LIMIT_B_ISR&gt;=-4)
-SETFLAG(LIMIT_B_ISRREG,LIMIT_B_ISRA);
-#elif(LIMIT_B_ISR&lt;=-5 &amp;&amp; LIMIT_B_ISR&gt;=-8)
-SETFLAG(LIMIT_B_ISRREG, LIMIT_B_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_B);
 #endif
 #endif</v>
       </c>
@@ -6123,7 +6066,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(LIMIT_C_PORT) &amp;&amp; defined(LIMIT_C_BIT))
 #define LIMIT_C 61
 #define LIMIT_C_APB2EN (__rccapb2gpioen__(LIMIT_C_PORT))
@@ -6132,7 +6075,7 @@
 #define LIMIT_C_CROFF LIMIT_C_BIT
 #define LIMIT_C_CR CRL
 #else
-#define LIMIT_C_CROFF LIMIT_C_BIT - 8
+#define LIMIT_C_CROFF (LIMIT_C_BIT&amp;0x03)
 #define LIMIT_C_CR CRH
 #endif
 #define DIO61 61
@@ -6145,31 +6088,32 @@
 #endif</v>
       </c>
       <c r="F64" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
-#define LIMIT_A_EXTIREG (LIMIT_A_BIT &gt;&gt; 2)
-#define LIMIT_A_EXTIVAL (EXTINT(LIMIT_A_PORT) &lt;&lt; (LIMIT_A_BIT &amp; 0x0F))
-#define DIO59_EXTIREG LIMIT_A_EXTIREG
-#define DIO59_EXTIVAL LIMIT_A_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
+#define LIMIT_C_EXTIREG ((LIMIT_C_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_C_EXTIBITMASK (1&lt;&lt;LIMIT_C_BIT)
+#define LIMIT_C_IRQ EXTIRQ(LIMIT_C_BIT)
+#define LIMIT_C_EXTIVAL (EXTINT(LIMIT_C_PORT) &lt;&lt; ((LIMIT_C_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO61_EXTIREG LIMIT_C_EXTIREG
+#define DIO61_EXTIVAL LIMIT_C_EXTIVAL
+#define DIO61_IRQ LIMIT_C_IRQ
+#define DIO61_EXTIBITMASK LIMIT_C_EXTIBITMASK
+#else
+#define LIMIT_C_EXTIMASK 0
+#define LIMIT_C_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef LIMIT_C
-CLEARBIT(LIMIT_C_DIRREG, LIMIT_C_BIT);
+mcu_config_input(LIMIT_C);
 #ifdef LIMIT_C_PULLUP
-SETBIT(LIMIT_C_PORTREG, LIMIT_C_BIT);
+mcu_config_pullup(LIMIT_C);
 #endif
 #ifdef LIMIT_C_ISR
-#if(LIMIT_C_ISR&gt;=0)
-SETBIT(LIMIT_C_ISRREG, LIMIT_C_BIT);
-#elif(LIMIT_C_ISR&lt;=-1 &amp;&amp; LIMIT_C_ISR&gt;=-4)
-SETFLAG(LIMIT_C_ISRREG,LIMIT_C_ISRA);
-#elif(LIMIT_C_ISR&lt;=-5 &amp;&amp; LIMIT_C_ISR&gt;=-8)
-SETFLAG(LIMIT_C_ISRREG, LIMIT_C_ISRB);
-#endif
+mcu_config_input_isr(LIMIT_C);
 #endif
 #endif</v>
       </c>
@@ -6208,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(PROBE_PORT) &amp;&amp; defined(PROBE_BIT))
 #define PROBE 62
 #define PROBE_APB2EN (__rccapb2gpioen__(PROBE_PORT))
@@ -6217,7 +6161,7 @@
 #define PROBE_CROFF PROBE_BIT
 #define PROBE_CR CRL
 #else
-#define PROBE_CROFF PROBE_BIT - 8
+#define PROBE_CROFF (PROBE_BIT&amp;0x03)
 #define PROBE_CR CRH
 #endif
 #define DIO62 62
@@ -6230,31 +6174,32 @@
 #endif</v>
       </c>
       <c r="F65" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
-#define LIMIT_B_EXTIREG (LIMIT_B_BIT &gt;&gt; 2)
-#define LIMIT_B_EXTIVAL (EXTINT(LIMIT_B_PORT) &lt;&lt; (LIMIT_B_BIT &amp; 0x0F))
-#define DIO60_EXTIREG LIMIT_B_EXTIREG
-#define DIO60_EXTIVAL LIMIT_B_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(PROBE_ISR) &amp;&amp; defined(PROBE))
+#define PROBE_EXTIREG ((PROBE_BIT &gt;&gt; 2) &amp; 0x03)
+#define PROBE_EXTIBITMASK (1&lt;&lt;PROBE_BIT)
+#define PROBE_IRQ EXTIRQ(PROBE_BIT)
+#define PROBE_EXTIVAL (EXTINT(PROBE_PORT) &lt;&lt; ((PROBE_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO62_EXTIREG PROBE_EXTIREG
+#define DIO62_EXTIVAL PROBE_EXTIVAL
+#define DIO62_IRQ PROBE_IRQ
+#define DIO62_EXTIBITMASK PROBE_EXTIBITMASK
+#else
+#define PROBE_EXTIMASK 0
+#define PROBE_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef PROBE
-CLEARBIT(PROBE_DIRREG, PROBE_BIT);
+mcu_config_input(PROBE);
 #ifdef PROBE_PULLUP
-SETBIT(PROBE_PORTREG, PROBE_BIT);
+mcu_config_pullup(PROBE);
 #endif
 #ifdef PROBE_ISR
-#if(PROBE_ISR&gt;=0)
-SETBIT(PROBE_ISRREG, PROBE_BIT);
-#elif(PROBE_ISR&lt;=-1 &amp;&amp; PROBE_ISR&gt;=-4)
-SETFLAG(PROBE_ISRREG,PROBE_ISRA);
-#elif(PROBE_ISR&lt;=-5 &amp;&amp; PROBE_ISR&gt;=-8)
-SETFLAG(PROBE_ISRREG, PROBE_ISRB);
-#endif
+mcu_config_input_isr(PROBE);
 #endif
 #endif</v>
       </c>
@@ -6293,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(ESTOP_PORT) &amp;&amp; defined(ESTOP_BIT))
 #define ESTOP 63
 #define ESTOP_APB2EN (__rccapb2gpioen__(ESTOP_PORT))
@@ -6302,7 +6247,7 @@
 #define ESTOP_CROFF ESTOP_BIT
 #define ESTOP_CR CRL
 #else
-#define ESTOP_CROFF ESTOP_BIT - 8
+#define ESTOP_CROFF (ESTOP_BIT&amp;0x03)
 #define ESTOP_CR CRH
 #endif
 #define DIO63 63
@@ -6315,31 +6260,32 @@
 #endif</v>
       </c>
       <c r="F66" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
-#define LIMIT_C_EXTIREG (LIMIT_C_BIT &gt;&gt; 2)
-#define LIMIT_C_EXTIVAL (EXTINT(LIMIT_C_PORT) &lt;&lt; (LIMIT_C_BIT &amp; 0x0F))
-#define DIO61_EXTIREG LIMIT_C_EXTIREG
-#define DIO61_EXTIVAL LIMIT_C_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
+#define ESTOP_EXTIREG ((ESTOP_BIT &gt;&gt; 2) &amp; 0x03)
+#define ESTOP_EXTIBITMASK (1&lt;&lt;ESTOP_BIT)
+#define ESTOP_IRQ EXTIRQ(ESTOP_BIT)
+#define ESTOP_EXTIVAL (EXTINT(ESTOP_PORT) &lt;&lt; ((ESTOP_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO63_EXTIREG ESTOP_EXTIREG
+#define DIO63_EXTIVAL ESTOP_EXTIVAL
+#define DIO63_IRQ ESTOP_IRQ
+#define DIO63_EXTIBITMASK ESTOP_EXTIBITMASK
+#else
+#define ESTOP_EXTIMASK 0
+#define ESTOP_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef ESTOP
-CLEARBIT(ESTOP_DIRREG, ESTOP_BIT);
+mcu_config_input(ESTOP);
 #ifdef ESTOP_PULLUP
-SETBIT(ESTOP_PORTREG, ESTOP_BIT);
+mcu_config_pullup(ESTOP);
 #endif
 #ifdef ESTOP_ISR
-#if(ESTOP_ISR&gt;=0)
-SETBIT(ESTOP_ISRREG, ESTOP_BIT);
-#elif(ESTOP_ISR&lt;=-1 &amp;&amp; ESTOP_ISR&gt;=-4)
-SETFLAG(ESTOP_ISRREG,ESTOP_ISRA);
-#elif(ESTOP_ISR&lt;=-5 &amp;&amp; ESTOP_ISR&gt;=-8)
-SETFLAG(ESTOP_ISRREG, ESTOP_ISRB);
-#endif
+mcu_config_input_isr(ESTOP);
 #endif
 #endif</v>
       </c>
@@ -6378,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#if (defined(SAFETY_DOOR_PORT) &amp;&amp; defined(SAFETY_DOOR_BIT))
 #define SAFETY_DOOR 64
 #define SAFETY_DOOR_APB2EN (__rccapb2gpioen__(SAFETY_DOOR_PORT))
@@ -6387,7 +6333,7 @@
 #define SAFETY_DOOR_CROFF SAFETY_DOOR_BIT
 #define SAFETY_DOOR_CR CRL
 #else
-#define SAFETY_DOOR_CROFF SAFETY_DOOR_BIT - 8
+#define SAFETY_DOOR_CROFF (SAFETY_DOOR_BIT&amp;0x03)
 #define SAFETY_DOOR_CR CRH
 #endif
 #define DIO64 64
@@ -6400,31 +6346,32 @@
 #endif</v>
       </c>
       <c r="F67" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(PROBE_ISR) &amp;&amp; defined(PROBE))
-#define PROBE_EXTIREG (PROBE_BIT &gt;&gt; 2)
-#define PROBE_EXTIVAL (EXTINT(PROBE_PORT) &lt;&lt; (PROBE_BIT &amp; 0x0F))
-#define DIO62_EXTIREG PROBE_EXTIREG
-#define DIO62_EXTIVAL PROBE_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
+#define SAFETY_DOOR_EXTIREG ((SAFETY_DOOR_BIT &gt;&gt; 2) &amp; 0x03)
+#define SAFETY_DOOR_EXTIBITMASK (1&lt;&lt;SAFETY_DOOR_BIT)
+#define SAFETY_DOOR_IRQ EXTIRQ(SAFETY_DOOR_BIT)
+#define SAFETY_DOOR_EXTIVAL (EXTINT(SAFETY_DOOR_PORT) &lt;&lt; ((SAFETY_DOOR_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO64_EXTIREG SAFETY_DOOR_EXTIREG
+#define DIO64_EXTIVAL SAFETY_DOOR_EXTIVAL
+#define DIO64_IRQ SAFETY_DOOR_IRQ
+#define DIO64_EXTIBITMASK SAFETY_DOOR_EXTIBITMASK
+#else
+#define SAFETY_DOOR_EXTIMASK 0
+#define SAFETY_DOOR_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef SAFETY_DOOR
-CLEARBIT(SAFETY_DOOR_DIRREG, SAFETY_DOOR_BIT);
+mcu_config_input(SAFETY_DOOR);
 #ifdef SAFETY_DOOR_PULLUP
-SETBIT(SAFETY_DOOR_PORTREG, SAFETY_DOOR_BIT);
+mcu_config_pullup(SAFETY_DOOR);
 #endif
 #ifdef SAFETY_DOOR_ISR
-#if(SAFETY_DOOR_ISR&gt;=0)
-SETBIT(SAFETY_DOOR_ISRREG, SAFETY_DOOR_BIT);
-#elif(SAFETY_DOOR_ISR&lt;=-1 &amp;&amp; SAFETY_DOOR_ISR&gt;=-4)
-SETFLAG(SAFETY_DOOR_ISRREG,SAFETY_DOOR_ISRA);
-#elif(SAFETY_DOOR_ISR&lt;=-5 &amp;&amp; SAFETY_DOOR_ISR&gt;=-8)
-SETFLAG(SAFETY_DOOR_ISRREG, SAFETY_DOOR_ISRB);
-#endif
+mcu_config_input_isr(SAFETY_DOOR);
 #endif
 #endif</v>
       </c>
@@ -6463,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f t="shared" ref="E68:E102" si="9">"#if (defined("&amp;C68&amp;"_PORT) &amp;&amp; defined("&amp;C68&amp;"_BIT))
+        <f t="shared" ref="E68:E102" si="8">"#if (defined("&amp;C68&amp;"_PORT) &amp;&amp; defined("&amp;C68&amp;"_BIT))
 #define "&amp;C68&amp;" "&amp;A68&amp;"
 #define "&amp;C68&amp;"_APB2EN (__rccapb2gpioen__("&amp;C68&amp;"_PORT))
 #define "&amp;C68&amp;"_GPIO (__gpio__("&amp;C68&amp;"_PORT))
@@ -6471,7 +6418,7 @@
 #define "&amp;C68&amp;"_CROFF "&amp;C68&amp;"_BIT
 #define "&amp;C68&amp;"_CR CRL
 #else
-#define "&amp;C68&amp;"_CROFF "&amp;C68&amp;"_BIT - 8
+#define "&amp;C68&amp;"_CROFF ("&amp;C68&amp;"_BIT&amp;0x03)
 #define "&amp;C68&amp;"_CR CRH
 #endif
 #define "&amp;B68&amp;" "&amp;A68&amp;"
@@ -6490,7 +6437,7 @@
 #define FHOLD_CROFF FHOLD_BIT
 #define FHOLD_CR CRL
 #else
-#define FHOLD_CROFF FHOLD_BIT - 8
+#define FHOLD_CROFF (FHOLD_BIT&amp;0x03)
 #define FHOLD_CR CRH
 #endif
 #define DIO65 65
@@ -6503,31 +6450,32 @@
 #endif</v>
       </c>
       <c r="F68" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
-#define ESTOP_EXTIREG (ESTOP_BIT &gt;&gt; 2)
-#define ESTOP_EXTIVAL (EXTINT(ESTOP_PORT) &lt;&lt; (ESTOP_BIT &amp; 0x0F))
-#define DIO63_EXTIREG ESTOP_EXTIREG
-#define DIO63_EXTIVAL ESTOP_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(FHOLD_ISR) &amp;&amp; defined(FHOLD))
+#define FHOLD_EXTIREG ((FHOLD_BIT &gt;&gt; 2) &amp; 0x03)
+#define FHOLD_EXTIBITMASK (1&lt;&lt;FHOLD_BIT)
+#define FHOLD_IRQ EXTIRQ(FHOLD_BIT)
+#define FHOLD_EXTIVAL (EXTINT(FHOLD_PORT) &lt;&lt; ((FHOLD_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO65_EXTIREG FHOLD_EXTIREG
+#define DIO65_EXTIVAL FHOLD_EXTIVAL
+#define DIO65_IRQ FHOLD_IRQ
+#define DIO65_EXTIBITMASK FHOLD_EXTIBITMASK
+#else
+#define FHOLD_EXTIMASK 0
+#define FHOLD_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef FHOLD
-CLEARBIT(FHOLD_DIRREG, FHOLD_BIT);
+mcu_config_input(FHOLD);
 #ifdef FHOLD_PULLUP
-SETBIT(FHOLD_PORTREG, FHOLD_BIT);
+mcu_config_pullup(FHOLD);
 #endif
 #ifdef FHOLD_ISR
-#if(FHOLD_ISR&gt;=0)
-SETBIT(FHOLD_ISRREG, FHOLD_BIT);
-#elif(FHOLD_ISR&lt;=-1 &amp;&amp; FHOLD_ISR&gt;=-4)
-SETFLAG(FHOLD_ISRREG,FHOLD_ISRA);
-#elif(FHOLD_ISR&lt;=-5 &amp;&amp; FHOLD_ISR&gt;=-8)
-SETFLAG(FHOLD_ISRREG, FHOLD_ISRB);
-#endif
+mcu_config_input_isr(FHOLD);
 #endif
 #endif</v>
       </c>
@@ -6566,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(CS_RES_PORT) &amp;&amp; defined(CS_RES_BIT))
 #define CS_RES 66
 #define CS_RES_APB2EN (__rccapb2gpioen__(CS_RES_PORT))
@@ -6575,7 +6523,7 @@
 #define CS_RES_CROFF CS_RES_BIT
 #define CS_RES_CR CRL
 #else
-#define CS_RES_CROFF CS_RES_BIT - 8
+#define CS_RES_CROFF (CS_RES_BIT&amp;0x03)
 #define CS_RES_CR CRH
 #endif
 #define DIO66 66
@@ -6588,12 +6536,19 @@
 #endif</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>#if (defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
-#define SAFETY_DOOR_EXTIREG (SAFETY_DOOR_BIT &gt;&gt; 2)
-#define SAFETY_DOOR_EXTIVAL (EXTINT(SAFETY_DOOR_PORT) &lt;&lt; (SAFETY_DOOR_BIT &amp; 0x0F))
-#define DIO64_EXTIREG SAFETY_DOOR_EXTIREG
-#define DIO64_EXTIVAL SAFETY_DOOR_EXTIVAL
+        <f t="shared" si="6"/>
+        <v>#if (defined(CS_RES_ISR) &amp;&amp; defined(CS_RES))
+#define CS_RES_EXTIREG ((CS_RES_BIT &gt;&gt; 2) &amp; 0x03)
+#define CS_RES_EXTIBITMASK (1&lt;&lt;CS_RES_BIT)
+#define CS_RES_IRQ EXTIRQ(CS_RES_BIT)
+#define CS_RES_EXTIVAL (EXTINT(CS_RES_PORT) &lt;&lt; ((CS_RES_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO66_EXTIREG CS_RES_EXTIREG
+#define DIO66_EXTIVAL CS_RES_EXTIVAL
+#define DIO66_IRQ CS_RES_IRQ
+#define DIO66_EXTIBITMASK CS_RES_EXTIBITMASK
+#else
+#define CS_RES_EXTIMASK 0
+#define CS_RES_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G69" s="6"/>
@@ -6601,20 +6556,14 @@
         <v>107</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#ifdef CS_RES
-CLEARBIT(CS_RES_DIRREG, CS_RES_BIT);
+mcu_config_input(CS_RES);
 #ifdef CS_RES_PULLUP
-SETBIT(CS_RES_PORTREG, CS_RES_BIT);
+mcu_config_pullup(CS_RES);
 #endif
 #ifdef CS_RES_ISR
-#if(CS_RES_ISR&gt;=0)
-SETBIT(CS_RES_ISRREG, CS_RES_BIT);
-#elif(CS_RES_ISR&lt;=-1 &amp;&amp; CS_RES_ISR&gt;=-4)
-SETFLAG(CS_RES_ISRREG,CS_RES_ISRA);
-#elif(CS_RES_ISR&lt;=-5 &amp;&amp; CS_RES_ISR&gt;=-8)
-SETFLAG(CS_RES_ISRREG, CS_RES_ISRB);
-#endif
+mcu_config_input_isr(CS_RES);
 #endif
 #endif</v>
       </c>
@@ -6653,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG0_PORT) &amp;&amp; defined(ANALOG0_BIT))
 #define ANALOG0 67
 #define ANALOG0_APB2EN (__rccapb2gpioen__(ANALOG0_PORT))
@@ -6662,7 +6611,7 @@
 #define ANALOG0_CROFF ANALOG0_BIT
 #define ANALOG0_CR CRL
 #else
-#define ANALOG0_CROFF ANALOG0_BIT - 8
+#define ANALOG0_CROFF (ANALOG0_BIT&amp;0x03)
 #define ANALOG0_CR CRH
 #endif
 #define DIO67 67
@@ -6687,11 +6636,11 @@
 #endif</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f t="shared" ref="I70:I86" si="10">"#ifdef "&amp;C70&amp;"
-CLEARBIT("&amp;C70&amp;"_DIRREG, "&amp;C70&amp;"_BIT);
+        <f>"#ifdef "&amp;C70&amp;"
+mcu_config_analog("&amp;C70&amp;");
 #endif"</f>
         <v>#ifdef ANALOG0
-CLEARBIT(ANALOG0_DIRREG, ANALOG0_BIT);
+mcu_config_analog(ANALOG0);
 #endif</v>
       </c>
       <c r="J70" s="3"/>
@@ -6729,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG1_PORT) &amp;&amp; defined(ANALOG1_BIT))
 #define ANALOG1 68
 #define ANALOG1_APB2EN (__rccapb2gpioen__(ANALOG1_PORT))
@@ -6738,7 +6687,7 @@
 #define ANALOG1_CROFF ANALOG1_BIT
 #define ANALOG1_CR CRL
 #else
-#define ANALOG1_CROFF ANALOG1_BIT - 8
+#define ANALOG1_CROFF (ANALOG1_BIT&amp;0x03)
 #define ANALOG1_CR CRH
 #endif
 #define DIO68 68
@@ -6753,7 +6702,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="8" t="str">
-        <f t="shared" ref="H71:H85" si="11">"#ifdef "&amp;C71&amp;"
+        <f t="shared" ref="H71:H85" si="9">"#ifdef "&amp;C71&amp;"
 #define "&amp;C71&amp;"_ADMUXREG (1&lt;&lt;"&amp;D71&amp;")
 #define "&amp;B71&amp;"_ADMUXREG (1&lt;&lt;"&amp;D71&amp;")
 #endif"</f>
@@ -6763,9 +6712,11 @@
 #endif</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I71:I85" si="10">"#ifdef "&amp;C71&amp;"
+mcu_config_analog("&amp;C71&amp;");
+#endif"</f>
         <v>#ifdef ANALOG1
-CLEARBIT(ANALOG1_DIRREG, ANALOG1_BIT);
+mcu_config_analog(ANALOG1);
 #endif</v>
       </c>
       <c r="J71" s="3"/>
@@ -6803,7 +6754,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG2_PORT) &amp;&amp; defined(ANALOG2_BIT))
 #define ANALOG2 69
 #define ANALOG2_APB2EN (__rccapb2gpioen__(ANALOG2_PORT))
@@ -6812,7 +6763,7 @@
 #define ANALOG2_CROFF ANALOG2_BIT
 #define ANALOG2_CR CRL
 #else
-#define ANALOG2_CROFF ANALOG2_BIT - 8
+#define ANALOG2_CROFF (ANALOG2_BIT&amp;0x03)
 #define ANALOG2_CR CRH
 #endif
 #define DIO69 69
@@ -6827,7 +6778,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG2
 #define ANALOG2_ADMUXREG (1&lt;&lt;2)
 #define DIO69_ADMUXREG (1&lt;&lt;2)
@@ -6836,7 +6787,7 @@
       <c r="I72" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG2
-CLEARBIT(ANALOG2_DIRREG, ANALOG2_BIT);
+mcu_config_analog(ANALOG2);
 #endif</v>
       </c>
       <c r="J72" s="3"/>
@@ -6874,7 +6825,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG3_PORT) &amp;&amp; defined(ANALOG3_BIT))
 #define ANALOG3 70
 #define ANALOG3_APB2EN (__rccapb2gpioen__(ANALOG3_PORT))
@@ -6883,7 +6834,7 @@
 #define ANALOG3_CROFF ANALOG3_BIT
 #define ANALOG3_CR CRL
 #else
-#define ANALOG3_CROFF ANALOG3_BIT - 8
+#define ANALOG3_CROFF (ANALOG3_BIT&amp;0x03)
 #define ANALOG3_CR CRH
 #endif
 #define DIO70 70
@@ -6898,7 +6849,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG3
 #define ANALOG3_ADMUXREG (1&lt;&lt;3)
 #define DIO70_ADMUXREG (1&lt;&lt;3)
@@ -6907,7 +6858,7 @@
       <c r="I73" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG3
-CLEARBIT(ANALOG3_DIRREG, ANALOG3_BIT);
+mcu_config_analog(ANALOG3);
 #endif</v>
       </c>
       <c r="J73" s="3"/>
@@ -6945,7 +6896,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG4_PORT) &amp;&amp; defined(ANALOG4_BIT))
 #define ANALOG4 71
 #define ANALOG4_APB2EN (__rccapb2gpioen__(ANALOG4_PORT))
@@ -6954,7 +6905,7 @@
 #define ANALOG4_CROFF ANALOG4_BIT
 #define ANALOG4_CR CRL
 #else
-#define ANALOG4_CROFF ANALOG4_BIT - 8
+#define ANALOG4_CROFF (ANALOG4_BIT&amp;0x03)
 #define ANALOG4_CR CRH
 #endif
 #define DIO71 71
@@ -6969,7 +6920,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG4
 #define ANALOG4_ADMUXREG (1&lt;&lt;4)
 #define DIO71_ADMUXREG (1&lt;&lt;4)
@@ -6978,7 +6929,7 @@
       <c r="I74" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG4
-CLEARBIT(ANALOG4_DIRREG, ANALOG4_BIT);
+mcu_config_analog(ANALOG4);
 #endif</v>
       </c>
       <c r="J74" s="3"/>
@@ -7016,7 +6967,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG5_PORT) &amp;&amp; defined(ANALOG5_BIT))
 #define ANALOG5 72
 #define ANALOG5_APB2EN (__rccapb2gpioen__(ANALOG5_PORT))
@@ -7025,7 +6976,7 @@
 #define ANALOG5_CROFF ANALOG5_BIT
 #define ANALOG5_CR CRL
 #else
-#define ANALOG5_CROFF ANALOG5_BIT - 8
+#define ANALOG5_CROFF (ANALOG5_BIT&amp;0x03)
 #define ANALOG5_CR CRH
 #endif
 #define DIO72 72
@@ -7040,7 +6991,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG5
 #define ANALOG5_ADMUXREG (1&lt;&lt;5)
 #define DIO72_ADMUXREG (1&lt;&lt;5)
@@ -7049,7 +7000,7 @@
       <c r="I75" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG5
-CLEARBIT(ANALOG5_DIRREG, ANALOG5_BIT);
+mcu_config_analog(ANALOG5);
 #endif</v>
       </c>
       <c r="J75" s="3"/>
@@ -7087,7 +7038,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG6_PORT) &amp;&amp; defined(ANALOG6_BIT))
 #define ANALOG6 73
 #define ANALOG6_APB2EN (__rccapb2gpioen__(ANALOG6_PORT))
@@ -7096,7 +7047,7 @@
 #define ANALOG6_CROFF ANALOG6_BIT
 #define ANALOG6_CR CRL
 #else
-#define ANALOG6_CROFF ANALOG6_BIT - 8
+#define ANALOG6_CROFF (ANALOG6_BIT&amp;0x03)
 #define ANALOG6_CR CRH
 #endif
 #define DIO73 73
@@ -7111,7 +7062,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG6
 #define ANALOG6_ADMUXREG (1&lt;&lt;6)
 #define DIO73_ADMUXREG (1&lt;&lt;6)
@@ -7120,7 +7071,7 @@
       <c r="I76" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG6
-CLEARBIT(ANALOG6_DIRREG, ANALOG6_BIT);
+mcu_config_analog(ANALOG6);
 #endif</v>
       </c>
       <c r="J76" s="3"/>
@@ -7158,7 +7109,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG7_PORT) &amp;&amp; defined(ANALOG7_BIT))
 #define ANALOG7 74
 #define ANALOG7_APB2EN (__rccapb2gpioen__(ANALOG7_PORT))
@@ -7167,7 +7118,7 @@
 #define ANALOG7_CROFF ANALOG7_BIT
 #define ANALOG7_CR CRL
 #else
-#define ANALOG7_CROFF ANALOG7_BIT - 8
+#define ANALOG7_CROFF (ANALOG7_BIT&amp;0x03)
 #define ANALOG7_CR CRH
 #endif
 #define DIO74 74
@@ -7182,7 +7133,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG7
 #define ANALOG7_ADMUXREG (1&lt;&lt;7)
 #define DIO74_ADMUXREG (1&lt;&lt;7)
@@ -7191,7 +7142,7 @@
       <c r="I77" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG7
-CLEARBIT(ANALOG7_DIRREG, ANALOG7_BIT);
+mcu_config_analog(ANALOG7);
 #endif</v>
       </c>
       <c r="J77" s="3"/>
@@ -7229,7 +7180,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG8_PORT) &amp;&amp; defined(ANALOG8_BIT))
 #define ANALOG8 75
 #define ANALOG8_APB2EN (__rccapb2gpioen__(ANALOG8_PORT))
@@ -7238,7 +7189,7 @@
 #define ANALOG8_CROFF ANALOG8_BIT
 #define ANALOG8_CR CRL
 #else
-#define ANALOG8_CROFF ANALOG8_BIT - 8
+#define ANALOG8_CROFF (ANALOG8_BIT&amp;0x03)
 #define ANALOG8_CR CRH
 #endif
 #define DIO75 75
@@ -7253,7 +7204,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG8
 #define ANALOG8_ADMUXREG (1&lt;&lt;8)
 #define DIO75_ADMUXREG (1&lt;&lt;8)
@@ -7262,7 +7213,7 @@
       <c r="I78" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG8
-CLEARBIT(ANALOG8_DIRREG, ANALOG8_BIT);
+mcu_config_analog(ANALOG8);
 #endif</v>
       </c>
       <c r="J78" s="3"/>
@@ -7300,7 +7251,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG9_PORT) &amp;&amp; defined(ANALOG9_BIT))
 #define ANALOG9 76
 #define ANALOG9_APB2EN (__rccapb2gpioen__(ANALOG9_PORT))
@@ -7309,7 +7260,7 @@
 #define ANALOG9_CROFF ANALOG9_BIT
 #define ANALOG9_CR CRL
 #else
-#define ANALOG9_CROFF ANALOG9_BIT - 8
+#define ANALOG9_CROFF (ANALOG9_BIT&amp;0x03)
 #define ANALOG9_CR CRH
 #endif
 #define DIO76 76
@@ -7324,7 +7275,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG9
 #define ANALOG9_ADMUXREG (1&lt;&lt;9)
 #define DIO76_ADMUXREG (1&lt;&lt;9)
@@ -7333,7 +7284,7 @@
       <c r="I79" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG9
-CLEARBIT(ANALOG9_DIRREG, ANALOG9_BIT);
+mcu_config_analog(ANALOG9);
 #endif</v>
       </c>
       <c r="J79" s="3"/>
@@ -7371,7 +7322,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG10_PORT) &amp;&amp; defined(ANALOG10_BIT))
 #define ANALOG10 77
 #define ANALOG10_APB2EN (__rccapb2gpioen__(ANALOG10_PORT))
@@ -7380,7 +7331,7 @@
 #define ANALOG10_CROFF ANALOG10_BIT
 #define ANALOG10_CR CRL
 #else
-#define ANALOG10_CROFF ANALOG10_BIT - 8
+#define ANALOG10_CROFF (ANALOG10_BIT&amp;0x03)
 #define ANALOG10_CR CRH
 #endif
 #define DIO77 77
@@ -7395,7 +7346,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG10
 #define ANALOG10_ADMUXREG (1&lt;&lt;10)
 #define DIO77_ADMUXREG (1&lt;&lt;10)
@@ -7404,7 +7355,7 @@
       <c r="I80" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG10
-CLEARBIT(ANALOG10_DIRREG, ANALOG10_BIT);
+mcu_config_analog(ANALOG10);
 #endif</v>
       </c>
       <c r="J80" s="3"/>
@@ -7442,7 +7393,7 @@
         <v>11</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG11_PORT) &amp;&amp; defined(ANALOG11_BIT))
 #define ANALOG11 78
 #define ANALOG11_APB2EN (__rccapb2gpioen__(ANALOG11_PORT))
@@ -7451,7 +7402,7 @@
 #define ANALOG11_CROFF ANALOG11_BIT
 #define ANALOG11_CR CRL
 #else
-#define ANALOG11_CROFF ANALOG11_BIT - 8
+#define ANALOG11_CROFF (ANALOG11_BIT&amp;0x03)
 #define ANALOG11_CR CRH
 #endif
 #define DIO78 78
@@ -7466,7 +7417,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG11
 #define ANALOG11_ADMUXREG (1&lt;&lt;11)
 #define DIO78_ADMUXREG (1&lt;&lt;11)
@@ -7475,7 +7426,7 @@
       <c r="I81" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG11
-CLEARBIT(ANALOG11_DIRREG, ANALOG11_BIT);
+mcu_config_analog(ANALOG11);
 #endif</v>
       </c>
       <c r="J81" s="3"/>
@@ -7513,7 +7464,7 @@
         <v>12</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG12_PORT) &amp;&amp; defined(ANALOG12_BIT))
 #define ANALOG12 79
 #define ANALOG12_APB2EN (__rccapb2gpioen__(ANALOG12_PORT))
@@ -7522,7 +7473,7 @@
 #define ANALOG12_CROFF ANALOG12_BIT
 #define ANALOG12_CR CRL
 #else
-#define ANALOG12_CROFF ANALOG12_BIT - 8
+#define ANALOG12_CROFF (ANALOG12_BIT&amp;0x03)
 #define ANALOG12_CR CRH
 #endif
 #define DIO79 79
@@ -7537,7 +7488,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG12
 #define ANALOG12_ADMUXREG (1&lt;&lt;12)
 #define DIO79_ADMUXREG (1&lt;&lt;12)
@@ -7546,7 +7497,7 @@
       <c r="I82" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG12
-CLEARBIT(ANALOG12_DIRREG, ANALOG12_BIT);
+mcu_config_analog(ANALOG12);
 #endif</v>
       </c>
       <c r="J82" s="3"/>
@@ -7584,7 +7535,7 @@
         <v>13</v>
       </c>
       <c r="E83" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG13_PORT) &amp;&amp; defined(ANALOG13_BIT))
 #define ANALOG13 80
 #define ANALOG13_APB2EN (__rccapb2gpioen__(ANALOG13_PORT))
@@ -7593,7 +7544,7 @@
 #define ANALOG13_CROFF ANALOG13_BIT
 #define ANALOG13_CR CRL
 #else
-#define ANALOG13_CROFF ANALOG13_BIT - 8
+#define ANALOG13_CROFF (ANALOG13_BIT&amp;0x03)
 #define ANALOG13_CR CRH
 #endif
 #define DIO80 80
@@ -7608,7 +7559,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG13
 #define ANALOG13_ADMUXREG (1&lt;&lt;13)
 #define DIO80_ADMUXREG (1&lt;&lt;13)
@@ -7617,7 +7568,7 @@
       <c r="I83" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG13
-CLEARBIT(ANALOG13_DIRREG, ANALOG13_BIT);
+mcu_config_analog(ANALOG13);
 #endif</v>
       </c>
       <c r="J83" s="3"/>
@@ -7655,7 +7606,7 @@
         <v>14</v>
       </c>
       <c r="E84" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG14_PORT) &amp;&amp; defined(ANALOG14_BIT))
 #define ANALOG14 81
 #define ANALOG14_APB2EN (__rccapb2gpioen__(ANALOG14_PORT))
@@ -7664,7 +7615,7 @@
 #define ANALOG14_CROFF ANALOG14_BIT
 #define ANALOG14_CR CRL
 #else
-#define ANALOG14_CROFF ANALOG14_BIT - 8
+#define ANALOG14_CROFF (ANALOG14_BIT&amp;0x03)
 #define ANALOG14_CR CRH
 #endif
 #define DIO81 81
@@ -7679,7 +7630,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG14
 #define ANALOG14_ADMUXREG (1&lt;&lt;14)
 #define DIO81_ADMUXREG (1&lt;&lt;14)
@@ -7688,7 +7639,7 @@
       <c r="I84" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG14
-CLEARBIT(ANALOG14_DIRREG, ANALOG14_BIT);
+mcu_config_analog(ANALOG14);
 #endif</v>
       </c>
       <c r="J84" s="3"/>
@@ -7726,7 +7677,7 @@
         <v>15</v>
       </c>
       <c r="E85" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(ANALOG15_PORT) &amp;&amp; defined(ANALOG15_BIT))
 #define ANALOG15 82
 #define ANALOG15_APB2EN (__rccapb2gpioen__(ANALOG15_PORT))
@@ -7735,7 +7686,7 @@
 #define ANALOG15_CROFF ANALOG15_BIT
 #define ANALOG15_CR CRL
 #else
-#define ANALOG15_CROFF ANALOG15_BIT - 8
+#define ANALOG15_CROFF (ANALOG15_BIT&amp;0x03)
 #define ANALOG15_CR CRH
 #endif
 #define DIO82 82
@@ -7750,7 +7701,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#ifdef ANALOG15
 #define ANALOG15_ADMUXREG (1&lt;&lt;15)
 #define DIO82_ADMUXREG (1&lt;&lt;15)
@@ -7759,7 +7710,7 @@
       <c r="I85" s="3" t="str">
         <f t="shared" si="10"/>
         <v>#ifdef ANALOG15
-CLEARBIT(ANALOG15_DIRREG, ANALOG15_BIT);
+mcu_config_analog(ANALOG15);
 #endif</v>
       </c>
       <c r="J85" s="3"/>
@@ -7797,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(RX_PORT) &amp;&amp; defined(RX_BIT))
 #define RX 83
 #define RX_APB2EN (__rccapb2gpioen__(RX_PORT))
@@ -7806,7 +7757,7 @@
 #define RX_CROFF RX_BIT
 #define RX_CR CRL
 #else
-#define RX_CROFF RX_BIT - 8
+#define RX_CROFF (RX_BIT&amp;0x03)
 #define RX_CR CRH
 #endif
 #define DIO83 83
@@ -7821,12 +7772,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef RX
-CLEARBIT(RX_DIRREG, RX_BIT);
-#endif</v>
-      </c>
+      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -7862,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN0_PORT) &amp;&amp; defined(DIN0_BIT))
 #define DIN0 84
 #define DIN0_APB2EN (__rccapb2gpioen__(DIN0_PORT))
@@ -7871,7 +7817,7 @@
 #define DIN0_CROFF DIN0_BIT
 #define DIN0_CR CRL
 #else
-#define DIN0_CROFF DIN0_BIT - 8
+#define DIN0_CROFF (DIN0_BIT&amp;0x03)
 #define DIN0_CR CRH
 #endif
 #define DIO84 84
@@ -7887,16 +7833,16 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="3" t="str">
-        <f t="shared" ref="I87:I102" si="12">"#ifdef "&amp;C87&amp;"
-CLEARBIT("&amp;C87&amp;"_DIRREG, "&amp;C87&amp;"_BIT);
+        <f>"#ifdef "&amp;C87&amp;"
+mcu_config_input("&amp;C87&amp;");
 #ifdef "&amp;C87&amp;"_PULLUP
-SETBIT("&amp;C87&amp;"_PORTREG, "&amp;C87&amp;"_BIT);
+mcu_config_pullup("&amp;C87&amp;");
 #endif
 #endif"</f>
         <v>#ifdef DIN0
-CLEARBIT(DIN0_DIRREG, DIN0_BIT);
+mcu_config_input(DIN0);
 #ifdef DIN0_PULLUP
-SETBIT(DIN0_PORTREG, DIN0_BIT);
+mcu_config_pullup(DIN0);
 #endif
 #endif</v>
       </c>
@@ -7935,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN1_PORT) &amp;&amp; defined(DIN1_BIT))
 #define DIN1 85
 #define DIN1_APB2EN (__rccapb2gpioen__(DIN1_PORT))
@@ -7944,7 +7890,7 @@
 #define DIN1_CROFF DIN1_BIT
 #define DIN1_CR CRL
 #else
-#define DIN1_CROFF DIN1_BIT - 8
+#define DIN1_CROFF (DIN1_BIT&amp;0x03)
 #define DIN1_CR CRH
 #endif
 #define DIO85 85
@@ -7960,11 +7906,16 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I88:I102" si="11">"#ifdef "&amp;C88&amp;"
+mcu_config_input("&amp;C88&amp;");
+#ifdef "&amp;C88&amp;"_PULLUP
+mcu_config_pullup("&amp;C88&amp;");
+#endif
+#endif"</f>
         <v>#ifdef DIN1
-CLEARBIT(DIN1_DIRREG, DIN1_BIT);
+mcu_config_input(DIN1);
 #ifdef DIN1_PULLUP
-SETBIT(DIN1_PORTREG, DIN1_BIT);
+mcu_config_pullup(DIN1);
 #endif
 #endif</v>
       </c>
@@ -8003,7 +7954,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN2_PORT) &amp;&amp; defined(DIN2_BIT))
 #define DIN2 86
 #define DIN2_APB2EN (__rccapb2gpioen__(DIN2_PORT))
@@ -8012,7 +7963,7 @@
 #define DIN2_CROFF DIN2_BIT
 #define DIN2_CR CRL
 #else
-#define DIN2_CROFF DIN2_BIT - 8
+#define DIN2_CROFF (DIN2_BIT&amp;0x03)
 #define DIN2_CR CRH
 #endif
 #define DIO86 86
@@ -8028,11 +7979,11 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN2
-CLEARBIT(DIN2_DIRREG, DIN2_BIT);
+mcu_config_input(DIN2);
 #ifdef DIN2_PULLUP
-SETBIT(DIN2_PORTREG, DIN2_BIT);
+mcu_config_pullup(DIN2);
 #endif
 #endif</v>
       </c>
@@ -8071,7 +8022,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN3_PORT) &amp;&amp; defined(DIN3_BIT))
 #define DIN3 87
 #define DIN3_APB2EN (__rccapb2gpioen__(DIN3_PORT))
@@ -8080,7 +8031,7 @@
 #define DIN3_CROFF DIN3_BIT
 #define DIN3_CR CRL
 #else
-#define DIN3_CROFF DIN3_BIT - 8
+#define DIN3_CROFF (DIN3_BIT&amp;0x03)
 #define DIN3_CR CRH
 #endif
 #define DIO87 87
@@ -8096,11 +8047,11 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN3
-CLEARBIT(DIN3_DIRREG, DIN3_BIT);
+mcu_config_input(DIN3);
 #ifdef DIN3_PULLUP
-SETBIT(DIN3_PORTREG, DIN3_BIT);
+mcu_config_pullup(DIN3);
 #endif
 #endif</v>
       </c>
@@ -8139,7 +8090,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN4_PORT) &amp;&amp; defined(DIN4_BIT))
 #define DIN4 88
 #define DIN4_APB2EN (__rccapb2gpioen__(DIN4_PORT))
@@ -8148,7 +8099,7 @@
 #define DIN4_CROFF DIN4_BIT
 #define DIN4_CR CRL
 #else
-#define DIN4_CROFF DIN4_BIT - 8
+#define DIN4_CROFF (DIN4_BIT&amp;0x03)
 #define DIN4_CR CRH
 #endif
 #define DIO88 88
@@ -8164,11 +8115,11 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN4
-CLEARBIT(DIN4_DIRREG, DIN4_BIT);
+mcu_config_input(DIN4);
 #ifdef DIN4_PULLUP
-SETBIT(DIN4_PORTREG, DIN4_BIT);
+mcu_config_pullup(DIN4);
 #endif
 #endif</v>
       </c>
@@ -8207,7 +8158,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN5_PORT) &amp;&amp; defined(DIN5_BIT))
 #define DIN5 89
 #define DIN5_APB2EN (__rccapb2gpioen__(DIN5_PORT))
@@ -8216,7 +8167,7 @@
 #define DIN5_CROFF DIN5_BIT
 #define DIN5_CR CRL
 #else
-#define DIN5_CROFF DIN5_BIT - 8
+#define DIN5_CROFF (DIN5_BIT&amp;0x03)
 #define DIN5_CR CRH
 #endif
 #define DIO89 89
@@ -8232,11 +8183,11 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN5
-CLEARBIT(DIN5_DIRREG, DIN5_BIT);
+mcu_config_input(DIN5);
 #ifdef DIN5_PULLUP
-SETBIT(DIN5_PORTREG, DIN5_BIT);
+mcu_config_pullup(DIN5);
 #endif
 #endif</v>
       </c>
@@ -8275,7 +8226,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN6_PORT) &amp;&amp; defined(DIN6_BIT))
 #define DIN6 90
 #define DIN6_APB2EN (__rccapb2gpioen__(DIN6_PORT))
@@ -8284,7 +8235,7 @@
 #define DIN6_CROFF DIN6_BIT
 #define DIN6_CR CRL
 #else
-#define DIN6_CROFF DIN6_BIT - 8
+#define DIN6_CROFF (DIN6_BIT&amp;0x03)
 #define DIN6_CR CRH
 #endif
 #define DIO90 90
@@ -8300,11 +8251,11 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN6
-CLEARBIT(DIN6_DIRREG, DIN6_BIT);
+mcu_config_input(DIN6);
 #ifdef DIN6_PULLUP
-SETBIT(DIN6_PORTREG, DIN6_BIT);
+mcu_config_pullup(DIN6);
 #endif
 #endif</v>
       </c>
@@ -8343,7 +8294,7 @@
         <v>7</v>
       </c>
       <c r="E94" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN7_PORT) &amp;&amp; defined(DIN7_BIT))
 #define DIN7 91
 #define DIN7_APB2EN (__rccapb2gpioen__(DIN7_PORT))
@@ -8352,7 +8303,7 @@
 #define DIN7_CROFF DIN7_BIT
 #define DIN7_CR CRL
 #else
-#define DIN7_CROFF DIN7_BIT - 8
+#define DIN7_CROFF (DIN7_BIT&amp;0x03)
 #define DIN7_CR CRH
 #endif
 #define DIO91 91
@@ -8368,11 +8319,11 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN7
-CLEARBIT(DIN7_DIRREG, DIN7_BIT);
+mcu_config_input(DIN7);
 #ifdef DIN7_PULLUP
-SETBIT(DIN7_PORTREG, DIN7_BIT);
+mcu_config_pullup(DIN7);
 #endif
 #endif</v>
       </c>
@@ -8411,7 +8362,7 @@
         <v>8</v>
       </c>
       <c r="E95" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN8_PORT) &amp;&amp; defined(DIN8_BIT))
 #define DIN8 92
 #define DIN8_APB2EN (__rccapb2gpioen__(DIN8_PORT))
@@ -8420,7 +8371,7 @@
 #define DIN8_CROFF DIN8_BIT
 #define DIN8_CR CRL
 #else
-#define DIN8_CROFF DIN8_BIT - 8
+#define DIN8_CROFF (DIN8_BIT&amp;0x03)
 #define DIN8_CR CRH
 #endif
 #define DIO92 92
@@ -8436,11 +8387,11 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN8
-CLEARBIT(DIN8_DIRREG, DIN8_BIT);
+mcu_config_input(DIN8);
 #ifdef DIN8_PULLUP
-SETBIT(DIN8_PORTREG, DIN8_BIT);
+mcu_config_pullup(DIN8);
 #endif
 #endif</v>
       </c>
@@ -8479,7 +8430,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN9_PORT) &amp;&amp; defined(DIN9_BIT))
 #define DIN9 93
 #define DIN9_APB2EN (__rccapb2gpioen__(DIN9_PORT))
@@ -8488,7 +8439,7 @@
 #define DIN9_CROFF DIN9_BIT
 #define DIN9_CR CRL
 #else
-#define DIN9_CROFF DIN9_BIT - 8
+#define DIN9_CROFF (DIN9_BIT&amp;0x03)
 #define DIN9_CR CRH
 #endif
 #define DIO93 93
@@ -8504,11 +8455,11 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN9
-CLEARBIT(DIN9_DIRREG, DIN9_BIT);
+mcu_config_input(DIN9);
 #ifdef DIN9_PULLUP
-SETBIT(DIN9_PORTREG, DIN9_BIT);
+mcu_config_pullup(DIN9);
 #endif
 #endif</v>
       </c>
@@ -8547,7 +8498,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN10_PORT) &amp;&amp; defined(DIN10_BIT))
 #define DIN10 94
 #define DIN10_APB2EN (__rccapb2gpioen__(DIN10_PORT))
@@ -8556,7 +8507,7 @@
 #define DIN10_CROFF DIN10_BIT
 #define DIN10_CR CRL
 #else
-#define DIN10_CROFF DIN10_BIT - 8
+#define DIN10_CROFF (DIN10_BIT&amp;0x03)
 #define DIN10_CR CRH
 #endif
 #define DIO94 94
@@ -8572,11 +8523,11 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN10
-CLEARBIT(DIN10_DIRREG, DIN10_BIT);
+mcu_config_input(DIN10);
 #ifdef DIN10_PULLUP
-SETBIT(DIN10_PORTREG, DIN10_BIT);
+mcu_config_pullup(DIN10);
 #endif
 #endif</v>
       </c>
@@ -8615,7 +8566,7 @@
         <v>11</v>
       </c>
       <c r="E98" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN11_PORT) &amp;&amp; defined(DIN11_BIT))
 #define DIN11 95
 #define DIN11_APB2EN (__rccapb2gpioen__(DIN11_PORT))
@@ -8624,7 +8575,7 @@
 #define DIN11_CROFF DIN11_BIT
 #define DIN11_CR CRL
 #else
-#define DIN11_CROFF DIN11_BIT - 8
+#define DIN11_CROFF (DIN11_BIT&amp;0x03)
 #define DIN11_CR CRH
 #endif
 #define DIO95 95
@@ -8640,11 +8591,11 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN11
-CLEARBIT(DIN11_DIRREG, DIN11_BIT);
+mcu_config_input(DIN11);
 #ifdef DIN11_PULLUP
-SETBIT(DIN11_PORTREG, DIN11_BIT);
+mcu_config_pullup(DIN11);
 #endif
 #endif</v>
       </c>
@@ -8683,7 +8634,7 @@
         <v>12</v>
       </c>
       <c r="E99" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN12_PORT) &amp;&amp; defined(DIN12_BIT))
 #define DIN12 96
 #define DIN12_APB2EN (__rccapb2gpioen__(DIN12_PORT))
@@ -8692,7 +8643,7 @@
 #define DIN12_CROFF DIN12_BIT
 #define DIN12_CR CRL
 #else
-#define DIN12_CROFF DIN12_BIT - 8
+#define DIN12_CROFF (DIN12_BIT&amp;0x03)
 #define DIN12_CR CRH
 #endif
 #define DIO96 96
@@ -8708,11 +8659,11 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN12
-CLEARBIT(DIN12_DIRREG, DIN12_BIT);
+mcu_config_input(DIN12);
 #ifdef DIN12_PULLUP
-SETBIT(DIN12_PORTREG, DIN12_BIT);
+mcu_config_pullup(DIN12);
 #endif
 #endif</v>
       </c>
@@ -8751,7 +8702,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN13_PORT) &amp;&amp; defined(DIN13_BIT))
 #define DIN13 97
 #define DIN13_APB2EN (__rccapb2gpioen__(DIN13_PORT))
@@ -8760,7 +8711,7 @@
 #define DIN13_CROFF DIN13_BIT
 #define DIN13_CR CRL
 #else
-#define DIN13_CROFF DIN13_BIT - 8
+#define DIN13_CROFF (DIN13_BIT&amp;0x03)
 #define DIN13_CR CRH
 #endif
 #define DIO97 97
@@ -8776,11 +8727,11 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN13
-CLEARBIT(DIN13_DIRREG, DIN13_BIT);
+mcu_config_input(DIN13);
 #ifdef DIN13_PULLUP
-SETBIT(DIN13_PORTREG, DIN13_BIT);
+mcu_config_pullup(DIN13);
 #endif
 #endif</v>
       </c>
@@ -8819,7 +8770,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN14_PORT) &amp;&amp; defined(DIN14_BIT))
 #define DIN14 98
 #define DIN14_APB2EN (__rccapb2gpioen__(DIN14_PORT))
@@ -8828,7 +8779,7 @@
 #define DIN14_CROFF DIN14_BIT
 #define DIN14_CR CRL
 #else
-#define DIN14_CROFF DIN14_BIT - 8
+#define DIN14_CROFF (DIN14_BIT&amp;0x03)
 #define DIN14_CR CRH
 #endif
 #define DIO98 98
@@ -8844,11 +8795,11 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN14
-CLEARBIT(DIN14_DIRREG, DIN14_BIT);
+mcu_config_input(DIN14);
 #ifdef DIN14_PULLUP
-SETBIT(DIN14_PORTREG, DIN14_BIT);
+mcu_config_pullup(DIN14);
 #endif
 #endif</v>
       </c>
@@ -8872,7 +8823,7 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
     </row>
-    <row r="102" spans="1:28" s="4" customFormat="1" ht="327" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" s="4" customFormat="1" ht="315.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -8887,7 +8838,7 @@
         <v>15</v>
       </c>
       <c r="E102" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#if (defined(DIN15_PORT) &amp;&amp; defined(DIN15_BIT))
 #define DIN15 99
 #define DIN15_APB2EN (__rccapb2gpioen__(DIN15_PORT))
@@ -8896,7 +8847,7 @@
 #define DIN15_CROFF DIN15_BIT
 #define DIN15_CR CRL
 #else
-#define DIN15_CROFF DIN15_BIT - 8
+#define DIN15_CROFF (DIN15_BIT&amp;0x03)
 #define DIN15_CR CRH
 #endif
 #define DIO99 99
@@ -8912,11 +8863,11 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#ifdef DIN15
-CLEARBIT(DIN15_DIRREG, DIN15_BIT);
+mcu_config_input(DIN15);
 #ifdef DIN15_PULLUP
-SETBIT(DIN15_PORTREG, DIN15_BIT);
+mcu_config_pullup(DIN15);
 #endif
 #endif</v>
       </c>

--- a/docs/stm32f1_mcumap_gen.xlsx
+++ b/docs/stm32f1_mcumap_gen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFCE7B-5A10-4E63-8916-2AF48D8A2359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92930652-39AB-4697-B829-CA426C44322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
 #define "&amp;C3&amp;"_CROFF "&amp;C3&amp;"_BIT
 #define "&amp;C3&amp;"_CR CRL
 #else
-#define "&amp;C3&amp;"_CROFF ("&amp;C3&amp;"_BIT&amp;0x03)
+#define "&amp;C3&amp;"_CROFF ("&amp;C3&amp;"_BIT&amp;0x05)
 #define "&amp;C3&amp;"_CR CRH
 #endif
 #define "&amp;B3&amp;" "&amp;A3&amp;"
@@ -889,7 +889,7 @@
 #define STEP0_CROFF STEP0_BIT
 #define STEP0_CR CRL
 #else
-#define STEP0_CROFF (STEP0_BIT&amp;0x03)
+#define STEP0_CROFF (STEP0_BIT&amp;0x05)
 #define STEP0_CR CRH
 #endif
 #define DIO0 0
@@ -990,7 +990,7 @@
 #define "&amp;C4&amp;"_CROFF "&amp;C4&amp;"_BIT
 #define "&amp;C4&amp;"_CR CRL
 #else
-#define "&amp;C4&amp;"_CROFF ("&amp;C4&amp;"_BIT&amp;0x03)
+#define "&amp;C4&amp;"_CROFF ("&amp;C4&amp;"_BIT&amp;0x05)
 #define "&amp;C4&amp;"_CR CRH
 #endif
 #define "&amp;B4&amp;" "&amp;A4&amp;"
@@ -1009,7 +1009,7 @@
 #define STEP1_CROFF STEP1_BIT
 #define STEP1_CR CRL
 #else
-#define STEP1_CROFF (STEP1_BIT&amp;0x03)
+#define STEP1_CROFF (STEP1_BIT&amp;0x05)
 #define STEP1_CR CRH
 #endif
 #define DIO1 1
@@ -1111,7 +1111,7 @@
 #define STEP2_CROFF STEP2_BIT
 #define STEP2_CR CRL
 #else
-#define STEP2_CROFF (STEP2_BIT&amp;0x03)
+#define STEP2_CROFF (STEP2_BIT&amp;0x05)
 #define STEP2_CR CRH
 #endif
 #define DIO2 2
@@ -1198,7 +1198,7 @@
 #define STEP3_CROFF STEP3_BIT
 #define STEP3_CR CRL
 #else
-#define STEP3_CROFF (STEP3_BIT&amp;0x03)
+#define STEP3_CROFF (STEP3_BIT&amp;0x05)
 #define STEP3_CR CRH
 #endif
 #define DIO3 3
@@ -1285,7 +1285,7 @@
 #define STEP4_CROFF STEP4_BIT
 #define STEP4_CR CRL
 #else
-#define STEP4_CROFF (STEP4_BIT&amp;0x03)
+#define STEP4_CROFF (STEP4_BIT&amp;0x05)
 #define STEP4_CR CRH
 #endif
 #define DIO4 4
@@ -1372,7 +1372,7 @@
 #define STEP5_CROFF STEP5_BIT
 #define STEP5_CR CRL
 #else
-#define STEP5_CROFF (STEP5_BIT&amp;0x03)
+#define STEP5_CROFF (STEP5_BIT&amp;0x05)
 #define STEP5_CR CRH
 #endif
 #define DIO5 5
@@ -1459,7 +1459,7 @@
 #define STEP6_CROFF STEP6_BIT
 #define STEP6_CR CRL
 #else
-#define STEP6_CROFF (STEP6_BIT&amp;0x03)
+#define STEP6_CROFF (STEP6_BIT&amp;0x05)
 #define STEP6_CR CRH
 #endif
 #define DIO6 6
@@ -1524,7 +1524,7 @@
 #define STEP7_CROFF STEP7_BIT
 #define STEP7_CR CRL
 #else
-#define STEP7_CROFF (STEP7_BIT&amp;0x03)
+#define STEP7_CROFF (STEP7_BIT&amp;0x05)
 #define STEP7_CR CRH
 #endif
 #define DIO7 7
@@ -1589,7 +1589,7 @@
 #define STEP0_EN_CROFF STEP0_EN_BIT
 #define STEP0_EN_CR CRL
 #else
-#define STEP0_EN_CROFF (STEP0_EN_BIT&amp;0x03)
+#define STEP0_EN_CROFF (STEP0_EN_BIT&amp;0x05)
 #define STEP0_EN_CR CRH
 #endif
 #define DIO8 8
@@ -1676,7 +1676,7 @@
 #define STEP1_EN_CROFF STEP1_EN_BIT
 #define STEP1_EN_CR CRL
 #else
-#define STEP1_EN_CROFF (STEP1_EN_BIT&amp;0x03)
+#define STEP1_EN_CROFF (STEP1_EN_BIT&amp;0x05)
 #define STEP1_EN_CR CRH
 #endif
 #define DIO9 9
@@ -1763,7 +1763,7 @@
 #define STEP2_EN_CROFF STEP2_EN_BIT
 #define STEP2_EN_CR CRL
 #else
-#define STEP2_EN_CROFF (STEP2_EN_BIT&amp;0x03)
+#define STEP2_EN_CROFF (STEP2_EN_BIT&amp;0x05)
 #define STEP2_EN_CR CRH
 #endif
 #define DIO10 10
@@ -1828,7 +1828,7 @@
 #define STEP3_EN_CROFF STEP3_EN_BIT
 #define STEP3_EN_CR CRL
 #else
-#define STEP3_EN_CROFF (STEP3_EN_BIT&amp;0x03)
+#define STEP3_EN_CROFF (STEP3_EN_BIT&amp;0x05)
 #define STEP3_EN_CR CRH
 #endif
 #define DIO11 11
@@ -1893,7 +1893,7 @@
 #define STEP4_EN_CROFF STEP4_EN_BIT
 #define STEP4_EN_CR CRL
 #else
-#define STEP4_EN_CROFF (STEP4_EN_BIT&amp;0x03)
+#define STEP4_EN_CROFF (STEP4_EN_BIT&amp;0x05)
 #define STEP4_EN_CR CRH
 #endif
 #define DIO12 12
@@ -1958,7 +1958,7 @@
 #define STEP5_EN_CROFF STEP5_EN_BIT
 #define STEP5_EN_CR CRL
 #else
-#define STEP5_EN_CROFF (STEP5_EN_BIT&amp;0x03)
+#define STEP5_EN_CROFF (STEP5_EN_BIT&amp;0x05)
 #define STEP5_EN_CR CRH
 #endif
 #define DIO13 13
@@ -2023,7 +2023,7 @@
 #define DIR0_CROFF DIR0_BIT
 #define DIR0_CR CRL
 #else
-#define DIR0_CROFF (DIR0_BIT&amp;0x03)
+#define DIR0_CROFF (DIR0_BIT&amp;0x05)
 #define DIR0_CR CRH
 #endif
 #define DIO14 14
@@ -2088,7 +2088,7 @@
 #define DIR1_CROFF DIR1_BIT
 #define DIR1_CR CRL
 #else
-#define DIR1_CROFF (DIR1_BIT&amp;0x03)
+#define DIR1_CROFF (DIR1_BIT&amp;0x05)
 #define DIR1_CR CRH
 #endif
 #define DIO15 15
@@ -2153,7 +2153,7 @@
 #define DIR2_CROFF DIR2_BIT
 #define DIR2_CR CRL
 #else
-#define DIR2_CROFF (DIR2_BIT&amp;0x03)
+#define DIR2_CROFF (DIR2_BIT&amp;0x05)
 #define DIR2_CR CRH
 #endif
 #define DIO16 16
@@ -2218,7 +2218,7 @@
 #define DIR3_CROFF DIR3_BIT
 #define DIR3_CR CRL
 #else
-#define DIR3_CROFF (DIR3_BIT&amp;0x03)
+#define DIR3_CROFF (DIR3_BIT&amp;0x05)
 #define DIR3_CR CRH
 #endif
 #define DIO17 17
@@ -2283,7 +2283,7 @@
 #define DIR4_CROFF DIR4_BIT
 #define DIR4_CR CRL
 #else
-#define DIR4_CROFF (DIR4_BIT&amp;0x03)
+#define DIR4_CROFF (DIR4_BIT&amp;0x05)
 #define DIR4_CR CRH
 #endif
 #define DIO18 18
@@ -2348,7 +2348,7 @@
 #define DIR5_CROFF DIR5_BIT
 #define DIR5_CR CRL
 #else
-#define DIR5_CROFF (DIR5_BIT&amp;0x03)
+#define DIR5_CROFF (DIR5_BIT&amp;0x05)
 #define DIR5_CR CRH
 #endif
 #define DIO19 19
@@ -2415,7 +2415,7 @@
 #define PWM0_CROFF PWM0_BIT
 #define PWM0_CR CRL
 #else
-#define PWM0_CROFF (PWM0_BIT&amp;0x03)
+#define PWM0_CROFF (PWM0_BIT&amp;0x05)
 #define PWM0_CR CRH
 #endif
 #define DIO20 20
@@ -2567,7 +2567,7 @@
 #define PWM1_CROFF PWM1_BIT
 #define PWM1_CR CRL
 #else
-#define PWM1_CROFF (PWM1_BIT&amp;0x03)
+#define PWM1_CROFF (PWM1_BIT&amp;0x05)
 #define PWM1_CR CRH
 #endif
 #define DIO21 21
@@ -2719,7 +2719,7 @@
 #define PWM2_CROFF PWM2_BIT
 #define PWM2_CR CRL
 #else
-#define PWM2_CROFF (PWM2_BIT&amp;0x03)
+#define PWM2_CROFF (PWM2_BIT&amp;0x05)
 #define PWM2_CR CRH
 #endif
 #define DIO22 22
@@ -2828,7 +2828,7 @@
 #define PWM3_CROFF PWM3_BIT
 #define PWM3_CR CRL
 #else
-#define PWM3_CROFF (PWM3_BIT&amp;0x03)
+#define PWM3_CROFF (PWM3_BIT&amp;0x05)
 #define PWM3_CR CRH
 #endif
 #define DIO23 23
@@ -2937,7 +2937,7 @@
 #define PWM4_CROFF PWM4_BIT
 #define PWM4_CR CRL
 #else
-#define PWM4_CROFF (PWM4_BIT&amp;0x03)
+#define PWM4_CROFF (PWM4_BIT&amp;0x05)
 #define PWM4_CR CRH
 #endif
 #define DIO24 24
@@ -3046,7 +3046,7 @@
 #define PWM5_CROFF PWM5_BIT
 #define PWM5_CR CRL
 #else
-#define PWM5_CROFF (PWM5_BIT&amp;0x03)
+#define PWM5_CROFF (PWM5_BIT&amp;0x05)
 #define PWM5_CR CRH
 #endif
 #define DIO25 25
@@ -3155,7 +3155,7 @@
 #define PWM6_CROFF PWM6_BIT
 #define PWM6_CR CRL
 #else
-#define PWM6_CROFF (PWM6_BIT&amp;0x03)
+#define PWM6_CROFF (PWM6_BIT&amp;0x05)
 #define PWM6_CR CRH
 #endif
 #define DIO26 26
@@ -3264,7 +3264,7 @@
 #define PWM7_CROFF PWM7_BIT
 #define PWM7_CR CRL
 #else
-#define PWM7_CROFF (PWM7_BIT&amp;0x03)
+#define PWM7_CROFF (PWM7_BIT&amp;0x05)
 #define PWM7_CR CRH
 #endif
 #define DIO27 27
@@ -3373,7 +3373,7 @@
 #define PWM8_CROFF PWM8_BIT
 #define PWM8_CR CRL
 #else
-#define PWM8_CROFF (PWM8_BIT&amp;0x03)
+#define PWM8_CROFF (PWM8_BIT&amp;0x05)
 #define PWM8_CR CRH
 #endif
 #define DIO28 28
@@ -3482,7 +3482,7 @@
 #define PWM9_CROFF PWM9_BIT
 #define PWM9_CR CRL
 #else
-#define PWM9_CROFF (PWM9_BIT&amp;0x03)
+#define PWM9_CROFF (PWM9_BIT&amp;0x05)
 #define PWM9_CR CRH
 #endif
 #define DIO29 29
@@ -3591,7 +3591,7 @@
 #define PWM10_CROFF PWM10_BIT
 #define PWM10_CR CRL
 #else
-#define PWM10_CROFF (PWM10_BIT&amp;0x03)
+#define PWM10_CROFF (PWM10_BIT&amp;0x05)
 #define PWM10_CR CRH
 #endif
 #define DIO30 30
@@ -3700,7 +3700,7 @@
 #define PWM11_CROFF PWM11_BIT
 #define PWM11_CR CRL
 #else
-#define PWM11_CROFF (PWM11_BIT&amp;0x03)
+#define PWM11_CROFF (PWM11_BIT&amp;0x05)
 #define PWM11_CR CRH
 #endif
 #define DIO31 31
@@ -3809,7 +3809,7 @@
 #define PWM12_CROFF PWM12_BIT
 #define PWM12_CR CRL
 #else
-#define PWM12_CROFF (PWM12_BIT&amp;0x03)
+#define PWM12_CROFF (PWM12_BIT&amp;0x05)
 #define PWM12_CR CRH
 #endif
 #define DIO32 32
@@ -3918,7 +3918,7 @@
 #define PWM13_CROFF PWM13_BIT
 #define PWM13_CR CRL
 #else
-#define PWM13_CROFF (PWM13_BIT&amp;0x03)
+#define PWM13_CROFF (PWM13_BIT&amp;0x05)
 #define PWM13_CR CRH
 #endif
 #define DIO33 33
@@ -4027,7 +4027,7 @@
 #define PWM14_CROFF PWM14_BIT
 #define PWM14_CR CRL
 #else
-#define PWM14_CROFF (PWM14_BIT&amp;0x03)
+#define PWM14_CROFF (PWM14_BIT&amp;0x05)
 #define PWM14_CR CRH
 #endif
 #define DIO34 34
@@ -4136,7 +4136,7 @@
 #define PWM15_CROFF PWM15_BIT
 #define PWM15_CR CRL
 #else
-#define PWM15_CROFF (PWM15_BIT&amp;0x03)
+#define PWM15_CROFF (PWM15_BIT&amp;0x05)
 #define PWM15_CR CRH
 #endif
 #define DIO35 35
@@ -4243,7 +4243,7 @@
 #define TX_CROFF TX_BIT
 #define TX_CR CRL
 #else
-#define TX_CROFF (TX_BIT&amp;0x03)
+#define TX_CROFF (TX_BIT&amp;0x05)
 #define TX_CR CRH
 #endif
 #define DIO36 36
@@ -4303,7 +4303,7 @@
 #define DOUT0_CROFF DOUT0_BIT
 #define DOUT0_CR CRL
 #else
-#define DOUT0_CROFF (DOUT0_BIT&amp;0x03)
+#define DOUT0_CROFF (DOUT0_BIT&amp;0x05)
 #define DOUT0_CR CRH
 #endif
 #define DIO37 37
@@ -4368,7 +4368,7 @@
 #define DOUT1_CROFF DOUT1_BIT
 #define DOUT1_CR CRL
 #else
-#define DOUT1_CROFF (DOUT1_BIT&amp;0x03)
+#define DOUT1_CROFF (DOUT1_BIT&amp;0x05)
 #define DOUT1_CR CRH
 #endif
 #define DIO38 38
@@ -4433,7 +4433,7 @@
 #define DOUT2_CROFF DOUT2_BIT
 #define DOUT2_CR CRL
 #else
-#define DOUT2_CROFF (DOUT2_BIT&amp;0x03)
+#define DOUT2_CROFF (DOUT2_BIT&amp;0x05)
 #define DOUT2_CR CRH
 #endif
 #define DIO39 39
@@ -4498,7 +4498,7 @@
 #define DOUT3_CROFF DOUT3_BIT
 #define DOUT3_CR CRL
 #else
-#define DOUT3_CROFF (DOUT3_BIT&amp;0x03)
+#define DOUT3_CROFF (DOUT3_BIT&amp;0x05)
 #define DOUT3_CR CRH
 #endif
 #define DIO40 40
@@ -4563,7 +4563,7 @@
 #define DOUT4_CROFF DOUT4_BIT
 #define DOUT4_CR CRL
 #else
-#define DOUT4_CROFF (DOUT4_BIT&amp;0x03)
+#define DOUT4_CROFF (DOUT4_BIT&amp;0x05)
 #define DOUT4_CR CRH
 #endif
 #define DIO41 41
@@ -4628,7 +4628,7 @@
 #define DOUT5_CROFF DOUT5_BIT
 #define DOUT5_CR CRL
 #else
-#define DOUT5_CROFF (DOUT5_BIT&amp;0x03)
+#define DOUT5_CROFF (DOUT5_BIT&amp;0x05)
 #define DOUT5_CR CRH
 #endif
 #define DIO42 42
@@ -4693,7 +4693,7 @@
 #define DOUT6_CROFF DOUT6_BIT
 #define DOUT6_CR CRL
 #else
-#define DOUT6_CROFF (DOUT6_BIT&amp;0x03)
+#define DOUT6_CROFF (DOUT6_BIT&amp;0x05)
 #define DOUT6_CR CRH
 #endif
 #define DIO43 43
@@ -4758,7 +4758,7 @@
 #define DOUT7_CROFF DOUT7_BIT
 #define DOUT7_CR CRL
 #else
-#define DOUT7_CROFF (DOUT7_BIT&amp;0x03)
+#define DOUT7_CROFF (DOUT7_BIT&amp;0x05)
 #define DOUT7_CR CRH
 #endif
 #define DIO44 44
@@ -4823,7 +4823,7 @@
 #define DOUT8_CROFF DOUT8_BIT
 #define DOUT8_CR CRL
 #else
-#define DOUT8_CROFF (DOUT8_BIT&amp;0x03)
+#define DOUT8_CROFF (DOUT8_BIT&amp;0x05)
 #define DOUT8_CR CRH
 #endif
 #define DIO45 45
@@ -4888,7 +4888,7 @@
 #define DOUT9_CROFF DOUT9_BIT
 #define DOUT9_CR CRL
 #else
-#define DOUT9_CROFF (DOUT9_BIT&amp;0x03)
+#define DOUT9_CROFF (DOUT9_BIT&amp;0x05)
 #define DOUT9_CR CRH
 #endif
 #define DIO46 46
@@ -4953,7 +4953,7 @@
 #define DOUT10_CROFF DOUT10_BIT
 #define DOUT10_CR CRL
 #else
-#define DOUT10_CROFF (DOUT10_BIT&amp;0x03)
+#define DOUT10_CROFF (DOUT10_BIT&amp;0x05)
 #define DOUT10_CR CRH
 #endif
 #define DIO47 47
@@ -5018,7 +5018,7 @@
 #define DOUT11_CROFF DOUT11_BIT
 #define DOUT11_CR CRL
 #else
-#define DOUT11_CROFF (DOUT11_BIT&amp;0x03)
+#define DOUT11_CROFF (DOUT11_BIT&amp;0x05)
 #define DOUT11_CR CRH
 #endif
 #define DIO48 48
@@ -5083,7 +5083,7 @@
 #define DOUT12_CROFF DOUT12_BIT
 #define DOUT12_CR CRL
 #else
-#define DOUT12_CROFF (DOUT12_BIT&amp;0x03)
+#define DOUT12_CROFF (DOUT12_BIT&amp;0x05)
 #define DOUT12_CR CRH
 #endif
 #define DIO49 49
@@ -5148,7 +5148,7 @@
 #define DOUT13_CROFF DOUT13_BIT
 #define DOUT13_CR CRL
 #else
-#define DOUT13_CROFF (DOUT13_BIT&amp;0x03)
+#define DOUT13_CROFF (DOUT13_BIT&amp;0x05)
 #define DOUT13_CR CRH
 #endif
 #define DIO50 50
@@ -5213,7 +5213,7 @@
 #define DOUT14_CROFF DOUT14_BIT
 #define DOUT14_CR CRL
 #else
-#define DOUT14_CROFF (DOUT14_BIT&amp;0x03)
+#define DOUT14_CROFF (DOUT14_BIT&amp;0x05)
 #define DOUT14_CR CRH
 #endif
 #define DIO51 51
@@ -5278,7 +5278,7 @@
 #define DOUT15_CROFF DOUT15_BIT
 #define DOUT15_CR CRL
 #else
-#define DOUT15_CROFF (DOUT15_BIT&amp;0x03)
+#define DOUT15_CROFF (DOUT15_BIT&amp;0x05)
 #define DOUT15_CR CRH
 #endif
 #define DIO52 52
@@ -5347,7 +5347,7 @@
 #define LIMIT_X_CROFF LIMIT_X_BIT
 #define LIMIT_X_CR CRL
 #else
-#define LIMIT_X_CROFF (LIMIT_X_BIT&amp;0x03)
+#define LIMIT_X_CROFF (LIMIT_X_BIT&amp;0x05)
 #define LIMIT_X_CR CRH
 #endif
 #define DIO53 53
@@ -5453,7 +5453,7 @@
 #define LIMIT_Y_CROFF LIMIT_Y_BIT
 #define LIMIT_Y_CR CRL
 #else
-#define LIMIT_Y_CROFF (LIMIT_Y_BIT&amp;0x03)
+#define LIMIT_Y_CROFF (LIMIT_Y_BIT&amp;0x05)
 #define LIMIT_Y_CR CRH
 #endif
 #define DIO54 54
@@ -5559,7 +5559,7 @@
 #define LIMIT_Z_CROFF LIMIT_Z_BIT
 #define LIMIT_Z_CR CRL
 #else
-#define LIMIT_Z_CROFF (LIMIT_Z_BIT&amp;0x03)
+#define LIMIT_Z_CROFF (LIMIT_Z_BIT&amp;0x05)
 #define LIMIT_Z_CR CRH
 #endif
 #define DIO55 55
@@ -5645,7 +5645,7 @@
 #define LIMIT_X2_CROFF LIMIT_X2_BIT
 #define LIMIT_X2_CR CRL
 #else
-#define LIMIT_X2_CROFF (LIMIT_X2_BIT&amp;0x03)
+#define LIMIT_X2_CROFF (LIMIT_X2_BIT&amp;0x05)
 #define LIMIT_X2_CR CRH
 #endif
 #define DIO56 56
@@ -5731,7 +5731,7 @@
 #define LIMIT_Y2_CROFF LIMIT_Y2_BIT
 #define LIMIT_Y2_CR CRL
 #else
-#define LIMIT_Y2_CROFF (LIMIT_Y2_BIT&amp;0x03)
+#define LIMIT_Y2_CROFF (LIMIT_Y2_BIT&amp;0x05)
 #define LIMIT_Y2_CR CRH
 #endif
 #define DIO57 57
@@ -5817,7 +5817,7 @@
 #define LIMIT_Z2_CROFF LIMIT_Z2_BIT
 #define LIMIT_Z2_CR CRL
 #else
-#define LIMIT_Z2_CROFF (LIMIT_Z2_BIT&amp;0x03)
+#define LIMIT_Z2_CROFF (LIMIT_Z2_BIT&amp;0x05)
 #define LIMIT_Z2_CR CRH
 #endif
 #define DIO58 58
@@ -5903,7 +5903,7 @@
 #define LIMIT_A_CROFF LIMIT_A_BIT
 #define LIMIT_A_CR CRL
 #else
-#define LIMIT_A_CROFF (LIMIT_A_BIT&amp;0x03)
+#define LIMIT_A_CROFF (LIMIT_A_BIT&amp;0x05)
 #define LIMIT_A_CR CRH
 #endif
 #define DIO59 59
@@ -5989,7 +5989,7 @@
 #define LIMIT_B_CROFF LIMIT_B_BIT
 #define LIMIT_B_CR CRL
 #else
-#define LIMIT_B_CROFF (LIMIT_B_BIT&amp;0x03)
+#define LIMIT_B_CROFF (LIMIT_B_BIT&amp;0x05)
 #define LIMIT_B_CR CRH
 #endif
 #define DIO60 60
@@ -6075,7 +6075,7 @@
 #define LIMIT_C_CROFF LIMIT_C_BIT
 #define LIMIT_C_CR CRL
 #else
-#define LIMIT_C_CROFF (LIMIT_C_BIT&amp;0x03)
+#define LIMIT_C_CROFF (LIMIT_C_BIT&amp;0x05)
 #define LIMIT_C_CR CRH
 #endif
 #define DIO61 61
@@ -6161,7 +6161,7 @@
 #define PROBE_CROFF PROBE_BIT
 #define PROBE_CR CRL
 #else
-#define PROBE_CROFF (PROBE_BIT&amp;0x03)
+#define PROBE_CROFF (PROBE_BIT&amp;0x05)
 #define PROBE_CR CRH
 #endif
 #define DIO62 62
@@ -6247,7 +6247,7 @@
 #define ESTOP_CROFF ESTOP_BIT
 #define ESTOP_CR CRL
 #else
-#define ESTOP_CROFF (ESTOP_BIT&amp;0x03)
+#define ESTOP_CROFF (ESTOP_BIT&amp;0x05)
 #define ESTOP_CR CRH
 #endif
 #define DIO63 63
@@ -6333,7 +6333,7 @@
 #define SAFETY_DOOR_CROFF SAFETY_DOOR_BIT
 #define SAFETY_DOOR_CR CRL
 #else
-#define SAFETY_DOOR_CROFF (SAFETY_DOOR_BIT&amp;0x03)
+#define SAFETY_DOOR_CROFF (SAFETY_DOOR_BIT&amp;0x05)
 #define SAFETY_DOOR_CR CRH
 #endif
 #define DIO64 64
@@ -6418,7 +6418,7 @@
 #define "&amp;C68&amp;"_CROFF "&amp;C68&amp;"_BIT
 #define "&amp;C68&amp;"_CR CRL
 #else
-#define "&amp;C68&amp;"_CROFF ("&amp;C68&amp;"_BIT&amp;0x03)
+#define "&amp;C68&amp;"_CROFF ("&amp;C68&amp;"_BIT&amp;0x05)
 #define "&amp;C68&amp;"_CR CRH
 #endif
 #define "&amp;B68&amp;" "&amp;A68&amp;"
@@ -6437,7 +6437,7 @@
 #define FHOLD_CROFF FHOLD_BIT
 #define FHOLD_CR CRL
 #else
-#define FHOLD_CROFF (FHOLD_BIT&amp;0x03)
+#define FHOLD_CROFF (FHOLD_BIT&amp;0x05)
 #define FHOLD_CR CRH
 #endif
 #define DIO65 65
@@ -6523,7 +6523,7 @@
 #define CS_RES_CROFF CS_RES_BIT
 #define CS_RES_CR CRL
 #else
-#define CS_RES_CROFF (CS_RES_BIT&amp;0x03)
+#define CS_RES_CROFF (CS_RES_BIT&amp;0x05)
 #define CS_RES_CR CRH
 #endif
 #define DIO66 66
@@ -6611,7 +6611,7 @@
 #define ANALOG0_CROFF ANALOG0_BIT
 #define ANALOG0_CR CRL
 #else
-#define ANALOG0_CROFF (ANALOG0_BIT&amp;0x03)
+#define ANALOG0_CROFF (ANALOG0_BIT&amp;0x05)
 #define ANALOG0_CR CRH
 #endif
 #define DIO67 67
@@ -6687,7 +6687,7 @@
 #define ANALOG1_CROFF ANALOG1_BIT
 #define ANALOG1_CR CRL
 #else
-#define ANALOG1_CROFF (ANALOG1_BIT&amp;0x03)
+#define ANALOG1_CROFF (ANALOG1_BIT&amp;0x05)
 #define ANALOG1_CR CRH
 #endif
 #define DIO68 68
@@ -6763,7 +6763,7 @@
 #define ANALOG2_CROFF ANALOG2_BIT
 #define ANALOG2_CR CRL
 #else
-#define ANALOG2_CROFF (ANALOG2_BIT&amp;0x03)
+#define ANALOG2_CROFF (ANALOG2_BIT&amp;0x05)
 #define ANALOG2_CR CRH
 #endif
 #define DIO69 69
@@ -6834,7 +6834,7 @@
 #define ANALOG3_CROFF ANALOG3_BIT
 #define ANALOG3_CR CRL
 #else
-#define ANALOG3_CROFF (ANALOG3_BIT&amp;0x03)
+#define ANALOG3_CROFF (ANALOG3_BIT&amp;0x05)
 #define ANALOG3_CR CRH
 #endif
 #define DIO70 70
@@ -6905,7 +6905,7 @@
 #define ANALOG4_CROFF ANALOG4_BIT
 #define ANALOG4_CR CRL
 #else
-#define ANALOG4_CROFF (ANALOG4_BIT&amp;0x03)
+#define ANALOG4_CROFF (ANALOG4_BIT&amp;0x05)
 #define ANALOG4_CR CRH
 #endif
 #define DIO71 71
@@ -6976,7 +6976,7 @@
 #define ANALOG5_CROFF ANALOG5_BIT
 #define ANALOG5_CR CRL
 #else
-#define ANALOG5_CROFF (ANALOG5_BIT&amp;0x03)
+#define ANALOG5_CROFF (ANALOG5_BIT&amp;0x05)
 #define ANALOG5_CR CRH
 #endif
 #define DIO72 72
@@ -7047,7 +7047,7 @@
 #define ANALOG6_CROFF ANALOG6_BIT
 #define ANALOG6_CR CRL
 #else
-#define ANALOG6_CROFF (ANALOG6_BIT&amp;0x03)
+#define ANALOG6_CROFF (ANALOG6_BIT&amp;0x05)
 #define ANALOG6_CR CRH
 #endif
 #define DIO73 73
@@ -7118,7 +7118,7 @@
 #define ANALOG7_CROFF ANALOG7_BIT
 #define ANALOG7_CR CRL
 #else
-#define ANALOG7_CROFF (ANALOG7_BIT&amp;0x03)
+#define ANALOG7_CROFF (ANALOG7_BIT&amp;0x05)
 #define ANALOG7_CR CRH
 #endif
 #define DIO74 74
@@ -7189,7 +7189,7 @@
 #define ANALOG8_CROFF ANALOG8_BIT
 #define ANALOG8_CR CRL
 #else
-#define ANALOG8_CROFF (ANALOG8_BIT&amp;0x03)
+#define ANALOG8_CROFF (ANALOG8_BIT&amp;0x05)
 #define ANALOG8_CR CRH
 #endif
 #define DIO75 75
@@ -7260,7 +7260,7 @@
 #define ANALOG9_CROFF ANALOG9_BIT
 #define ANALOG9_CR CRL
 #else
-#define ANALOG9_CROFF (ANALOG9_BIT&amp;0x03)
+#define ANALOG9_CROFF (ANALOG9_BIT&amp;0x05)
 #define ANALOG9_CR CRH
 #endif
 #define DIO76 76
@@ -7331,7 +7331,7 @@
 #define ANALOG10_CROFF ANALOG10_BIT
 #define ANALOG10_CR CRL
 #else
-#define ANALOG10_CROFF (ANALOG10_BIT&amp;0x03)
+#define ANALOG10_CROFF (ANALOG10_BIT&amp;0x05)
 #define ANALOG10_CR CRH
 #endif
 #define DIO77 77
@@ -7402,7 +7402,7 @@
 #define ANALOG11_CROFF ANALOG11_BIT
 #define ANALOG11_CR CRL
 #else
-#define ANALOG11_CROFF (ANALOG11_BIT&amp;0x03)
+#define ANALOG11_CROFF (ANALOG11_BIT&amp;0x05)
 #define ANALOG11_CR CRH
 #endif
 #define DIO78 78
@@ -7473,7 +7473,7 @@
 #define ANALOG12_CROFF ANALOG12_BIT
 #define ANALOG12_CR CRL
 #else
-#define ANALOG12_CROFF (ANALOG12_BIT&amp;0x03)
+#define ANALOG12_CROFF (ANALOG12_BIT&amp;0x05)
 #define ANALOG12_CR CRH
 #endif
 #define DIO79 79
@@ -7544,7 +7544,7 @@
 #define ANALOG13_CROFF ANALOG13_BIT
 #define ANALOG13_CR CRL
 #else
-#define ANALOG13_CROFF (ANALOG13_BIT&amp;0x03)
+#define ANALOG13_CROFF (ANALOG13_BIT&amp;0x05)
 #define ANALOG13_CR CRH
 #endif
 #define DIO80 80
@@ -7615,7 +7615,7 @@
 #define ANALOG14_CROFF ANALOG14_BIT
 #define ANALOG14_CR CRL
 #else
-#define ANALOG14_CROFF (ANALOG14_BIT&amp;0x03)
+#define ANALOG14_CROFF (ANALOG14_BIT&amp;0x05)
 #define ANALOG14_CR CRH
 #endif
 #define DIO81 81
@@ -7686,7 +7686,7 @@
 #define ANALOG15_CROFF ANALOG15_BIT
 #define ANALOG15_CR CRL
 #else
-#define ANALOG15_CROFF (ANALOG15_BIT&amp;0x03)
+#define ANALOG15_CROFF (ANALOG15_BIT&amp;0x05)
 #define ANALOG15_CR CRH
 #endif
 #define DIO82 82
@@ -7757,7 +7757,7 @@
 #define RX_CROFF RX_BIT
 #define RX_CR CRL
 #else
-#define RX_CROFF (RX_BIT&amp;0x03)
+#define RX_CROFF (RX_BIT&amp;0x05)
 #define RX_CR CRH
 #endif
 #define DIO83 83
@@ -7817,7 +7817,7 @@
 #define DIN0_CROFF DIN0_BIT
 #define DIN0_CR CRL
 #else
-#define DIN0_CROFF (DIN0_BIT&amp;0x03)
+#define DIN0_CROFF (DIN0_BIT&amp;0x05)
 #define DIN0_CR CRH
 #endif
 #define DIO84 84
@@ -7890,7 +7890,7 @@
 #define DIN1_CROFF DIN1_BIT
 #define DIN1_CR CRL
 #else
-#define DIN1_CROFF (DIN1_BIT&amp;0x03)
+#define DIN1_CROFF (DIN1_BIT&amp;0x05)
 #define DIN1_CR CRH
 #endif
 #define DIO85 85
@@ -7963,7 +7963,7 @@
 #define DIN2_CROFF DIN2_BIT
 #define DIN2_CR CRL
 #else
-#define DIN2_CROFF (DIN2_BIT&amp;0x03)
+#define DIN2_CROFF (DIN2_BIT&amp;0x05)
 #define DIN2_CR CRH
 #endif
 #define DIO86 86
@@ -8031,7 +8031,7 @@
 #define DIN3_CROFF DIN3_BIT
 #define DIN3_CR CRL
 #else
-#define DIN3_CROFF (DIN3_BIT&amp;0x03)
+#define DIN3_CROFF (DIN3_BIT&amp;0x05)
 #define DIN3_CR CRH
 #endif
 #define DIO87 87
@@ -8099,7 +8099,7 @@
 #define DIN4_CROFF DIN4_BIT
 #define DIN4_CR CRL
 #else
-#define DIN4_CROFF (DIN4_BIT&amp;0x03)
+#define DIN4_CROFF (DIN4_BIT&amp;0x05)
 #define DIN4_CR CRH
 #endif
 #define DIO88 88
@@ -8167,7 +8167,7 @@
 #define DIN5_CROFF DIN5_BIT
 #define DIN5_CR CRL
 #else
-#define DIN5_CROFF (DIN5_BIT&amp;0x03)
+#define DIN5_CROFF (DIN5_BIT&amp;0x05)
 #define DIN5_CR CRH
 #endif
 #define DIO89 89
@@ -8235,7 +8235,7 @@
 #define DIN6_CROFF DIN6_BIT
 #define DIN6_CR CRL
 #else
-#define DIN6_CROFF (DIN6_BIT&amp;0x03)
+#define DIN6_CROFF (DIN6_BIT&amp;0x05)
 #define DIN6_CR CRH
 #endif
 #define DIO90 90
@@ -8303,7 +8303,7 @@
 #define DIN7_CROFF DIN7_BIT
 #define DIN7_CR CRL
 #else
-#define DIN7_CROFF (DIN7_BIT&amp;0x03)
+#define DIN7_CROFF (DIN7_BIT&amp;0x05)
 #define DIN7_CR CRH
 #endif
 #define DIO91 91
@@ -8371,7 +8371,7 @@
 #define DIN8_CROFF DIN8_BIT
 #define DIN8_CR CRL
 #else
-#define DIN8_CROFF (DIN8_BIT&amp;0x03)
+#define DIN8_CROFF (DIN8_BIT&amp;0x05)
 #define DIN8_CR CRH
 #endif
 #define DIO92 92
@@ -8439,7 +8439,7 @@
 #define DIN9_CROFF DIN9_BIT
 #define DIN9_CR CRL
 #else
-#define DIN9_CROFF (DIN9_BIT&amp;0x03)
+#define DIN9_CROFF (DIN9_BIT&amp;0x05)
 #define DIN9_CR CRH
 #endif
 #define DIO93 93
@@ -8507,7 +8507,7 @@
 #define DIN10_CROFF DIN10_BIT
 #define DIN10_CR CRL
 #else
-#define DIN10_CROFF (DIN10_BIT&amp;0x03)
+#define DIN10_CROFF (DIN10_BIT&amp;0x05)
 #define DIN10_CR CRH
 #endif
 #define DIO94 94
@@ -8575,7 +8575,7 @@
 #define DIN11_CROFF DIN11_BIT
 #define DIN11_CR CRL
 #else
-#define DIN11_CROFF (DIN11_BIT&amp;0x03)
+#define DIN11_CROFF (DIN11_BIT&amp;0x05)
 #define DIN11_CR CRH
 #endif
 #define DIO95 95
@@ -8643,7 +8643,7 @@
 #define DIN12_CROFF DIN12_BIT
 #define DIN12_CR CRL
 #else
-#define DIN12_CROFF (DIN12_BIT&amp;0x03)
+#define DIN12_CROFF (DIN12_BIT&amp;0x05)
 #define DIN12_CR CRH
 #endif
 #define DIO96 96
@@ -8711,7 +8711,7 @@
 #define DIN13_CROFF DIN13_BIT
 #define DIN13_CR CRL
 #else
-#define DIN13_CROFF (DIN13_BIT&amp;0x03)
+#define DIN13_CROFF (DIN13_BIT&amp;0x05)
 #define DIN13_CR CRH
 #endif
 #define DIO97 97
@@ -8779,7 +8779,7 @@
 #define DIN14_CROFF DIN14_BIT
 #define DIN14_CR CRL
 #else
-#define DIN14_CROFF (DIN14_BIT&amp;0x03)
+#define DIN14_CROFF (DIN14_BIT&amp;0x05)
 #define DIN14_CR CRH
 #endif
 #define DIO98 98
@@ -8847,7 +8847,7 @@
 #define DIN15_CROFF DIN15_BIT
 #define DIN15_CR CRL
 #else
-#define DIN15_CROFF (DIN15_BIT&amp;0x03)
+#define DIN15_CROFF (DIN15_BIT&amp;0x05)
 #define DIN15_CR CRH
 #endif
 #define DIO99 99

--- a/docs/stm32f1_mcumap_gen.xlsx
+++ b/docs/stm32f1_mcumap_gen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFCE7B-5A10-4E63-8916-2AF48D8A2359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D446E568-5890-4A6F-B9FD-1CE8783B1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F69"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
 #define "&amp;C3&amp;"_CROFF "&amp;C3&amp;"_BIT
 #define "&amp;C3&amp;"_CR CRL
 #else
-#define "&amp;C3&amp;"_CROFF ("&amp;C3&amp;"_BIT&amp;0x03)
+#define "&amp;C3&amp;"_CROFF ("&amp;C3&amp;"_BIT&amp;0x05)
 #define "&amp;C3&amp;"_CR CRH
 #endif
 #define "&amp;B3&amp;" "&amp;A3&amp;"
@@ -889,7 +889,7 @@
 #define STEP0_CROFF STEP0_BIT
 #define STEP0_CR CRL
 #else
-#define STEP0_CROFF (STEP0_BIT&amp;0x03)
+#define STEP0_CROFF (STEP0_BIT&amp;0x05)
 #define STEP0_CR CRH
 #endif
 #define DIO0 0
@@ -990,7 +990,7 @@
 #define "&amp;C4&amp;"_CROFF "&amp;C4&amp;"_BIT
 #define "&amp;C4&amp;"_CR CRL
 #else
-#define "&amp;C4&amp;"_CROFF ("&amp;C4&amp;"_BIT&amp;0x03)
+#define "&amp;C4&amp;"_CROFF ("&amp;C4&amp;"_BIT&amp;0x05)
 #define "&amp;C4&amp;"_CR CRH
 #endif
 #define "&amp;B4&amp;" "&amp;A4&amp;"
@@ -1009,7 +1009,7 @@
 #define STEP1_CROFF STEP1_BIT
 #define STEP1_CR CRL
 #else
-#define STEP1_CROFF (STEP1_BIT&amp;0x03)
+#define STEP1_CROFF (STEP1_BIT&amp;0x05)
 #define STEP1_CR CRH
 #endif
 #define DIO1 1
@@ -1111,7 +1111,7 @@
 #define STEP2_CROFF STEP2_BIT
 #define STEP2_CR CRL
 #else
-#define STEP2_CROFF (STEP2_BIT&amp;0x03)
+#define STEP2_CROFF (STEP2_BIT&amp;0x05)
 #define STEP2_CR CRH
 #endif
 #define DIO2 2
@@ -1198,7 +1198,7 @@
 #define STEP3_CROFF STEP3_BIT
 #define STEP3_CR CRL
 #else
-#define STEP3_CROFF (STEP3_BIT&amp;0x03)
+#define STEP3_CROFF (STEP3_BIT&amp;0x05)
 #define STEP3_CR CRH
 #endif
 #define DIO3 3
@@ -1285,7 +1285,7 @@
 #define STEP4_CROFF STEP4_BIT
 #define STEP4_CR CRL
 #else
-#define STEP4_CROFF (STEP4_BIT&amp;0x03)
+#define STEP4_CROFF (STEP4_BIT&amp;0x05)
 #define STEP4_CR CRH
 #endif
 #define DIO4 4
@@ -1372,7 +1372,7 @@
 #define STEP5_CROFF STEP5_BIT
 #define STEP5_CR CRL
 #else
-#define STEP5_CROFF (STEP5_BIT&amp;0x03)
+#define STEP5_CROFF (STEP5_BIT&amp;0x05)
 #define STEP5_CR CRH
 #endif
 #define DIO5 5
@@ -1459,7 +1459,7 @@
 #define STEP6_CROFF STEP6_BIT
 #define STEP6_CR CRL
 #else
-#define STEP6_CROFF (STEP6_BIT&amp;0x03)
+#define STEP6_CROFF (STEP6_BIT&amp;0x05)
 #define STEP6_CR CRH
 #endif
 #define DIO6 6
@@ -1524,7 +1524,7 @@
 #define STEP7_CROFF STEP7_BIT
 #define STEP7_CR CRL
 #else
-#define STEP7_CROFF (STEP7_BIT&amp;0x03)
+#define STEP7_CROFF (STEP7_BIT&amp;0x05)
 #define STEP7_CR CRH
 #endif
 #define DIO7 7
@@ -1589,7 +1589,7 @@
 #define STEP0_EN_CROFF STEP0_EN_BIT
 #define STEP0_EN_CR CRL
 #else
-#define STEP0_EN_CROFF (STEP0_EN_BIT&amp;0x03)
+#define STEP0_EN_CROFF (STEP0_EN_BIT&amp;0x05)
 #define STEP0_EN_CR CRH
 #endif
 #define DIO8 8
@@ -1676,7 +1676,7 @@
 #define STEP1_EN_CROFF STEP1_EN_BIT
 #define STEP1_EN_CR CRL
 #else
-#define STEP1_EN_CROFF (STEP1_EN_BIT&amp;0x03)
+#define STEP1_EN_CROFF (STEP1_EN_BIT&amp;0x05)
 #define STEP1_EN_CR CRH
 #endif
 #define DIO9 9
@@ -1763,7 +1763,7 @@
 #define STEP2_EN_CROFF STEP2_EN_BIT
 #define STEP2_EN_CR CRL
 #else
-#define STEP2_EN_CROFF (STEP2_EN_BIT&amp;0x03)
+#define STEP2_EN_CROFF (STEP2_EN_BIT&amp;0x05)
 #define STEP2_EN_CR CRH
 #endif
 #define DIO10 10
@@ -1828,7 +1828,7 @@
 #define STEP3_EN_CROFF STEP3_EN_BIT
 #define STEP3_EN_CR CRL
 #else
-#define STEP3_EN_CROFF (STEP3_EN_BIT&amp;0x03)
+#define STEP3_EN_CROFF (STEP3_EN_BIT&amp;0x05)
 #define STEP3_EN_CR CRH
 #endif
 #define DIO11 11
@@ -1893,7 +1893,7 @@
 #define STEP4_EN_CROFF STEP4_EN_BIT
 #define STEP4_EN_CR CRL
 #else
-#define STEP4_EN_CROFF (STEP4_EN_BIT&amp;0x03)
+#define STEP4_EN_CROFF (STEP4_EN_BIT&amp;0x05)
 #define STEP4_EN_CR CRH
 #endif
 #define DIO12 12
@@ -1958,7 +1958,7 @@
 #define STEP5_EN_CROFF STEP5_EN_BIT
 #define STEP5_EN_CR CRL
 #else
-#define STEP5_EN_CROFF (STEP5_EN_BIT&amp;0x03)
+#define STEP5_EN_CROFF (STEP5_EN_BIT&amp;0x05)
 #define STEP5_EN_CR CRH
 #endif
 #define DIO13 13
@@ -2023,7 +2023,7 @@
 #define DIR0_CROFF DIR0_BIT
 #define DIR0_CR CRL
 #else
-#define DIR0_CROFF (DIR0_BIT&amp;0x03)
+#define DIR0_CROFF (DIR0_BIT&amp;0x05)
 #define DIR0_CR CRH
 #endif
 #define DIO14 14
@@ -2088,7 +2088,7 @@
 #define DIR1_CROFF DIR1_BIT
 #define DIR1_CR CRL
 #else
-#define DIR1_CROFF (DIR1_BIT&amp;0x03)
+#define DIR1_CROFF (DIR1_BIT&amp;0x05)
 #define DIR1_CR CRH
 #endif
 #define DIO15 15
@@ -2153,7 +2153,7 @@
 #define DIR2_CROFF DIR2_BIT
 #define DIR2_CR CRL
 #else
-#define DIR2_CROFF (DIR2_BIT&amp;0x03)
+#define DIR2_CROFF (DIR2_BIT&amp;0x05)
 #define DIR2_CR CRH
 #endif
 #define DIO16 16
@@ -2218,7 +2218,7 @@
 #define DIR3_CROFF DIR3_BIT
 #define DIR3_CR CRL
 #else
-#define DIR3_CROFF (DIR3_BIT&amp;0x03)
+#define DIR3_CROFF (DIR3_BIT&amp;0x05)
 #define DIR3_CR CRH
 #endif
 #define DIO17 17
@@ -2283,7 +2283,7 @@
 #define DIR4_CROFF DIR4_BIT
 #define DIR4_CR CRL
 #else
-#define DIR4_CROFF (DIR4_BIT&amp;0x03)
+#define DIR4_CROFF (DIR4_BIT&amp;0x05)
 #define DIR4_CR CRH
 #endif
 #define DIO18 18
@@ -2348,7 +2348,7 @@
 #define DIR5_CROFF DIR5_BIT
 #define DIR5_CR CRL
 #else
-#define DIR5_CROFF (DIR5_BIT&amp;0x03)
+#define DIR5_CROFF (DIR5_BIT&amp;0x05)
 #define DIR5_CR CRH
 #endif
 #define DIO19 19
@@ -2415,7 +2415,7 @@
 #define PWM0_CROFF PWM0_BIT
 #define PWM0_CR CRL
 #else
-#define PWM0_CROFF (PWM0_BIT&amp;0x03)
+#define PWM0_CROFF (PWM0_BIT&amp;0x05)
 #define PWM0_CR CRH
 #endif
 #define DIO20 20
@@ -2567,7 +2567,7 @@
 #define PWM1_CROFF PWM1_BIT
 #define PWM1_CR CRL
 #else
-#define PWM1_CROFF (PWM1_BIT&amp;0x03)
+#define PWM1_CROFF (PWM1_BIT&amp;0x05)
 #define PWM1_CR CRH
 #endif
 #define DIO21 21
@@ -2719,7 +2719,7 @@
 #define PWM2_CROFF PWM2_BIT
 #define PWM2_CR CRL
 #else
-#define PWM2_CROFF (PWM2_BIT&amp;0x03)
+#define PWM2_CROFF (PWM2_BIT&amp;0x05)
 #define PWM2_CR CRH
 #endif
 #define DIO22 22
@@ -2828,7 +2828,7 @@
 #define PWM3_CROFF PWM3_BIT
 #define PWM3_CR CRL
 #else
-#define PWM3_CROFF (PWM3_BIT&amp;0x03)
+#define PWM3_CROFF (PWM3_BIT&amp;0x05)
 #define PWM3_CR CRH
 #endif
 #define DIO23 23
@@ -2937,7 +2937,7 @@
 #define PWM4_CROFF PWM4_BIT
 #define PWM4_CR CRL
 #else
-#define PWM4_CROFF (PWM4_BIT&amp;0x03)
+#define PWM4_CROFF (PWM4_BIT&amp;0x05)
 #define PWM4_CR CRH
 #endif
 #define DIO24 24
@@ -3046,7 +3046,7 @@
 #define PWM5_CROFF PWM5_BIT
 #define PWM5_CR CRL
 #else
-#define PWM5_CROFF (PWM5_BIT&amp;0x03)
+#define PWM5_CROFF (PWM5_BIT&amp;0x05)
 #define PWM5_CR CRH
 #endif
 #define DIO25 25
@@ -3155,7 +3155,7 @@
 #define PWM6_CROFF PWM6_BIT
 #define PWM6_CR CRL
 #else
-#define PWM6_CROFF (PWM6_BIT&amp;0x03)
+#define PWM6_CROFF (PWM6_BIT&amp;0x05)
 #define PWM6_CR CRH
 #endif
 #define DIO26 26
@@ -3264,7 +3264,7 @@
 #define PWM7_CROFF PWM7_BIT
 #define PWM7_CR CRL
 #else
-#define PWM7_CROFF (PWM7_BIT&amp;0x03)
+#define PWM7_CROFF (PWM7_BIT&amp;0x05)
 #define PWM7_CR CRH
 #endif
 #define DIO27 27
@@ -3373,7 +3373,7 @@
 #define PWM8_CROFF PWM8_BIT
 #define PWM8_CR CRL
 #else
-#define PWM8_CROFF (PWM8_BIT&amp;0x03)
+#define PWM8_CROFF (PWM8_BIT&amp;0x05)
 #define PWM8_CR CRH
 #endif
 #define DIO28 28
@@ -3482,7 +3482,7 @@
 #define PWM9_CROFF PWM9_BIT
 #define PWM9_CR CRL
 #else
-#define PWM9_CROFF (PWM9_BIT&amp;0x03)
+#define PWM9_CROFF (PWM9_BIT&amp;0x05)
 #define PWM9_CR CRH
 #endif
 #define DIO29 29
@@ -3591,7 +3591,7 @@
 #define PWM10_CROFF PWM10_BIT
 #define PWM10_CR CRL
 #else
-#define PWM10_CROFF (PWM10_BIT&amp;0x03)
+#define PWM10_CROFF (PWM10_BIT&amp;0x05)
 #define PWM10_CR CRH
 #endif
 #define DIO30 30
@@ -3700,7 +3700,7 @@
 #define PWM11_CROFF PWM11_BIT
 #define PWM11_CR CRL
 #else
-#define PWM11_CROFF (PWM11_BIT&amp;0x03)
+#define PWM11_CROFF (PWM11_BIT&amp;0x05)
 #define PWM11_CR CRH
 #endif
 #define DIO31 31
@@ -3809,7 +3809,7 @@
 #define PWM12_CROFF PWM12_BIT
 #define PWM12_CR CRL
 #else
-#define PWM12_CROFF (PWM12_BIT&amp;0x03)
+#define PWM12_CROFF (PWM12_BIT&amp;0x05)
 #define PWM12_CR CRH
 #endif
 #define DIO32 32
@@ -3918,7 +3918,7 @@
 #define PWM13_CROFF PWM13_BIT
 #define PWM13_CR CRL
 #else
-#define PWM13_CROFF (PWM13_BIT&amp;0x03)
+#define PWM13_CROFF (PWM13_BIT&amp;0x05)
 #define PWM13_CR CRH
 #endif
 #define DIO33 33
@@ -4027,7 +4027,7 @@
 #define PWM14_CROFF PWM14_BIT
 #define PWM14_CR CRL
 #else
-#define PWM14_CROFF (PWM14_BIT&amp;0x03)
+#define PWM14_CROFF (PWM14_BIT&amp;0x05)
 #define PWM14_CR CRH
 #endif
 #define DIO34 34
@@ -4136,7 +4136,7 @@
 #define PWM15_CROFF PWM15_BIT
 #define PWM15_CR CRL
 #else
-#define PWM15_CROFF (PWM15_BIT&amp;0x03)
+#define PWM15_CROFF (PWM15_BIT&amp;0x05)
 #define PWM15_CR CRH
 #endif
 #define DIO35 35
@@ -4243,7 +4243,7 @@
 #define TX_CROFF TX_BIT
 #define TX_CR CRL
 #else
-#define TX_CROFF (TX_BIT&amp;0x03)
+#define TX_CROFF (TX_BIT&amp;0x05)
 #define TX_CR CRH
 #endif
 #define DIO36 36
@@ -4303,7 +4303,7 @@
 #define DOUT0_CROFF DOUT0_BIT
 #define DOUT0_CR CRL
 #else
-#define DOUT0_CROFF (DOUT0_BIT&amp;0x03)
+#define DOUT0_CROFF (DOUT0_BIT&amp;0x05)
 #define DOUT0_CR CRH
 #endif
 #define DIO37 37
@@ -4368,7 +4368,7 @@
 #define DOUT1_CROFF DOUT1_BIT
 #define DOUT1_CR CRL
 #else
-#define DOUT1_CROFF (DOUT1_BIT&amp;0x03)
+#define DOUT1_CROFF (DOUT1_BIT&amp;0x05)
 #define DOUT1_CR CRH
 #endif
 #define DIO38 38
@@ -4433,7 +4433,7 @@
 #define DOUT2_CROFF DOUT2_BIT
 #define DOUT2_CR CRL
 #else
-#define DOUT2_CROFF (DOUT2_BIT&amp;0x03)
+#define DOUT2_CROFF (DOUT2_BIT&amp;0x05)
 #define DOUT2_CR CRH
 #endif
 #define DIO39 39
@@ -4498,7 +4498,7 @@
 #define DOUT3_CROFF DOUT3_BIT
 #define DOUT3_CR CRL
 #else
-#define DOUT3_CROFF (DOUT3_BIT&amp;0x03)
+#define DOUT3_CROFF (DOUT3_BIT&amp;0x05)
 #define DOUT3_CR CRH
 #endif
 #define DIO40 40
@@ -4563,7 +4563,7 @@
 #define DOUT4_CROFF DOUT4_BIT
 #define DOUT4_CR CRL
 #else
-#define DOUT4_CROFF (DOUT4_BIT&amp;0x03)
+#define DOUT4_CROFF (DOUT4_BIT&amp;0x05)
 #define DOUT4_CR CRH
 #endif
 #define DIO41 41
@@ -4628,7 +4628,7 @@
 #define DOUT5_CROFF DOUT5_BIT
 #define DOUT5_CR CRL
 #else
-#define DOUT5_CROFF (DOUT5_BIT&amp;0x03)
+#define DOUT5_CROFF (DOUT5_BIT&amp;0x05)
 #define DOUT5_CR CRH
 #endif
 #define DIO42 42
@@ -4693,7 +4693,7 @@
 #define DOUT6_CROFF DOUT6_BIT
 #define DOUT6_CR CRL
 #else
-#define DOUT6_CROFF (DOUT6_BIT&amp;0x03)
+#define DOUT6_CROFF (DOUT6_BIT&amp;0x05)
 #define DOUT6_CR CRH
 #endif
 #define DIO43 43
@@ -4758,7 +4758,7 @@
 #define DOUT7_CROFF DOUT7_BIT
 #define DOUT7_CR CRL
 #else
-#define DOUT7_CROFF (DOUT7_BIT&amp;0x03)
+#define DOUT7_CROFF (DOUT7_BIT&amp;0x05)
 #define DOUT7_CR CRH
 #endif
 #define DIO44 44
@@ -4823,7 +4823,7 @@
 #define DOUT8_CROFF DOUT8_BIT
 #define DOUT8_CR CRL
 #else
-#define DOUT8_CROFF (DOUT8_BIT&amp;0x03)
+#define DOUT8_CROFF (DOUT8_BIT&amp;0x05)
 #define DOUT8_CR CRH
 #endif
 #define DIO45 45
@@ -4888,7 +4888,7 @@
 #define DOUT9_CROFF DOUT9_BIT
 #define DOUT9_CR CRL
 #else
-#define DOUT9_CROFF (DOUT9_BIT&amp;0x03)
+#define DOUT9_CROFF (DOUT9_BIT&amp;0x05)
 #define DOUT9_CR CRH
 #endif
 #define DIO46 46
@@ -4953,7 +4953,7 @@
 #define DOUT10_CROFF DOUT10_BIT
 #define DOUT10_CR CRL
 #else
-#define DOUT10_CROFF (DOUT10_BIT&amp;0x03)
+#define DOUT10_CROFF (DOUT10_BIT&amp;0x05)
 #define DOUT10_CR CRH
 #endif
 #define DIO47 47
@@ -5018,7 +5018,7 @@
 #define DOUT11_CROFF DOUT11_BIT
 #define DOUT11_CR CRL
 #else
-#define DOUT11_CROFF (DOUT11_BIT&amp;0x03)
+#define DOUT11_CROFF (DOUT11_BIT&amp;0x05)
 #define DOUT11_CR CRH
 #endif
 #define DIO48 48
@@ -5083,7 +5083,7 @@
 #define DOUT12_CROFF DOUT12_BIT
 #define DOUT12_CR CRL
 #else
-#define DOUT12_CROFF (DOUT12_BIT&amp;0x03)
+#define DOUT12_CROFF (DOUT12_BIT&amp;0x05)
 #define DOUT12_CR CRH
 #endif
 #define DIO49 49
@@ -5148,7 +5148,7 @@
 #define DOUT13_CROFF DOUT13_BIT
 #define DOUT13_CR CRL
 #else
-#define DOUT13_CROFF (DOUT13_BIT&amp;0x03)
+#define DOUT13_CROFF (DOUT13_BIT&amp;0x05)
 #define DOUT13_CR CRH
 #endif
 #define DIO50 50
@@ -5213,7 +5213,7 @@
 #define DOUT14_CROFF DOUT14_BIT
 #define DOUT14_CR CRL
 #else
-#define DOUT14_CROFF (DOUT14_BIT&amp;0x03)
+#define DOUT14_CROFF (DOUT14_BIT&amp;0x05)
 #define DOUT14_CR CRH
 #endif
 #define DIO51 51
@@ -5278,7 +5278,7 @@
 #define DOUT15_CROFF DOUT15_BIT
 #define DOUT15_CR CRL
 #else
-#define DOUT15_CROFF (DOUT15_BIT&amp;0x03)
+#define DOUT15_CROFF (DOUT15_BIT&amp;0x05)
 #define DOUT15_CR CRH
 #endif
 #define DIO52 52
@@ -5347,7 +5347,7 @@
 #define LIMIT_X_CROFF LIMIT_X_BIT
 #define LIMIT_X_CR CRL
 #else
-#define LIMIT_X_CROFF (LIMIT_X_BIT&amp;0x03)
+#define LIMIT_X_CROFF (LIMIT_X_BIT&amp;0x05)
 #define LIMIT_X_CR CRH
 #endif
 #define DIO53 53
@@ -5453,7 +5453,7 @@
 #define LIMIT_Y_CROFF LIMIT_Y_BIT
 #define LIMIT_Y_CR CRL
 #else
-#define LIMIT_Y_CROFF (LIMIT_Y_BIT&amp;0x03)
+#define LIMIT_Y_CROFF (LIMIT_Y_BIT&amp;0x05)
 #define LIMIT_Y_CR CRH
 #endif
 #define DIO54 54
@@ -5559,7 +5559,7 @@
 #define LIMIT_Z_CROFF LIMIT_Z_BIT
 #define LIMIT_Z_CR CRL
 #else
-#define LIMIT_Z_CROFF (LIMIT_Z_BIT&amp;0x03)
+#define LIMIT_Z_CROFF (LIMIT_Z_BIT&amp;0x05)
 #define LIMIT_Z_CR CRH
 #endif
 #define DIO55 55
@@ -5645,7 +5645,7 @@
 #define LIMIT_X2_CROFF LIMIT_X2_BIT
 #define LIMIT_X2_CR CRL
 #else
-#define LIMIT_X2_CROFF (LIMIT_X2_BIT&amp;0x03)
+#define LIMIT_X2_CROFF (LIMIT_X2_BIT&amp;0x05)
 #define LIMIT_X2_CR CRH
 #endif
 #define DIO56 56
@@ -5731,7 +5731,7 @@
 #define LIMIT_Y2_CROFF LIMIT_Y2_BIT
 #define LIMIT_Y2_CR CRL
 #else
-#define LIMIT_Y2_CROFF (LIMIT_Y2_BIT&amp;0x03)
+#define LIMIT_Y2_CROFF (LIMIT_Y2_BIT&amp;0x05)
 #define LIMIT_Y2_CR CRH
 #endif
 #define DIO57 57
@@ -5817,7 +5817,7 @@
 #define LIMIT_Z2_CROFF LIMIT_Z2_BIT
 #define LIMIT_Z2_CR CRL
 #else
-#define LIMIT_Z2_CROFF (LIMIT_Z2_BIT&amp;0x03)
+#define LIMIT_Z2_CROFF (LIMIT_Z2_BIT&amp;0x05)
 #define LIMIT_Z2_CR CRH
 #endif
 #define DIO58 58
@@ -5903,7 +5903,7 @@
 #define LIMIT_A_CROFF LIMIT_A_BIT
 #define LIMIT_A_CR CRL
 #else
-#define LIMIT_A_CROFF (LIMIT_A_BIT&amp;0x03)
+#define LIMIT_A_CROFF (LIMIT_A_BIT&amp;0x05)
 #define LIMIT_A_CR CRH
 #endif
 #define DIO59 59
@@ -5989,7 +5989,7 @@
 #define LIMIT_B_CROFF LIMIT_B_BIT
 #define LIMIT_B_CR CRL
 #else
-#define LIMIT_B_CROFF (LIMIT_B_BIT&amp;0x03)
+#define LIMIT_B_CROFF (LIMIT_B_BIT&amp;0x05)
 #define LIMIT_B_CR CRH
 #endif
 #define DIO60 60
@@ -6075,7 +6075,7 @@
 #define LIMIT_C_CROFF LIMIT_C_BIT
 #define LIMIT_C_CR CRL
 #else
-#define LIMIT_C_CROFF (LIMIT_C_BIT&amp;0x03)
+#define LIMIT_C_CROFF (LIMIT_C_BIT&amp;0x05)
 #define LIMIT_C_CR CRH
 #endif
 #define DIO61 61
@@ -6161,7 +6161,7 @@
 #define PROBE_CROFF PROBE_BIT
 #define PROBE_CR CRL
 #else
-#define PROBE_CROFF (PROBE_BIT&amp;0x03)
+#define PROBE_CROFF (PROBE_BIT&amp;0x05)
 #define PROBE_CR CRH
 #endif
 #define DIO62 62
@@ -6247,7 +6247,7 @@
 #define ESTOP_CROFF ESTOP_BIT
 #define ESTOP_CR CRL
 #else
-#define ESTOP_CROFF (ESTOP_BIT&amp;0x03)
+#define ESTOP_CROFF (ESTOP_BIT&amp;0x05)
 #define ESTOP_CR CRH
 #endif
 #define DIO63 63
@@ -6333,7 +6333,7 @@
 #define SAFETY_DOOR_CROFF SAFETY_DOOR_BIT
 #define SAFETY_DOOR_CR CRL
 #else
-#define SAFETY_DOOR_CROFF (SAFETY_DOOR_BIT&amp;0x03)
+#define SAFETY_DOOR_CROFF (SAFETY_DOOR_BIT&amp;0x05)
 #define SAFETY_DOOR_CR CRH
 #endif
 #define DIO64 64
@@ -6418,7 +6418,7 @@
 #define "&amp;C68&amp;"_CROFF "&amp;C68&amp;"_BIT
 #define "&amp;C68&amp;"_CR CRL
 #else
-#define "&amp;C68&amp;"_CROFF ("&amp;C68&amp;"_BIT&amp;0x03)
+#define "&amp;C68&amp;"_CROFF ("&amp;C68&amp;"_BIT&amp;0x05)
 #define "&amp;C68&amp;"_CR CRH
 #endif
 #define "&amp;B68&amp;" "&amp;A68&amp;"
@@ -6437,7 +6437,7 @@
 #define FHOLD_CROFF FHOLD_BIT
 #define FHOLD_CR CRL
 #else
-#define FHOLD_CROFF (FHOLD_BIT&amp;0x03)
+#define FHOLD_CROFF (FHOLD_BIT&amp;0x05)
 #define FHOLD_CR CRH
 #endif
 #define DIO65 65
@@ -6523,7 +6523,7 @@
 #define CS_RES_CROFF CS_RES_BIT
 #define CS_RES_CR CRL
 #else
-#define CS_RES_CROFF (CS_RES_BIT&amp;0x03)
+#define CS_RES_CROFF (CS_RES_BIT&amp;0x05)
 #define CS_RES_CR CRH
 #endif
 #define DIO66 66
@@ -6611,7 +6611,7 @@
 #define ANALOG0_CROFF ANALOG0_BIT
 #define ANALOG0_CR CRL
 #else
-#define ANALOG0_CROFF (ANALOG0_BIT&amp;0x03)
+#define ANALOG0_CROFF (ANALOG0_BIT&amp;0x05)
 #define ANALOG0_CR CRH
 #endif
 #define DIO67 67
@@ -6687,7 +6687,7 @@
 #define ANALOG1_CROFF ANALOG1_BIT
 #define ANALOG1_CR CRL
 #else
-#define ANALOG1_CROFF (ANALOG1_BIT&amp;0x03)
+#define ANALOG1_CROFF (ANALOG1_BIT&amp;0x05)
 #define ANALOG1_CR CRH
 #endif
 #define DIO68 68
@@ -6763,7 +6763,7 @@
 #define ANALOG2_CROFF ANALOG2_BIT
 #define ANALOG2_CR CRL
 #else
-#define ANALOG2_CROFF (ANALOG2_BIT&amp;0x03)
+#define ANALOG2_CROFF (ANALOG2_BIT&amp;0x05)
 #define ANALOG2_CR CRH
 #endif
 #define DIO69 69
@@ -6834,7 +6834,7 @@
 #define ANALOG3_CROFF ANALOG3_BIT
 #define ANALOG3_CR CRL
 #else
-#define ANALOG3_CROFF (ANALOG3_BIT&amp;0x03)
+#define ANALOG3_CROFF (ANALOG3_BIT&amp;0x05)
 #define ANALOG3_CR CRH
 #endif
 #define DIO70 70
@@ -6905,7 +6905,7 @@
 #define ANALOG4_CROFF ANALOG4_BIT
 #define ANALOG4_CR CRL
 #else
-#define ANALOG4_CROFF (ANALOG4_BIT&amp;0x03)
+#define ANALOG4_CROFF (ANALOG4_BIT&amp;0x05)
 #define ANALOG4_CR CRH
 #endif
 #define DIO71 71
@@ -6976,7 +6976,7 @@
 #define ANALOG5_CROFF ANALOG5_BIT
 #define ANALOG5_CR CRL
 #else
-#define ANALOG5_CROFF (ANALOG5_BIT&amp;0x03)
+#define ANALOG5_CROFF (ANALOG5_BIT&amp;0x05)
 #define ANALOG5_CR CRH
 #endif
 #define DIO72 72
@@ -7047,7 +7047,7 @@
 #define ANALOG6_CROFF ANALOG6_BIT
 #define ANALOG6_CR CRL
 #else
-#define ANALOG6_CROFF (ANALOG6_BIT&amp;0x03)
+#define ANALOG6_CROFF (ANALOG6_BIT&amp;0x05)
 #define ANALOG6_CR CRH
 #endif
 #define DIO73 73
@@ -7118,7 +7118,7 @@
 #define ANALOG7_CROFF ANALOG7_BIT
 #define ANALOG7_CR CRL
 #else
-#define ANALOG7_CROFF (ANALOG7_BIT&amp;0x03)
+#define ANALOG7_CROFF (ANALOG7_BIT&amp;0x05)
 #define ANALOG7_CR CRH
 #endif
 #define DIO74 74
@@ -7189,7 +7189,7 @@
 #define ANALOG8_CROFF ANALOG8_BIT
 #define ANALOG8_CR CRL
 #else
-#define ANALOG8_CROFF (ANALOG8_BIT&amp;0x03)
+#define ANALOG8_CROFF (ANALOG8_BIT&amp;0x05)
 #define ANALOG8_CR CRH
 #endif
 #define DIO75 75
@@ -7260,7 +7260,7 @@
 #define ANALOG9_CROFF ANALOG9_BIT
 #define ANALOG9_CR CRL
 #else
-#define ANALOG9_CROFF (ANALOG9_BIT&amp;0x03)
+#define ANALOG9_CROFF (ANALOG9_BIT&amp;0x05)
 #define ANALOG9_CR CRH
 #endif
 #define DIO76 76
@@ -7331,7 +7331,7 @@
 #define ANALOG10_CROFF ANALOG10_BIT
 #define ANALOG10_CR CRL
 #else
-#define ANALOG10_CROFF (ANALOG10_BIT&amp;0x03)
+#define ANALOG10_CROFF (ANALOG10_BIT&amp;0x05)
 #define ANALOG10_CR CRH
 #endif
 #define DIO77 77
@@ -7402,7 +7402,7 @@
 #define ANALOG11_CROFF ANALOG11_BIT
 #define ANALOG11_CR CRL
 #else
-#define ANALOG11_CROFF (ANALOG11_BIT&amp;0x03)
+#define ANALOG11_CROFF (ANALOG11_BIT&amp;0x05)
 #define ANALOG11_CR CRH
 #endif
 #define DIO78 78
@@ -7473,7 +7473,7 @@
 #define ANALOG12_CROFF ANALOG12_BIT
 #define ANALOG12_CR CRL
 #else
-#define ANALOG12_CROFF (ANALOG12_BIT&amp;0x03)
+#define ANALOG12_CROFF (ANALOG12_BIT&amp;0x05)
 #define ANALOG12_CR CRH
 #endif
 #define DIO79 79
@@ -7544,7 +7544,7 @@
 #define ANALOG13_CROFF ANALOG13_BIT
 #define ANALOG13_CR CRL
 #else
-#define ANALOG13_CROFF (ANALOG13_BIT&amp;0x03)
+#define ANALOG13_CROFF (ANALOG13_BIT&amp;0x05)
 #define ANALOG13_CR CRH
 #endif
 #define DIO80 80
@@ -7615,7 +7615,7 @@
 #define ANALOG14_CROFF ANALOG14_BIT
 #define ANALOG14_CR CRL
 #else
-#define ANALOG14_CROFF (ANALOG14_BIT&amp;0x03)
+#define ANALOG14_CROFF (ANALOG14_BIT&amp;0x05)
 #define ANALOG14_CR CRH
 #endif
 #define DIO81 81
@@ -7686,7 +7686,7 @@
 #define ANALOG15_CROFF ANALOG15_BIT
 #define ANALOG15_CR CRL
 #else
-#define ANALOG15_CROFF (ANALOG15_BIT&amp;0x03)
+#define ANALOG15_CROFF (ANALOG15_BIT&amp;0x05)
 #define ANALOG15_CR CRH
 #endif
 #define DIO82 82
@@ -7757,7 +7757,7 @@
 #define RX_CROFF RX_BIT
 #define RX_CR CRL
 #else
-#define RX_CROFF (RX_BIT&amp;0x03)
+#define RX_CROFF (RX_BIT&amp;0x05)
 #define RX_CR CRH
 #endif
 #define DIO83 83
@@ -7817,7 +7817,7 @@
 #define DIN0_CROFF DIN0_BIT
 #define DIN0_CR CRL
 #else
-#define DIN0_CROFF (DIN0_BIT&amp;0x03)
+#define DIN0_CROFF (DIN0_BIT&amp;0x05)
 #define DIN0_CR CRH
 #endif
 #define DIO84 84
@@ -7890,7 +7890,7 @@
 #define DIN1_CROFF DIN1_BIT
 #define DIN1_CR CRL
 #else
-#define DIN1_CROFF (DIN1_BIT&amp;0x03)
+#define DIN1_CROFF (DIN1_BIT&amp;0x05)
 #define DIN1_CR CRH
 #endif
 #define DIO85 85
@@ -7963,7 +7963,7 @@
 #define DIN2_CROFF DIN2_BIT
 #define DIN2_CR CRL
 #else
-#define DIN2_CROFF (DIN2_BIT&amp;0x03)
+#define DIN2_CROFF (DIN2_BIT&amp;0x05)
 #define DIN2_CR CRH
 #endif
 #define DIO86 86
@@ -8031,7 +8031,7 @@
 #define DIN3_CROFF DIN3_BIT
 #define DIN3_CR CRL
 #else
-#define DIN3_CROFF (DIN3_BIT&amp;0x03)
+#define DIN3_CROFF (DIN3_BIT&amp;0x05)
 #define DIN3_CR CRH
 #endif
 #define DIO87 87
@@ -8099,7 +8099,7 @@
 #define DIN4_CROFF DIN4_BIT
 #define DIN4_CR CRL
 #else
-#define DIN4_CROFF (DIN4_BIT&amp;0x03)
+#define DIN4_CROFF (DIN4_BIT&amp;0x05)
 #define DIN4_CR CRH
 #endif
 #define DIO88 88
@@ -8167,7 +8167,7 @@
 #define DIN5_CROFF DIN5_BIT
 #define DIN5_CR CRL
 #else
-#define DIN5_CROFF (DIN5_BIT&amp;0x03)
+#define DIN5_CROFF (DIN5_BIT&amp;0x05)
 #define DIN5_CR CRH
 #endif
 #define DIO89 89
@@ -8235,7 +8235,7 @@
 #define DIN6_CROFF DIN6_BIT
 #define DIN6_CR CRL
 #else
-#define DIN6_CROFF (DIN6_BIT&amp;0x03)
+#define DIN6_CROFF (DIN6_BIT&amp;0x05)
 #define DIN6_CR CRH
 #endif
 #define DIO90 90
@@ -8303,7 +8303,7 @@
 #define DIN7_CROFF DIN7_BIT
 #define DIN7_CR CRL
 #else
-#define DIN7_CROFF (DIN7_BIT&amp;0x03)
+#define DIN7_CROFF (DIN7_BIT&amp;0x05)
 #define DIN7_CR CRH
 #endif
 #define DIO91 91
@@ -8371,7 +8371,7 @@
 #define DIN8_CROFF DIN8_BIT
 #define DIN8_CR CRL
 #else
-#define DIN8_CROFF (DIN8_BIT&amp;0x03)
+#define DIN8_CROFF (DIN8_BIT&amp;0x05)
 #define DIN8_CR CRH
 #endif
 #define DIO92 92
@@ -8439,7 +8439,7 @@
 #define DIN9_CROFF DIN9_BIT
 #define DIN9_CR CRL
 #else
-#define DIN9_CROFF (DIN9_BIT&amp;0x03)
+#define DIN9_CROFF (DIN9_BIT&amp;0x05)
 #define DIN9_CR CRH
 #endif
 #define DIO93 93
@@ -8507,7 +8507,7 @@
 #define DIN10_CROFF DIN10_BIT
 #define DIN10_CR CRL
 #else
-#define DIN10_CROFF (DIN10_BIT&amp;0x03)
+#define DIN10_CROFF (DIN10_BIT&amp;0x05)
 #define DIN10_CR CRH
 #endif
 #define DIO94 94
@@ -8575,7 +8575,7 @@
 #define DIN11_CROFF DIN11_BIT
 #define DIN11_CR CRL
 #else
-#define DIN11_CROFF (DIN11_BIT&amp;0x03)
+#define DIN11_CROFF (DIN11_BIT&amp;0x05)
 #define DIN11_CR CRH
 #endif
 #define DIO95 95
@@ -8643,7 +8643,7 @@
 #define DIN12_CROFF DIN12_BIT
 #define DIN12_CR CRL
 #else
-#define DIN12_CROFF (DIN12_BIT&amp;0x03)
+#define DIN12_CROFF (DIN12_BIT&amp;0x05)
 #define DIN12_CR CRH
 #endif
 #define DIO96 96
@@ -8711,7 +8711,7 @@
 #define DIN13_CROFF DIN13_BIT
 #define DIN13_CR CRL
 #else
-#define DIN13_CROFF (DIN13_BIT&amp;0x03)
+#define DIN13_CROFF (DIN13_BIT&amp;0x05)
 #define DIN13_CR CRH
 #endif
 #define DIO97 97
@@ -8779,7 +8779,7 @@
 #define DIN14_CROFF DIN14_BIT
 #define DIN14_CR CRL
 #else
-#define DIN14_CROFF (DIN14_BIT&amp;0x03)
+#define DIN14_CROFF (DIN14_BIT&amp;0x05)
 #define DIN14_CR CRH
 #endif
 #define DIO98 98
@@ -8847,7 +8847,7 @@
 #define DIN15_CROFF DIN15_BIT
 #define DIN15_CR CRL
 #else
-#define DIN15_CROFF (DIN15_BIT&amp;0x03)
+#define DIN15_CROFF (DIN15_BIT&amp;0x05)
 #define DIN15_CR CRH
 #endif
 #define DIO99 99

--- a/docs/stm32f1_mcumap_gen.xlsx
+++ b/docs/stm32f1_mcumap_gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92930652-39AB-4697-B829-CA426C44322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C04D4F-4CDA-4BFF-AB5F-596B04A7F590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E102"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5361,10 +5361,10 @@
       </c>
       <c r="F56" s="10" t="str">
         <f>"#if (defined("&amp;C56&amp;"_ISR) &amp;&amp; defined("&amp;C56&amp;"))
-#define "&amp;C56&amp;"_EXTIREG (("&amp;C56&amp;"_BIT &gt;&gt; 2) &amp; 0x03)
+#define "&amp;C56&amp;"_EXTIREG ("&amp;C56&amp;"_BIT &gt;&gt; 2)
 #define "&amp;C56&amp;"_EXTIBITMASK (1&lt;&lt;"&amp;C56&amp;"_BIT)
 #define "&amp;C56&amp;"_IRQ EXTIRQ("&amp;C56&amp;"_BIT)
-#define "&amp;C56&amp;"_EXTIVAL (EXTINT("&amp;C56&amp;"_PORT) &lt;&lt; (("&amp;C56&amp;"_BIT &amp; 0x03)&lt;&lt;2))
+#define "&amp;C56&amp;"_EXTIVAL ((EXTINT("&amp;C56&amp;"_PORT)) &lt;&lt; (("&amp;C56&amp;"_BIT &amp; 0x03)&lt;&lt;2))
 #define "&amp;B56&amp;"_EXTIREG "&amp;C56&amp;"_EXTIREG
 #define "&amp;B56&amp;"_EXTIVAL "&amp;C56&amp;"_EXTIVAL
 #define "&amp;B56&amp;"_IRQ "&amp;C56&amp;"_IRQ
@@ -5374,10 +5374,10 @@
 #define "&amp;C56&amp;"_EXTIBITMASK 0
 #endif"</f>
         <v>#if (defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
-#define LIMIT_X_EXTIREG ((LIMIT_X_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_X_EXTIREG (LIMIT_X_BIT &gt;&gt; 2)
 #define LIMIT_X_EXTIBITMASK (1&lt;&lt;LIMIT_X_BIT)
 #define LIMIT_X_IRQ EXTIRQ(LIMIT_X_BIT)
-#define LIMIT_X_EXTIVAL (EXTINT(LIMIT_X_PORT) &lt;&lt; ((LIMIT_X_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_X_EXTIVAL ((EXTINT(LIMIT_X_PORT)) &lt;&lt; ((LIMIT_X_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO53_EXTIREG LIMIT_X_EXTIREG
 #define DIO53_EXTIVAL LIMIT_X_EXTIVAL
 #define DIO53_IRQ LIMIT_X_IRQ
@@ -5467,10 +5467,10 @@
       </c>
       <c r="F57" s="10" t="str">
         <f t="shared" ref="F57:F69" si="6">"#if (defined("&amp;C57&amp;"_ISR) &amp;&amp; defined("&amp;C57&amp;"))
-#define "&amp;C57&amp;"_EXTIREG (("&amp;C57&amp;"_BIT &gt;&gt; 2) &amp; 0x03)
+#define "&amp;C57&amp;"_EXTIREG ("&amp;C57&amp;"_BIT &gt;&gt; 2)
 #define "&amp;C57&amp;"_EXTIBITMASK (1&lt;&lt;"&amp;C57&amp;"_BIT)
 #define "&amp;C57&amp;"_IRQ EXTIRQ("&amp;C57&amp;"_BIT)
-#define "&amp;C57&amp;"_EXTIVAL (EXTINT("&amp;C57&amp;"_PORT) &lt;&lt; (("&amp;C57&amp;"_BIT &amp; 0x03)&lt;&lt;2))
+#define "&amp;C57&amp;"_EXTIVAL ((EXTINT("&amp;C57&amp;"_PORT)) &lt;&lt; (("&amp;C57&amp;"_BIT &amp; 0x03)&lt;&lt;2))
 #define "&amp;B57&amp;"_EXTIREG "&amp;C57&amp;"_EXTIREG
 #define "&amp;B57&amp;"_EXTIVAL "&amp;C57&amp;"_EXTIVAL
 #define "&amp;B57&amp;"_IRQ "&amp;C57&amp;"_IRQ
@@ -5480,10 +5480,10 @@
 #define "&amp;C57&amp;"_EXTIBITMASK 0
 #endif"</f>
         <v>#if (defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
-#define LIMIT_Y_EXTIREG ((LIMIT_Y_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_Y_EXTIREG (LIMIT_Y_BIT &gt;&gt; 2)
 #define LIMIT_Y_EXTIBITMASK (1&lt;&lt;LIMIT_Y_BIT)
 #define LIMIT_Y_IRQ EXTIRQ(LIMIT_Y_BIT)
-#define LIMIT_Y_EXTIVAL (EXTINT(LIMIT_Y_PORT) &lt;&lt; ((LIMIT_Y_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_Y_EXTIVAL ((EXTINT(LIMIT_Y_PORT)) &lt;&lt; ((LIMIT_Y_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO54_EXTIREG LIMIT_Y_EXTIREG
 #define DIO54_EXTIVAL LIMIT_Y_EXTIVAL
 #define DIO54_IRQ LIMIT_Y_IRQ
@@ -5574,10 +5574,10 @@
       <c r="F58" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
-#define LIMIT_Z_EXTIREG ((LIMIT_Z_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_Z_EXTIREG (LIMIT_Z_BIT &gt;&gt; 2)
 #define LIMIT_Z_EXTIBITMASK (1&lt;&lt;LIMIT_Z_BIT)
 #define LIMIT_Z_IRQ EXTIRQ(LIMIT_Z_BIT)
-#define LIMIT_Z_EXTIVAL (EXTINT(LIMIT_Z_PORT) &lt;&lt; ((LIMIT_Z_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_Z_EXTIVAL ((EXTINT(LIMIT_Z_PORT)) &lt;&lt; ((LIMIT_Z_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO55_EXTIREG LIMIT_Z_EXTIREG
 #define DIO55_EXTIVAL LIMIT_Z_EXTIVAL
 #define DIO55_IRQ LIMIT_Z_IRQ
@@ -5660,10 +5660,10 @@
       <c r="F59" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
-#define LIMIT_X2_EXTIREG ((LIMIT_X2_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_X2_EXTIREG (LIMIT_X2_BIT &gt;&gt; 2)
 #define LIMIT_X2_EXTIBITMASK (1&lt;&lt;LIMIT_X2_BIT)
 #define LIMIT_X2_IRQ EXTIRQ(LIMIT_X2_BIT)
-#define LIMIT_X2_EXTIVAL (EXTINT(LIMIT_X2_PORT) &lt;&lt; ((LIMIT_X2_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_X2_EXTIVAL ((EXTINT(LIMIT_X2_PORT)) &lt;&lt; ((LIMIT_X2_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO56_EXTIREG LIMIT_X2_EXTIREG
 #define DIO56_EXTIVAL LIMIT_X2_EXTIVAL
 #define DIO56_IRQ LIMIT_X2_IRQ
@@ -5746,10 +5746,10 @@
       <c r="F60" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
-#define LIMIT_Y2_EXTIREG ((LIMIT_Y2_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_Y2_EXTIREG (LIMIT_Y2_BIT &gt;&gt; 2)
 #define LIMIT_Y2_EXTIBITMASK (1&lt;&lt;LIMIT_Y2_BIT)
 #define LIMIT_Y2_IRQ EXTIRQ(LIMIT_Y2_BIT)
-#define LIMIT_Y2_EXTIVAL (EXTINT(LIMIT_Y2_PORT) &lt;&lt; ((LIMIT_Y2_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_Y2_EXTIVAL ((EXTINT(LIMIT_Y2_PORT)) &lt;&lt; ((LIMIT_Y2_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO57_EXTIREG LIMIT_Y2_EXTIREG
 #define DIO57_EXTIVAL LIMIT_Y2_EXTIVAL
 #define DIO57_IRQ LIMIT_Y2_IRQ
@@ -5832,10 +5832,10 @@
       <c r="F61" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
-#define LIMIT_Z2_EXTIREG ((LIMIT_Z2_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_Z2_EXTIREG (LIMIT_Z2_BIT &gt;&gt; 2)
 #define LIMIT_Z2_EXTIBITMASK (1&lt;&lt;LIMIT_Z2_BIT)
 #define LIMIT_Z2_IRQ EXTIRQ(LIMIT_Z2_BIT)
-#define LIMIT_Z2_EXTIVAL (EXTINT(LIMIT_Z2_PORT) &lt;&lt; ((LIMIT_Z2_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_Z2_EXTIVAL ((EXTINT(LIMIT_Z2_PORT)) &lt;&lt; ((LIMIT_Z2_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO58_EXTIREG LIMIT_Z2_EXTIREG
 #define DIO58_EXTIVAL LIMIT_Z2_EXTIVAL
 #define DIO58_IRQ LIMIT_Z2_IRQ
@@ -5918,10 +5918,10 @@
       <c r="F62" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
-#define LIMIT_A_EXTIREG ((LIMIT_A_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_A_EXTIREG (LIMIT_A_BIT &gt;&gt; 2)
 #define LIMIT_A_EXTIBITMASK (1&lt;&lt;LIMIT_A_BIT)
 #define LIMIT_A_IRQ EXTIRQ(LIMIT_A_BIT)
-#define LIMIT_A_EXTIVAL (EXTINT(LIMIT_A_PORT) &lt;&lt; ((LIMIT_A_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_A_EXTIVAL ((EXTINT(LIMIT_A_PORT)) &lt;&lt; ((LIMIT_A_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO59_EXTIREG LIMIT_A_EXTIREG
 #define DIO59_EXTIVAL LIMIT_A_EXTIVAL
 #define DIO59_IRQ LIMIT_A_IRQ
@@ -6004,10 +6004,10 @@
       <c r="F63" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
-#define LIMIT_B_EXTIREG ((LIMIT_B_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_B_EXTIREG (LIMIT_B_BIT &gt;&gt; 2)
 #define LIMIT_B_EXTIBITMASK (1&lt;&lt;LIMIT_B_BIT)
 #define LIMIT_B_IRQ EXTIRQ(LIMIT_B_BIT)
-#define LIMIT_B_EXTIVAL (EXTINT(LIMIT_B_PORT) &lt;&lt; ((LIMIT_B_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_B_EXTIVAL ((EXTINT(LIMIT_B_PORT)) &lt;&lt; ((LIMIT_B_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO60_EXTIREG LIMIT_B_EXTIREG
 #define DIO60_EXTIVAL LIMIT_B_EXTIVAL
 #define DIO60_IRQ LIMIT_B_IRQ
@@ -6090,10 +6090,10 @@
       <c r="F64" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
-#define LIMIT_C_EXTIREG ((LIMIT_C_BIT &gt;&gt; 2) &amp; 0x03)
+#define LIMIT_C_EXTIREG (LIMIT_C_BIT &gt;&gt; 2)
 #define LIMIT_C_EXTIBITMASK (1&lt;&lt;LIMIT_C_BIT)
 #define LIMIT_C_IRQ EXTIRQ(LIMIT_C_BIT)
-#define LIMIT_C_EXTIVAL (EXTINT(LIMIT_C_PORT) &lt;&lt; ((LIMIT_C_BIT &amp; 0x03)&lt;&lt;2))
+#define LIMIT_C_EXTIVAL ((EXTINT(LIMIT_C_PORT)) &lt;&lt; ((LIMIT_C_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO61_EXTIREG LIMIT_C_EXTIREG
 #define DIO61_EXTIVAL LIMIT_C_EXTIVAL
 #define DIO61_IRQ LIMIT_C_IRQ
@@ -6176,10 +6176,10 @@
       <c r="F65" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(PROBE_ISR) &amp;&amp; defined(PROBE))
-#define PROBE_EXTIREG ((PROBE_BIT &gt;&gt; 2) &amp; 0x03)
+#define PROBE_EXTIREG (PROBE_BIT &gt;&gt; 2)
 #define PROBE_EXTIBITMASK (1&lt;&lt;PROBE_BIT)
 #define PROBE_IRQ EXTIRQ(PROBE_BIT)
-#define PROBE_EXTIVAL (EXTINT(PROBE_PORT) &lt;&lt; ((PROBE_BIT &amp; 0x03)&lt;&lt;2))
+#define PROBE_EXTIVAL ((EXTINT(PROBE_PORT)) &lt;&lt; ((PROBE_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO62_EXTIREG PROBE_EXTIREG
 #define DIO62_EXTIVAL PROBE_EXTIVAL
 #define DIO62_IRQ PROBE_IRQ
@@ -6262,10 +6262,10 @@
       <c r="F66" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
-#define ESTOP_EXTIREG ((ESTOP_BIT &gt;&gt; 2) &amp; 0x03)
+#define ESTOP_EXTIREG (ESTOP_BIT &gt;&gt; 2)
 #define ESTOP_EXTIBITMASK (1&lt;&lt;ESTOP_BIT)
 #define ESTOP_IRQ EXTIRQ(ESTOP_BIT)
-#define ESTOP_EXTIVAL (EXTINT(ESTOP_PORT) &lt;&lt; ((ESTOP_BIT &amp; 0x03)&lt;&lt;2))
+#define ESTOP_EXTIVAL ((EXTINT(ESTOP_PORT)) &lt;&lt; ((ESTOP_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO63_EXTIREG ESTOP_EXTIREG
 #define DIO63_EXTIVAL ESTOP_EXTIVAL
 #define DIO63_IRQ ESTOP_IRQ
@@ -6348,10 +6348,10 @@
       <c r="F67" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
-#define SAFETY_DOOR_EXTIREG ((SAFETY_DOOR_BIT &gt;&gt; 2) &amp; 0x03)
+#define SAFETY_DOOR_EXTIREG (SAFETY_DOOR_BIT &gt;&gt; 2)
 #define SAFETY_DOOR_EXTIBITMASK (1&lt;&lt;SAFETY_DOOR_BIT)
 #define SAFETY_DOOR_IRQ EXTIRQ(SAFETY_DOOR_BIT)
-#define SAFETY_DOOR_EXTIVAL (EXTINT(SAFETY_DOOR_PORT) &lt;&lt; ((SAFETY_DOOR_BIT &amp; 0x03)&lt;&lt;2))
+#define SAFETY_DOOR_EXTIVAL ((EXTINT(SAFETY_DOOR_PORT)) &lt;&lt; ((SAFETY_DOOR_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO64_EXTIREG SAFETY_DOOR_EXTIREG
 #define DIO64_EXTIVAL SAFETY_DOOR_EXTIVAL
 #define DIO64_IRQ SAFETY_DOOR_IRQ
@@ -6452,10 +6452,10 @@
       <c r="F68" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(FHOLD_ISR) &amp;&amp; defined(FHOLD))
-#define FHOLD_EXTIREG ((FHOLD_BIT &gt;&gt; 2) &amp; 0x03)
+#define FHOLD_EXTIREG (FHOLD_BIT &gt;&gt; 2)
 #define FHOLD_EXTIBITMASK (1&lt;&lt;FHOLD_BIT)
 #define FHOLD_IRQ EXTIRQ(FHOLD_BIT)
-#define FHOLD_EXTIVAL (EXTINT(FHOLD_PORT) &lt;&lt; ((FHOLD_BIT &amp; 0x03)&lt;&lt;2))
+#define FHOLD_EXTIVAL ((EXTINT(FHOLD_PORT)) &lt;&lt; ((FHOLD_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO65_EXTIREG FHOLD_EXTIREG
 #define DIO65_EXTIVAL FHOLD_EXTIVAL
 #define DIO65_IRQ FHOLD_IRQ
@@ -6538,10 +6538,10 @@
       <c r="F69" s="10" t="str">
         <f t="shared" si="6"/>
         <v>#if (defined(CS_RES_ISR) &amp;&amp; defined(CS_RES))
-#define CS_RES_EXTIREG ((CS_RES_BIT &gt;&gt; 2) &amp; 0x03)
+#define CS_RES_EXTIREG (CS_RES_BIT &gt;&gt; 2)
 #define CS_RES_EXTIBITMASK (1&lt;&lt;CS_RES_BIT)
 #define CS_RES_IRQ EXTIRQ(CS_RES_BIT)
-#define CS_RES_EXTIVAL (EXTINT(CS_RES_PORT) &lt;&lt; ((CS_RES_BIT &amp; 0x03)&lt;&lt;2))
+#define CS_RES_EXTIVAL ((EXTINT(CS_RES_PORT)) &lt;&lt; ((CS_RES_BIT &amp; 0x03)&lt;&lt;2))
 #define DIO66_EXTIREG CS_RES_EXTIREG
 #define DIO66_EXTIVAL CS_RES_EXTIVAL
 #define DIO66_IRQ CS_RES_IRQ
@@ -8823,7 +8823,7 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
     </row>
-    <row r="102" spans="1:28" s="4" customFormat="1" ht="315.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" s="4" customFormat="1" ht="327" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>99</v>
       </c>

--- a/docs/stm32f1_mcumap_gen.xlsx
+++ b/docs/stm32f1_mcumap_gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C04D4F-4CDA-4BFF-AB5F-596B04A7F590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A828E47-B1C1-4325-8372-815E16FED508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>Names</t>
   </si>
@@ -53,24 +53,6 @@
   </si>
   <si>
     <t>STEP5</t>
-  </si>
-  <si>
-    <t>STEP0_EN</t>
-  </si>
-  <si>
-    <t>STEP1_EN</t>
-  </si>
-  <si>
-    <t>STEP2_EN</t>
-  </si>
-  <si>
-    <t>STEP3_EN</t>
-  </si>
-  <si>
-    <t>STEP4_EN</t>
-  </si>
-  <si>
-    <t>STEP5_EN</t>
   </si>
   <si>
     <t>DIR0</t>
@@ -337,9 +319,6 @@
     <t>//IO pins</t>
   </si>
   <si>
-    <t>//ISR on change inputs</t>
-  </si>
-  <si>
     <t>//ISR on change defaults</t>
   </si>
   <si>
@@ -362,6 +341,39 @@
   </si>
   <si>
     <t>STEP7</t>
+  </si>
+  <si>
+    <t>STEPPER_ENABLE</t>
+  </si>
+  <si>
+    <t>//ISR on change inputs
+#define EXTINT_A 0
+#define EXTINT_B 1
+#define EXTINT_C 2
+#define EXTINT_D 3
+#define EXTINT_E 4
+#define EXTINT_F 5
+#define EXTINT_G 6
+#define _EXTINT(X) EXTINT_##X
+#define EXTINT(X) _EXTINT(X)
+#define EXTIRQ_0 EXTI0_IRQn
+#define EXTIRQ_1 EXTI1_IRQn
+#define EXTIRQ_2 EXTI2_IRQn
+#define EXTIRQ_3 EXTI3_IRQn
+#define EXTIRQ_4 EXTI4_IRQn
+#define EXTIRQ_5 EXTI9_5_IRQn
+#define EXTIRQ_6 EXTI9_5_IRQn
+#define EXTIRQ_7 EXTI9_5_IRQn
+#define EXTIRQ_8 EXTI9_5_IRQn
+#define EXTIRQ_9 EXTI9_5_IRQn
+#define EXTIRQ_10 EXTI15_10_IRQn
+#define EXTIRQ_11 EXTI15_10_IRQn
+#define EXTIRQ_12 EXTI15_10_IRQn
+#define EXTIRQ_13 EXTI15_10_IRQn
+#define EXTIRQ_14 EXTI15_10_IRQn
+#define EXTIRQ_15 EXTI15_10_IRQn
+#define _EXTIRQ(X) EXTIRQ_##X
+#define EXTIRQ(X) _EXTIRQ(X)</t>
   </si>
 </sst>
 </file>
@@ -757,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1003"/>
+  <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -814,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
@@ -852,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B102" si="0">"DIO"&amp;A3</f>
+        <f t="shared" ref="B3:B97" si="0">"DIO"&amp;A3</f>
         <v>DIO0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -916,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L3" s="3">
         <v>1</v>
@@ -1025,7 +1037,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I55" si="2">"#ifdef "&amp;C4&amp;"
+        <f t="shared" ref="I4:I50" si="2">"#ifdef "&amp;C4&amp;"
 mcu_config_output("&amp;C4&amp;");
 #endif"</f>
         <v>#ifdef STEP1
@@ -1036,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L4" s="3">
         <v>4</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M12" si="3">"#if(PCINT"&amp;K4&amp;"_MASK=="&amp;L4&amp;")
+        <f t="shared" ref="M4:M11" si="3">"#if(PCINT"&amp;K4&amp;"_MASK=="&amp;L4&amp;")
 ISR(INT"&amp;J4&amp;"_vect, ISR_BLOCK) // input pin on change service routine
 {
 #if(PCINT"&amp;K4&amp;"_LIMITS_MASK=="&amp;L4&amp;")
@@ -1136,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L5" s="3">
         <v>16</v>
@@ -1223,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L6" s="3">
         <v>64</v>
@@ -1310,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
@@ -1397,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L8" s="3">
         <v>4</v>
@@ -1444,7 +1456,7 @@
         <v>DIO6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
@@ -1509,7 +1521,7 @@
         <v>DIO7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
@@ -1574,31 +1586,31 @@
         <v>DIO8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(STEP0_EN_PORT) &amp;&amp; defined(STEP0_EN_BIT))
-#define STEP0_EN 8
-#define STEP0_EN_APB2EN (__rccapb2gpioen__(STEP0_EN_PORT))
-#define STEP0_EN_GPIO (__gpio__(STEP0_EN_PORT))
-#if (STEP0_EN_BIT &lt; 8)
-#define STEP0_EN_CROFF STEP0_EN_BIT
-#define STEP0_EN_CR CRL
+        <v>#if (defined(STEPPER_ENABLE_PORT) &amp;&amp; defined(STEPPER_ENABLE_BIT))
+#define STEPPER_ENABLE 8
+#define STEPPER_ENABLE_APB2EN (__rccapb2gpioen__(STEPPER_ENABLE_PORT))
+#define STEPPER_ENABLE_GPIO (__gpio__(STEPPER_ENABLE_PORT))
+#if (STEPPER_ENABLE_BIT &lt; 8)
+#define STEPPER_ENABLE_CROFF STEPPER_ENABLE_BIT
+#define STEPPER_ENABLE_CR CRL
 #else
-#define STEP0_EN_CROFF (STEP0_EN_BIT&amp;0x05)
-#define STEP0_EN_CR CRH
+#define STEPPER_ENABLE_CROFF (STEPPER_ENABLE_BIT&amp;0x05)
+#define STEPPER_ENABLE_CR CRH
 #endif
 #define DIO8 8
-#define DIO8_PORT STEP0_EN_PORT
-#define DIO8_BIT STEP0_EN_BIT
-#define DIO8_APB2EN STEP0_EN_APB2EN
-#define DIO8_GPIO STEP0_EN_GPIO
-#define DIO8_CR STEP0_EN_CR
-#define DIO8_CROFF STEP0_EN_CROFF
+#define DIO8_PORT STEPPER_ENABLE_PORT
+#define DIO8_BIT STEPPER_ENABLE_BIT
+#define DIO8_APB2EN STEPPER_ENABLE_APB2EN
+#define DIO8_GPIO STEPPER_ENABLE_GPIO
+#define DIO8_CR STEPPER_ENABLE_CR
+#define DIO8_CROFF STEPPER_ENABLE_CROFF
 #endif</v>
       </c>
       <c r="F11" s="6"/>
@@ -1606,15 +1618,15 @@
       <c r="H11" s="6"/>
       <c r="I11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP0_EN
-mcu_config_output(STEP0_EN);
+        <v>#ifdef STEPPER_ENABLE
+mcu_config_output(STEPPER_ENABLE);
 #endif</v>
       </c>
       <c r="J11" s="3">
         <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L11" s="3">
         <v>16</v>
@@ -1661,31 +1673,31 @@
         <v>DIO9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(STEP1_EN_PORT) &amp;&amp; defined(STEP1_EN_BIT))
-#define STEP1_EN 9
-#define STEP1_EN_APB2EN (__rccapb2gpioen__(STEP1_EN_PORT))
-#define STEP1_EN_GPIO (__gpio__(STEP1_EN_PORT))
-#if (STEP1_EN_BIT &lt; 8)
-#define STEP1_EN_CROFF STEP1_EN_BIT
-#define STEP1_EN_CR CRL
+        <v>#if (defined(DIR0_PORT) &amp;&amp; defined(DIR0_BIT))
+#define DIR0 9
+#define DIR0_APB2EN (__rccapb2gpioen__(DIR0_PORT))
+#define DIR0_GPIO (__gpio__(DIR0_PORT))
+#if (DIR0_BIT &lt; 8)
+#define DIR0_CROFF DIR0_BIT
+#define DIR0_CR CRL
 #else
-#define STEP1_EN_CROFF (STEP1_EN_BIT&amp;0x05)
-#define STEP1_EN_CR CRH
+#define DIR0_CROFF (DIR0_BIT&amp;0x05)
+#define DIR0_CR CRH
 #endif
 #define DIO9 9
-#define DIO9_PORT STEP1_EN_PORT
-#define DIO9_BIT STEP1_EN_BIT
-#define DIO9_APB2EN STEP1_EN_APB2EN
-#define DIO9_GPIO STEP1_EN_GPIO
-#define DIO9_CR STEP1_EN_CR
-#define DIO9_CROFF STEP1_EN_CROFF
+#define DIO9_PORT DIR0_PORT
+#define DIO9_BIT DIR0_BIT
+#define DIO9_APB2EN DIR0_APB2EN
+#define DIO9_GPIO DIR0_GPIO
+#define DIO9_CR DIR0_CR
+#define DIO9_CROFF DIR0_CROFF
 #endif</v>
       </c>
       <c r="F12" s="6"/>
@@ -1693,36 +1705,14 @@
       <c r="H12" s="6"/>
       <c r="I12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP1_EN
-mcu_config_output(STEP1_EN);
+        <v>#ifdef DIR0
+mcu_config_output(DIR0);
 #endif</v>
       </c>
-      <c r="J12" s="3">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="3">
-        <v>64</v>
-      </c>
-      <c r="M12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#if(PCINTB_MASK==64)
-ISR(INT7_vect, ISR_BLOCK) // input pin on change service routine
-{
-#if(PCINTB_LIMITS_MASK==64)
-    io_limits_isr();
-#endif
-#if(PCINTB_CONTROLS_MASK==64)
-    io_controls_isr();
-#endif
-#if(PROBE_ISRB==64)
-    io_probe_isr();
-#endif
-}
-#endif</v>
-      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1748,31 +1738,31 @@
         <v>DIO10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(STEP2_EN_PORT) &amp;&amp; defined(STEP2_EN_BIT))
-#define STEP2_EN 10
-#define STEP2_EN_APB2EN (__rccapb2gpioen__(STEP2_EN_PORT))
-#define STEP2_EN_GPIO (__gpio__(STEP2_EN_PORT))
-#if (STEP2_EN_BIT &lt; 8)
-#define STEP2_EN_CROFF STEP2_EN_BIT
-#define STEP2_EN_CR CRL
+        <v>#if (defined(DIR1_PORT) &amp;&amp; defined(DIR1_BIT))
+#define DIR1 10
+#define DIR1_APB2EN (__rccapb2gpioen__(DIR1_PORT))
+#define DIR1_GPIO (__gpio__(DIR1_PORT))
+#if (DIR1_BIT &lt; 8)
+#define DIR1_CROFF DIR1_BIT
+#define DIR1_CR CRL
 #else
-#define STEP2_EN_CROFF (STEP2_EN_BIT&amp;0x05)
-#define STEP2_EN_CR CRH
+#define DIR1_CROFF (DIR1_BIT&amp;0x05)
+#define DIR1_CR CRH
 #endif
 #define DIO10 10
-#define DIO10_PORT STEP2_EN_PORT
-#define DIO10_BIT STEP2_EN_BIT
-#define DIO10_APB2EN STEP2_EN_APB2EN
-#define DIO10_GPIO STEP2_EN_GPIO
-#define DIO10_CR STEP2_EN_CR
-#define DIO10_CROFF STEP2_EN_CROFF
+#define DIO10_PORT DIR1_PORT
+#define DIO10_BIT DIR1_BIT
+#define DIO10_APB2EN DIR1_APB2EN
+#define DIO10_GPIO DIR1_GPIO
+#define DIO10_CR DIR1_CR
+#define DIO10_CROFF DIR1_CROFF
 #endif</v>
       </c>
       <c r="F13" s="6"/>
@@ -1780,8 +1770,8 @@
       <c r="H13" s="6"/>
       <c r="I13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP2_EN
-mcu_config_output(STEP2_EN);
+        <v>#ifdef DIR1
+mcu_config_output(DIR1);
 #endif</v>
       </c>
       <c r="J13" s="3"/>
@@ -1813,31 +1803,31 @@
         <v>DIO11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(STEP3_EN_PORT) &amp;&amp; defined(STEP3_EN_BIT))
-#define STEP3_EN 11
-#define STEP3_EN_APB2EN (__rccapb2gpioen__(STEP3_EN_PORT))
-#define STEP3_EN_GPIO (__gpio__(STEP3_EN_PORT))
-#if (STEP3_EN_BIT &lt; 8)
-#define STEP3_EN_CROFF STEP3_EN_BIT
-#define STEP3_EN_CR CRL
+        <v>#if (defined(DIR2_PORT) &amp;&amp; defined(DIR2_BIT))
+#define DIR2 11
+#define DIR2_APB2EN (__rccapb2gpioen__(DIR2_PORT))
+#define DIR2_GPIO (__gpio__(DIR2_PORT))
+#if (DIR2_BIT &lt; 8)
+#define DIR2_CROFF DIR2_BIT
+#define DIR2_CR CRL
 #else
-#define STEP3_EN_CROFF (STEP3_EN_BIT&amp;0x05)
-#define STEP3_EN_CR CRH
+#define DIR2_CROFF (DIR2_BIT&amp;0x05)
+#define DIR2_CR CRH
 #endif
 #define DIO11 11
-#define DIO11_PORT STEP3_EN_PORT
-#define DIO11_BIT STEP3_EN_BIT
-#define DIO11_APB2EN STEP3_EN_APB2EN
-#define DIO11_GPIO STEP3_EN_GPIO
-#define DIO11_CR STEP3_EN_CR
-#define DIO11_CROFF STEP3_EN_CROFF
+#define DIO11_PORT DIR2_PORT
+#define DIO11_BIT DIR2_BIT
+#define DIO11_APB2EN DIR2_APB2EN
+#define DIO11_GPIO DIR2_GPIO
+#define DIO11_CR DIR2_CR
+#define DIO11_CROFF DIR2_CROFF
 #endif</v>
       </c>
       <c r="F14" s="6"/>
@@ -1845,8 +1835,8 @@
       <c r="H14" s="6"/>
       <c r="I14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP3_EN
-mcu_config_output(STEP3_EN);
+        <v>#ifdef DIR2
+mcu_config_output(DIR2);
 #endif</v>
       </c>
       <c r="J14" s="3"/>
@@ -1878,31 +1868,31 @@
         <v>DIO12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(STEP4_EN_PORT) &amp;&amp; defined(STEP4_EN_BIT))
-#define STEP4_EN 12
-#define STEP4_EN_APB2EN (__rccapb2gpioen__(STEP4_EN_PORT))
-#define STEP4_EN_GPIO (__gpio__(STEP4_EN_PORT))
-#if (STEP4_EN_BIT &lt; 8)
-#define STEP4_EN_CROFF STEP4_EN_BIT
-#define STEP4_EN_CR CRL
+        <v>#if (defined(DIR3_PORT) &amp;&amp; defined(DIR3_BIT))
+#define DIR3 12
+#define DIR3_APB2EN (__rccapb2gpioen__(DIR3_PORT))
+#define DIR3_GPIO (__gpio__(DIR3_PORT))
+#if (DIR3_BIT &lt; 8)
+#define DIR3_CROFF DIR3_BIT
+#define DIR3_CR CRL
 #else
-#define STEP4_EN_CROFF (STEP4_EN_BIT&amp;0x05)
-#define STEP4_EN_CR CRH
+#define DIR3_CROFF (DIR3_BIT&amp;0x05)
+#define DIR3_CR CRH
 #endif
 #define DIO12 12
-#define DIO12_PORT STEP4_EN_PORT
-#define DIO12_BIT STEP4_EN_BIT
-#define DIO12_APB2EN STEP4_EN_APB2EN
-#define DIO12_GPIO STEP4_EN_GPIO
-#define DIO12_CR STEP4_EN_CR
-#define DIO12_CROFF STEP4_EN_CROFF
+#define DIO12_PORT DIR3_PORT
+#define DIO12_BIT DIR3_BIT
+#define DIO12_APB2EN DIR3_APB2EN
+#define DIO12_GPIO DIR3_GPIO
+#define DIO12_CR DIR3_CR
+#define DIO12_CROFF DIR3_CROFF
 #endif</v>
       </c>
       <c r="F15" s="6"/>
@@ -1910,8 +1900,8 @@
       <c r="H15" s="6"/>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP4_EN
-mcu_config_output(STEP4_EN);
+        <v>#ifdef DIR3
+mcu_config_output(DIR3);
 #endif</v>
       </c>
       <c r="J15" s="3"/>
@@ -1943,31 +1933,31 @@
         <v>DIO13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(STEP5_EN_PORT) &amp;&amp; defined(STEP5_EN_BIT))
-#define STEP5_EN 13
-#define STEP5_EN_APB2EN (__rccapb2gpioen__(STEP5_EN_PORT))
-#define STEP5_EN_GPIO (__gpio__(STEP5_EN_PORT))
-#if (STEP5_EN_BIT &lt; 8)
-#define STEP5_EN_CROFF STEP5_EN_BIT
-#define STEP5_EN_CR CRL
+        <v>#if (defined(DIR4_PORT) &amp;&amp; defined(DIR4_BIT))
+#define DIR4 13
+#define DIR4_APB2EN (__rccapb2gpioen__(DIR4_PORT))
+#define DIR4_GPIO (__gpio__(DIR4_PORT))
+#if (DIR4_BIT &lt; 8)
+#define DIR4_CROFF DIR4_BIT
+#define DIR4_CR CRL
 #else
-#define STEP5_EN_CROFF (STEP5_EN_BIT&amp;0x05)
-#define STEP5_EN_CR CRH
+#define DIR4_CROFF (DIR4_BIT&amp;0x05)
+#define DIR4_CR CRH
 #endif
 #define DIO13 13
-#define DIO13_PORT STEP5_EN_PORT
-#define DIO13_BIT STEP5_EN_BIT
-#define DIO13_APB2EN STEP5_EN_APB2EN
-#define DIO13_GPIO STEP5_EN_GPIO
-#define DIO13_CR STEP5_EN_CR
-#define DIO13_CROFF STEP5_EN_CROFF
+#define DIO13_PORT DIR4_PORT
+#define DIO13_BIT DIR4_BIT
+#define DIO13_APB2EN DIR4_APB2EN
+#define DIO13_GPIO DIR4_GPIO
+#define DIO13_CR DIR4_CR
+#define DIO13_CROFF DIR4_CROFF
 #endif</v>
       </c>
       <c r="F16" s="6"/>
@@ -1975,8 +1965,8 @@
       <c r="H16" s="6"/>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef STEP5_EN
-mcu_config_output(STEP5_EN);
+        <v>#ifdef DIR4
+mcu_config_output(DIR4);
 #endif</v>
       </c>
       <c r="J16" s="3"/>
@@ -2008,40 +1998,42 @@
         <v>DIO14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DIR0_PORT) &amp;&amp; defined(DIR0_BIT))
-#define DIR0 14
-#define DIR0_APB2EN (__rccapb2gpioen__(DIR0_PORT))
-#define DIR0_GPIO (__gpio__(DIR0_PORT))
-#if (DIR0_BIT &lt; 8)
-#define DIR0_CROFF DIR0_BIT
-#define DIR0_CR CRL
+        <v>#if (defined(DIR5_PORT) &amp;&amp; defined(DIR5_BIT))
+#define DIR5 14
+#define DIR5_APB2EN (__rccapb2gpioen__(DIR5_PORT))
+#define DIR5_GPIO (__gpio__(DIR5_PORT))
+#if (DIR5_BIT &lt; 8)
+#define DIR5_CROFF DIR5_BIT
+#define DIR5_CR CRL
 #else
-#define DIR0_CROFF (DIR0_BIT&amp;0x05)
-#define DIR0_CR CRH
+#define DIR5_CROFF (DIR5_BIT&amp;0x05)
+#define DIR5_CR CRH
 #endif
 #define DIO14 14
-#define DIO14_PORT DIR0_PORT
-#define DIO14_BIT DIR0_BIT
-#define DIO14_APB2EN DIR0_APB2EN
-#define DIO14_GPIO DIR0_GPIO
-#define DIO14_CR DIR0_CR
-#define DIO14_CROFF DIR0_CROFF
+#define DIO14_PORT DIR5_PORT
+#define DIO14_BIT DIR5_BIT
+#define DIO14_APB2EN DIR5_APB2EN
+#define DIO14_GPIO DIR5_GPIO
+#define DIO14_CR DIR5_CR
+#define DIO14_CROFF DIR5_CROFF
 #endif</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DIR0
-mcu_config_output(DIR0);
+        <v>#ifdef DIR5
+mcu_config_output(DIR5);
 #endif</v>
       </c>
       <c r="J17" s="3"/>
@@ -2064,7 +2056,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2073,342 +2065,15 @@
         <v>DIO15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DIR1_PORT) &amp;&amp; defined(DIR1_BIT))
-#define DIR1 15
-#define DIR1_APB2EN (__rccapb2gpioen__(DIR1_PORT))
-#define DIR1_GPIO (__gpio__(DIR1_PORT))
-#if (DIR1_BIT &lt; 8)
-#define DIR1_CROFF DIR1_BIT
-#define DIR1_CR CRL
-#else
-#define DIR1_CROFF (DIR1_BIT&amp;0x05)
-#define DIR1_CR CRH
-#endif
-#define DIO15 15
-#define DIO15_PORT DIR1_PORT
-#define DIO15_BIT DIR1_BIT
-#define DIO15_APB2EN DIR1_APB2EN
-#define DIO15_GPIO DIR1_GPIO
-#define DIO15_CR DIR1_CR
-#define DIO15_CROFF DIR1_CROFF
-#endif</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR1
-mcu_config_output(DIR1);
-#endif</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-    </row>
-    <row r="19" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if (defined(DIR2_PORT) &amp;&amp; defined(DIR2_BIT))
-#define DIR2 16
-#define DIR2_APB2EN (__rccapb2gpioen__(DIR2_PORT))
-#define DIR2_GPIO (__gpio__(DIR2_PORT))
-#if (DIR2_BIT &lt; 8)
-#define DIR2_CROFF DIR2_BIT
-#define DIR2_CR CRL
-#else
-#define DIR2_CROFF (DIR2_BIT&amp;0x05)
-#define DIR2_CR CRH
-#endif
-#define DIO16 16
-#define DIO16_PORT DIR2_PORT
-#define DIO16_BIT DIR2_BIT
-#define DIO16_APB2EN DIR2_APB2EN
-#define DIO16_GPIO DIR2_GPIO
-#define DIO16_CR DIR2_CR
-#define DIO16_CROFF DIR2_CROFF
-#endif</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR2
-mcu_config_output(DIR2);
-#endif</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if (defined(DIR3_PORT) &amp;&amp; defined(DIR3_BIT))
-#define DIR3 17
-#define DIR3_APB2EN (__rccapb2gpioen__(DIR3_PORT))
-#define DIR3_GPIO (__gpio__(DIR3_PORT))
-#if (DIR3_BIT &lt; 8)
-#define DIR3_CROFF DIR3_BIT
-#define DIR3_CR CRL
-#else
-#define DIR3_CROFF (DIR3_BIT&amp;0x05)
-#define DIR3_CR CRH
-#endif
-#define DIO17 17
-#define DIO17_PORT DIR3_PORT
-#define DIO17_BIT DIR3_BIT
-#define DIO17_APB2EN DIR3_APB2EN
-#define DIO17_GPIO DIR3_GPIO
-#define DIO17_CR DIR3_CR
-#define DIO17_CROFF DIR3_CROFF
-#endif</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR3
-mcu_config_output(DIR3);
-#endif</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-    </row>
-    <row r="21" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if (defined(DIR4_PORT) &amp;&amp; defined(DIR4_BIT))
-#define DIR4 18
-#define DIR4_APB2EN (__rccapb2gpioen__(DIR4_PORT))
-#define DIR4_GPIO (__gpio__(DIR4_PORT))
-#if (DIR4_BIT &lt; 8)
-#define DIR4_CROFF DIR4_BIT
-#define DIR4_CR CRL
-#else
-#define DIR4_CROFF (DIR4_BIT&amp;0x05)
-#define DIR4_CR CRH
-#endif
-#define DIO18 18
-#define DIO18_PORT DIR4_PORT
-#define DIO18_BIT DIR4_BIT
-#define DIO18_APB2EN DIR4_APB2EN
-#define DIO18_GPIO DIR4_GPIO
-#define DIO18_CR DIR4_CR
-#define DIO18_CROFF DIR4_CROFF
-#endif</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR4
-mcu_config_output(DIR4);
-#endif</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-    </row>
-    <row r="22" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>#if (defined(DIR5_PORT) &amp;&amp; defined(DIR5_BIT))
-#define DIR5 19
-#define DIR5_APB2EN (__rccapb2gpioen__(DIR5_PORT))
-#define DIR5_GPIO (__gpio__(DIR5_PORT))
-#if (DIR5_BIT &lt; 8)
-#define DIR5_CROFF DIR5_BIT
-#define DIR5_CR CRL
-#else
-#define DIR5_CROFF (DIR5_BIT&amp;0x05)
-#define DIR5_CR CRH
-#endif
-#define DIO19 19
-#define DIO19_PORT DIR5_PORT
-#define DIO19_BIT DIR5_BIT
-#define DIO19_APB2EN DIR5_APB2EN
-#define DIO19_GPIO DIR5_GPIO
-#define DIO19_CR DIR5_CR
-#define DIO19_CROFF DIR5_CROFF
-#endif</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DIR5
-mcu_config_output(DIR5);
-#endif</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-    </row>
-    <row r="23" spans="1:28" s="4" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="str">
-        <f t="shared" si="1"/>
         <v>#if (defined(PWM0_PORT) &amp;&amp; defined(PWM0_BIT))
-#define PWM0 20
+#define PWM0 15
 #define PWM0_APB2EN (__rccapb2gpioen__(PWM0_PORT))
 #define PWM0_GPIO (__gpio__(PWM0_PORT))
 #if (PWM0_BIT &lt; 8)
@@ -2418,59 +2083,59 @@
 #define PWM0_CROFF (PWM0_BIT&amp;0x05)
 #define PWM0_CR CRH
 #endif
-#define DIO20 20
-#define DIO20_PORT PWM0_PORT
-#define DIO20_BIT PWM0_BIT
-#define DIO20_APB2EN PWM0_APB2EN
-#define DIO20_GPIO PWM0_GPIO
-#define DIO20_CR PWM0_CR
-#define DIO20_CROFF PWM0_CROFF
+#define DIO15 15
+#define DIO15_PORT PWM0_PORT
+#define DIO15_BIT PWM0_BIT
+#define DIO15_APB2EN PWM0_APB2EN
+#define DIO15_GPIO PWM0_GPIO
+#define DIO15_CR PWM0_CR
+#define DIO15_CROFF PWM0_CROFF
 #endif</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="str">
-        <f>"#if (defined("&amp;C23&amp;"_CHANNEL) &amp;&amp; defined("&amp;C23&amp;"_TIMER) &amp;&amp; defined("&amp;C23&amp;"))
-#if ("&amp;C23&amp;"_TIMER==1 || ("&amp;C23&amp;"_TIMER&gt;=8 &amp; "&amp;C23&amp;"_TIMER&lt;=11))
-#define "&amp;C23&amp;"_ENREG RCC-&gt;APB2ENR
-#define "&amp;C23&amp;"_APBEN __helper__(RCC_APB2ENR_TIM,"&amp;C23&amp;"_TIMER, EN)
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="str">
+        <f>"#if (defined("&amp;C18&amp;"_CHANNEL) &amp;&amp; defined("&amp;C18&amp;"_TIMER) &amp;&amp; defined("&amp;C18&amp;"))
+#if ("&amp;C18&amp;"_TIMER==1 || ("&amp;C18&amp;"_TIMER&gt;=8 &amp; "&amp;C18&amp;"_TIMER&lt;=11))
+#define "&amp;C18&amp;"_ENREG RCC-&gt;APB2ENR
+#define "&amp;C18&amp;"_APBEN __helper__(RCC_APB2ENR_TIM,"&amp;C18&amp;"_TIMER, EN)
 #else
-#define "&amp;C23&amp;"_ENREG RCC-&gt;APB1ENR
-#define "&amp;C23&amp;"_APBEN __helper__(RCC_APB1ENR_TIM,"&amp;C23&amp;"_TIMER, EN)
+#define "&amp;C18&amp;"_ENREG RCC-&gt;APB1ENR
+#define "&amp;C18&amp;"_APBEN __helper__(RCC_APB1ENR_TIM,"&amp;C18&amp;"_TIMER, EN)
 #endif
-#define "&amp;C23&amp;"_TIMREG (__tim__("&amp;C23&amp;"_TIMER))
-#ifndef "&amp;C23&amp;"_FREQ
-#define "&amp;C23&amp;"_FREQ 1000
+#define "&amp;C18&amp;"_TIMREG (__tim__("&amp;C18&amp;"_TIMER))
+#ifndef "&amp;C18&amp;"_FREQ
+#define "&amp;C18&amp;"_FREQ 1000
 #endif
-#if ("&amp;C23&amp;"_CHANNEL &amp; 0x01)
-#define "&amp;C23&amp;"_MODE 0x0064
+#if ("&amp;C18&amp;"_CHANNEL &amp; 0x01)
+#define "&amp;C18&amp;"_MODE 0x0064
 #else
-#define "&amp;C23&amp;"_MODE 0x6400
+#define "&amp;C18&amp;"_MODE 0x6400
 #endif
-#if ("&amp;C23&amp;"_CHANNEL &gt; 2)
-#define "&amp;C23&amp;"_CCMREG CCMR2
+#if ("&amp;C18&amp;"_CHANNEL &gt; 2)
+#define "&amp;C18&amp;"_CCMREG CCMR2
 #else
-#define "&amp;C23&amp;"_CCMREG CCMR1
+#define "&amp;C18&amp;"_CCMREG CCMR1
 #endif
-#if ("&amp;C23&amp;"_TIMER==1)
-#define "&amp;C23&amp;"_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
-#elif ("&amp;C23&amp;"_TIMER==8)
-#define "&amp;C23&amp;"_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#if ("&amp;C18&amp;"_TIMER==1)
+#define "&amp;C18&amp;"_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif ("&amp;C18&amp;"_TIMER==8)
+#define "&amp;C18&amp;"_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
 #else
-#define "&amp;C23&amp;"_ENOUTPUT {}
+#define "&amp;C18&amp;"_ENOUTPUT {}
 #endif
-#define "&amp;C23&amp;"_CCR __ccr__("&amp;C23&amp;"_CHANNEL)
-#define "&amp;B23&amp;"_TIMER "&amp;C23&amp;"_TIMER
-#define "&amp;B23&amp;"_CHANNEL "&amp;C23&amp;"_CHANNEL
-#define "&amp;B23&amp;"_ENREG "&amp;C23&amp;"_ENREG
-#define "&amp;B23&amp;"_APBEN "&amp;C23&amp;"_APBEN
-#define "&amp;B23&amp;"_TIMREG "&amp;C23&amp;"_TIMREG
-#define "&amp;B23&amp;"_APBEN "&amp;C23&amp;"_APBEN
-#define "&amp;B23&amp;"_FREQ "&amp;C23&amp;"_FREQ
-#define "&amp;B23&amp;"_MODE "&amp;C23&amp;"_MODE
-#define "&amp;B23&amp;"_CCMREG "&amp;C23&amp;"_CCMREG
-#define "&amp;B23&amp;"_CCR "&amp;C23&amp;"_CCR
-#define "&amp;B23&amp;"_ENOUTPUT "&amp;C23&amp;"_ENOUTPUT
+#define "&amp;C18&amp;"_CCR __ccr__("&amp;C18&amp;"_CHANNEL)
+#define "&amp;B18&amp;"_TIMER "&amp;C18&amp;"_TIMER
+#define "&amp;B18&amp;"_CHANNEL "&amp;C18&amp;"_CHANNEL
+#define "&amp;B18&amp;"_ENREG "&amp;C18&amp;"_ENREG
+#define "&amp;B18&amp;"_APBEN "&amp;C18&amp;"_APBEN
+#define "&amp;B18&amp;"_TIMREG "&amp;C18&amp;"_TIMREG
+#define "&amp;B18&amp;"_APBEN "&amp;C18&amp;"_APBEN
+#define "&amp;B18&amp;"_FREQ "&amp;C18&amp;"_FREQ
+#define "&amp;B18&amp;"_MODE "&amp;C18&amp;"_MODE
+#define "&amp;B18&amp;"_CCMREG "&amp;C18&amp;"_CCMREG
+#define "&amp;B18&amp;"_CCR "&amp;C18&amp;"_CCR
+#define "&amp;B18&amp;"_ENOUTPUT "&amp;C18&amp;"_ENOUTPUT
 #endif"</f>
         <v>#if (defined(PWM0_CHANNEL) &amp;&amp; defined(PWM0_TIMER) &amp;&amp; defined(PWM0))
 #if (PWM0_TIMER==1 || (PWM0_TIMER&gt;=8 &amp; PWM0_TIMER&lt;=11))
@@ -2502,65 +2167,65 @@
 #define PWM0_ENOUTPUT {}
 #endif
 #define PWM0_CCR __ccr__(PWM0_CHANNEL)
-#define DIO20_TIMER PWM0_TIMER
-#define DIO20_CHANNEL PWM0_CHANNEL
-#define DIO20_ENREG PWM0_ENREG
-#define DIO20_APBEN PWM0_APBEN
-#define DIO20_TIMREG PWM0_TIMREG
-#define DIO20_APBEN PWM0_APBEN
-#define DIO20_FREQ PWM0_FREQ
-#define DIO20_MODE PWM0_MODE
-#define DIO20_CCMREG PWM0_CCMREG
-#define DIO20_CCR PWM0_CCR
-#define DIO20_ENOUTPUT PWM0_ENOUTPUT
+#define DIO15_TIMER PWM0_TIMER
+#define DIO15_CHANNEL PWM0_CHANNEL
+#define DIO15_ENREG PWM0_ENREG
+#define DIO15_APBEN PWM0_APBEN
+#define DIO15_TIMREG PWM0_TIMREG
+#define DIO15_APBEN PWM0_APBEN
+#define DIO15_FREQ PWM0_FREQ
+#define DIO15_MODE PWM0_MODE
+#define DIO15_CCMREG PWM0_CCMREG
+#define DIO15_CCR PWM0_CCR
+#define DIO15_ENOUTPUT PWM0_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I23" s="3" t="str">
-        <f>"#ifdef "&amp;C23&amp;"
-mcu_config_pwm("&amp;C23&amp;");
+      <c r="I18" s="3" t="str">
+        <f>"#ifdef "&amp;C18&amp;"
+mcu_config_pwm("&amp;C18&amp;");
 #endif"</f>
         <v>#ifdef PWM0
 mcu_config_pwm(PWM0);
 #endif</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-    </row>
-    <row r="24" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="str">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3">
+        <v>DIO16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM1_PORT) &amp;&amp; defined(PWM1_BIT))
-#define PWM1 21
+#define PWM1 16
 #define PWM1_APB2EN (__rccapb2gpioen__(PWM1_PORT))
 #define PWM1_GPIO (__gpio__(PWM1_PORT))
 #if (PWM1_BIT &lt; 8)
@@ -2570,59 +2235,59 @@
 #define PWM1_CROFF (PWM1_BIT&amp;0x05)
 #define PWM1_CR CRH
 #endif
-#define DIO21 21
-#define DIO21_PORT PWM1_PORT
-#define DIO21_BIT PWM1_BIT
-#define DIO21_APB2EN PWM1_APB2EN
-#define DIO21_GPIO PWM1_GPIO
-#define DIO21_CR PWM1_CR
-#define DIO21_CROFF PWM1_CROFF
+#define DIO16 16
+#define DIO16_PORT PWM1_PORT
+#define DIO16_BIT PWM1_BIT
+#define DIO16_APB2EN PWM1_APB2EN
+#define DIO16_GPIO PWM1_GPIO
+#define DIO16_CR PWM1_CR
+#define DIO16_CROFF PWM1_CROFF
 #endif</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="str">
-        <f t="shared" ref="H24:H38" si="4">"#if (defined("&amp;C24&amp;"_CHANNEL) &amp;&amp; defined("&amp;C24&amp;"_TIMER) &amp;&amp; defined("&amp;C24&amp;"))
-#if ("&amp;C24&amp;"_TIMER==1 || ("&amp;C24&amp;"_TIMER&gt;=8 &amp; "&amp;C24&amp;"_TIMER&lt;=11))
-#define "&amp;C24&amp;"_ENREG RCC-&gt;APB2ENR
-#define "&amp;C24&amp;"_APBEN __helper__(RCC_APB2ENR_TIM,"&amp;C24&amp;"_TIMER, EN)
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="str">
+        <f t="shared" ref="H19:H33" si="4">"#if (defined("&amp;C19&amp;"_CHANNEL) &amp;&amp; defined("&amp;C19&amp;"_TIMER) &amp;&amp; defined("&amp;C19&amp;"))
+#if ("&amp;C19&amp;"_TIMER==1 || ("&amp;C19&amp;"_TIMER&gt;=8 &amp; "&amp;C19&amp;"_TIMER&lt;=11))
+#define "&amp;C19&amp;"_ENREG RCC-&gt;APB2ENR
+#define "&amp;C19&amp;"_APBEN __helper__(RCC_APB2ENR_TIM,"&amp;C19&amp;"_TIMER, EN)
 #else
-#define "&amp;C24&amp;"_ENREG RCC-&gt;APB1ENR
-#define "&amp;C24&amp;"_APBEN __helper__(RCC_APB1ENR_TIM,"&amp;C24&amp;"_TIMER, EN)
+#define "&amp;C19&amp;"_ENREG RCC-&gt;APB1ENR
+#define "&amp;C19&amp;"_APBEN __helper__(RCC_APB1ENR_TIM,"&amp;C19&amp;"_TIMER, EN)
 #endif
-#define "&amp;C24&amp;"_TIMREG (__tim__("&amp;C24&amp;"_TIMER))
-#ifndef "&amp;C24&amp;"_FREQ
-#define "&amp;C24&amp;"_FREQ 1000
+#define "&amp;C19&amp;"_TIMREG (__tim__("&amp;C19&amp;"_TIMER))
+#ifndef "&amp;C19&amp;"_FREQ
+#define "&amp;C19&amp;"_FREQ 1000
 #endif
-#if ("&amp;C24&amp;"_CHANNEL &amp; 0x01)
-#define "&amp;C24&amp;"_MODE 0x0064
+#if ("&amp;C19&amp;"_CHANNEL &amp; 0x01)
+#define "&amp;C19&amp;"_MODE 0x0064
 #else
-#define "&amp;C24&amp;"_MODE 0x6400
+#define "&amp;C19&amp;"_MODE 0x6400
 #endif
-#if ("&amp;C24&amp;"_CHANNEL &gt; 2)
-#define "&amp;C24&amp;"_CCMREG CCMR2
+#if ("&amp;C19&amp;"_CHANNEL &gt; 2)
+#define "&amp;C19&amp;"_CCMREG CCMR2
 #else
-#define "&amp;C24&amp;"_CCMREG CCMR1
+#define "&amp;C19&amp;"_CCMREG CCMR1
 #endif
-#if ("&amp;C24&amp;"_TIMER==1)
-#define "&amp;C24&amp;"_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
-#elif ("&amp;C24&amp;"_TIMER==8)
-#define "&amp;C24&amp;"_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
+#if ("&amp;C19&amp;"_TIMER==1)
+#define "&amp;C19&amp;"_ENOUTPUT ({TIM1-&gt;BDTR |= (1 &lt;&lt; 15);})
+#elif ("&amp;C19&amp;"_TIMER==8)
+#define "&amp;C19&amp;"_ENOUTPUT ({TIM8-&gt;BDTR |= (1 &lt;&lt; 15);})
 #else
-#define "&amp;C24&amp;"_ENOUTPUT {}
+#define "&amp;C19&amp;"_ENOUTPUT {}
 #endif
-#define "&amp;C24&amp;"_CCR __ccr__("&amp;C24&amp;"_CHANNEL)
-#define "&amp;B24&amp;"_TIMER "&amp;C24&amp;"_TIMER
-#define "&amp;B24&amp;"_CHANNEL "&amp;C24&amp;"_CHANNEL
-#define "&amp;B24&amp;"_ENREG "&amp;C24&amp;"_ENREG
-#define "&amp;B24&amp;"_APBEN "&amp;C24&amp;"_APBEN
-#define "&amp;B24&amp;"_TIMREG "&amp;C24&amp;"_TIMREG
-#define "&amp;B24&amp;"_APBEN "&amp;C24&amp;"_APBEN
-#define "&amp;B24&amp;"_FREQ "&amp;C24&amp;"_FREQ
-#define "&amp;B24&amp;"_MODE "&amp;C24&amp;"_MODE
-#define "&amp;B24&amp;"_CCMREG "&amp;C24&amp;"_CCMREG
-#define "&amp;B24&amp;"_CCR "&amp;C24&amp;"_CCR
-#define "&amp;B24&amp;"_ENOUTPUT "&amp;C24&amp;"_ENOUTPUT
+#define "&amp;C19&amp;"_CCR __ccr__("&amp;C19&amp;"_CHANNEL)
+#define "&amp;B19&amp;"_TIMER "&amp;C19&amp;"_TIMER
+#define "&amp;B19&amp;"_CHANNEL "&amp;C19&amp;"_CHANNEL
+#define "&amp;B19&amp;"_ENREG "&amp;C19&amp;"_ENREG
+#define "&amp;B19&amp;"_APBEN "&amp;C19&amp;"_APBEN
+#define "&amp;B19&amp;"_TIMREG "&amp;C19&amp;"_TIMREG
+#define "&amp;B19&amp;"_APBEN "&amp;C19&amp;"_APBEN
+#define "&amp;B19&amp;"_FREQ "&amp;C19&amp;"_FREQ
+#define "&amp;B19&amp;"_MODE "&amp;C19&amp;"_MODE
+#define "&amp;B19&amp;"_CCMREG "&amp;C19&amp;"_CCMREG
+#define "&amp;B19&amp;"_CCR "&amp;C19&amp;"_CCR
+#define "&amp;B19&amp;"_ENOUTPUT "&amp;C19&amp;"_ENOUTPUT
 #endif"</f>
         <v>#if (defined(PWM1_CHANNEL) &amp;&amp; defined(PWM1_TIMER) &amp;&amp; defined(PWM1))
 #if (PWM1_TIMER==1 || (PWM1_TIMER&gt;=8 &amp; PWM1_TIMER&lt;=11))
@@ -2654,65 +2319,65 @@
 #define PWM1_ENOUTPUT {}
 #endif
 #define PWM1_CCR __ccr__(PWM1_CHANNEL)
-#define DIO21_TIMER PWM1_TIMER
-#define DIO21_CHANNEL PWM1_CHANNEL
-#define DIO21_ENREG PWM1_ENREG
-#define DIO21_APBEN PWM1_APBEN
-#define DIO21_TIMREG PWM1_TIMREG
-#define DIO21_APBEN PWM1_APBEN
-#define DIO21_FREQ PWM1_FREQ
-#define DIO21_MODE PWM1_MODE
-#define DIO21_CCMREG PWM1_CCMREG
-#define DIO21_CCR PWM1_CCR
-#define DIO21_ENOUTPUT PWM1_ENOUTPUT
+#define DIO16_TIMER PWM1_TIMER
+#define DIO16_CHANNEL PWM1_CHANNEL
+#define DIO16_ENREG PWM1_ENREG
+#define DIO16_APBEN PWM1_APBEN
+#define DIO16_TIMREG PWM1_TIMREG
+#define DIO16_APBEN PWM1_APBEN
+#define DIO16_FREQ PWM1_FREQ
+#define DIO16_MODE PWM1_MODE
+#define DIO16_CCMREG PWM1_CCMREG
+#define DIO16_CCR PWM1_CCR
+#define DIO16_ENOUTPUT PWM1_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I24" s="3" t="str">
-        <f t="shared" ref="I24:I38" si="5">"#ifdef "&amp;C24&amp;"
-mcu_config_pwm("&amp;C24&amp;");
+      <c r="I19" s="3" t="str">
+        <f t="shared" ref="I19:I33" si="5">"#ifdef "&amp;C19&amp;"
+mcu_config_pwm("&amp;C19&amp;");
 #endif"</f>
         <v>#ifdef PWM1
 mcu_config_pwm(PWM1);
 #endif</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-    </row>
-    <row r="25" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="str">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3">
+        <v>DIO17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM2_PORT) &amp;&amp; defined(PWM2_BIT))
-#define PWM2 22
+#define PWM2 17
 #define PWM2_APB2EN (__rccapb2gpioen__(PWM2_PORT))
 #define PWM2_GPIO (__gpio__(PWM2_PORT))
 #if (PWM2_BIT &lt; 8)
@@ -2722,18 +2387,18 @@
 #define PWM2_CROFF (PWM2_BIT&amp;0x05)
 #define PWM2_CR CRH
 #endif
-#define DIO22 22
-#define DIO22_PORT PWM2_PORT
-#define DIO22_BIT PWM2_BIT
-#define DIO22_APB2EN PWM2_APB2EN
-#define DIO22_GPIO PWM2_GPIO
-#define DIO22_CR PWM2_CR
-#define DIO22_CROFF PWM2_CROFF
+#define DIO17 17
+#define DIO17_PORT PWM2_PORT
+#define DIO17_BIT PWM2_BIT
+#define DIO17_APB2EN PWM2_APB2EN
+#define DIO17_GPIO PWM2_GPIO
+#define DIO17_CR PWM2_CR
+#define DIO17_CROFF PWM2_CROFF
 #endif</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="str">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM2_CHANNEL) &amp;&amp; defined(PWM2_TIMER) &amp;&amp; defined(PWM2))
 #if (PWM2_TIMER==1 || (PWM2_TIMER&gt;=8 &amp; PWM2_TIMER&lt;=11))
@@ -2765,63 +2430,63 @@
 #define PWM2_ENOUTPUT {}
 #endif
 #define PWM2_CCR __ccr__(PWM2_CHANNEL)
-#define DIO22_TIMER PWM2_TIMER
-#define DIO22_CHANNEL PWM2_CHANNEL
-#define DIO22_ENREG PWM2_ENREG
-#define DIO22_APBEN PWM2_APBEN
-#define DIO22_TIMREG PWM2_TIMREG
-#define DIO22_APBEN PWM2_APBEN
-#define DIO22_FREQ PWM2_FREQ
-#define DIO22_MODE PWM2_MODE
-#define DIO22_CCMREG PWM2_CCMREG
-#define DIO22_CCR PWM2_CCR
-#define DIO22_ENOUTPUT PWM2_ENOUTPUT
+#define DIO17_TIMER PWM2_TIMER
+#define DIO17_CHANNEL PWM2_CHANNEL
+#define DIO17_ENREG PWM2_ENREG
+#define DIO17_APBEN PWM2_APBEN
+#define DIO17_TIMREG PWM2_TIMREG
+#define DIO17_APBEN PWM2_APBEN
+#define DIO17_FREQ PWM2_FREQ
+#define DIO17_MODE PWM2_MODE
+#define DIO17_CCMREG PWM2_CCMREG
+#define DIO17_CCR PWM2_CCR
+#define DIO17_ENOUTPUT PWM2_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I25" s="3" t="str">
+      <c r="I20" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM2
 mcu_config_pwm(PWM2);
 #endif</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-    </row>
-    <row r="26" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="str">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3">
+        <v>DIO18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="6" t="str">
+      <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM3_PORT) &amp;&amp; defined(PWM3_BIT))
-#define PWM3 23
+#define PWM3 18
 #define PWM3_APB2EN (__rccapb2gpioen__(PWM3_PORT))
 #define PWM3_GPIO (__gpio__(PWM3_PORT))
 #if (PWM3_BIT &lt; 8)
@@ -2831,18 +2496,18 @@
 #define PWM3_CROFF (PWM3_BIT&amp;0x05)
 #define PWM3_CR CRH
 #endif
-#define DIO23 23
-#define DIO23_PORT PWM3_PORT
-#define DIO23_BIT PWM3_BIT
-#define DIO23_APB2EN PWM3_APB2EN
-#define DIO23_GPIO PWM3_GPIO
-#define DIO23_CR PWM3_CR
-#define DIO23_CROFF PWM3_CROFF
+#define DIO18 18
+#define DIO18_PORT PWM3_PORT
+#define DIO18_BIT PWM3_BIT
+#define DIO18_APB2EN PWM3_APB2EN
+#define DIO18_GPIO PWM3_GPIO
+#define DIO18_CR PWM3_CR
+#define DIO18_CROFF PWM3_CROFF
 #endif</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="str">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM3_CHANNEL) &amp;&amp; defined(PWM3_TIMER) &amp;&amp; defined(PWM3))
 #if (PWM3_TIMER==1 || (PWM3_TIMER&gt;=8 &amp; PWM3_TIMER&lt;=11))
@@ -2874,63 +2539,63 @@
 #define PWM3_ENOUTPUT {}
 #endif
 #define PWM3_CCR __ccr__(PWM3_CHANNEL)
-#define DIO23_TIMER PWM3_TIMER
-#define DIO23_CHANNEL PWM3_CHANNEL
-#define DIO23_ENREG PWM3_ENREG
-#define DIO23_APBEN PWM3_APBEN
-#define DIO23_TIMREG PWM3_TIMREG
-#define DIO23_APBEN PWM3_APBEN
-#define DIO23_FREQ PWM3_FREQ
-#define DIO23_MODE PWM3_MODE
-#define DIO23_CCMREG PWM3_CCMREG
-#define DIO23_CCR PWM3_CCR
-#define DIO23_ENOUTPUT PWM3_ENOUTPUT
+#define DIO18_TIMER PWM3_TIMER
+#define DIO18_CHANNEL PWM3_CHANNEL
+#define DIO18_ENREG PWM3_ENREG
+#define DIO18_APBEN PWM3_APBEN
+#define DIO18_TIMREG PWM3_TIMREG
+#define DIO18_APBEN PWM3_APBEN
+#define DIO18_FREQ PWM3_FREQ
+#define DIO18_MODE PWM3_MODE
+#define DIO18_CCMREG PWM3_CCMREG
+#define DIO18_CCR PWM3_CCR
+#define DIO18_ENOUTPUT PWM3_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I26" s="3" t="str">
+      <c r="I21" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM3
 mcu_config_pwm(PWM3);
 #endif</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-    </row>
-    <row r="27" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="str">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3">
+        <v>DIO19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="6" t="str">
+      <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM4_PORT) &amp;&amp; defined(PWM4_BIT))
-#define PWM4 24
+#define PWM4 19
 #define PWM4_APB2EN (__rccapb2gpioen__(PWM4_PORT))
 #define PWM4_GPIO (__gpio__(PWM4_PORT))
 #if (PWM4_BIT &lt; 8)
@@ -2940,18 +2605,18 @@
 #define PWM4_CROFF (PWM4_BIT&amp;0x05)
 #define PWM4_CR CRH
 #endif
-#define DIO24 24
-#define DIO24_PORT PWM4_PORT
-#define DIO24_BIT PWM4_BIT
-#define DIO24_APB2EN PWM4_APB2EN
-#define DIO24_GPIO PWM4_GPIO
-#define DIO24_CR PWM4_CR
-#define DIO24_CROFF PWM4_CROFF
+#define DIO19 19
+#define DIO19_PORT PWM4_PORT
+#define DIO19_BIT PWM4_BIT
+#define DIO19_APB2EN PWM4_APB2EN
+#define DIO19_GPIO PWM4_GPIO
+#define DIO19_CR PWM4_CR
+#define DIO19_CROFF PWM4_CROFF
 #endif</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="str">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM4_CHANNEL) &amp;&amp; defined(PWM4_TIMER) &amp;&amp; defined(PWM4))
 #if (PWM4_TIMER==1 || (PWM4_TIMER&gt;=8 &amp; PWM4_TIMER&lt;=11))
@@ -2983,63 +2648,63 @@
 #define PWM4_ENOUTPUT {}
 #endif
 #define PWM4_CCR __ccr__(PWM4_CHANNEL)
-#define DIO24_TIMER PWM4_TIMER
-#define DIO24_CHANNEL PWM4_CHANNEL
-#define DIO24_ENREG PWM4_ENREG
-#define DIO24_APBEN PWM4_APBEN
-#define DIO24_TIMREG PWM4_TIMREG
-#define DIO24_APBEN PWM4_APBEN
-#define DIO24_FREQ PWM4_FREQ
-#define DIO24_MODE PWM4_MODE
-#define DIO24_CCMREG PWM4_CCMREG
-#define DIO24_CCR PWM4_CCR
-#define DIO24_ENOUTPUT PWM4_ENOUTPUT
+#define DIO19_TIMER PWM4_TIMER
+#define DIO19_CHANNEL PWM4_CHANNEL
+#define DIO19_ENREG PWM4_ENREG
+#define DIO19_APBEN PWM4_APBEN
+#define DIO19_TIMREG PWM4_TIMREG
+#define DIO19_APBEN PWM4_APBEN
+#define DIO19_FREQ PWM4_FREQ
+#define DIO19_MODE PWM4_MODE
+#define DIO19_CCMREG PWM4_CCMREG
+#define DIO19_CCR PWM4_CCR
+#define DIO19_ENOUTPUT PWM4_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I27" s="3" t="str">
+      <c r="I22" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM4
 mcu_config_pwm(PWM4);
 #endif</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-    </row>
-    <row r="28" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="str">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO25</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="3">
+        <v>DIO20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
         <v>5</v>
       </c>
-      <c r="E28" s="6" t="str">
+      <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM5_PORT) &amp;&amp; defined(PWM5_BIT))
-#define PWM5 25
+#define PWM5 20
 #define PWM5_APB2EN (__rccapb2gpioen__(PWM5_PORT))
 #define PWM5_GPIO (__gpio__(PWM5_PORT))
 #if (PWM5_BIT &lt; 8)
@@ -3049,18 +2714,18 @@
 #define PWM5_CROFF (PWM5_BIT&amp;0x05)
 #define PWM5_CR CRH
 #endif
-#define DIO25 25
-#define DIO25_PORT PWM5_PORT
-#define DIO25_BIT PWM5_BIT
-#define DIO25_APB2EN PWM5_APB2EN
-#define DIO25_GPIO PWM5_GPIO
-#define DIO25_CR PWM5_CR
-#define DIO25_CROFF PWM5_CROFF
+#define DIO20 20
+#define DIO20_PORT PWM5_PORT
+#define DIO20_BIT PWM5_BIT
+#define DIO20_APB2EN PWM5_APB2EN
+#define DIO20_GPIO PWM5_GPIO
+#define DIO20_CR PWM5_CR
+#define DIO20_CROFF PWM5_CROFF
 #endif</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="str">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM5_CHANNEL) &amp;&amp; defined(PWM5_TIMER) &amp;&amp; defined(PWM5))
 #if (PWM5_TIMER==1 || (PWM5_TIMER&gt;=8 &amp; PWM5_TIMER&lt;=11))
@@ -3092,63 +2757,63 @@
 #define PWM5_ENOUTPUT {}
 #endif
 #define PWM5_CCR __ccr__(PWM5_CHANNEL)
-#define DIO25_TIMER PWM5_TIMER
-#define DIO25_CHANNEL PWM5_CHANNEL
-#define DIO25_ENREG PWM5_ENREG
-#define DIO25_APBEN PWM5_APBEN
-#define DIO25_TIMREG PWM5_TIMREG
-#define DIO25_APBEN PWM5_APBEN
-#define DIO25_FREQ PWM5_FREQ
-#define DIO25_MODE PWM5_MODE
-#define DIO25_CCMREG PWM5_CCMREG
-#define DIO25_CCR PWM5_CCR
-#define DIO25_ENOUTPUT PWM5_ENOUTPUT
+#define DIO20_TIMER PWM5_TIMER
+#define DIO20_CHANNEL PWM5_CHANNEL
+#define DIO20_ENREG PWM5_ENREG
+#define DIO20_APBEN PWM5_APBEN
+#define DIO20_TIMREG PWM5_TIMREG
+#define DIO20_APBEN PWM5_APBEN
+#define DIO20_FREQ PWM5_FREQ
+#define DIO20_MODE PWM5_MODE
+#define DIO20_CCMREG PWM5_CCMREG
+#define DIO20_CCR PWM5_CCR
+#define DIO20_ENOUTPUT PWM5_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I28" s="3" t="str">
+      <c r="I23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM5
 mcu_config_pwm(PWM5);
 #endif</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-    </row>
-    <row r="29" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="str">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3">
+        <v>DIO21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
         <v>6</v>
       </c>
-      <c r="E29" s="6" t="str">
+      <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM6_PORT) &amp;&amp; defined(PWM6_BIT))
-#define PWM6 26
+#define PWM6 21
 #define PWM6_APB2EN (__rccapb2gpioen__(PWM6_PORT))
 #define PWM6_GPIO (__gpio__(PWM6_PORT))
 #if (PWM6_BIT &lt; 8)
@@ -3158,18 +2823,18 @@
 #define PWM6_CROFF (PWM6_BIT&amp;0x05)
 #define PWM6_CR CRH
 #endif
-#define DIO26 26
-#define DIO26_PORT PWM6_PORT
-#define DIO26_BIT PWM6_BIT
-#define DIO26_APB2EN PWM6_APB2EN
-#define DIO26_GPIO PWM6_GPIO
-#define DIO26_CR PWM6_CR
-#define DIO26_CROFF PWM6_CROFF
+#define DIO21 21
+#define DIO21_PORT PWM6_PORT
+#define DIO21_BIT PWM6_BIT
+#define DIO21_APB2EN PWM6_APB2EN
+#define DIO21_GPIO PWM6_GPIO
+#define DIO21_CR PWM6_CR
+#define DIO21_CROFF PWM6_CROFF
 #endif</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="str">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM6_CHANNEL) &amp;&amp; defined(PWM6_TIMER) &amp;&amp; defined(PWM6))
 #if (PWM6_TIMER==1 || (PWM6_TIMER&gt;=8 &amp; PWM6_TIMER&lt;=11))
@@ -3201,63 +2866,63 @@
 #define PWM6_ENOUTPUT {}
 #endif
 #define PWM6_CCR __ccr__(PWM6_CHANNEL)
-#define DIO26_TIMER PWM6_TIMER
-#define DIO26_CHANNEL PWM6_CHANNEL
-#define DIO26_ENREG PWM6_ENREG
-#define DIO26_APBEN PWM6_APBEN
-#define DIO26_TIMREG PWM6_TIMREG
-#define DIO26_APBEN PWM6_APBEN
-#define DIO26_FREQ PWM6_FREQ
-#define DIO26_MODE PWM6_MODE
-#define DIO26_CCMREG PWM6_CCMREG
-#define DIO26_CCR PWM6_CCR
-#define DIO26_ENOUTPUT PWM6_ENOUTPUT
+#define DIO21_TIMER PWM6_TIMER
+#define DIO21_CHANNEL PWM6_CHANNEL
+#define DIO21_ENREG PWM6_ENREG
+#define DIO21_APBEN PWM6_APBEN
+#define DIO21_TIMREG PWM6_TIMREG
+#define DIO21_APBEN PWM6_APBEN
+#define DIO21_FREQ PWM6_FREQ
+#define DIO21_MODE PWM6_MODE
+#define DIO21_CCMREG PWM6_CCMREG
+#define DIO21_CCR PWM6_CCR
+#define DIO21_ENOUTPUT PWM6_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I29" s="3" t="str">
+      <c r="I24" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM6
 mcu_config_pwm(PWM6);
 #endif</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-    </row>
-    <row r="30" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="str">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO27</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3">
+        <v>DIO22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
         <v>7</v>
       </c>
-      <c r="E30" s="6" t="str">
+      <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM7_PORT) &amp;&amp; defined(PWM7_BIT))
-#define PWM7 27
+#define PWM7 22
 #define PWM7_APB2EN (__rccapb2gpioen__(PWM7_PORT))
 #define PWM7_GPIO (__gpio__(PWM7_PORT))
 #if (PWM7_BIT &lt; 8)
@@ -3267,18 +2932,18 @@
 #define PWM7_CROFF (PWM7_BIT&amp;0x05)
 #define PWM7_CR CRH
 #endif
-#define DIO27 27
-#define DIO27_PORT PWM7_PORT
-#define DIO27_BIT PWM7_BIT
-#define DIO27_APB2EN PWM7_APB2EN
-#define DIO27_GPIO PWM7_GPIO
-#define DIO27_CR PWM7_CR
-#define DIO27_CROFF PWM7_CROFF
+#define DIO22 22
+#define DIO22_PORT PWM7_PORT
+#define DIO22_BIT PWM7_BIT
+#define DIO22_APB2EN PWM7_APB2EN
+#define DIO22_GPIO PWM7_GPIO
+#define DIO22_CR PWM7_CR
+#define DIO22_CROFF PWM7_CROFF
 #endif</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="str">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM7_CHANNEL) &amp;&amp; defined(PWM7_TIMER) &amp;&amp; defined(PWM7))
 #if (PWM7_TIMER==1 || (PWM7_TIMER&gt;=8 &amp; PWM7_TIMER&lt;=11))
@@ -3310,63 +2975,63 @@
 #define PWM7_ENOUTPUT {}
 #endif
 #define PWM7_CCR __ccr__(PWM7_CHANNEL)
-#define DIO27_TIMER PWM7_TIMER
-#define DIO27_CHANNEL PWM7_CHANNEL
-#define DIO27_ENREG PWM7_ENREG
-#define DIO27_APBEN PWM7_APBEN
-#define DIO27_TIMREG PWM7_TIMREG
-#define DIO27_APBEN PWM7_APBEN
-#define DIO27_FREQ PWM7_FREQ
-#define DIO27_MODE PWM7_MODE
-#define DIO27_CCMREG PWM7_CCMREG
-#define DIO27_CCR PWM7_CCR
-#define DIO27_ENOUTPUT PWM7_ENOUTPUT
+#define DIO22_TIMER PWM7_TIMER
+#define DIO22_CHANNEL PWM7_CHANNEL
+#define DIO22_ENREG PWM7_ENREG
+#define DIO22_APBEN PWM7_APBEN
+#define DIO22_TIMREG PWM7_TIMREG
+#define DIO22_APBEN PWM7_APBEN
+#define DIO22_FREQ PWM7_FREQ
+#define DIO22_MODE PWM7_MODE
+#define DIO22_CCMREG PWM7_CCMREG
+#define DIO22_CCR PWM7_CCR
+#define DIO22_ENOUTPUT PWM7_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I30" s="3" t="str">
+      <c r="I25" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM7
 mcu_config_pwm(PWM7);
 #endif</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-    </row>
-    <row r="31" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="str">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO28</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3">
+        <v>DIO23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
         <v>8</v>
       </c>
-      <c r="E31" s="6" t="str">
+      <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM8_PORT) &amp;&amp; defined(PWM8_BIT))
-#define PWM8 28
+#define PWM8 23
 #define PWM8_APB2EN (__rccapb2gpioen__(PWM8_PORT))
 #define PWM8_GPIO (__gpio__(PWM8_PORT))
 #if (PWM8_BIT &lt; 8)
@@ -3376,18 +3041,18 @@
 #define PWM8_CROFF (PWM8_BIT&amp;0x05)
 #define PWM8_CR CRH
 #endif
-#define DIO28 28
-#define DIO28_PORT PWM8_PORT
-#define DIO28_BIT PWM8_BIT
-#define DIO28_APB2EN PWM8_APB2EN
-#define DIO28_GPIO PWM8_GPIO
-#define DIO28_CR PWM8_CR
-#define DIO28_CROFF PWM8_CROFF
+#define DIO23 23
+#define DIO23_PORT PWM8_PORT
+#define DIO23_BIT PWM8_BIT
+#define DIO23_APB2EN PWM8_APB2EN
+#define DIO23_GPIO PWM8_GPIO
+#define DIO23_CR PWM8_CR
+#define DIO23_CROFF PWM8_CROFF
 #endif</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="str">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM8_CHANNEL) &amp;&amp; defined(PWM8_TIMER) &amp;&amp; defined(PWM8))
 #if (PWM8_TIMER==1 || (PWM8_TIMER&gt;=8 &amp; PWM8_TIMER&lt;=11))
@@ -3419,63 +3084,63 @@
 #define PWM8_ENOUTPUT {}
 #endif
 #define PWM8_CCR __ccr__(PWM8_CHANNEL)
-#define DIO28_TIMER PWM8_TIMER
-#define DIO28_CHANNEL PWM8_CHANNEL
-#define DIO28_ENREG PWM8_ENREG
-#define DIO28_APBEN PWM8_APBEN
-#define DIO28_TIMREG PWM8_TIMREG
-#define DIO28_APBEN PWM8_APBEN
-#define DIO28_FREQ PWM8_FREQ
-#define DIO28_MODE PWM8_MODE
-#define DIO28_CCMREG PWM8_CCMREG
-#define DIO28_CCR PWM8_CCR
-#define DIO28_ENOUTPUT PWM8_ENOUTPUT
+#define DIO23_TIMER PWM8_TIMER
+#define DIO23_CHANNEL PWM8_CHANNEL
+#define DIO23_ENREG PWM8_ENREG
+#define DIO23_APBEN PWM8_APBEN
+#define DIO23_TIMREG PWM8_TIMREG
+#define DIO23_APBEN PWM8_APBEN
+#define DIO23_FREQ PWM8_FREQ
+#define DIO23_MODE PWM8_MODE
+#define DIO23_CCMREG PWM8_CCMREG
+#define DIO23_CCR PWM8_CCR
+#define DIO23_ENOUTPUT PWM8_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I31" s="3" t="str">
+      <c r="I26" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM8
 mcu_config_pwm(PWM8);
 #endif</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-    </row>
-    <row r="32" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="str">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO29</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="3">
+        <v>DIO24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
         <v>9</v>
       </c>
-      <c r="E32" s="6" t="str">
+      <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM9_PORT) &amp;&amp; defined(PWM9_BIT))
-#define PWM9 29
+#define PWM9 24
 #define PWM9_APB2EN (__rccapb2gpioen__(PWM9_PORT))
 #define PWM9_GPIO (__gpio__(PWM9_PORT))
 #if (PWM9_BIT &lt; 8)
@@ -3485,18 +3150,18 @@
 #define PWM9_CROFF (PWM9_BIT&amp;0x05)
 #define PWM9_CR CRH
 #endif
-#define DIO29 29
-#define DIO29_PORT PWM9_PORT
-#define DIO29_BIT PWM9_BIT
-#define DIO29_APB2EN PWM9_APB2EN
-#define DIO29_GPIO PWM9_GPIO
-#define DIO29_CR PWM9_CR
-#define DIO29_CROFF PWM9_CROFF
+#define DIO24 24
+#define DIO24_PORT PWM9_PORT
+#define DIO24_BIT PWM9_BIT
+#define DIO24_APB2EN PWM9_APB2EN
+#define DIO24_GPIO PWM9_GPIO
+#define DIO24_CR PWM9_CR
+#define DIO24_CROFF PWM9_CROFF
 #endif</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="str">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM9_CHANNEL) &amp;&amp; defined(PWM9_TIMER) &amp;&amp; defined(PWM9))
 #if (PWM9_TIMER==1 || (PWM9_TIMER&gt;=8 &amp; PWM9_TIMER&lt;=11))
@@ -3528,63 +3193,63 @@
 #define PWM9_ENOUTPUT {}
 #endif
 #define PWM9_CCR __ccr__(PWM9_CHANNEL)
-#define DIO29_TIMER PWM9_TIMER
-#define DIO29_CHANNEL PWM9_CHANNEL
-#define DIO29_ENREG PWM9_ENREG
-#define DIO29_APBEN PWM9_APBEN
-#define DIO29_TIMREG PWM9_TIMREG
-#define DIO29_APBEN PWM9_APBEN
-#define DIO29_FREQ PWM9_FREQ
-#define DIO29_MODE PWM9_MODE
-#define DIO29_CCMREG PWM9_CCMREG
-#define DIO29_CCR PWM9_CCR
-#define DIO29_ENOUTPUT PWM9_ENOUTPUT
+#define DIO24_TIMER PWM9_TIMER
+#define DIO24_CHANNEL PWM9_CHANNEL
+#define DIO24_ENREG PWM9_ENREG
+#define DIO24_APBEN PWM9_APBEN
+#define DIO24_TIMREG PWM9_TIMREG
+#define DIO24_APBEN PWM9_APBEN
+#define DIO24_FREQ PWM9_FREQ
+#define DIO24_MODE PWM9_MODE
+#define DIO24_CCMREG PWM9_CCMREG
+#define DIO24_CCR PWM9_CCR
+#define DIO24_ENOUTPUT PWM9_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I32" s="3" t="str">
+      <c r="I27" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM9
 mcu_config_pwm(PWM9);
 #endif</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-    </row>
-    <row r="33" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO30</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="3">
+        <v>DIO25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
         <v>10</v>
       </c>
-      <c r="E33" s="6" t="str">
+      <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM10_PORT) &amp;&amp; defined(PWM10_BIT))
-#define PWM10 30
+#define PWM10 25
 #define PWM10_APB2EN (__rccapb2gpioen__(PWM10_PORT))
 #define PWM10_GPIO (__gpio__(PWM10_PORT))
 #if (PWM10_BIT &lt; 8)
@@ -3594,18 +3259,18 @@
 #define PWM10_CROFF (PWM10_BIT&amp;0x05)
 #define PWM10_CR CRH
 #endif
-#define DIO30 30
-#define DIO30_PORT PWM10_PORT
-#define DIO30_BIT PWM10_BIT
-#define DIO30_APB2EN PWM10_APB2EN
-#define DIO30_GPIO PWM10_GPIO
-#define DIO30_CR PWM10_CR
-#define DIO30_CROFF PWM10_CROFF
+#define DIO25 25
+#define DIO25_PORT PWM10_PORT
+#define DIO25_BIT PWM10_BIT
+#define DIO25_APB2EN PWM10_APB2EN
+#define DIO25_GPIO PWM10_GPIO
+#define DIO25_CR PWM10_CR
+#define DIO25_CROFF PWM10_CROFF
 #endif</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6" t="str">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM10_CHANNEL) &amp;&amp; defined(PWM10_TIMER) &amp;&amp; defined(PWM10))
 #if (PWM10_TIMER==1 || (PWM10_TIMER&gt;=8 &amp; PWM10_TIMER&lt;=11))
@@ -3637,63 +3302,63 @@
 #define PWM10_ENOUTPUT {}
 #endif
 #define PWM10_CCR __ccr__(PWM10_CHANNEL)
-#define DIO30_TIMER PWM10_TIMER
-#define DIO30_CHANNEL PWM10_CHANNEL
-#define DIO30_ENREG PWM10_ENREG
-#define DIO30_APBEN PWM10_APBEN
-#define DIO30_TIMREG PWM10_TIMREG
-#define DIO30_APBEN PWM10_APBEN
-#define DIO30_FREQ PWM10_FREQ
-#define DIO30_MODE PWM10_MODE
-#define DIO30_CCMREG PWM10_CCMREG
-#define DIO30_CCR PWM10_CCR
-#define DIO30_ENOUTPUT PWM10_ENOUTPUT
+#define DIO25_TIMER PWM10_TIMER
+#define DIO25_CHANNEL PWM10_CHANNEL
+#define DIO25_ENREG PWM10_ENREG
+#define DIO25_APBEN PWM10_APBEN
+#define DIO25_TIMREG PWM10_TIMREG
+#define DIO25_APBEN PWM10_APBEN
+#define DIO25_FREQ PWM10_FREQ
+#define DIO25_MODE PWM10_MODE
+#define DIO25_CCMREG PWM10_CCMREG
+#define DIO25_CCR PWM10_CCR
+#define DIO25_ENOUTPUT PWM10_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I33" s="3" t="str">
+      <c r="I28" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM10
 mcu_config_pwm(PWM10);
 #endif</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-    </row>
-    <row r="34" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="str">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO31</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="3">
+        <v>DIO26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3">
         <v>11</v>
       </c>
-      <c r="E34" s="6" t="str">
+      <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM11_PORT) &amp;&amp; defined(PWM11_BIT))
-#define PWM11 31
+#define PWM11 26
 #define PWM11_APB2EN (__rccapb2gpioen__(PWM11_PORT))
 #define PWM11_GPIO (__gpio__(PWM11_PORT))
 #if (PWM11_BIT &lt; 8)
@@ -3703,18 +3368,18 @@
 #define PWM11_CROFF (PWM11_BIT&amp;0x05)
 #define PWM11_CR CRH
 #endif
-#define DIO31 31
-#define DIO31_PORT PWM11_PORT
-#define DIO31_BIT PWM11_BIT
-#define DIO31_APB2EN PWM11_APB2EN
-#define DIO31_GPIO PWM11_GPIO
-#define DIO31_CR PWM11_CR
-#define DIO31_CROFF PWM11_CROFF
+#define DIO26 26
+#define DIO26_PORT PWM11_PORT
+#define DIO26_BIT PWM11_BIT
+#define DIO26_APB2EN PWM11_APB2EN
+#define DIO26_GPIO PWM11_GPIO
+#define DIO26_CR PWM11_CR
+#define DIO26_CROFF PWM11_CROFF
 #endif</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="str">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM11_CHANNEL) &amp;&amp; defined(PWM11_TIMER) &amp;&amp; defined(PWM11))
 #if (PWM11_TIMER==1 || (PWM11_TIMER&gt;=8 &amp; PWM11_TIMER&lt;=11))
@@ -3746,63 +3411,63 @@
 #define PWM11_ENOUTPUT {}
 #endif
 #define PWM11_CCR __ccr__(PWM11_CHANNEL)
-#define DIO31_TIMER PWM11_TIMER
-#define DIO31_CHANNEL PWM11_CHANNEL
-#define DIO31_ENREG PWM11_ENREG
-#define DIO31_APBEN PWM11_APBEN
-#define DIO31_TIMREG PWM11_TIMREG
-#define DIO31_APBEN PWM11_APBEN
-#define DIO31_FREQ PWM11_FREQ
-#define DIO31_MODE PWM11_MODE
-#define DIO31_CCMREG PWM11_CCMREG
-#define DIO31_CCR PWM11_CCR
-#define DIO31_ENOUTPUT PWM11_ENOUTPUT
+#define DIO26_TIMER PWM11_TIMER
+#define DIO26_CHANNEL PWM11_CHANNEL
+#define DIO26_ENREG PWM11_ENREG
+#define DIO26_APBEN PWM11_APBEN
+#define DIO26_TIMREG PWM11_TIMREG
+#define DIO26_APBEN PWM11_APBEN
+#define DIO26_FREQ PWM11_FREQ
+#define DIO26_MODE PWM11_MODE
+#define DIO26_CCMREG PWM11_CCMREG
+#define DIO26_CCR PWM11_CCR
+#define DIO26_ENOUTPUT PWM11_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I34" s="3" t="str">
+      <c r="I29" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM11
 mcu_config_pwm(PWM11);
 #endif</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-    </row>
-    <row r="35" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="str">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO32</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="3">
+        <v>DIO27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
         <v>12</v>
       </c>
-      <c r="E35" s="6" t="str">
+      <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM12_PORT) &amp;&amp; defined(PWM12_BIT))
-#define PWM12 32
+#define PWM12 27
 #define PWM12_APB2EN (__rccapb2gpioen__(PWM12_PORT))
 #define PWM12_GPIO (__gpio__(PWM12_PORT))
 #if (PWM12_BIT &lt; 8)
@@ -3812,18 +3477,18 @@
 #define PWM12_CROFF (PWM12_BIT&amp;0x05)
 #define PWM12_CR CRH
 #endif
-#define DIO32 32
-#define DIO32_PORT PWM12_PORT
-#define DIO32_BIT PWM12_BIT
-#define DIO32_APB2EN PWM12_APB2EN
-#define DIO32_GPIO PWM12_GPIO
-#define DIO32_CR PWM12_CR
-#define DIO32_CROFF PWM12_CROFF
+#define DIO27 27
+#define DIO27_PORT PWM12_PORT
+#define DIO27_BIT PWM12_BIT
+#define DIO27_APB2EN PWM12_APB2EN
+#define DIO27_GPIO PWM12_GPIO
+#define DIO27_CR PWM12_CR
+#define DIO27_CROFF PWM12_CROFF
 #endif</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="str">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM12_CHANNEL) &amp;&amp; defined(PWM12_TIMER) &amp;&amp; defined(PWM12))
 #if (PWM12_TIMER==1 || (PWM12_TIMER&gt;=8 &amp; PWM12_TIMER&lt;=11))
@@ -3855,63 +3520,63 @@
 #define PWM12_ENOUTPUT {}
 #endif
 #define PWM12_CCR __ccr__(PWM12_CHANNEL)
-#define DIO32_TIMER PWM12_TIMER
-#define DIO32_CHANNEL PWM12_CHANNEL
-#define DIO32_ENREG PWM12_ENREG
-#define DIO32_APBEN PWM12_APBEN
-#define DIO32_TIMREG PWM12_TIMREG
-#define DIO32_APBEN PWM12_APBEN
-#define DIO32_FREQ PWM12_FREQ
-#define DIO32_MODE PWM12_MODE
-#define DIO32_CCMREG PWM12_CCMREG
-#define DIO32_CCR PWM12_CCR
-#define DIO32_ENOUTPUT PWM12_ENOUTPUT
+#define DIO27_TIMER PWM12_TIMER
+#define DIO27_CHANNEL PWM12_CHANNEL
+#define DIO27_ENREG PWM12_ENREG
+#define DIO27_APBEN PWM12_APBEN
+#define DIO27_TIMREG PWM12_TIMREG
+#define DIO27_APBEN PWM12_APBEN
+#define DIO27_FREQ PWM12_FREQ
+#define DIO27_MODE PWM12_MODE
+#define DIO27_CCMREG PWM12_CCMREG
+#define DIO27_CCR PWM12_CCR
+#define DIO27_ENOUTPUT PWM12_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I35" s="3" t="str">
+      <c r="I30" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM12
 mcu_config_pwm(PWM12);
 #endif</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-    </row>
-    <row r="36" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3" t="str">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="3">
+        <v>DIO28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
         <v>13</v>
       </c>
-      <c r="E36" s="6" t="str">
+      <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM13_PORT) &amp;&amp; defined(PWM13_BIT))
-#define PWM13 33
+#define PWM13 28
 #define PWM13_APB2EN (__rccapb2gpioen__(PWM13_PORT))
 #define PWM13_GPIO (__gpio__(PWM13_PORT))
 #if (PWM13_BIT &lt; 8)
@@ -3921,18 +3586,18 @@
 #define PWM13_CROFF (PWM13_BIT&amp;0x05)
 #define PWM13_CR CRH
 #endif
-#define DIO33 33
-#define DIO33_PORT PWM13_PORT
-#define DIO33_BIT PWM13_BIT
-#define DIO33_APB2EN PWM13_APB2EN
-#define DIO33_GPIO PWM13_GPIO
-#define DIO33_CR PWM13_CR
-#define DIO33_CROFF PWM13_CROFF
+#define DIO28 28
+#define DIO28_PORT PWM13_PORT
+#define DIO28_BIT PWM13_BIT
+#define DIO28_APB2EN PWM13_APB2EN
+#define DIO28_GPIO PWM13_GPIO
+#define DIO28_CR PWM13_CR
+#define DIO28_CROFF PWM13_CROFF
 #endif</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6" t="str">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM13_CHANNEL) &amp;&amp; defined(PWM13_TIMER) &amp;&amp; defined(PWM13))
 #if (PWM13_TIMER==1 || (PWM13_TIMER&gt;=8 &amp; PWM13_TIMER&lt;=11))
@@ -3964,63 +3629,63 @@
 #define PWM13_ENOUTPUT {}
 #endif
 #define PWM13_CCR __ccr__(PWM13_CHANNEL)
-#define DIO33_TIMER PWM13_TIMER
-#define DIO33_CHANNEL PWM13_CHANNEL
-#define DIO33_ENREG PWM13_ENREG
-#define DIO33_APBEN PWM13_APBEN
-#define DIO33_TIMREG PWM13_TIMREG
-#define DIO33_APBEN PWM13_APBEN
-#define DIO33_FREQ PWM13_FREQ
-#define DIO33_MODE PWM13_MODE
-#define DIO33_CCMREG PWM13_CCMREG
-#define DIO33_CCR PWM13_CCR
-#define DIO33_ENOUTPUT PWM13_ENOUTPUT
+#define DIO28_TIMER PWM13_TIMER
+#define DIO28_CHANNEL PWM13_CHANNEL
+#define DIO28_ENREG PWM13_ENREG
+#define DIO28_APBEN PWM13_APBEN
+#define DIO28_TIMREG PWM13_TIMREG
+#define DIO28_APBEN PWM13_APBEN
+#define DIO28_FREQ PWM13_FREQ
+#define DIO28_MODE PWM13_MODE
+#define DIO28_CCMREG PWM13_CCMREG
+#define DIO28_CCR PWM13_CCR
+#define DIO28_ENOUTPUT PWM13_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I36" s="3" t="str">
+      <c r="I31" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM13
 mcu_config_pwm(PWM13);
 #endif</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-    </row>
-    <row r="37" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3" t="str">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+    </row>
+    <row r="32" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="3">
+        <v>DIO29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
         <v>14</v>
       </c>
-      <c r="E37" s="6" t="str">
+      <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM14_PORT) &amp;&amp; defined(PWM14_BIT))
-#define PWM14 34
+#define PWM14 29
 #define PWM14_APB2EN (__rccapb2gpioen__(PWM14_PORT))
 #define PWM14_GPIO (__gpio__(PWM14_PORT))
 #if (PWM14_BIT &lt; 8)
@@ -4030,18 +3695,18 @@
 #define PWM14_CROFF (PWM14_BIT&amp;0x05)
 #define PWM14_CR CRH
 #endif
-#define DIO34 34
-#define DIO34_PORT PWM14_PORT
-#define DIO34_BIT PWM14_BIT
-#define DIO34_APB2EN PWM14_APB2EN
-#define DIO34_GPIO PWM14_GPIO
-#define DIO34_CR PWM14_CR
-#define DIO34_CROFF PWM14_CROFF
+#define DIO29 29
+#define DIO29_PORT PWM14_PORT
+#define DIO29_BIT PWM14_BIT
+#define DIO29_APB2EN PWM14_APB2EN
+#define DIO29_GPIO PWM14_GPIO
+#define DIO29_CR PWM14_CR
+#define DIO29_CROFF PWM14_CROFF
 #endif</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="str">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM14_CHANNEL) &amp;&amp; defined(PWM14_TIMER) &amp;&amp; defined(PWM14))
 #if (PWM14_TIMER==1 || (PWM14_TIMER&gt;=8 &amp; PWM14_TIMER&lt;=11))
@@ -4073,63 +3738,63 @@
 #define PWM14_ENOUTPUT {}
 #endif
 #define PWM14_CCR __ccr__(PWM14_CHANNEL)
-#define DIO34_TIMER PWM14_TIMER
-#define DIO34_CHANNEL PWM14_CHANNEL
-#define DIO34_ENREG PWM14_ENREG
-#define DIO34_APBEN PWM14_APBEN
-#define DIO34_TIMREG PWM14_TIMREG
-#define DIO34_APBEN PWM14_APBEN
-#define DIO34_FREQ PWM14_FREQ
-#define DIO34_MODE PWM14_MODE
-#define DIO34_CCMREG PWM14_CCMREG
-#define DIO34_CCR PWM14_CCR
-#define DIO34_ENOUTPUT PWM14_ENOUTPUT
+#define DIO29_TIMER PWM14_TIMER
+#define DIO29_CHANNEL PWM14_CHANNEL
+#define DIO29_ENREG PWM14_ENREG
+#define DIO29_APBEN PWM14_APBEN
+#define DIO29_TIMREG PWM14_TIMREG
+#define DIO29_APBEN PWM14_APBEN
+#define DIO29_FREQ PWM14_FREQ
+#define DIO29_MODE PWM14_MODE
+#define DIO29_CCMREG PWM14_CCMREG
+#define DIO29_CCR PWM14_CCR
+#define DIO29_ENOUTPUT PWM14_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I37" s="3" t="str">
+      <c r="I32" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM14
 mcu_config_pwm(PWM14);
 #endif</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-    </row>
-    <row r="38" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="str">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>DIO35</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="3">
+        <v>DIO30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
         <v>15</v>
       </c>
-      <c r="E38" s="6" t="str">
+      <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>#if (defined(PWM15_PORT) &amp;&amp; defined(PWM15_BIT))
-#define PWM15 35
+#define PWM15 30
 #define PWM15_APB2EN (__rccapb2gpioen__(PWM15_PORT))
 #define PWM15_GPIO (__gpio__(PWM15_PORT))
 #if (PWM15_BIT &lt; 8)
@@ -4139,18 +3804,18 @@
 #define PWM15_CROFF (PWM15_BIT&amp;0x05)
 #define PWM15_CR CRH
 #endif
-#define DIO35 35
-#define DIO35_PORT PWM15_PORT
-#define DIO35_BIT PWM15_BIT
-#define DIO35_APB2EN PWM15_APB2EN
-#define DIO35_GPIO PWM15_GPIO
-#define DIO35_CR PWM15_CR
-#define DIO35_CROFF PWM15_CROFF
+#define DIO30 30
+#define DIO30_PORT PWM15_PORT
+#define DIO30_BIT PWM15_BIT
+#define DIO30_APB2EN PWM15_APB2EN
+#define DIO30_GPIO PWM15_GPIO
+#define DIO30_CR PWM15_CR
+#define DIO30_CROFF PWM15_CROFF
 #endif</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="str">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="str">
         <f t="shared" si="4"/>
         <v>#if (defined(PWM15_CHANNEL) &amp;&amp; defined(PWM15_TIMER) &amp;&amp; defined(PWM15))
 #if (PWM15_TIMER==1 || (PWM15_TIMER&gt;=8 &amp; PWM15_TIMER&lt;=11))
@@ -4182,23 +3847,341 @@
 #define PWM15_ENOUTPUT {}
 #endif
 #define PWM15_CCR __ccr__(PWM15_CHANNEL)
-#define DIO35_TIMER PWM15_TIMER
-#define DIO35_CHANNEL PWM15_CHANNEL
-#define DIO35_ENREG PWM15_ENREG
-#define DIO35_APBEN PWM15_APBEN
-#define DIO35_TIMREG PWM15_TIMREG
-#define DIO35_APBEN PWM15_APBEN
-#define DIO35_FREQ PWM15_FREQ
-#define DIO35_MODE PWM15_MODE
-#define DIO35_CCMREG PWM15_CCMREG
-#define DIO35_CCR PWM15_CCR
-#define DIO35_ENOUTPUT PWM15_ENOUTPUT
+#define DIO30_TIMER PWM15_TIMER
+#define DIO30_CHANNEL PWM15_CHANNEL
+#define DIO30_ENREG PWM15_ENREG
+#define DIO30_APBEN PWM15_APBEN
+#define DIO30_TIMREG PWM15_TIMREG
+#define DIO30_APBEN PWM15_APBEN
+#define DIO30_FREQ PWM15_FREQ
+#define DIO30_MODE PWM15_MODE
+#define DIO30_CCMREG PWM15_CCMREG
+#define DIO30_CCR PWM15_CCR
+#define DIO30_ENOUTPUT PWM15_ENOUTPUT
 #endif</v>
       </c>
-      <c r="I38" s="3" t="str">
+      <c r="I33" s="3" t="str">
         <f t="shared" si="5"/>
         <v>#ifdef PWM15
 mcu_config_pwm(PWM15);
+#endif</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>#if (defined(TX_PORT) &amp;&amp; defined(TX_BIT))
+#define TX 31
+#define TX_APB2EN (__rccapb2gpioen__(TX_PORT))
+#define TX_GPIO (__gpio__(TX_PORT))
+#if (TX_BIT &lt; 8)
+#define TX_CROFF TX_BIT
+#define TX_CR CRL
+#else
+#define TX_CROFF (TX_BIT&amp;0x05)
+#define TX_CR CRH
+#endif
+#define DIO31 31
+#define DIO31_PORT TX_PORT
+#define DIO31_BIT TX_BIT
+#define DIO31_APB2EN TX_APB2EN
+#define DIO31_GPIO TX_GPIO
+#define DIO31_CR TX_CR
+#define DIO31_CROFF TX_CROFF
+#endif</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>#if (defined(DOUT0_PORT) &amp;&amp; defined(DOUT0_BIT))
+#define DOUT0 32
+#define DOUT0_APB2EN (__rccapb2gpioen__(DOUT0_PORT))
+#define DOUT0_GPIO (__gpio__(DOUT0_PORT))
+#if (DOUT0_BIT &lt; 8)
+#define DOUT0_CROFF DOUT0_BIT
+#define DOUT0_CR CRL
+#else
+#define DOUT0_CROFF (DOUT0_BIT&amp;0x05)
+#define DOUT0_CR CRH
+#endif
+#define DIO32 32
+#define DIO32_PORT DOUT0_PORT
+#define DIO32_BIT DOUT0_BIT
+#define DIO32_APB2EN DOUT0_APB2EN
+#define DIO32_GPIO DOUT0_GPIO
+#define DIO32_CR DOUT0_CR
+#define DIO32_CROFF DOUT0_CROFF
+#endif</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT0
+mcu_config_output(DOUT0);
+#endif</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>#if (defined(DOUT1_PORT) &amp;&amp; defined(DOUT1_BIT))
+#define DOUT1 33
+#define DOUT1_APB2EN (__rccapb2gpioen__(DOUT1_PORT))
+#define DOUT1_GPIO (__gpio__(DOUT1_PORT))
+#if (DOUT1_BIT &lt; 8)
+#define DOUT1_CROFF DOUT1_BIT
+#define DOUT1_CR CRL
+#else
+#define DOUT1_CROFF (DOUT1_BIT&amp;0x05)
+#define DOUT1_CR CRH
+#endif
+#define DIO33 33
+#define DIO33_PORT DOUT1_PORT
+#define DIO33_BIT DOUT1_BIT
+#define DIO33_APB2EN DOUT1_APB2EN
+#define DIO33_GPIO DOUT1_GPIO
+#define DIO33_CR DOUT1_CR
+#define DIO33_CROFF DOUT1_CROFF
+#endif</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT1
+mcu_config_output(DOUT1);
+#endif</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>#if (defined(DOUT2_PORT) &amp;&amp; defined(DOUT2_BIT))
+#define DOUT2 34
+#define DOUT2_APB2EN (__rccapb2gpioen__(DOUT2_PORT))
+#define DOUT2_GPIO (__gpio__(DOUT2_PORT))
+#if (DOUT2_BIT &lt; 8)
+#define DOUT2_CROFF DOUT2_BIT
+#define DOUT2_CR CRL
+#else
+#define DOUT2_CROFF (DOUT2_BIT&amp;0x05)
+#define DOUT2_CR CRH
+#endif
+#define DIO34 34
+#define DIO34_PORT DOUT2_PORT
+#define DIO34_BIT DOUT2_BIT
+#define DIO34_APB2EN DOUT2_APB2EN
+#define DIO34_GPIO DOUT2_GPIO
+#define DIO34_CR DOUT2_CR
+#define DIO34_CROFF DOUT2_CROFF
+#endif</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT2
+mcu_config_output(DOUT2);
+#endif</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>#if (defined(DOUT3_PORT) &amp;&amp; defined(DOUT3_BIT))
+#define DOUT3 35
+#define DOUT3_APB2EN (__rccapb2gpioen__(DOUT3_PORT))
+#define DOUT3_GPIO (__gpio__(DOUT3_PORT))
+#if (DOUT3_BIT &lt; 8)
+#define DOUT3_CROFF DOUT3_BIT
+#define DOUT3_CR CRL
+#else
+#define DOUT3_CROFF (DOUT3_BIT&amp;0x05)
+#define DOUT3_CR CRH
+#endif
+#define DIO35 35
+#define DIO35_PORT DOUT3_PORT
+#define DIO35_BIT DOUT3_BIT
+#define DIO35_APB2EN DOUT3_APB2EN
+#define DIO35_GPIO DOUT3_GPIO
+#define DIO35_CR DOUT3_CR
+#define DIO35_CROFF DOUT3_CROFF
+#endif</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT3
+mcu_config_output(DOUT3);
 #endif</v>
       </c>
       <c r="J38" s="3"/>
@@ -4230,35 +4213,42 @@
         <v>DIO36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(TX_PORT) &amp;&amp; defined(TX_BIT))
-#define TX 36
-#define TX_APB2EN (__rccapb2gpioen__(TX_PORT))
-#define TX_GPIO (__gpio__(TX_PORT))
-#if (TX_BIT &lt; 8)
-#define TX_CROFF TX_BIT
-#define TX_CR CRL
+        <v>#if (defined(DOUT4_PORT) &amp;&amp; defined(DOUT4_BIT))
+#define DOUT4 36
+#define DOUT4_APB2EN (__rccapb2gpioen__(DOUT4_PORT))
+#define DOUT4_GPIO (__gpio__(DOUT4_PORT))
+#if (DOUT4_BIT &lt; 8)
+#define DOUT4_CROFF DOUT4_BIT
+#define DOUT4_CR CRL
 #else
-#define TX_CROFF (TX_BIT&amp;0x05)
-#define TX_CR CRH
+#define DOUT4_CROFF (DOUT4_BIT&amp;0x05)
+#define DOUT4_CR CRH
 #endif
 #define DIO36 36
-#define DIO36_PORT TX_PORT
-#define DIO36_BIT TX_BIT
-#define DIO36_APB2EN TX_APB2EN
-#define DIO36_GPIO TX_GPIO
-#define DIO36_CR TX_CR
-#define DIO36_CROFF TX_CROFF
+#define DIO36_PORT DOUT4_PORT
+#define DIO36_BIT DOUT4_BIT
+#define DIO36_APB2EN DOUT4_APB2EN
+#define DIO36_GPIO DOUT4_GPIO
+#define DIO36_CR DOUT4_CR
+#define DIO36_CROFF DOUT4_CROFF
 #endif</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>#ifdef DOUT4
+mcu_config_output(DOUT4);
+#endif</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -4288,31 +4278,31 @@
         <v>DIO37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT0_PORT) &amp;&amp; defined(DOUT0_BIT))
-#define DOUT0 37
-#define DOUT0_APB2EN (__rccapb2gpioen__(DOUT0_PORT))
-#define DOUT0_GPIO (__gpio__(DOUT0_PORT))
-#if (DOUT0_BIT &lt; 8)
-#define DOUT0_CROFF DOUT0_BIT
-#define DOUT0_CR CRL
+        <v>#if (defined(DOUT5_PORT) &amp;&amp; defined(DOUT5_BIT))
+#define DOUT5 37
+#define DOUT5_APB2EN (__rccapb2gpioen__(DOUT5_PORT))
+#define DOUT5_GPIO (__gpio__(DOUT5_PORT))
+#if (DOUT5_BIT &lt; 8)
+#define DOUT5_CROFF DOUT5_BIT
+#define DOUT5_CR CRL
 #else
-#define DOUT0_CROFF (DOUT0_BIT&amp;0x05)
-#define DOUT0_CR CRH
+#define DOUT5_CROFF (DOUT5_BIT&amp;0x05)
+#define DOUT5_CR CRH
 #endif
 #define DIO37 37
-#define DIO37_PORT DOUT0_PORT
-#define DIO37_BIT DOUT0_BIT
-#define DIO37_APB2EN DOUT0_APB2EN
-#define DIO37_GPIO DOUT0_GPIO
-#define DIO37_CR DOUT0_CR
-#define DIO37_CROFF DOUT0_CROFF
+#define DIO37_PORT DOUT5_PORT
+#define DIO37_BIT DOUT5_BIT
+#define DIO37_APB2EN DOUT5_APB2EN
+#define DIO37_GPIO DOUT5_GPIO
+#define DIO37_CR DOUT5_CR
+#define DIO37_CROFF DOUT5_CROFF
 #endif</v>
       </c>
       <c r="F40" s="6"/>
@@ -4320,8 +4310,8 @@
       <c r="H40" s="6"/>
       <c r="I40" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT0
-mcu_config_output(DOUT0);
+        <v>#ifdef DOUT5
+mcu_config_output(DOUT5);
 #endif</v>
       </c>
       <c r="J40" s="3"/>
@@ -4353,31 +4343,31 @@
         <v>DIO38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT1_PORT) &amp;&amp; defined(DOUT1_BIT))
-#define DOUT1 38
-#define DOUT1_APB2EN (__rccapb2gpioen__(DOUT1_PORT))
-#define DOUT1_GPIO (__gpio__(DOUT1_PORT))
-#if (DOUT1_BIT &lt; 8)
-#define DOUT1_CROFF DOUT1_BIT
-#define DOUT1_CR CRL
+        <v>#if (defined(DOUT6_PORT) &amp;&amp; defined(DOUT6_BIT))
+#define DOUT6 38
+#define DOUT6_APB2EN (__rccapb2gpioen__(DOUT6_PORT))
+#define DOUT6_GPIO (__gpio__(DOUT6_PORT))
+#if (DOUT6_BIT &lt; 8)
+#define DOUT6_CROFF DOUT6_BIT
+#define DOUT6_CR CRL
 #else
-#define DOUT1_CROFF (DOUT1_BIT&amp;0x05)
-#define DOUT1_CR CRH
+#define DOUT6_CROFF (DOUT6_BIT&amp;0x05)
+#define DOUT6_CR CRH
 #endif
 #define DIO38 38
-#define DIO38_PORT DOUT1_PORT
-#define DIO38_BIT DOUT1_BIT
-#define DIO38_APB2EN DOUT1_APB2EN
-#define DIO38_GPIO DOUT1_GPIO
-#define DIO38_CR DOUT1_CR
-#define DIO38_CROFF DOUT1_CROFF
+#define DIO38_PORT DOUT6_PORT
+#define DIO38_BIT DOUT6_BIT
+#define DIO38_APB2EN DOUT6_APB2EN
+#define DIO38_GPIO DOUT6_GPIO
+#define DIO38_CR DOUT6_CR
+#define DIO38_CROFF DOUT6_CROFF
 #endif</v>
       </c>
       <c r="F41" s="6"/>
@@ -4385,8 +4375,8 @@
       <c r="H41" s="6"/>
       <c r="I41" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT1
-mcu_config_output(DOUT1);
+        <v>#ifdef DOUT6
+mcu_config_output(DOUT6);
 #endif</v>
       </c>
       <c r="J41" s="3"/>
@@ -4418,31 +4408,31 @@
         <v>DIO39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT2_PORT) &amp;&amp; defined(DOUT2_BIT))
-#define DOUT2 39
-#define DOUT2_APB2EN (__rccapb2gpioen__(DOUT2_PORT))
-#define DOUT2_GPIO (__gpio__(DOUT2_PORT))
-#if (DOUT2_BIT &lt; 8)
-#define DOUT2_CROFF DOUT2_BIT
-#define DOUT2_CR CRL
+        <v>#if (defined(DOUT7_PORT) &amp;&amp; defined(DOUT7_BIT))
+#define DOUT7 39
+#define DOUT7_APB2EN (__rccapb2gpioen__(DOUT7_PORT))
+#define DOUT7_GPIO (__gpio__(DOUT7_PORT))
+#if (DOUT7_BIT &lt; 8)
+#define DOUT7_CROFF DOUT7_BIT
+#define DOUT7_CR CRL
 #else
-#define DOUT2_CROFF (DOUT2_BIT&amp;0x05)
-#define DOUT2_CR CRH
+#define DOUT7_CROFF (DOUT7_BIT&amp;0x05)
+#define DOUT7_CR CRH
 #endif
 #define DIO39 39
-#define DIO39_PORT DOUT2_PORT
-#define DIO39_BIT DOUT2_BIT
-#define DIO39_APB2EN DOUT2_APB2EN
-#define DIO39_GPIO DOUT2_GPIO
-#define DIO39_CR DOUT2_CR
-#define DIO39_CROFF DOUT2_CROFF
+#define DIO39_PORT DOUT7_PORT
+#define DIO39_BIT DOUT7_BIT
+#define DIO39_APB2EN DOUT7_APB2EN
+#define DIO39_GPIO DOUT7_GPIO
+#define DIO39_CR DOUT7_CR
+#define DIO39_CROFF DOUT7_CROFF
 #endif</v>
       </c>
       <c r="F42" s="6"/>
@@ -4450,8 +4440,8 @@
       <c r="H42" s="6"/>
       <c r="I42" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT2
-mcu_config_output(DOUT2);
+        <v>#ifdef DOUT7
+mcu_config_output(DOUT7);
 #endif</v>
       </c>
       <c r="J42" s="3"/>
@@ -4483,31 +4473,31 @@
         <v>DIO40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT3_PORT) &amp;&amp; defined(DOUT3_BIT))
-#define DOUT3 40
-#define DOUT3_APB2EN (__rccapb2gpioen__(DOUT3_PORT))
-#define DOUT3_GPIO (__gpio__(DOUT3_PORT))
-#if (DOUT3_BIT &lt; 8)
-#define DOUT3_CROFF DOUT3_BIT
-#define DOUT3_CR CRL
+        <v>#if (defined(DOUT8_PORT) &amp;&amp; defined(DOUT8_BIT))
+#define DOUT8 40
+#define DOUT8_APB2EN (__rccapb2gpioen__(DOUT8_PORT))
+#define DOUT8_GPIO (__gpio__(DOUT8_PORT))
+#if (DOUT8_BIT &lt; 8)
+#define DOUT8_CROFF DOUT8_BIT
+#define DOUT8_CR CRL
 #else
-#define DOUT3_CROFF (DOUT3_BIT&amp;0x05)
-#define DOUT3_CR CRH
+#define DOUT8_CROFF (DOUT8_BIT&amp;0x05)
+#define DOUT8_CR CRH
 #endif
 #define DIO40 40
-#define DIO40_PORT DOUT3_PORT
-#define DIO40_BIT DOUT3_BIT
-#define DIO40_APB2EN DOUT3_APB2EN
-#define DIO40_GPIO DOUT3_GPIO
-#define DIO40_CR DOUT3_CR
-#define DIO40_CROFF DOUT3_CROFF
+#define DIO40_PORT DOUT8_PORT
+#define DIO40_BIT DOUT8_BIT
+#define DIO40_APB2EN DOUT8_APB2EN
+#define DIO40_GPIO DOUT8_GPIO
+#define DIO40_CR DOUT8_CR
+#define DIO40_CROFF DOUT8_CROFF
 #endif</v>
       </c>
       <c r="F43" s="6"/>
@@ -4515,8 +4505,8 @@
       <c r="H43" s="6"/>
       <c r="I43" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT3
-mcu_config_output(DOUT3);
+        <v>#ifdef DOUT8
+mcu_config_output(DOUT8);
 #endif</v>
       </c>
       <c r="J43" s="3"/>
@@ -4548,31 +4538,31 @@
         <v>DIO41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT4_PORT) &amp;&amp; defined(DOUT4_BIT))
-#define DOUT4 41
-#define DOUT4_APB2EN (__rccapb2gpioen__(DOUT4_PORT))
-#define DOUT4_GPIO (__gpio__(DOUT4_PORT))
-#if (DOUT4_BIT &lt; 8)
-#define DOUT4_CROFF DOUT4_BIT
-#define DOUT4_CR CRL
+        <v>#if (defined(DOUT9_PORT) &amp;&amp; defined(DOUT9_BIT))
+#define DOUT9 41
+#define DOUT9_APB2EN (__rccapb2gpioen__(DOUT9_PORT))
+#define DOUT9_GPIO (__gpio__(DOUT9_PORT))
+#if (DOUT9_BIT &lt; 8)
+#define DOUT9_CROFF DOUT9_BIT
+#define DOUT9_CR CRL
 #else
-#define DOUT4_CROFF (DOUT4_BIT&amp;0x05)
-#define DOUT4_CR CRH
+#define DOUT9_CROFF (DOUT9_BIT&amp;0x05)
+#define DOUT9_CR CRH
 #endif
 #define DIO41 41
-#define DIO41_PORT DOUT4_PORT
-#define DIO41_BIT DOUT4_BIT
-#define DIO41_APB2EN DOUT4_APB2EN
-#define DIO41_GPIO DOUT4_GPIO
-#define DIO41_CR DOUT4_CR
-#define DIO41_CROFF DOUT4_CROFF
+#define DIO41_PORT DOUT9_PORT
+#define DIO41_BIT DOUT9_BIT
+#define DIO41_APB2EN DOUT9_APB2EN
+#define DIO41_GPIO DOUT9_GPIO
+#define DIO41_CR DOUT9_CR
+#define DIO41_CROFF DOUT9_CROFF
 #endif</v>
       </c>
       <c r="F44" s="6"/>
@@ -4580,8 +4570,8 @@
       <c r="H44" s="6"/>
       <c r="I44" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT4
-mcu_config_output(DOUT4);
+        <v>#ifdef DOUT9
+mcu_config_output(DOUT9);
 #endif</v>
       </c>
       <c r="J44" s="3"/>
@@ -4613,31 +4603,31 @@
         <v>DIO42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT5_PORT) &amp;&amp; defined(DOUT5_BIT))
-#define DOUT5 42
-#define DOUT5_APB2EN (__rccapb2gpioen__(DOUT5_PORT))
-#define DOUT5_GPIO (__gpio__(DOUT5_PORT))
-#if (DOUT5_BIT &lt; 8)
-#define DOUT5_CROFF DOUT5_BIT
-#define DOUT5_CR CRL
+        <v>#if (defined(DOUT10_PORT) &amp;&amp; defined(DOUT10_BIT))
+#define DOUT10 42
+#define DOUT10_APB2EN (__rccapb2gpioen__(DOUT10_PORT))
+#define DOUT10_GPIO (__gpio__(DOUT10_PORT))
+#if (DOUT10_BIT &lt; 8)
+#define DOUT10_CROFF DOUT10_BIT
+#define DOUT10_CR CRL
 #else
-#define DOUT5_CROFF (DOUT5_BIT&amp;0x05)
-#define DOUT5_CR CRH
+#define DOUT10_CROFF (DOUT10_BIT&amp;0x05)
+#define DOUT10_CR CRH
 #endif
 #define DIO42 42
-#define DIO42_PORT DOUT5_PORT
-#define DIO42_BIT DOUT5_BIT
-#define DIO42_APB2EN DOUT5_APB2EN
-#define DIO42_GPIO DOUT5_GPIO
-#define DIO42_CR DOUT5_CR
-#define DIO42_CROFF DOUT5_CROFF
+#define DIO42_PORT DOUT10_PORT
+#define DIO42_BIT DOUT10_BIT
+#define DIO42_APB2EN DOUT10_APB2EN
+#define DIO42_GPIO DOUT10_GPIO
+#define DIO42_CR DOUT10_CR
+#define DIO42_CROFF DOUT10_CROFF
 #endif</v>
       </c>
       <c r="F45" s="6"/>
@@ -4645,8 +4635,8 @@
       <c r="H45" s="6"/>
       <c r="I45" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT5
-mcu_config_output(DOUT5);
+        <v>#ifdef DOUT10
+mcu_config_output(DOUT10);
 #endif</v>
       </c>
       <c r="J45" s="3"/>
@@ -4678,31 +4668,31 @@
         <v>DIO43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT6_PORT) &amp;&amp; defined(DOUT6_BIT))
-#define DOUT6 43
-#define DOUT6_APB2EN (__rccapb2gpioen__(DOUT6_PORT))
-#define DOUT6_GPIO (__gpio__(DOUT6_PORT))
-#if (DOUT6_BIT &lt; 8)
-#define DOUT6_CROFF DOUT6_BIT
-#define DOUT6_CR CRL
+        <v>#if (defined(DOUT11_PORT) &amp;&amp; defined(DOUT11_BIT))
+#define DOUT11 43
+#define DOUT11_APB2EN (__rccapb2gpioen__(DOUT11_PORT))
+#define DOUT11_GPIO (__gpio__(DOUT11_PORT))
+#if (DOUT11_BIT &lt; 8)
+#define DOUT11_CROFF DOUT11_BIT
+#define DOUT11_CR CRL
 #else
-#define DOUT6_CROFF (DOUT6_BIT&amp;0x05)
-#define DOUT6_CR CRH
+#define DOUT11_CROFF (DOUT11_BIT&amp;0x05)
+#define DOUT11_CR CRH
 #endif
 #define DIO43 43
-#define DIO43_PORT DOUT6_PORT
-#define DIO43_BIT DOUT6_BIT
-#define DIO43_APB2EN DOUT6_APB2EN
-#define DIO43_GPIO DOUT6_GPIO
-#define DIO43_CR DOUT6_CR
-#define DIO43_CROFF DOUT6_CROFF
+#define DIO43_PORT DOUT11_PORT
+#define DIO43_BIT DOUT11_BIT
+#define DIO43_APB2EN DOUT11_APB2EN
+#define DIO43_GPIO DOUT11_GPIO
+#define DIO43_CR DOUT11_CR
+#define DIO43_CROFF DOUT11_CROFF
 #endif</v>
       </c>
       <c r="F46" s="6"/>
@@ -4710,8 +4700,8 @@
       <c r="H46" s="6"/>
       <c r="I46" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT6
-mcu_config_output(DOUT6);
+        <v>#ifdef DOUT11
+mcu_config_output(DOUT11);
 #endif</v>
       </c>
       <c r="J46" s="3"/>
@@ -4743,31 +4733,31 @@
         <v>DIO44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E47" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT7_PORT) &amp;&amp; defined(DOUT7_BIT))
-#define DOUT7 44
-#define DOUT7_APB2EN (__rccapb2gpioen__(DOUT7_PORT))
-#define DOUT7_GPIO (__gpio__(DOUT7_PORT))
-#if (DOUT7_BIT &lt; 8)
-#define DOUT7_CROFF DOUT7_BIT
-#define DOUT7_CR CRL
+        <v>#if (defined(DOUT12_PORT) &amp;&amp; defined(DOUT12_BIT))
+#define DOUT12 44
+#define DOUT12_APB2EN (__rccapb2gpioen__(DOUT12_PORT))
+#define DOUT12_GPIO (__gpio__(DOUT12_PORT))
+#if (DOUT12_BIT &lt; 8)
+#define DOUT12_CROFF DOUT12_BIT
+#define DOUT12_CR CRL
 #else
-#define DOUT7_CROFF (DOUT7_BIT&amp;0x05)
-#define DOUT7_CR CRH
+#define DOUT12_CROFF (DOUT12_BIT&amp;0x05)
+#define DOUT12_CR CRH
 #endif
 #define DIO44 44
-#define DIO44_PORT DOUT7_PORT
-#define DIO44_BIT DOUT7_BIT
-#define DIO44_APB2EN DOUT7_APB2EN
-#define DIO44_GPIO DOUT7_GPIO
-#define DIO44_CR DOUT7_CR
-#define DIO44_CROFF DOUT7_CROFF
+#define DIO44_PORT DOUT12_PORT
+#define DIO44_BIT DOUT12_BIT
+#define DIO44_APB2EN DOUT12_APB2EN
+#define DIO44_GPIO DOUT12_GPIO
+#define DIO44_CR DOUT12_CR
+#define DIO44_CROFF DOUT12_CROFF
 #endif</v>
       </c>
       <c r="F47" s="6"/>
@@ -4775,8 +4765,8 @@
       <c r="H47" s="6"/>
       <c r="I47" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT7
-mcu_config_output(DOUT7);
+        <v>#ifdef DOUT12
+mcu_config_output(DOUT12);
 #endif</v>
       </c>
       <c r="J47" s="3"/>
@@ -4808,31 +4798,31 @@
         <v>DIO45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT8_PORT) &amp;&amp; defined(DOUT8_BIT))
-#define DOUT8 45
-#define DOUT8_APB2EN (__rccapb2gpioen__(DOUT8_PORT))
-#define DOUT8_GPIO (__gpio__(DOUT8_PORT))
-#if (DOUT8_BIT &lt; 8)
-#define DOUT8_CROFF DOUT8_BIT
-#define DOUT8_CR CRL
+        <v>#if (defined(DOUT13_PORT) &amp;&amp; defined(DOUT13_BIT))
+#define DOUT13 45
+#define DOUT13_APB2EN (__rccapb2gpioen__(DOUT13_PORT))
+#define DOUT13_GPIO (__gpio__(DOUT13_PORT))
+#if (DOUT13_BIT &lt; 8)
+#define DOUT13_CROFF DOUT13_BIT
+#define DOUT13_CR CRL
 #else
-#define DOUT8_CROFF (DOUT8_BIT&amp;0x05)
-#define DOUT8_CR CRH
+#define DOUT13_CROFF (DOUT13_BIT&amp;0x05)
+#define DOUT13_CR CRH
 #endif
 #define DIO45 45
-#define DIO45_PORT DOUT8_PORT
-#define DIO45_BIT DOUT8_BIT
-#define DIO45_APB2EN DOUT8_APB2EN
-#define DIO45_GPIO DOUT8_GPIO
-#define DIO45_CR DOUT8_CR
-#define DIO45_CROFF DOUT8_CROFF
+#define DIO45_PORT DOUT13_PORT
+#define DIO45_BIT DOUT13_BIT
+#define DIO45_APB2EN DOUT13_APB2EN
+#define DIO45_GPIO DOUT13_GPIO
+#define DIO45_CR DOUT13_CR
+#define DIO45_CROFF DOUT13_CROFF
 #endif</v>
       </c>
       <c r="F48" s="6"/>
@@ -4840,8 +4830,8 @@
       <c r="H48" s="6"/>
       <c r="I48" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT8
-mcu_config_output(DOUT8);
+        <v>#ifdef DOUT13
+mcu_config_output(DOUT13);
 #endif</v>
       </c>
       <c r="J48" s="3"/>
@@ -4873,31 +4863,31 @@
         <v>DIO46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E49" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT9_PORT) &amp;&amp; defined(DOUT9_BIT))
-#define DOUT9 46
-#define DOUT9_APB2EN (__rccapb2gpioen__(DOUT9_PORT))
-#define DOUT9_GPIO (__gpio__(DOUT9_PORT))
-#if (DOUT9_BIT &lt; 8)
-#define DOUT9_CROFF DOUT9_BIT
-#define DOUT9_CR CRL
+        <v>#if (defined(DOUT14_PORT) &amp;&amp; defined(DOUT14_BIT))
+#define DOUT14 46
+#define DOUT14_APB2EN (__rccapb2gpioen__(DOUT14_PORT))
+#define DOUT14_GPIO (__gpio__(DOUT14_PORT))
+#if (DOUT14_BIT &lt; 8)
+#define DOUT14_CROFF DOUT14_BIT
+#define DOUT14_CR CRL
 #else
-#define DOUT9_CROFF (DOUT9_BIT&amp;0x05)
-#define DOUT9_CR CRH
+#define DOUT14_CROFF (DOUT14_BIT&amp;0x05)
+#define DOUT14_CR CRH
 #endif
 #define DIO46 46
-#define DIO46_PORT DOUT9_PORT
-#define DIO46_BIT DOUT9_BIT
-#define DIO46_APB2EN DOUT9_APB2EN
-#define DIO46_GPIO DOUT9_GPIO
-#define DIO46_CR DOUT9_CR
-#define DIO46_CROFF DOUT9_CROFF
+#define DIO46_PORT DOUT14_PORT
+#define DIO46_BIT DOUT14_BIT
+#define DIO46_APB2EN DOUT14_APB2EN
+#define DIO46_GPIO DOUT14_GPIO
+#define DIO46_CR DOUT14_CR
+#define DIO46_CROFF DOUT14_CROFF
 #endif</v>
       </c>
       <c r="F49" s="6"/>
@@ -4905,8 +4895,8 @@
       <c r="H49" s="6"/>
       <c r="I49" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT9
-mcu_config_output(DOUT9);
+        <v>#ifdef DOUT14
+mcu_config_output(DOUT14);
 #endif</v>
       </c>
       <c r="J49" s="3"/>
@@ -4938,40 +4928,44 @@
         <v>DIO47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT10_PORT) &amp;&amp; defined(DOUT10_BIT))
-#define DOUT10 47
-#define DOUT10_APB2EN (__rccapb2gpioen__(DOUT10_PORT))
-#define DOUT10_GPIO (__gpio__(DOUT10_PORT))
-#if (DOUT10_BIT &lt; 8)
-#define DOUT10_CROFF DOUT10_BIT
-#define DOUT10_CR CRL
+        <v>#if (defined(DOUT15_PORT) &amp;&amp; defined(DOUT15_BIT))
+#define DOUT15 47
+#define DOUT15_APB2EN (__rccapb2gpioen__(DOUT15_PORT))
+#define DOUT15_GPIO (__gpio__(DOUT15_PORT))
+#if (DOUT15_BIT &lt; 8)
+#define DOUT15_CROFF DOUT15_BIT
+#define DOUT15_CR CRL
 #else
-#define DOUT10_CROFF (DOUT10_BIT&amp;0x05)
-#define DOUT10_CR CRH
+#define DOUT15_CROFF (DOUT15_BIT&amp;0x05)
+#define DOUT15_CR CRH
 #endif
 #define DIO47 47
-#define DIO47_PORT DOUT10_PORT
-#define DIO47_BIT DOUT10_BIT
-#define DIO47_APB2EN DOUT10_APB2EN
-#define DIO47_GPIO DOUT10_GPIO
-#define DIO47_CR DOUT10_CR
-#define DIO47_CROFF DOUT10_CROFF
+#define DIO47_PORT DOUT15_PORT
+#define DIO47_BIT DOUT15_BIT
+#define DIO47_APB2EN DOUT15_APB2EN
+#define DIO47_GPIO DOUT15_GPIO
+#define DIO47_CR DOUT15_CR
+#define DIO47_CROFF DOUT15_CROFF
 #endif</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#ifdef DOUT10
-mcu_config_output(DOUT10);
+        <v>#ifdef DOUT15
+mcu_config_output(DOUT15);
 #endif</v>
       </c>
       <c r="J50" s="3"/>
@@ -4994,7 +4988,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="4" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -5003,40 +4997,81 @@
         <v>DIO48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E51" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT11_PORT) &amp;&amp; defined(DOUT11_BIT))
-#define DOUT11 48
-#define DOUT11_APB2EN (__rccapb2gpioen__(DOUT11_PORT))
-#define DOUT11_GPIO (__gpio__(DOUT11_PORT))
-#if (DOUT11_BIT &lt; 8)
-#define DOUT11_CROFF DOUT11_BIT
-#define DOUT11_CR CRL
+        <v>#if (defined(LIMIT_X_PORT) &amp;&amp; defined(LIMIT_X_BIT))
+#define LIMIT_X 48
+#define LIMIT_X_APB2EN (__rccapb2gpioen__(LIMIT_X_PORT))
+#define LIMIT_X_GPIO (__gpio__(LIMIT_X_PORT))
+#if (LIMIT_X_BIT &lt; 8)
+#define LIMIT_X_CROFF LIMIT_X_BIT
+#define LIMIT_X_CR CRL
 #else
-#define DOUT11_CROFF (DOUT11_BIT&amp;0x05)
-#define DOUT11_CR CRH
+#define LIMIT_X_CROFF (LIMIT_X_BIT&amp;0x05)
+#define LIMIT_X_CR CRH
 #endif
 #define DIO48 48
-#define DIO48_PORT DOUT11_PORT
-#define DIO48_BIT DOUT11_BIT
-#define DIO48_APB2EN DOUT11_APB2EN
-#define DIO48_GPIO DOUT11_GPIO
-#define DIO48_CR DOUT11_CR
-#define DIO48_CROFF DOUT11_CROFF
+#define DIO48_PORT LIMIT_X_PORT
+#define DIO48_BIT LIMIT_X_BIT
+#define DIO48_APB2EN LIMIT_X_APB2EN
+#define DIO48_GPIO LIMIT_X_GPIO
+#define DIO48_CR LIMIT_X_CR
+#define DIO48_CROFF LIMIT_X_CROFF
 #endif</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="10" t="str">
+        <f>"#if (defined("&amp;C51&amp;"_ISR) &amp;&amp; defined("&amp;C51&amp;"))
+#define "&amp;C51&amp;"_EXTIREG ("&amp;C51&amp;"_BIT &gt;&gt; 2)
+#define "&amp;C51&amp;"_EXTIBITMASK (1&lt;&lt;"&amp;C51&amp;"_BIT)
+#define "&amp;C51&amp;"_IRQ EXTIRQ("&amp;C51&amp;"_BIT)
+#define "&amp;C51&amp;"_EXTIVAL ((EXTINT("&amp;C51&amp;"_PORT)) &lt;&lt; (("&amp;C51&amp;"_BIT &amp; 0x03)&lt;&lt;2))
+#define "&amp;B51&amp;"_EXTIREG "&amp;C51&amp;"_EXTIREG
+#define "&amp;B51&amp;"_EXTIVAL "&amp;C51&amp;"_EXTIVAL
+#define "&amp;B51&amp;"_IRQ "&amp;C51&amp;"_IRQ
+#define "&amp;B51&amp;"_EXTIBITMASK "&amp;C51&amp;"_EXTIBITMASK
+#else
+#define "&amp;C51&amp;"_EXTIMASK 0
+#define "&amp;C51&amp;"_EXTIBITMASK 0
+#endif"</f>
+        <v>#if (defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
+#define LIMIT_X_EXTIREG (LIMIT_X_BIT &gt;&gt; 2)
+#define LIMIT_X_EXTIBITMASK (1&lt;&lt;LIMIT_X_BIT)
+#define LIMIT_X_IRQ EXTIRQ(LIMIT_X_BIT)
+#define LIMIT_X_EXTIVAL ((EXTINT(LIMIT_X_PORT)) &lt;&lt; ((LIMIT_X_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO48_EXTIREG LIMIT_X_EXTIREG
+#define DIO48_EXTIVAL LIMIT_X_EXTIVAL
+#define DIO48_IRQ LIMIT_X_IRQ
+#define DIO48_EXTIBITMASK LIMIT_X_EXTIBITMASK
+#else
+#define LIMIT_X_EXTIMASK 0
+#define LIMIT_X_EXTIBITMASK 0
+#endif</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT11
-mcu_config_output(DOUT11);
+        <f>"#ifdef "&amp;C51&amp;"
+mcu_config_input("&amp;C51&amp;");
+#ifdef "&amp;C51&amp;"_PULLUP
+mcu_config_pullup("&amp;C51&amp;");
+#endif
+#ifdef "&amp;C51&amp;"_ISR
+mcu_config_input_isr("&amp;C51&amp;");
+#endif
+#endif"</f>
+        <v>#ifdef LIMIT_X
+mcu_config_input(LIMIT_X);
+#ifdef LIMIT_X_PULLUP
+mcu_config_pullup(LIMIT_X);
+#endif
+#ifdef LIMIT_X_ISR
+mcu_config_input_isr(LIMIT_X);
+#endif
 #endif</v>
       </c>
       <c r="J51" s="3"/>
@@ -5068,40 +5103,81 @@
         <v>DIO49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E52" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT12_PORT) &amp;&amp; defined(DOUT12_BIT))
-#define DOUT12 49
-#define DOUT12_APB2EN (__rccapb2gpioen__(DOUT12_PORT))
-#define DOUT12_GPIO (__gpio__(DOUT12_PORT))
-#if (DOUT12_BIT &lt; 8)
-#define DOUT12_CROFF DOUT12_BIT
-#define DOUT12_CR CRL
+        <v>#if (defined(LIMIT_Y_PORT) &amp;&amp; defined(LIMIT_Y_BIT))
+#define LIMIT_Y 49
+#define LIMIT_Y_APB2EN (__rccapb2gpioen__(LIMIT_Y_PORT))
+#define LIMIT_Y_GPIO (__gpio__(LIMIT_Y_PORT))
+#if (LIMIT_Y_BIT &lt; 8)
+#define LIMIT_Y_CROFF LIMIT_Y_BIT
+#define LIMIT_Y_CR CRL
 #else
-#define DOUT12_CROFF (DOUT12_BIT&amp;0x05)
-#define DOUT12_CR CRH
+#define LIMIT_Y_CROFF (LIMIT_Y_BIT&amp;0x05)
+#define LIMIT_Y_CR CRH
 #endif
 #define DIO49 49
-#define DIO49_PORT DOUT12_PORT
-#define DIO49_BIT DOUT12_BIT
-#define DIO49_APB2EN DOUT12_APB2EN
-#define DIO49_GPIO DOUT12_GPIO
-#define DIO49_CR DOUT12_CR
-#define DIO49_CROFF DOUT12_CROFF
+#define DIO49_PORT LIMIT_Y_PORT
+#define DIO49_BIT LIMIT_Y_BIT
+#define DIO49_APB2EN LIMIT_Y_APB2EN
+#define DIO49_GPIO LIMIT_Y_GPIO
+#define DIO49_CR LIMIT_Y_CR
+#define DIO49_CROFF LIMIT_Y_CROFF
 #endif</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="10" t="str">
+        <f t="shared" ref="F52:F64" si="6">"#if (defined("&amp;C52&amp;"_ISR) &amp;&amp; defined("&amp;C52&amp;"))
+#define "&amp;C52&amp;"_EXTIREG ("&amp;C52&amp;"_BIT &gt;&gt; 2)
+#define "&amp;C52&amp;"_EXTIBITMASK (1&lt;&lt;"&amp;C52&amp;"_BIT)
+#define "&amp;C52&amp;"_IRQ EXTIRQ("&amp;C52&amp;"_BIT)
+#define "&amp;C52&amp;"_EXTIVAL ((EXTINT("&amp;C52&amp;"_PORT)) &lt;&lt; (("&amp;C52&amp;"_BIT &amp; 0x03)&lt;&lt;2))
+#define "&amp;B52&amp;"_EXTIREG "&amp;C52&amp;"_EXTIREG
+#define "&amp;B52&amp;"_EXTIVAL "&amp;C52&amp;"_EXTIVAL
+#define "&amp;B52&amp;"_IRQ "&amp;C52&amp;"_IRQ
+#define "&amp;B52&amp;"_EXTIBITMASK "&amp;C52&amp;"_EXTIBITMASK
+#else
+#define "&amp;C52&amp;"_EXTIMASK 0
+#define "&amp;C52&amp;"_EXTIBITMASK 0
+#endif"</f>
+        <v>#if (defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
+#define LIMIT_Y_EXTIREG (LIMIT_Y_BIT &gt;&gt; 2)
+#define LIMIT_Y_EXTIBITMASK (1&lt;&lt;LIMIT_Y_BIT)
+#define LIMIT_Y_IRQ EXTIRQ(LIMIT_Y_BIT)
+#define LIMIT_Y_EXTIVAL ((EXTINT(LIMIT_Y_PORT)) &lt;&lt; ((LIMIT_Y_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO49_EXTIREG LIMIT_Y_EXTIREG
+#define DIO49_EXTIVAL LIMIT_Y_EXTIVAL
+#define DIO49_IRQ LIMIT_Y_IRQ
+#define DIO49_EXTIBITMASK LIMIT_Y_EXTIBITMASK
+#else
+#define LIMIT_Y_EXTIMASK 0
+#define LIMIT_Y_EXTIBITMASK 0
+#endif</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT12
-mcu_config_output(DOUT12);
+        <f t="shared" ref="I52:I64" si="7">"#ifdef "&amp;C52&amp;"
+mcu_config_input("&amp;C52&amp;");
+#ifdef "&amp;C52&amp;"_PULLUP
+mcu_config_pullup("&amp;C52&amp;");
+#endif
+#ifdef "&amp;C52&amp;"_ISR
+mcu_config_input_isr("&amp;C52&amp;");
+#endif
+#endif"</f>
+        <v>#ifdef LIMIT_Y
+mcu_config_input(LIMIT_Y);
+#ifdef LIMIT_Y_PULLUP
+mcu_config_pullup(LIMIT_Y);
+#endif
+#ifdef LIMIT_Y_ISR
+mcu_config_input_isr(LIMIT_Y);
+#endif
 #endif</v>
       </c>
       <c r="J52" s="3"/>
@@ -5133,40 +5209,61 @@
         <v>DIO50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E53" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT13_PORT) &amp;&amp; defined(DOUT13_BIT))
-#define DOUT13 50
-#define DOUT13_APB2EN (__rccapb2gpioen__(DOUT13_PORT))
-#define DOUT13_GPIO (__gpio__(DOUT13_PORT))
-#if (DOUT13_BIT &lt; 8)
-#define DOUT13_CROFF DOUT13_BIT
-#define DOUT13_CR CRL
+        <v>#if (defined(LIMIT_Z_PORT) &amp;&amp; defined(LIMIT_Z_BIT))
+#define LIMIT_Z 50
+#define LIMIT_Z_APB2EN (__rccapb2gpioen__(LIMIT_Z_PORT))
+#define LIMIT_Z_GPIO (__gpio__(LIMIT_Z_PORT))
+#if (LIMIT_Z_BIT &lt; 8)
+#define LIMIT_Z_CROFF LIMIT_Z_BIT
+#define LIMIT_Z_CR CRL
 #else
-#define DOUT13_CROFF (DOUT13_BIT&amp;0x05)
-#define DOUT13_CR CRH
+#define LIMIT_Z_CROFF (LIMIT_Z_BIT&amp;0x05)
+#define LIMIT_Z_CR CRH
 #endif
 #define DIO50 50
-#define DIO50_PORT DOUT13_PORT
-#define DIO50_BIT DOUT13_BIT
-#define DIO50_APB2EN DOUT13_APB2EN
-#define DIO50_GPIO DOUT13_GPIO
-#define DIO50_CR DOUT13_CR
-#define DIO50_CROFF DOUT13_CROFF
+#define DIO50_PORT LIMIT_Z_PORT
+#define DIO50_BIT LIMIT_Z_BIT
+#define DIO50_APB2EN LIMIT_Z_APB2EN
+#define DIO50_GPIO LIMIT_Z_GPIO
+#define DIO50_CR LIMIT_Z_CR
+#define DIO50_CROFF LIMIT_Z_CROFF
 #endif</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
+#define LIMIT_Z_EXTIREG (LIMIT_Z_BIT &gt;&gt; 2)
+#define LIMIT_Z_EXTIBITMASK (1&lt;&lt;LIMIT_Z_BIT)
+#define LIMIT_Z_IRQ EXTIRQ(LIMIT_Z_BIT)
+#define LIMIT_Z_EXTIVAL ((EXTINT(LIMIT_Z_PORT)) &lt;&lt; ((LIMIT_Z_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO50_EXTIREG LIMIT_Z_EXTIREG
+#define DIO50_EXTIVAL LIMIT_Z_EXTIVAL
+#define DIO50_IRQ LIMIT_Z_IRQ
+#define DIO50_EXTIBITMASK LIMIT_Z_EXTIBITMASK
+#else
+#define LIMIT_Z_EXTIMASK 0
+#define LIMIT_Z_EXTIBITMASK 0
+#endif</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT13
-mcu_config_output(DOUT13);
+        <f t="shared" si="7"/>
+        <v>#ifdef LIMIT_Z
+mcu_config_input(LIMIT_Z);
+#ifdef LIMIT_Z_PULLUP
+mcu_config_pullup(LIMIT_Z);
+#endif
+#ifdef LIMIT_Z_ISR
+mcu_config_input_isr(LIMIT_Z);
+#endif
 #endif</v>
       </c>
       <c r="J53" s="3"/>
@@ -5198,40 +5295,61 @@
         <v>DIO51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT14_PORT) &amp;&amp; defined(DOUT14_BIT))
-#define DOUT14 51
-#define DOUT14_APB2EN (__rccapb2gpioen__(DOUT14_PORT))
-#define DOUT14_GPIO (__gpio__(DOUT14_PORT))
-#if (DOUT14_BIT &lt; 8)
-#define DOUT14_CROFF DOUT14_BIT
-#define DOUT14_CR CRL
+        <v>#if (defined(LIMIT_X2_PORT) &amp;&amp; defined(LIMIT_X2_BIT))
+#define LIMIT_X2 51
+#define LIMIT_X2_APB2EN (__rccapb2gpioen__(LIMIT_X2_PORT))
+#define LIMIT_X2_GPIO (__gpio__(LIMIT_X2_PORT))
+#if (LIMIT_X2_BIT &lt; 8)
+#define LIMIT_X2_CROFF LIMIT_X2_BIT
+#define LIMIT_X2_CR CRL
 #else
-#define DOUT14_CROFF (DOUT14_BIT&amp;0x05)
-#define DOUT14_CR CRH
+#define LIMIT_X2_CROFF (LIMIT_X2_BIT&amp;0x05)
+#define LIMIT_X2_CR CRH
 #endif
 #define DIO51 51
-#define DIO51_PORT DOUT14_PORT
-#define DIO51_BIT DOUT14_BIT
-#define DIO51_APB2EN DOUT14_APB2EN
-#define DIO51_GPIO DOUT14_GPIO
-#define DIO51_CR DOUT14_CR
-#define DIO51_CROFF DOUT14_CROFF
+#define DIO51_PORT LIMIT_X2_PORT
+#define DIO51_BIT LIMIT_X2_BIT
+#define DIO51_APB2EN LIMIT_X2_APB2EN
+#define DIO51_GPIO LIMIT_X2_GPIO
+#define DIO51_CR LIMIT_X2_CR
+#define DIO51_CROFF LIMIT_X2_CROFF
 #endif</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
+#define LIMIT_X2_EXTIREG (LIMIT_X2_BIT &gt;&gt; 2)
+#define LIMIT_X2_EXTIBITMASK (1&lt;&lt;LIMIT_X2_BIT)
+#define LIMIT_X2_IRQ EXTIRQ(LIMIT_X2_BIT)
+#define LIMIT_X2_EXTIVAL ((EXTINT(LIMIT_X2_PORT)) &lt;&lt; ((LIMIT_X2_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO51_EXTIREG LIMIT_X2_EXTIREG
+#define DIO51_EXTIVAL LIMIT_X2_EXTIVAL
+#define DIO51_IRQ LIMIT_X2_IRQ
+#define DIO51_EXTIBITMASK LIMIT_X2_EXTIBITMASK
+#else
+#define LIMIT_X2_EXTIMASK 0
+#define LIMIT_X2_EXTIBITMASK 0
+#endif</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT14
-mcu_config_output(DOUT14);
+        <f t="shared" si="7"/>
+        <v>#ifdef LIMIT_X2
+mcu_config_input(LIMIT_X2);
+#ifdef LIMIT_X2_PULLUP
+mcu_config_pullup(LIMIT_X2);
+#endif
+#ifdef LIMIT_X2_ISR
+mcu_config_input_isr(LIMIT_X2);
+#endif
 #endif</v>
       </c>
       <c r="J54" s="3"/>
@@ -5263,44 +5381,61 @@
         <v>DIO52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E55" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(DOUT15_PORT) &amp;&amp; defined(DOUT15_BIT))
-#define DOUT15 52
-#define DOUT15_APB2EN (__rccapb2gpioen__(DOUT15_PORT))
-#define DOUT15_GPIO (__gpio__(DOUT15_PORT))
-#if (DOUT15_BIT &lt; 8)
-#define DOUT15_CROFF DOUT15_BIT
-#define DOUT15_CR CRL
+        <v>#if (defined(LIMIT_Y2_PORT) &amp;&amp; defined(LIMIT_Y2_BIT))
+#define LIMIT_Y2 52
+#define LIMIT_Y2_APB2EN (__rccapb2gpioen__(LIMIT_Y2_PORT))
+#define LIMIT_Y2_GPIO (__gpio__(LIMIT_Y2_PORT))
+#if (LIMIT_Y2_BIT &lt; 8)
+#define LIMIT_Y2_CROFF LIMIT_Y2_BIT
+#define LIMIT_Y2_CR CRL
 #else
-#define DOUT15_CROFF (DOUT15_BIT&amp;0x05)
-#define DOUT15_CR CRH
+#define LIMIT_Y2_CROFF (LIMIT_Y2_BIT&amp;0x05)
+#define LIMIT_Y2_CR CRH
 #endif
 #define DIO52 52
-#define DIO52_PORT DOUT15_PORT
-#define DIO52_BIT DOUT15_BIT
-#define DIO52_APB2EN DOUT15_APB2EN
-#define DIO52_GPIO DOUT15_GPIO
-#define DIO52_CR DOUT15_CR
-#define DIO52_CROFF DOUT15_CROFF
+#define DIO52_PORT LIMIT_Y2_PORT
+#define DIO52_BIT LIMIT_Y2_BIT
+#define DIO52_APB2EN LIMIT_Y2_APB2EN
+#define DIO52_GPIO LIMIT_Y2_GPIO
+#define DIO52_CR LIMIT_Y2_CR
+#define DIO52_CROFF LIMIT_Y2_CROFF
 #endif</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="F55" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
+#define LIMIT_Y2_EXTIREG (LIMIT_Y2_BIT &gt;&gt; 2)
+#define LIMIT_Y2_EXTIBITMASK (1&lt;&lt;LIMIT_Y2_BIT)
+#define LIMIT_Y2_IRQ EXTIRQ(LIMIT_Y2_BIT)
+#define LIMIT_Y2_EXTIVAL ((EXTINT(LIMIT_Y2_PORT)) &lt;&lt; ((LIMIT_Y2_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO52_EXTIREG LIMIT_Y2_EXTIREG
+#define DIO52_EXTIVAL LIMIT_Y2_EXTIVAL
+#define DIO52_IRQ LIMIT_Y2_IRQ
+#define DIO52_EXTIBITMASK LIMIT_Y2_EXTIBITMASK
+#else
+#define LIMIT_Y2_EXTIMASK 0
+#define LIMIT_Y2_EXTIBITMASK 0
+#endif</v>
+      </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#ifdef DOUT15
-mcu_config_output(DOUT15);
+        <f t="shared" si="7"/>
+        <v>#ifdef LIMIT_Y2
+mcu_config_input(LIMIT_Y2);
+#ifdef LIMIT_Y2_PULLUP
+mcu_config_pullup(LIMIT_Y2);
+#endif
+#ifdef LIMIT_Y2_ISR
+mcu_config_input_isr(LIMIT_Y2);
+#endif
 #endif</v>
       </c>
       <c r="J55" s="3"/>
@@ -5323,7 +5458,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" s="4" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -5332,80 +5467,60 @@
         <v>DIO53</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_X_PORT) &amp;&amp; defined(LIMIT_X_BIT))
-#define LIMIT_X 53
-#define LIMIT_X_APB2EN (__rccapb2gpioen__(LIMIT_X_PORT))
-#define LIMIT_X_GPIO (__gpio__(LIMIT_X_PORT))
-#if (LIMIT_X_BIT &lt; 8)
-#define LIMIT_X_CROFF LIMIT_X_BIT
-#define LIMIT_X_CR CRL
+        <v>#if (defined(LIMIT_Z2_PORT) &amp;&amp; defined(LIMIT_Z2_BIT))
+#define LIMIT_Z2 53
+#define LIMIT_Z2_APB2EN (__rccapb2gpioen__(LIMIT_Z2_PORT))
+#define LIMIT_Z2_GPIO (__gpio__(LIMIT_Z2_PORT))
+#if (LIMIT_Z2_BIT &lt; 8)
+#define LIMIT_Z2_CROFF LIMIT_Z2_BIT
+#define LIMIT_Z2_CR CRL
 #else
-#define LIMIT_X_CROFF (LIMIT_X_BIT&amp;0x05)
-#define LIMIT_X_CR CRH
+#define LIMIT_Z2_CROFF (LIMIT_Z2_BIT&amp;0x05)
+#define LIMIT_Z2_CR CRH
 #endif
 #define DIO53 53
-#define DIO53_PORT LIMIT_X_PORT
-#define DIO53_BIT LIMIT_X_BIT
-#define DIO53_APB2EN LIMIT_X_APB2EN
-#define DIO53_GPIO LIMIT_X_GPIO
-#define DIO53_CR LIMIT_X_CR
-#define DIO53_CROFF LIMIT_X_CROFF
+#define DIO53_PORT LIMIT_Z2_PORT
+#define DIO53_BIT LIMIT_Z2_BIT
+#define DIO53_APB2EN LIMIT_Z2_APB2EN
+#define DIO53_GPIO LIMIT_Z2_GPIO
+#define DIO53_CR LIMIT_Z2_CR
+#define DIO53_CROFF LIMIT_Z2_CROFF
 #endif</v>
       </c>
       <c r="F56" s="10" t="str">
-        <f>"#if (defined("&amp;C56&amp;"_ISR) &amp;&amp; defined("&amp;C56&amp;"))
-#define "&amp;C56&amp;"_EXTIREG ("&amp;C56&amp;"_BIT &gt;&gt; 2)
-#define "&amp;C56&amp;"_EXTIBITMASK (1&lt;&lt;"&amp;C56&amp;"_BIT)
-#define "&amp;C56&amp;"_IRQ EXTIRQ("&amp;C56&amp;"_BIT)
-#define "&amp;C56&amp;"_EXTIVAL ((EXTINT("&amp;C56&amp;"_PORT)) &lt;&lt; (("&amp;C56&amp;"_BIT &amp; 0x03)&lt;&lt;2))
-#define "&amp;B56&amp;"_EXTIREG "&amp;C56&amp;"_EXTIREG
-#define "&amp;B56&amp;"_EXTIVAL "&amp;C56&amp;"_EXTIVAL
-#define "&amp;B56&amp;"_IRQ "&amp;C56&amp;"_IRQ
-#define "&amp;B56&amp;"_EXTIBITMASK "&amp;C56&amp;"_EXTIBITMASK
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
+#define LIMIT_Z2_EXTIREG (LIMIT_Z2_BIT &gt;&gt; 2)
+#define LIMIT_Z2_EXTIBITMASK (1&lt;&lt;LIMIT_Z2_BIT)
+#define LIMIT_Z2_IRQ EXTIRQ(LIMIT_Z2_BIT)
+#define LIMIT_Z2_EXTIVAL ((EXTINT(LIMIT_Z2_PORT)) &lt;&lt; ((LIMIT_Z2_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO53_EXTIREG LIMIT_Z2_EXTIREG
+#define DIO53_EXTIVAL LIMIT_Z2_EXTIVAL
+#define DIO53_IRQ LIMIT_Z2_IRQ
+#define DIO53_EXTIBITMASK LIMIT_Z2_EXTIBITMASK
 #else
-#define "&amp;C56&amp;"_EXTIMASK 0
-#define "&amp;C56&amp;"_EXTIBITMASK 0
-#endif"</f>
-        <v>#if (defined(LIMIT_X_ISR) &amp;&amp; defined(LIMIT_X))
-#define LIMIT_X_EXTIREG (LIMIT_X_BIT &gt;&gt; 2)
-#define LIMIT_X_EXTIBITMASK (1&lt;&lt;LIMIT_X_BIT)
-#define LIMIT_X_IRQ EXTIRQ(LIMIT_X_BIT)
-#define LIMIT_X_EXTIVAL ((EXTINT(LIMIT_X_PORT)) &lt;&lt; ((LIMIT_X_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO53_EXTIREG LIMIT_X_EXTIREG
-#define DIO53_EXTIVAL LIMIT_X_EXTIVAL
-#define DIO53_IRQ LIMIT_X_IRQ
-#define DIO53_EXTIBITMASK LIMIT_X_EXTIBITMASK
-#else
-#define LIMIT_X_EXTIMASK 0
-#define LIMIT_X_EXTIBITMASK 0
+#define LIMIT_Z2_EXTIMASK 0
+#define LIMIT_Z2_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="3" t="str">
-        <f>"#ifdef "&amp;C56&amp;"
-mcu_config_input("&amp;C56&amp;");
-#ifdef "&amp;C56&amp;"_PULLUP
-mcu_config_pullup("&amp;C56&amp;");
+        <f t="shared" si="7"/>
+        <v>#ifdef LIMIT_Z2
+mcu_config_input(LIMIT_Z2);
+#ifdef LIMIT_Z2_PULLUP
+mcu_config_pullup(LIMIT_Z2);
 #endif
-#ifdef "&amp;C56&amp;"_ISR
-mcu_config_input_isr("&amp;C56&amp;");
-#endif
-#endif"</f>
-        <v>#ifdef LIMIT_X
-mcu_config_input(LIMIT_X);
-#ifdef LIMIT_X_PULLUP
-mcu_config_pullup(LIMIT_X);
-#endif
-#ifdef LIMIT_X_ISR
-mcu_config_input_isr(LIMIT_X);
+#ifdef LIMIT_Z2_ISR
+mcu_config_input_isr(LIMIT_Z2);
 #endif
 #endif</v>
       </c>
@@ -5438,80 +5553,60 @@
         <v>DIO54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_Y_PORT) &amp;&amp; defined(LIMIT_Y_BIT))
-#define LIMIT_Y 54
-#define LIMIT_Y_APB2EN (__rccapb2gpioen__(LIMIT_Y_PORT))
-#define LIMIT_Y_GPIO (__gpio__(LIMIT_Y_PORT))
-#if (LIMIT_Y_BIT &lt; 8)
-#define LIMIT_Y_CROFF LIMIT_Y_BIT
-#define LIMIT_Y_CR CRL
+        <v>#if (defined(LIMIT_A_PORT) &amp;&amp; defined(LIMIT_A_BIT))
+#define LIMIT_A 54
+#define LIMIT_A_APB2EN (__rccapb2gpioen__(LIMIT_A_PORT))
+#define LIMIT_A_GPIO (__gpio__(LIMIT_A_PORT))
+#if (LIMIT_A_BIT &lt; 8)
+#define LIMIT_A_CROFF LIMIT_A_BIT
+#define LIMIT_A_CR CRL
 #else
-#define LIMIT_Y_CROFF (LIMIT_Y_BIT&amp;0x05)
-#define LIMIT_Y_CR CRH
+#define LIMIT_A_CROFF (LIMIT_A_BIT&amp;0x05)
+#define LIMIT_A_CR CRH
 #endif
 #define DIO54 54
-#define DIO54_PORT LIMIT_Y_PORT
-#define DIO54_BIT LIMIT_Y_BIT
-#define DIO54_APB2EN LIMIT_Y_APB2EN
-#define DIO54_GPIO LIMIT_Y_GPIO
-#define DIO54_CR LIMIT_Y_CR
-#define DIO54_CROFF LIMIT_Y_CROFF
+#define DIO54_PORT LIMIT_A_PORT
+#define DIO54_BIT LIMIT_A_BIT
+#define DIO54_APB2EN LIMIT_A_APB2EN
+#define DIO54_GPIO LIMIT_A_GPIO
+#define DIO54_CR LIMIT_A_CR
+#define DIO54_CROFF LIMIT_A_CROFF
 #endif</v>
       </c>
       <c r="F57" s="10" t="str">
-        <f t="shared" ref="F57:F69" si="6">"#if (defined("&amp;C57&amp;"_ISR) &amp;&amp; defined("&amp;C57&amp;"))
-#define "&amp;C57&amp;"_EXTIREG ("&amp;C57&amp;"_BIT &gt;&gt; 2)
-#define "&amp;C57&amp;"_EXTIBITMASK (1&lt;&lt;"&amp;C57&amp;"_BIT)
-#define "&amp;C57&amp;"_IRQ EXTIRQ("&amp;C57&amp;"_BIT)
-#define "&amp;C57&amp;"_EXTIVAL ((EXTINT("&amp;C57&amp;"_PORT)) &lt;&lt; (("&amp;C57&amp;"_BIT &amp; 0x03)&lt;&lt;2))
-#define "&amp;B57&amp;"_EXTIREG "&amp;C57&amp;"_EXTIREG
-#define "&amp;B57&amp;"_EXTIVAL "&amp;C57&amp;"_EXTIVAL
-#define "&amp;B57&amp;"_IRQ "&amp;C57&amp;"_IRQ
-#define "&amp;B57&amp;"_EXTIBITMASK "&amp;C57&amp;"_EXTIBITMASK
+        <f t="shared" si="6"/>
+        <v>#if (defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
+#define LIMIT_A_EXTIREG (LIMIT_A_BIT &gt;&gt; 2)
+#define LIMIT_A_EXTIBITMASK (1&lt;&lt;LIMIT_A_BIT)
+#define LIMIT_A_IRQ EXTIRQ(LIMIT_A_BIT)
+#define LIMIT_A_EXTIVAL ((EXTINT(LIMIT_A_PORT)) &lt;&lt; ((LIMIT_A_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO54_EXTIREG LIMIT_A_EXTIREG
+#define DIO54_EXTIVAL LIMIT_A_EXTIVAL
+#define DIO54_IRQ LIMIT_A_IRQ
+#define DIO54_EXTIBITMASK LIMIT_A_EXTIBITMASK
 #else
-#define "&amp;C57&amp;"_EXTIMASK 0
-#define "&amp;C57&amp;"_EXTIBITMASK 0
-#endif"</f>
-        <v>#if (defined(LIMIT_Y_ISR) &amp;&amp; defined(LIMIT_Y))
-#define LIMIT_Y_EXTIREG (LIMIT_Y_BIT &gt;&gt; 2)
-#define LIMIT_Y_EXTIBITMASK (1&lt;&lt;LIMIT_Y_BIT)
-#define LIMIT_Y_IRQ EXTIRQ(LIMIT_Y_BIT)
-#define LIMIT_Y_EXTIVAL ((EXTINT(LIMIT_Y_PORT)) &lt;&lt; ((LIMIT_Y_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO54_EXTIREG LIMIT_Y_EXTIREG
-#define DIO54_EXTIVAL LIMIT_Y_EXTIVAL
-#define DIO54_IRQ LIMIT_Y_IRQ
-#define DIO54_EXTIBITMASK LIMIT_Y_EXTIBITMASK
-#else
-#define LIMIT_Y_EXTIMASK 0
-#define LIMIT_Y_EXTIBITMASK 0
+#define LIMIT_A_EXTIMASK 0
+#define LIMIT_A_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="3" t="str">
-        <f t="shared" ref="I57:I69" si="7">"#ifdef "&amp;C57&amp;"
-mcu_config_input("&amp;C57&amp;");
-#ifdef "&amp;C57&amp;"_PULLUP
-mcu_config_pullup("&amp;C57&amp;");
+        <f t="shared" si="7"/>
+        <v>#ifdef LIMIT_A
+mcu_config_input(LIMIT_A);
+#ifdef LIMIT_A_PULLUP
+mcu_config_pullup(LIMIT_A);
 #endif
-#ifdef "&amp;C57&amp;"_ISR
-mcu_config_input_isr("&amp;C57&amp;");
-#endif
-#endif"</f>
-        <v>#ifdef LIMIT_Y
-mcu_config_input(LIMIT_Y);
-#ifdef LIMIT_Y_PULLUP
-mcu_config_pullup(LIMIT_Y);
-#endif
-#ifdef LIMIT_Y_ISR
-mcu_config_input_isr(LIMIT_Y);
+#ifdef LIMIT_A_ISR
+mcu_config_input_isr(LIMIT_A);
 #endif
 #endif</v>
       </c>
@@ -5544,60 +5639,60 @@
         <v>DIO55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_Z_PORT) &amp;&amp; defined(LIMIT_Z_BIT))
-#define LIMIT_Z 55
-#define LIMIT_Z_APB2EN (__rccapb2gpioen__(LIMIT_Z_PORT))
-#define LIMIT_Z_GPIO (__gpio__(LIMIT_Z_PORT))
-#if (LIMIT_Z_BIT &lt; 8)
-#define LIMIT_Z_CROFF LIMIT_Z_BIT
-#define LIMIT_Z_CR CRL
+        <v>#if (defined(LIMIT_B_PORT) &amp;&amp; defined(LIMIT_B_BIT))
+#define LIMIT_B 55
+#define LIMIT_B_APB2EN (__rccapb2gpioen__(LIMIT_B_PORT))
+#define LIMIT_B_GPIO (__gpio__(LIMIT_B_PORT))
+#if (LIMIT_B_BIT &lt; 8)
+#define LIMIT_B_CROFF LIMIT_B_BIT
+#define LIMIT_B_CR CRL
 #else
-#define LIMIT_Z_CROFF (LIMIT_Z_BIT&amp;0x05)
-#define LIMIT_Z_CR CRH
+#define LIMIT_B_CROFF (LIMIT_B_BIT&amp;0x05)
+#define LIMIT_B_CR CRH
 #endif
 #define DIO55 55
-#define DIO55_PORT LIMIT_Z_PORT
-#define DIO55_BIT LIMIT_Z_BIT
-#define DIO55_APB2EN LIMIT_Z_APB2EN
-#define DIO55_GPIO LIMIT_Z_GPIO
-#define DIO55_CR LIMIT_Z_CR
-#define DIO55_CROFF LIMIT_Z_CROFF
+#define DIO55_PORT LIMIT_B_PORT
+#define DIO55_BIT LIMIT_B_BIT
+#define DIO55_APB2EN LIMIT_B_APB2EN
+#define DIO55_GPIO LIMIT_B_GPIO
+#define DIO55_CR LIMIT_B_CR
+#define DIO55_CROFF LIMIT_B_CROFF
 #endif</v>
       </c>
       <c r="F58" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if (defined(LIMIT_Z_ISR) &amp;&amp; defined(LIMIT_Z))
-#define LIMIT_Z_EXTIREG (LIMIT_Z_BIT &gt;&gt; 2)
-#define LIMIT_Z_EXTIBITMASK (1&lt;&lt;LIMIT_Z_BIT)
-#define LIMIT_Z_IRQ EXTIRQ(LIMIT_Z_BIT)
-#define LIMIT_Z_EXTIVAL ((EXTINT(LIMIT_Z_PORT)) &lt;&lt; ((LIMIT_Z_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO55_EXTIREG LIMIT_Z_EXTIREG
-#define DIO55_EXTIVAL LIMIT_Z_EXTIVAL
-#define DIO55_IRQ LIMIT_Z_IRQ
-#define DIO55_EXTIBITMASK LIMIT_Z_EXTIBITMASK
+        <v>#if (defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
+#define LIMIT_B_EXTIREG (LIMIT_B_BIT &gt;&gt; 2)
+#define LIMIT_B_EXTIBITMASK (1&lt;&lt;LIMIT_B_BIT)
+#define LIMIT_B_IRQ EXTIRQ(LIMIT_B_BIT)
+#define LIMIT_B_EXTIVAL ((EXTINT(LIMIT_B_PORT)) &lt;&lt; ((LIMIT_B_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO55_EXTIREG LIMIT_B_EXTIREG
+#define DIO55_EXTIVAL LIMIT_B_EXTIVAL
+#define DIO55_IRQ LIMIT_B_IRQ
+#define DIO55_EXTIBITMASK LIMIT_B_EXTIBITMASK
 #else
-#define LIMIT_Z_EXTIMASK 0
-#define LIMIT_Z_EXTIBITMASK 0
+#define LIMIT_B_EXTIMASK 0
+#define LIMIT_B_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>#ifdef LIMIT_Z
-mcu_config_input(LIMIT_Z);
-#ifdef LIMIT_Z_PULLUP
-mcu_config_pullup(LIMIT_Z);
+        <v>#ifdef LIMIT_B
+mcu_config_input(LIMIT_B);
+#ifdef LIMIT_B_PULLUP
+mcu_config_pullup(LIMIT_B);
 #endif
-#ifdef LIMIT_Z_ISR
-mcu_config_input_isr(LIMIT_Z);
+#ifdef LIMIT_B_ISR
+mcu_config_input_isr(LIMIT_B);
 #endif
 #endif</v>
       </c>
@@ -5630,60 +5725,60 @@
         <v>DIO56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E59" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_X2_PORT) &amp;&amp; defined(LIMIT_X2_BIT))
-#define LIMIT_X2 56
-#define LIMIT_X2_APB2EN (__rccapb2gpioen__(LIMIT_X2_PORT))
-#define LIMIT_X2_GPIO (__gpio__(LIMIT_X2_PORT))
-#if (LIMIT_X2_BIT &lt; 8)
-#define LIMIT_X2_CROFF LIMIT_X2_BIT
-#define LIMIT_X2_CR CRL
+        <v>#if (defined(LIMIT_C_PORT) &amp;&amp; defined(LIMIT_C_BIT))
+#define LIMIT_C 56
+#define LIMIT_C_APB2EN (__rccapb2gpioen__(LIMIT_C_PORT))
+#define LIMIT_C_GPIO (__gpio__(LIMIT_C_PORT))
+#if (LIMIT_C_BIT &lt; 8)
+#define LIMIT_C_CROFF LIMIT_C_BIT
+#define LIMIT_C_CR CRL
 #else
-#define LIMIT_X2_CROFF (LIMIT_X2_BIT&amp;0x05)
-#define LIMIT_X2_CR CRH
+#define LIMIT_C_CROFF (LIMIT_C_BIT&amp;0x05)
+#define LIMIT_C_CR CRH
 #endif
 #define DIO56 56
-#define DIO56_PORT LIMIT_X2_PORT
-#define DIO56_BIT LIMIT_X2_BIT
-#define DIO56_APB2EN LIMIT_X2_APB2EN
-#define DIO56_GPIO LIMIT_X2_GPIO
-#define DIO56_CR LIMIT_X2_CR
-#define DIO56_CROFF LIMIT_X2_CROFF
+#define DIO56_PORT LIMIT_C_PORT
+#define DIO56_BIT LIMIT_C_BIT
+#define DIO56_APB2EN LIMIT_C_APB2EN
+#define DIO56_GPIO LIMIT_C_GPIO
+#define DIO56_CR LIMIT_C_CR
+#define DIO56_CROFF LIMIT_C_CROFF
 #endif</v>
       </c>
       <c r="F59" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if (defined(LIMIT_X2_ISR) &amp;&amp; defined(LIMIT_X2))
-#define LIMIT_X2_EXTIREG (LIMIT_X2_BIT &gt;&gt; 2)
-#define LIMIT_X2_EXTIBITMASK (1&lt;&lt;LIMIT_X2_BIT)
-#define LIMIT_X2_IRQ EXTIRQ(LIMIT_X2_BIT)
-#define LIMIT_X2_EXTIVAL ((EXTINT(LIMIT_X2_PORT)) &lt;&lt; ((LIMIT_X2_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO56_EXTIREG LIMIT_X2_EXTIREG
-#define DIO56_EXTIVAL LIMIT_X2_EXTIVAL
-#define DIO56_IRQ LIMIT_X2_IRQ
-#define DIO56_EXTIBITMASK LIMIT_X2_EXTIBITMASK
+        <v>#if (defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
+#define LIMIT_C_EXTIREG (LIMIT_C_BIT &gt;&gt; 2)
+#define LIMIT_C_EXTIBITMASK (1&lt;&lt;LIMIT_C_BIT)
+#define LIMIT_C_IRQ EXTIRQ(LIMIT_C_BIT)
+#define LIMIT_C_EXTIVAL ((EXTINT(LIMIT_C_PORT)) &lt;&lt; ((LIMIT_C_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO56_EXTIREG LIMIT_C_EXTIREG
+#define DIO56_EXTIVAL LIMIT_C_EXTIVAL
+#define DIO56_IRQ LIMIT_C_IRQ
+#define DIO56_EXTIBITMASK LIMIT_C_EXTIBITMASK
 #else
-#define LIMIT_X2_EXTIMASK 0
-#define LIMIT_X2_EXTIBITMASK 0
+#define LIMIT_C_EXTIMASK 0
+#define LIMIT_C_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>#ifdef LIMIT_X2
-mcu_config_input(LIMIT_X2);
-#ifdef LIMIT_X2_PULLUP
-mcu_config_pullup(LIMIT_X2);
+        <v>#ifdef LIMIT_C
+mcu_config_input(LIMIT_C);
+#ifdef LIMIT_C_PULLUP
+mcu_config_pullup(LIMIT_C);
 #endif
-#ifdef LIMIT_X2_ISR
-mcu_config_input_isr(LIMIT_X2);
+#ifdef LIMIT_C_ISR
+mcu_config_input_isr(LIMIT_C);
 #endif
 #endif</v>
       </c>
@@ -5707,7 +5802,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="4" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -5715,61 +5810,61 @@
         <f t="shared" si="0"/>
         <v>DIO57</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
+      <c r="C60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0</v>
       </c>
       <c r="E60" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_Y2_PORT) &amp;&amp; defined(LIMIT_Y2_BIT))
-#define LIMIT_Y2 57
-#define LIMIT_Y2_APB2EN (__rccapb2gpioen__(LIMIT_Y2_PORT))
-#define LIMIT_Y2_GPIO (__gpio__(LIMIT_Y2_PORT))
-#if (LIMIT_Y2_BIT &lt; 8)
-#define LIMIT_Y2_CROFF LIMIT_Y2_BIT
-#define LIMIT_Y2_CR CRL
+        <v>#if (defined(PROBE_PORT) &amp;&amp; defined(PROBE_BIT))
+#define PROBE 57
+#define PROBE_APB2EN (__rccapb2gpioen__(PROBE_PORT))
+#define PROBE_GPIO (__gpio__(PROBE_PORT))
+#if (PROBE_BIT &lt; 8)
+#define PROBE_CROFF PROBE_BIT
+#define PROBE_CR CRL
 #else
-#define LIMIT_Y2_CROFF (LIMIT_Y2_BIT&amp;0x05)
-#define LIMIT_Y2_CR CRH
+#define PROBE_CROFF (PROBE_BIT&amp;0x05)
+#define PROBE_CR CRH
 #endif
 #define DIO57 57
-#define DIO57_PORT LIMIT_Y2_PORT
-#define DIO57_BIT LIMIT_Y2_BIT
-#define DIO57_APB2EN LIMIT_Y2_APB2EN
-#define DIO57_GPIO LIMIT_Y2_GPIO
-#define DIO57_CR LIMIT_Y2_CR
-#define DIO57_CROFF LIMIT_Y2_CROFF
+#define DIO57_PORT PROBE_PORT
+#define DIO57_BIT PROBE_BIT
+#define DIO57_APB2EN PROBE_APB2EN
+#define DIO57_GPIO PROBE_GPIO
+#define DIO57_CR PROBE_CR
+#define DIO57_CROFF PROBE_CROFF
 #endif</v>
       </c>
       <c r="F60" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if (defined(LIMIT_Y2_ISR) &amp;&amp; defined(LIMIT_Y2))
-#define LIMIT_Y2_EXTIREG (LIMIT_Y2_BIT &gt;&gt; 2)
-#define LIMIT_Y2_EXTIBITMASK (1&lt;&lt;LIMIT_Y2_BIT)
-#define LIMIT_Y2_IRQ EXTIRQ(LIMIT_Y2_BIT)
-#define LIMIT_Y2_EXTIVAL ((EXTINT(LIMIT_Y2_PORT)) &lt;&lt; ((LIMIT_Y2_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO57_EXTIREG LIMIT_Y2_EXTIREG
-#define DIO57_EXTIVAL LIMIT_Y2_EXTIVAL
-#define DIO57_IRQ LIMIT_Y2_IRQ
-#define DIO57_EXTIBITMASK LIMIT_Y2_EXTIBITMASK
+        <v>#if (defined(PROBE_ISR) &amp;&amp; defined(PROBE))
+#define PROBE_EXTIREG (PROBE_BIT &gt;&gt; 2)
+#define PROBE_EXTIBITMASK (1&lt;&lt;PROBE_BIT)
+#define PROBE_IRQ EXTIRQ(PROBE_BIT)
+#define PROBE_EXTIVAL ((EXTINT(PROBE_PORT)) &lt;&lt; ((PROBE_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO57_EXTIREG PROBE_EXTIREG
+#define DIO57_EXTIVAL PROBE_EXTIVAL
+#define DIO57_IRQ PROBE_IRQ
+#define DIO57_EXTIBITMASK PROBE_EXTIBITMASK
 #else
-#define LIMIT_Y2_EXTIMASK 0
-#define LIMIT_Y2_EXTIBITMASK 0
+#define PROBE_EXTIMASK 0
+#define PROBE_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>#ifdef LIMIT_Y2
-mcu_config_input(LIMIT_Y2);
-#ifdef LIMIT_Y2_PULLUP
-mcu_config_pullup(LIMIT_Y2);
+        <v>#ifdef PROBE
+mcu_config_input(PROBE);
+#ifdef PROBE_PULLUP
+mcu_config_pullup(PROBE);
 #endif
-#ifdef LIMIT_Y2_ISR
-mcu_config_input_isr(LIMIT_Y2);
+#ifdef PROBE_ISR
+mcu_config_input_isr(PROBE);
 #endif
 #endif</v>
       </c>
@@ -5802,60 +5897,60 @@
         <v>DIO58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_Z2_PORT) &amp;&amp; defined(LIMIT_Z2_BIT))
-#define LIMIT_Z2 58
-#define LIMIT_Z2_APB2EN (__rccapb2gpioen__(LIMIT_Z2_PORT))
-#define LIMIT_Z2_GPIO (__gpio__(LIMIT_Z2_PORT))
-#if (LIMIT_Z2_BIT &lt; 8)
-#define LIMIT_Z2_CROFF LIMIT_Z2_BIT
-#define LIMIT_Z2_CR CRL
+        <v>#if (defined(ESTOP_PORT) &amp;&amp; defined(ESTOP_BIT))
+#define ESTOP 58
+#define ESTOP_APB2EN (__rccapb2gpioen__(ESTOP_PORT))
+#define ESTOP_GPIO (__gpio__(ESTOP_PORT))
+#if (ESTOP_BIT &lt; 8)
+#define ESTOP_CROFF ESTOP_BIT
+#define ESTOP_CR CRL
 #else
-#define LIMIT_Z2_CROFF (LIMIT_Z2_BIT&amp;0x05)
-#define LIMIT_Z2_CR CRH
+#define ESTOP_CROFF (ESTOP_BIT&amp;0x05)
+#define ESTOP_CR CRH
 #endif
 #define DIO58 58
-#define DIO58_PORT LIMIT_Z2_PORT
-#define DIO58_BIT LIMIT_Z2_BIT
-#define DIO58_APB2EN LIMIT_Z2_APB2EN
-#define DIO58_GPIO LIMIT_Z2_GPIO
-#define DIO58_CR LIMIT_Z2_CR
-#define DIO58_CROFF LIMIT_Z2_CROFF
+#define DIO58_PORT ESTOP_PORT
+#define DIO58_BIT ESTOP_BIT
+#define DIO58_APB2EN ESTOP_APB2EN
+#define DIO58_GPIO ESTOP_GPIO
+#define DIO58_CR ESTOP_CR
+#define DIO58_CROFF ESTOP_CROFF
 #endif</v>
       </c>
       <c r="F61" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if (defined(LIMIT_Z2_ISR) &amp;&amp; defined(LIMIT_Z2))
-#define LIMIT_Z2_EXTIREG (LIMIT_Z2_BIT &gt;&gt; 2)
-#define LIMIT_Z2_EXTIBITMASK (1&lt;&lt;LIMIT_Z2_BIT)
-#define LIMIT_Z2_IRQ EXTIRQ(LIMIT_Z2_BIT)
-#define LIMIT_Z2_EXTIVAL ((EXTINT(LIMIT_Z2_PORT)) &lt;&lt; ((LIMIT_Z2_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO58_EXTIREG LIMIT_Z2_EXTIREG
-#define DIO58_EXTIVAL LIMIT_Z2_EXTIVAL
-#define DIO58_IRQ LIMIT_Z2_IRQ
-#define DIO58_EXTIBITMASK LIMIT_Z2_EXTIBITMASK
+        <v>#if (defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
+#define ESTOP_EXTIREG (ESTOP_BIT &gt;&gt; 2)
+#define ESTOP_EXTIBITMASK (1&lt;&lt;ESTOP_BIT)
+#define ESTOP_IRQ EXTIRQ(ESTOP_BIT)
+#define ESTOP_EXTIVAL ((EXTINT(ESTOP_PORT)) &lt;&lt; ((ESTOP_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO58_EXTIREG ESTOP_EXTIREG
+#define DIO58_EXTIVAL ESTOP_EXTIVAL
+#define DIO58_IRQ ESTOP_IRQ
+#define DIO58_EXTIBITMASK ESTOP_EXTIBITMASK
 #else
-#define LIMIT_Z2_EXTIMASK 0
-#define LIMIT_Z2_EXTIBITMASK 0
+#define ESTOP_EXTIMASK 0
+#define ESTOP_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>#ifdef LIMIT_Z2
-mcu_config_input(LIMIT_Z2);
-#ifdef LIMIT_Z2_PULLUP
-mcu_config_pullup(LIMIT_Z2);
+        <v>#ifdef ESTOP
+mcu_config_input(ESTOP);
+#ifdef ESTOP_PULLUP
+mcu_config_pullup(ESTOP);
 #endif
-#ifdef LIMIT_Z2_ISR
-mcu_config_input_isr(LIMIT_Z2);
+#ifdef ESTOP_ISR
+mcu_config_input_isr(ESTOP);
 #endif
 #endif</v>
       </c>
@@ -5888,60 +5983,60 @@
         <v>DIO59</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_A_PORT) &amp;&amp; defined(LIMIT_A_BIT))
-#define LIMIT_A 59
-#define LIMIT_A_APB2EN (__rccapb2gpioen__(LIMIT_A_PORT))
-#define LIMIT_A_GPIO (__gpio__(LIMIT_A_PORT))
-#if (LIMIT_A_BIT &lt; 8)
-#define LIMIT_A_CROFF LIMIT_A_BIT
-#define LIMIT_A_CR CRL
+        <v>#if (defined(SAFETY_DOOR_PORT) &amp;&amp; defined(SAFETY_DOOR_BIT))
+#define SAFETY_DOOR 59
+#define SAFETY_DOOR_APB2EN (__rccapb2gpioen__(SAFETY_DOOR_PORT))
+#define SAFETY_DOOR_GPIO (__gpio__(SAFETY_DOOR_PORT))
+#if (SAFETY_DOOR_BIT &lt; 8)
+#define SAFETY_DOOR_CROFF SAFETY_DOOR_BIT
+#define SAFETY_DOOR_CR CRL
 #else
-#define LIMIT_A_CROFF (LIMIT_A_BIT&amp;0x05)
-#define LIMIT_A_CR CRH
+#define SAFETY_DOOR_CROFF (SAFETY_DOOR_BIT&amp;0x05)
+#define SAFETY_DOOR_CR CRH
 #endif
 #define DIO59 59
-#define DIO59_PORT LIMIT_A_PORT
-#define DIO59_BIT LIMIT_A_BIT
-#define DIO59_APB2EN LIMIT_A_APB2EN
-#define DIO59_GPIO LIMIT_A_GPIO
-#define DIO59_CR LIMIT_A_CR
-#define DIO59_CROFF LIMIT_A_CROFF
+#define DIO59_PORT SAFETY_DOOR_PORT
+#define DIO59_BIT SAFETY_DOOR_BIT
+#define DIO59_APB2EN SAFETY_DOOR_APB2EN
+#define DIO59_GPIO SAFETY_DOOR_GPIO
+#define DIO59_CR SAFETY_DOOR_CR
+#define DIO59_CROFF SAFETY_DOOR_CROFF
 #endif</v>
       </c>
       <c r="F62" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if (defined(LIMIT_A_ISR) &amp;&amp; defined(LIMIT_A))
-#define LIMIT_A_EXTIREG (LIMIT_A_BIT &gt;&gt; 2)
-#define LIMIT_A_EXTIBITMASK (1&lt;&lt;LIMIT_A_BIT)
-#define LIMIT_A_IRQ EXTIRQ(LIMIT_A_BIT)
-#define LIMIT_A_EXTIVAL ((EXTINT(LIMIT_A_PORT)) &lt;&lt; ((LIMIT_A_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO59_EXTIREG LIMIT_A_EXTIREG
-#define DIO59_EXTIVAL LIMIT_A_EXTIVAL
-#define DIO59_IRQ LIMIT_A_IRQ
-#define DIO59_EXTIBITMASK LIMIT_A_EXTIBITMASK
+        <v>#if (defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
+#define SAFETY_DOOR_EXTIREG (SAFETY_DOOR_BIT &gt;&gt; 2)
+#define SAFETY_DOOR_EXTIBITMASK (1&lt;&lt;SAFETY_DOOR_BIT)
+#define SAFETY_DOOR_IRQ EXTIRQ(SAFETY_DOOR_BIT)
+#define SAFETY_DOOR_EXTIVAL ((EXTINT(SAFETY_DOOR_PORT)) &lt;&lt; ((SAFETY_DOOR_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO59_EXTIREG SAFETY_DOOR_EXTIREG
+#define DIO59_EXTIVAL SAFETY_DOOR_EXTIVAL
+#define DIO59_IRQ SAFETY_DOOR_IRQ
+#define DIO59_EXTIBITMASK SAFETY_DOOR_EXTIBITMASK
 #else
-#define LIMIT_A_EXTIMASK 0
-#define LIMIT_A_EXTIBITMASK 0
+#define SAFETY_DOOR_EXTIMASK 0
+#define SAFETY_DOOR_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>#ifdef LIMIT_A
-mcu_config_input(LIMIT_A);
-#ifdef LIMIT_A_PULLUP
-mcu_config_pullup(LIMIT_A);
+        <v>#ifdef SAFETY_DOOR
+mcu_config_input(SAFETY_DOOR);
+#ifdef SAFETY_DOOR_PULLUP
+mcu_config_pullup(SAFETY_DOOR);
 #endif
-#ifdef LIMIT_A_ISR
-mcu_config_input_isr(LIMIT_A);
+#ifdef SAFETY_DOOR_ISR
+mcu_config_input_isr(SAFETY_DOOR);
 #endif
 #endif</v>
       </c>
@@ -5974,60 +6069,60 @@
         <v>DIO60</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_B_PORT) &amp;&amp; defined(LIMIT_B_BIT))
-#define LIMIT_B 60
-#define LIMIT_B_APB2EN (__rccapb2gpioen__(LIMIT_B_PORT))
-#define LIMIT_B_GPIO (__gpio__(LIMIT_B_PORT))
-#if (LIMIT_B_BIT &lt; 8)
-#define LIMIT_B_CROFF LIMIT_B_BIT
-#define LIMIT_B_CR CRL
+        <v>#if (defined(FHOLD_PORT) &amp;&amp; defined(FHOLD_BIT))
+#define FHOLD 60
+#define FHOLD_APB2EN (__rccapb2gpioen__(FHOLD_PORT))
+#define FHOLD_GPIO (__gpio__(FHOLD_PORT))
+#if (FHOLD_BIT &lt; 8)
+#define FHOLD_CROFF FHOLD_BIT
+#define FHOLD_CR CRL
 #else
-#define LIMIT_B_CROFF (LIMIT_B_BIT&amp;0x05)
-#define LIMIT_B_CR CRH
+#define FHOLD_CROFF (FHOLD_BIT&amp;0x05)
+#define FHOLD_CR CRH
 #endif
 #define DIO60 60
-#define DIO60_PORT LIMIT_B_PORT
-#define DIO60_BIT LIMIT_B_BIT
-#define DIO60_APB2EN LIMIT_B_APB2EN
-#define DIO60_GPIO LIMIT_B_GPIO
-#define DIO60_CR LIMIT_B_CR
-#define DIO60_CROFF LIMIT_B_CROFF
+#define DIO60_PORT FHOLD_PORT
+#define DIO60_BIT FHOLD_BIT
+#define DIO60_APB2EN FHOLD_APB2EN
+#define DIO60_GPIO FHOLD_GPIO
+#define DIO60_CR FHOLD_CR
+#define DIO60_CROFF FHOLD_CROFF
 #endif</v>
       </c>
       <c r="F63" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if (defined(LIMIT_B_ISR) &amp;&amp; defined(LIMIT_B))
-#define LIMIT_B_EXTIREG (LIMIT_B_BIT &gt;&gt; 2)
-#define LIMIT_B_EXTIBITMASK (1&lt;&lt;LIMIT_B_BIT)
-#define LIMIT_B_IRQ EXTIRQ(LIMIT_B_BIT)
-#define LIMIT_B_EXTIVAL ((EXTINT(LIMIT_B_PORT)) &lt;&lt; ((LIMIT_B_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO60_EXTIREG LIMIT_B_EXTIREG
-#define DIO60_EXTIVAL LIMIT_B_EXTIVAL
-#define DIO60_IRQ LIMIT_B_IRQ
-#define DIO60_EXTIBITMASK LIMIT_B_EXTIBITMASK
+        <v>#if (defined(FHOLD_ISR) &amp;&amp; defined(FHOLD))
+#define FHOLD_EXTIREG (FHOLD_BIT &gt;&gt; 2)
+#define FHOLD_EXTIBITMASK (1&lt;&lt;FHOLD_BIT)
+#define FHOLD_IRQ EXTIRQ(FHOLD_BIT)
+#define FHOLD_EXTIVAL ((EXTINT(FHOLD_PORT)) &lt;&lt; ((FHOLD_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO60_EXTIREG FHOLD_EXTIREG
+#define DIO60_EXTIVAL FHOLD_EXTIVAL
+#define DIO60_IRQ FHOLD_IRQ
+#define DIO60_EXTIBITMASK FHOLD_EXTIBITMASK
 #else
-#define LIMIT_B_EXTIMASK 0
-#define LIMIT_B_EXTIBITMASK 0
+#define FHOLD_EXTIMASK 0
+#define FHOLD_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>#ifdef LIMIT_B
-mcu_config_input(LIMIT_B);
-#ifdef LIMIT_B_PULLUP
-mcu_config_pullup(LIMIT_B);
+        <v>#ifdef FHOLD
+mcu_config_input(FHOLD);
+#ifdef FHOLD_PULLUP
+mcu_config_pullup(FHOLD);
 #endif
-#ifdef LIMIT_B_ISR
-mcu_config_input_isr(LIMIT_B);
+#ifdef FHOLD_ISR
+mcu_config_input_isr(FHOLD);
 #endif
 #endif</v>
       </c>
@@ -6060,60 +6155,62 @@
         <v>DIO61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(LIMIT_C_PORT) &amp;&amp; defined(LIMIT_C_BIT))
-#define LIMIT_C 61
-#define LIMIT_C_APB2EN (__rccapb2gpioen__(LIMIT_C_PORT))
-#define LIMIT_C_GPIO (__gpio__(LIMIT_C_PORT))
-#if (LIMIT_C_BIT &lt; 8)
-#define LIMIT_C_CROFF LIMIT_C_BIT
-#define LIMIT_C_CR CRL
+        <v>#if (defined(CS_RES_PORT) &amp;&amp; defined(CS_RES_BIT))
+#define CS_RES 61
+#define CS_RES_APB2EN (__rccapb2gpioen__(CS_RES_PORT))
+#define CS_RES_GPIO (__gpio__(CS_RES_PORT))
+#if (CS_RES_BIT &lt; 8)
+#define CS_RES_CROFF CS_RES_BIT
+#define CS_RES_CR CRL
 #else
-#define LIMIT_C_CROFF (LIMIT_C_BIT&amp;0x05)
-#define LIMIT_C_CR CRH
+#define CS_RES_CROFF (CS_RES_BIT&amp;0x05)
+#define CS_RES_CR CRH
 #endif
 #define DIO61 61
-#define DIO61_PORT LIMIT_C_PORT
-#define DIO61_BIT LIMIT_C_BIT
-#define DIO61_APB2EN LIMIT_C_APB2EN
-#define DIO61_GPIO LIMIT_C_GPIO
-#define DIO61_CR LIMIT_C_CR
-#define DIO61_CROFF LIMIT_C_CROFF
+#define DIO61_PORT CS_RES_PORT
+#define DIO61_BIT CS_RES_BIT
+#define DIO61_APB2EN CS_RES_APB2EN
+#define DIO61_GPIO CS_RES_GPIO
+#define DIO61_CR CS_RES_CR
+#define DIO61_CROFF CS_RES_CROFF
 #endif</v>
       </c>
       <c r="F64" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>#if (defined(LIMIT_C_ISR) &amp;&amp; defined(LIMIT_C))
-#define LIMIT_C_EXTIREG (LIMIT_C_BIT &gt;&gt; 2)
-#define LIMIT_C_EXTIBITMASK (1&lt;&lt;LIMIT_C_BIT)
-#define LIMIT_C_IRQ EXTIRQ(LIMIT_C_BIT)
-#define LIMIT_C_EXTIVAL ((EXTINT(LIMIT_C_PORT)) &lt;&lt; ((LIMIT_C_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO61_EXTIREG LIMIT_C_EXTIREG
-#define DIO61_EXTIVAL LIMIT_C_EXTIVAL
-#define DIO61_IRQ LIMIT_C_IRQ
-#define DIO61_EXTIBITMASK LIMIT_C_EXTIBITMASK
+        <v>#if (defined(CS_RES_ISR) &amp;&amp; defined(CS_RES))
+#define CS_RES_EXTIREG (CS_RES_BIT &gt;&gt; 2)
+#define CS_RES_EXTIBITMASK (1&lt;&lt;CS_RES_BIT)
+#define CS_RES_IRQ EXTIRQ(CS_RES_BIT)
+#define CS_RES_EXTIVAL ((EXTINT(CS_RES_PORT)) &lt;&lt; ((CS_RES_BIT &amp; 0x03)&lt;&lt;2))
+#define DIO61_EXTIREG CS_RES_EXTIREG
+#define DIO61_EXTIVAL CS_RES_EXTIVAL
+#define DIO61_IRQ CS_RES_IRQ
+#define DIO61_EXTIBITMASK CS_RES_EXTIBITMASK
 #else
-#define LIMIT_C_EXTIMASK 0
-#define LIMIT_C_EXTIBITMASK 0
+#define CS_RES_EXTIMASK 0
+#define CS_RES_EXTIBITMASK 0
 #endif</v>
       </c>
       <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="H64" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="I64" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>#ifdef LIMIT_C
-mcu_config_input(LIMIT_C);
-#ifdef LIMIT_C_PULLUP
-mcu_config_pullup(LIMIT_C);
+        <v>#ifdef CS_RES
+mcu_config_input(CS_RES);
+#ifdef CS_RES_PULLUP
+mcu_config_pullup(CS_RES);
 #endif
-#ifdef LIMIT_C_ISR
-mcu_config_input_isr(LIMIT_C);
+#ifdef CS_RES_ISR
+mcu_config_input_isr(CS_RES);
 #endif
 #endif</v>
       </c>
@@ -6137,7 +6234,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" s="4" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -6145,62 +6242,52 @@
         <f t="shared" si="0"/>
         <v>DIO62</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="C65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="E65" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(PROBE_PORT) &amp;&amp; defined(PROBE_BIT))
-#define PROBE 62
-#define PROBE_APB2EN (__rccapb2gpioen__(PROBE_PORT))
-#define PROBE_GPIO (__gpio__(PROBE_PORT))
-#if (PROBE_BIT &lt; 8)
-#define PROBE_CROFF PROBE_BIT
-#define PROBE_CR CRL
+        <v>#if (defined(ANALOG0_PORT) &amp;&amp; defined(ANALOG0_BIT))
+#define ANALOG0 62
+#define ANALOG0_APB2EN (__rccapb2gpioen__(ANALOG0_PORT))
+#define ANALOG0_GPIO (__gpio__(ANALOG0_PORT))
+#if (ANALOG0_BIT &lt; 8)
+#define ANALOG0_CROFF ANALOG0_BIT
+#define ANALOG0_CR CRL
 #else
-#define PROBE_CROFF (PROBE_BIT&amp;0x05)
-#define PROBE_CR CRH
+#define ANALOG0_CROFF (ANALOG0_BIT&amp;0x05)
+#define ANALOG0_CR CRH
 #endif
 #define DIO62 62
-#define DIO62_PORT PROBE_PORT
-#define DIO62_BIT PROBE_BIT
-#define DIO62_APB2EN PROBE_APB2EN
-#define DIO62_GPIO PROBE_GPIO
-#define DIO62_CR PROBE_CR
-#define DIO62_CROFF PROBE_CROFF
+#define DIO62_PORT ANALOG0_PORT
+#define DIO62_BIT ANALOG0_BIT
+#define DIO62_APB2EN ANALOG0_APB2EN
+#define DIO62_GPIO ANALOG0_GPIO
+#define DIO62_CR ANALOG0_CR
+#define DIO62_CROFF ANALOG0_CROFF
 #endif</v>
       </c>
-      <c r="F65" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if (defined(PROBE_ISR) &amp;&amp; defined(PROBE))
-#define PROBE_EXTIREG (PROBE_BIT &gt;&gt; 2)
-#define PROBE_EXTIBITMASK (1&lt;&lt;PROBE_BIT)
-#define PROBE_IRQ EXTIRQ(PROBE_BIT)
-#define PROBE_EXTIVAL ((EXTINT(PROBE_PORT)) &lt;&lt; ((PROBE_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO62_EXTIREG PROBE_EXTIREG
-#define DIO62_EXTIVAL PROBE_EXTIVAL
-#define DIO62_IRQ PROBE_IRQ
-#define DIO62_EXTIBITMASK PROBE_EXTIBITMASK
-#else
-#define PROBE_EXTIMASK 0
-#define PROBE_EXTIBITMASK 0
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8" t="str">
+        <f>"#ifdef "&amp;C65&amp;"
+#define "&amp;C65&amp;"_ADMUXREG (1&lt;&lt;"&amp;D65&amp;")
+#define "&amp;B65&amp;"_ADMUXREG (1&lt;&lt;"&amp;D65&amp;")
+#endif"</f>
+        <v>#ifdef ANALOG0
+#define ANALOG0_ADMUXREG (1&lt;&lt;0)
+#define DIO62_ADMUXREG (1&lt;&lt;0)
 #endif</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
       <c r="I65" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifdef PROBE
-mcu_config_input(PROBE);
-#ifdef PROBE_PULLUP
-mcu_config_pullup(PROBE);
-#endif
-#ifdef PROBE_ISR
-mcu_config_input_isr(PROBE);
-#endif
+        <f>"#ifdef "&amp;C65&amp;"
+mcu_config_analog("&amp;C65&amp;");
+#endif"</f>
+        <v>#ifdef ANALOG0
+mcu_config_analog(ANALOG0);
 #endif</v>
       </c>
       <c r="J65" s="3"/>
@@ -6232,61 +6319,51 @@
         <v>DIO63</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(ESTOP_PORT) &amp;&amp; defined(ESTOP_BIT))
-#define ESTOP 63
-#define ESTOP_APB2EN (__rccapb2gpioen__(ESTOP_PORT))
-#define ESTOP_GPIO (__gpio__(ESTOP_PORT))
-#if (ESTOP_BIT &lt; 8)
-#define ESTOP_CROFF ESTOP_BIT
-#define ESTOP_CR CRL
+        <v>#if (defined(ANALOG1_PORT) &amp;&amp; defined(ANALOG1_BIT))
+#define ANALOG1 63
+#define ANALOG1_APB2EN (__rccapb2gpioen__(ANALOG1_PORT))
+#define ANALOG1_GPIO (__gpio__(ANALOG1_PORT))
+#if (ANALOG1_BIT &lt; 8)
+#define ANALOG1_CROFF ANALOG1_BIT
+#define ANALOG1_CR CRL
 #else
-#define ESTOP_CROFF (ESTOP_BIT&amp;0x05)
-#define ESTOP_CR CRH
+#define ANALOG1_CROFF (ANALOG1_BIT&amp;0x05)
+#define ANALOG1_CR CRH
 #endif
 #define DIO63 63
-#define DIO63_PORT ESTOP_PORT
-#define DIO63_BIT ESTOP_BIT
-#define DIO63_APB2EN ESTOP_APB2EN
-#define DIO63_GPIO ESTOP_GPIO
-#define DIO63_CR ESTOP_CR
-#define DIO63_CROFF ESTOP_CROFF
+#define DIO63_PORT ANALOG1_PORT
+#define DIO63_BIT ANALOG1_BIT
+#define DIO63_APB2EN ANALOG1_APB2EN
+#define DIO63_GPIO ANALOG1_GPIO
+#define DIO63_CR ANALOG1_CR
+#define DIO63_CROFF ANALOG1_CROFF
 #endif</v>
       </c>
-      <c r="F66" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if (defined(ESTOP_ISR) &amp;&amp; defined(ESTOP))
-#define ESTOP_EXTIREG (ESTOP_BIT &gt;&gt; 2)
-#define ESTOP_EXTIBITMASK (1&lt;&lt;ESTOP_BIT)
-#define ESTOP_IRQ EXTIRQ(ESTOP_BIT)
-#define ESTOP_EXTIVAL ((EXTINT(ESTOP_PORT)) &lt;&lt; ((ESTOP_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO63_EXTIREG ESTOP_EXTIREG
-#define DIO63_EXTIVAL ESTOP_EXTIVAL
-#define DIO63_IRQ ESTOP_IRQ
-#define DIO63_EXTIBITMASK ESTOP_EXTIBITMASK
-#else
-#define ESTOP_EXTIMASK 0
-#define ESTOP_EXTIBITMASK 0
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8" t="str">
+        <f t="shared" ref="H66:H80" si="8">"#ifdef "&amp;C66&amp;"
+#define "&amp;C66&amp;"_ADMUXREG (1&lt;&lt;"&amp;D66&amp;")
+#define "&amp;B66&amp;"_ADMUXREG (1&lt;&lt;"&amp;D66&amp;")
+#endif"</f>
+        <v>#ifdef ANALOG1
+#define ANALOG1_ADMUXREG (1&lt;&lt;1)
+#define DIO63_ADMUXREG (1&lt;&lt;1)
 #endif</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
       <c r="I66" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifdef ESTOP
-mcu_config_input(ESTOP);
-#ifdef ESTOP_PULLUP
-mcu_config_pullup(ESTOP);
-#endif
-#ifdef ESTOP_ISR
-mcu_config_input_isr(ESTOP);
-#endif
+        <f t="shared" ref="I66:I80" si="9">"#ifdef "&amp;C66&amp;"
+mcu_config_analog("&amp;C66&amp;");
+#endif"</f>
+        <v>#ifdef ANALOG1
+mcu_config_analog(ANALOG1);
 #endif</v>
       </c>
       <c r="J66" s="3"/>
@@ -6318,61 +6395,46 @@
         <v>DIO64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>#if (defined(SAFETY_DOOR_PORT) &amp;&amp; defined(SAFETY_DOOR_BIT))
-#define SAFETY_DOOR 64
-#define SAFETY_DOOR_APB2EN (__rccapb2gpioen__(SAFETY_DOOR_PORT))
-#define SAFETY_DOOR_GPIO (__gpio__(SAFETY_DOOR_PORT))
-#if (SAFETY_DOOR_BIT &lt; 8)
-#define SAFETY_DOOR_CROFF SAFETY_DOOR_BIT
-#define SAFETY_DOOR_CR CRL
+        <v>#if (defined(ANALOG2_PORT) &amp;&amp; defined(ANALOG2_BIT))
+#define ANALOG2 64
+#define ANALOG2_APB2EN (__rccapb2gpioen__(ANALOG2_PORT))
+#define ANALOG2_GPIO (__gpio__(ANALOG2_PORT))
+#if (ANALOG2_BIT &lt; 8)
+#define ANALOG2_CROFF ANALOG2_BIT
+#define ANALOG2_CR CRL
 #else
-#define SAFETY_DOOR_CROFF (SAFETY_DOOR_BIT&amp;0x05)
-#define SAFETY_DOOR_CR CRH
+#define ANALOG2_CROFF (ANALOG2_BIT&amp;0x05)
+#define ANALOG2_CR CRH
 #endif
 #define DIO64 64
-#define DIO64_PORT SAFETY_DOOR_PORT
-#define DIO64_BIT SAFETY_DOOR_BIT
-#define DIO64_APB2EN SAFETY_DOOR_APB2EN
-#define DIO64_GPIO SAFETY_DOOR_GPIO
-#define DIO64_CR SAFETY_DOOR_CR
-#define DIO64_CROFF SAFETY_DOOR_CROFF
+#define DIO64_PORT ANALOG2_PORT
+#define DIO64_BIT ANALOG2_BIT
+#define DIO64_APB2EN ANALOG2_APB2EN
+#define DIO64_GPIO ANALOG2_GPIO
+#define DIO64_CR ANALOG2_CR
+#define DIO64_CROFF ANALOG2_CROFF
 #endif</v>
       </c>
-      <c r="F67" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if (defined(SAFETY_DOOR_ISR) &amp;&amp; defined(SAFETY_DOOR))
-#define SAFETY_DOOR_EXTIREG (SAFETY_DOOR_BIT &gt;&gt; 2)
-#define SAFETY_DOOR_EXTIBITMASK (1&lt;&lt;SAFETY_DOOR_BIT)
-#define SAFETY_DOOR_IRQ EXTIRQ(SAFETY_DOOR_BIT)
-#define SAFETY_DOOR_EXTIVAL ((EXTINT(SAFETY_DOOR_PORT)) &lt;&lt; ((SAFETY_DOOR_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO64_EXTIREG SAFETY_DOOR_EXTIREG
-#define DIO64_EXTIVAL SAFETY_DOOR_EXTIVAL
-#define DIO64_IRQ SAFETY_DOOR_IRQ
-#define DIO64_EXTIBITMASK SAFETY_DOOR_EXTIBITMASK
-#else
-#define SAFETY_DOOR_EXTIMASK 0
-#define SAFETY_DOOR_EXTIBITMASK 0
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG2
+#define ANALOG2_ADMUXREG (1&lt;&lt;2)
+#define DIO64_ADMUXREG (1&lt;&lt;2)
 #endif</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
       <c r="I67" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifdef SAFETY_DOOR
-mcu_config_input(SAFETY_DOOR);
-#ifdef SAFETY_DOOR_PULLUP
-mcu_config_pullup(SAFETY_DOOR);
-#endif
-#ifdef SAFETY_DOOR_ISR
-mcu_config_input_isr(SAFETY_DOOR);
-#endif
+        <f t="shared" si="9"/>
+        <v>#ifdef ANALOG2
+mcu_config_analog(ANALOG2);
 #endif</v>
       </c>
       <c r="J67" s="3"/>
@@ -6404,13 +6466,13 @@
         <v>DIO65</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D68" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f t="shared" ref="E68:E102" si="8">"#if (defined("&amp;C68&amp;"_PORT) &amp;&amp; defined("&amp;C68&amp;"_BIT))
+        <f t="shared" ref="E68:E97" si="10">"#if (defined("&amp;C68&amp;"_PORT) &amp;&amp; defined("&amp;C68&amp;"_BIT))
 #define "&amp;C68&amp;" "&amp;A68&amp;"
 #define "&amp;C68&amp;"_APB2EN (__rccapb2gpioen__("&amp;C68&amp;"_PORT))
 #define "&amp;C68&amp;"_GPIO (__gpio__("&amp;C68&amp;"_PORT))
@@ -6429,54 +6491,39 @@
 #define "&amp;B68&amp;"_CR "&amp;C68&amp;"_CR
 #define "&amp;B68&amp;"_CROFF "&amp;C68&amp;"_CROFF
 #endif"</f>
-        <v>#if (defined(FHOLD_PORT) &amp;&amp; defined(FHOLD_BIT))
-#define FHOLD 65
-#define FHOLD_APB2EN (__rccapb2gpioen__(FHOLD_PORT))
-#define FHOLD_GPIO (__gpio__(FHOLD_PORT))
-#if (FHOLD_BIT &lt; 8)
-#define FHOLD_CROFF FHOLD_BIT
-#define FHOLD_CR CRL
+        <v>#if (defined(ANALOG3_PORT) &amp;&amp; defined(ANALOG3_BIT))
+#define ANALOG3 65
+#define ANALOG3_APB2EN (__rccapb2gpioen__(ANALOG3_PORT))
+#define ANALOG3_GPIO (__gpio__(ANALOG3_PORT))
+#if (ANALOG3_BIT &lt; 8)
+#define ANALOG3_CROFF ANALOG3_BIT
+#define ANALOG3_CR CRL
 #else
-#define FHOLD_CROFF (FHOLD_BIT&amp;0x05)
-#define FHOLD_CR CRH
+#define ANALOG3_CROFF (ANALOG3_BIT&amp;0x05)
+#define ANALOG3_CR CRH
 #endif
 #define DIO65 65
-#define DIO65_PORT FHOLD_PORT
-#define DIO65_BIT FHOLD_BIT
-#define DIO65_APB2EN FHOLD_APB2EN
-#define DIO65_GPIO FHOLD_GPIO
-#define DIO65_CR FHOLD_CR
-#define DIO65_CROFF FHOLD_CROFF
+#define DIO65_PORT ANALOG3_PORT
+#define DIO65_BIT ANALOG3_BIT
+#define DIO65_APB2EN ANALOG3_APB2EN
+#define DIO65_GPIO ANALOG3_GPIO
+#define DIO65_CR ANALOG3_CR
+#define DIO65_CROFF ANALOG3_CROFF
 #endif</v>
       </c>
-      <c r="F68" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if (defined(FHOLD_ISR) &amp;&amp; defined(FHOLD))
-#define FHOLD_EXTIREG (FHOLD_BIT &gt;&gt; 2)
-#define FHOLD_EXTIBITMASK (1&lt;&lt;FHOLD_BIT)
-#define FHOLD_IRQ EXTIRQ(FHOLD_BIT)
-#define FHOLD_EXTIVAL ((EXTINT(FHOLD_PORT)) &lt;&lt; ((FHOLD_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO65_EXTIREG FHOLD_EXTIREG
-#define DIO65_EXTIVAL FHOLD_EXTIVAL
-#define DIO65_IRQ FHOLD_IRQ
-#define DIO65_EXTIBITMASK FHOLD_EXTIBITMASK
-#else
-#define FHOLD_EXTIMASK 0
-#define FHOLD_EXTIBITMASK 0
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG3
+#define ANALOG3_ADMUXREG (1&lt;&lt;3)
+#define DIO65_ADMUXREG (1&lt;&lt;3)
 #endif</v>
       </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
       <c r="I68" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifdef FHOLD
-mcu_config_input(FHOLD);
-#ifdef FHOLD_PULLUP
-mcu_config_pullup(FHOLD);
-#endif
-#ifdef FHOLD_ISR
-mcu_config_input_isr(FHOLD);
-#endif
+        <f t="shared" si="9"/>
+        <v>#ifdef ANALOG3
+mcu_config_analog(ANALOG3);
 #endif</v>
       </c>
       <c r="J68" s="3"/>
@@ -6508,63 +6555,46 @@
         <v>DIO66</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(CS_RES_PORT) &amp;&amp; defined(CS_RES_BIT))
-#define CS_RES 66
-#define CS_RES_APB2EN (__rccapb2gpioen__(CS_RES_PORT))
-#define CS_RES_GPIO (__gpio__(CS_RES_PORT))
-#if (CS_RES_BIT &lt; 8)
-#define CS_RES_CROFF CS_RES_BIT
-#define CS_RES_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG4_PORT) &amp;&amp; defined(ANALOG4_BIT))
+#define ANALOG4 66
+#define ANALOG4_APB2EN (__rccapb2gpioen__(ANALOG4_PORT))
+#define ANALOG4_GPIO (__gpio__(ANALOG4_PORT))
+#if (ANALOG4_BIT &lt; 8)
+#define ANALOG4_CROFF ANALOG4_BIT
+#define ANALOG4_CR CRL
 #else
-#define CS_RES_CROFF (CS_RES_BIT&amp;0x05)
-#define CS_RES_CR CRH
+#define ANALOG4_CROFF (ANALOG4_BIT&amp;0x05)
+#define ANALOG4_CR CRH
 #endif
 #define DIO66 66
-#define DIO66_PORT CS_RES_PORT
-#define DIO66_BIT CS_RES_BIT
-#define DIO66_APB2EN CS_RES_APB2EN
-#define DIO66_GPIO CS_RES_GPIO
-#define DIO66_CR CS_RES_CR
-#define DIO66_CROFF CS_RES_CROFF
+#define DIO66_PORT ANALOG4_PORT
+#define DIO66_BIT ANALOG4_BIT
+#define DIO66_APB2EN ANALOG4_APB2EN
+#define DIO66_GPIO ANALOG4_GPIO
+#define DIO66_CR ANALOG4_CR
+#define DIO66_CROFF ANALOG4_CROFF
 #endif</v>
       </c>
-      <c r="F69" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>#if (defined(CS_RES_ISR) &amp;&amp; defined(CS_RES))
-#define CS_RES_EXTIREG (CS_RES_BIT &gt;&gt; 2)
-#define CS_RES_EXTIBITMASK (1&lt;&lt;CS_RES_BIT)
-#define CS_RES_IRQ EXTIRQ(CS_RES_BIT)
-#define CS_RES_EXTIVAL ((EXTINT(CS_RES_PORT)) &lt;&lt; ((CS_RES_BIT &amp; 0x03)&lt;&lt;2))
-#define DIO66_EXTIREG CS_RES_EXTIREG
-#define DIO66_EXTIVAL CS_RES_EXTIVAL
-#define DIO66_IRQ CS_RES_IRQ
-#define DIO66_EXTIBITMASK CS_RES_EXTIBITMASK
-#else
-#define CS_RES_EXTIMASK 0
-#define CS_RES_EXTIBITMASK 0
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG4
+#define ANALOG4_ADMUXREG (1&lt;&lt;4)
+#define DIO66_ADMUXREG (1&lt;&lt;4)
 #endif</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="I69" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>#ifdef CS_RES
-mcu_config_input(CS_RES);
-#ifdef CS_RES_PULLUP
-mcu_config_pullup(CS_RES);
-#endif
-#ifdef CS_RES_ISR
-mcu_config_input_isr(CS_RES);
-#endif
+        <f t="shared" si="9"/>
+        <v>#ifdef ANALOG4
+mcu_config_analog(ANALOG4);
 #endif</v>
       </c>
       <c r="J69" s="3"/>
@@ -6596,51 +6626,46 @@
         <v>DIO67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E70" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG0_PORT) &amp;&amp; defined(ANALOG0_BIT))
-#define ANALOG0 67
-#define ANALOG0_APB2EN (__rccapb2gpioen__(ANALOG0_PORT))
-#define ANALOG0_GPIO (__gpio__(ANALOG0_PORT))
-#if (ANALOG0_BIT &lt; 8)
-#define ANALOG0_CROFF ANALOG0_BIT
-#define ANALOG0_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG5_PORT) &amp;&amp; defined(ANALOG5_BIT))
+#define ANALOG5 67
+#define ANALOG5_APB2EN (__rccapb2gpioen__(ANALOG5_PORT))
+#define ANALOG5_GPIO (__gpio__(ANALOG5_PORT))
+#if (ANALOG5_BIT &lt; 8)
+#define ANALOG5_CROFF ANALOG5_BIT
+#define ANALOG5_CR CRL
 #else
-#define ANALOG0_CROFF (ANALOG0_BIT&amp;0x05)
-#define ANALOG0_CR CRH
+#define ANALOG5_CROFF (ANALOG5_BIT&amp;0x05)
+#define ANALOG5_CR CRH
 #endif
 #define DIO67 67
-#define DIO67_PORT ANALOG0_PORT
-#define DIO67_BIT ANALOG0_BIT
-#define DIO67_APB2EN ANALOG0_APB2EN
-#define DIO67_GPIO ANALOG0_GPIO
-#define DIO67_CR ANALOG0_CR
-#define DIO67_CROFF ANALOG0_CROFF
+#define DIO67_PORT ANALOG5_PORT
+#define DIO67_BIT ANALOG5_BIT
+#define DIO67_APB2EN ANALOG5_APB2EN
+#define DIO67_GPIO ANALOG5_GPIO
+#define DIO67_CR ANALOG5_CR
+#define DIO67_CROFF ANALOG5_CROFF
 #endif</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="8" t="str">
-        <f>"#ifdef "&amp;C70&amp;"
-#define "&amp;C70&amp;"_ADMUXREG (1&lt;&lt;"&amp;D70&amp;")
-#define "&amp;B70&amp;"_ADMUXREG (1&lt;&lt;"&amp;D70&amp;")
-#endif"</f>
-        <v>#ifdef ANALOG0
-#define ANALOG0_ADMUXREG (1&lt;&lt;0)
-#define DIO67_ADMUXREG (1&lt;&lt;0)
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG5
+#define ANALOG5_ADMUXREG (1&lt;&lt;5)
+#define DIO67_ADMUXREG (1&lt;&lt;5)
 #endif</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f>"#ifdef "&amp;C70&amp;"
-mcu_config_analog("&amp;C70&amp;");
-#endif"</f>
-        <v>#ifdef ANALOG0
-mcu_config_analog(ANALOG0);
+        <f t="shared" si="9"/>
+        <v>#ifdef ANALOG5
+mcu_config_analog(ANALOG5);
 #endif</v>
       </c>
       <c r="J70" s="3"/>
@@ -6672,51 +6697,46 @@
         <v>DIO68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E71" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG1_PORT) &amp;&amp; defined(ANALOG1_BIT))
-#define ANALOG1 68
-#define ANALOG1_APB2EN (__rccapb2gpioen__(ANALOG1_PORT))
-#define ANALOG1_GPIO (__gpio__(ANALOG1_PORT))
-#if (ANALOG1_BIT &lt; 8)
-#define ANALOG1_CROFF ANALOG1_BIT
-#define ANALOG1_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG6_PORT) &amp;&amp; defined(ANALOG6_BIT))
+#define ANALOG6 68
+#define ANALOG6_APB2EN (__rccapb2gpioen__(ANALOG6_PORT))
+#define ANALOG6_GPIO (__gpio__(ANALOG6_PORT))
+#if (ANALOG6_BIT &lt; 8)
+#define ANALOG6_CROFF ANALOG6_BIT
+#define ANALOG6_CR CRL
 #else
-#define ANALOG1_CROFF (ANALOG1_BIT&amp;0x05)
-#define ANALOG1_CR CRH
+#define ANALOG6_CROFF (ANALOG6_BIT&amp;0x05)
+#define ANALOG6_CR CRH
 #endif
 #define DIO68 68
-#define DIO68_PORT ANALOG1_PORT
-#define DIO68_BIT ANALOG1_BIT
-#define DIO68_APB2EN ANALOG1_APB2EN
-#define DIO68_GPIO ANALOG1_GPIO
-#define DIO68_CR ANALOG1_CR
-#define DIO68_CROFF ANALOG1_CROFF
+#define DIO68_PORT ANALOG6_PORT
+#define DIO68_BIT ANALOG6_BIT
+#define DIO68_APB2EN ANALOG6_APB2EN
+#define DIO68_GPIO ANALOG6_GPIO
+#define DIO68_CR ANALOG6_CR
+#define DIO68_CROFF ANALOG6_CROFF
 #endif</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="8" t="str">
-        <f t="shared" ref="H71:H85" si="9">"#ifdef "&amp;C71&amp;"
-#define "&amp;C71&amp;"_ADMUXREG (1&lt;&lt;"&amp;D71&amp;")
-#define "&amp;B71&amp;"_ADMUXREG (1&lt;&lt;"&amp;D71&amp;")
-#endif"</f>
-        <v>#ifdef ANALOG1
-#define ANALOG1_ADMUXREG (1&lt;&lt;1)
-#define DIO68_ADMUXREG (1&lt;&lt;1)
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG6
+#define ANALOG6_ADMUXREG (1&lt;&lt;6)
+#define DIO68_ADMUXREG (1&lt;&lt;6)
 #endif</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f t="shared" ref="I71:I85" si="10">"#ifdef "&amp;C71&amp;"
-mcu_config_analog("&amp;C71&amp;");
-#endif"</f>
-        <v>#ifdef ANALOG1
-mcu_config_analog(ANALOG1);
+        <f t="shared" si="9"/>
+        <v>#ifdef ANALOG6
+mcu_config_analog(ANALOG6);
 #endif</v>
       </c>
       <c r="J71" s="3"/>
@@ -6748,46 +6768,46 @@
         <v>DIO69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E72" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG2_PORT) &amp;&amp; defined(ANALOG2_BIT))
-#define ANALOG2 69
-#define ANALOG2_APB2EN (__rccapb2gpioen__(ANALOG2_PORT))
-#define ANALOG2_GPIO (__gpio__(ANALOG2_PORT))
-#if (ANALOG2_BIT &lt; 8)
-#define ANALOG2_CROFF ANALOG2_BIT
-#define ANALOG2_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG7_PORT) &amp;&amp; defined(ANALOG7_BIT))
+#define ANALOG7 69
+#define ANALOG7_APB2EN (__rccapb2gpioen__(ANALOG7_PORT))
+#define ANALOG7_GPIO (__gpio__(ANALOG7_PORT))
+#if (ANALOG7_BIT &lt; 8)
+#define ANALOG7_CROFF ANALOG7_BIT
+#define ANALOG7_CR CRL
 #else
-#define ANALOG2_CROFF (ANALOG2_BIT&amp;0x05)
-#define ANALOG2_CR CRH
+#define ANALOG7_CROFF (ANALOG7_BIT&amp;0x05)
+#define ANALOG7_CR CRH
 #endif
 #define DIO69 69
-#define DIO69_PORT ANALOG2_PORT
-#define DIO69_BIT ANALOG2_BIT
-#define DIO69_APB2EN ANALOG2_APB2EN
-#define DIO69_GPIO ANALOG2_GPIO
-#define DIO69_CR ANALOG2_CR
-#define DIO69_CROFF ANALOG2_CROFF
+#define DIO69_PORT ANALOG7_PORT
+#define DIO69_BIT ANALOG7_BIT
+#define DIO69_APB2EN ANALOG7_APB2EN
+#define DIO69_GPIO ANALOG7_GPIO
+#define DIO69_CR ANALOG7_CR
+#define DIO69_CROFF ANALOG7_CROFF
 #endif</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG7
+#define ANALOG7_ADMUXREG (1&lt;&lt;7)
+#define DIO69_ADMUXREG (1&lt;&lt;7)
+#endif</v>
+      </c>
+      <c r="I72" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG2
-#define ANALOG2_ADMUXREG (1&lt;&lt;2)
-#define DIO69_ADMUXREG (1&lt;&lt;2)
-#endif</v>
-      </c>
-      <c r="I72" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG2
-mcu_config_analog(ANALOG2);
+        <v>#ifdef ANALOG7
+mcu_config_analog(ANALOG7);
 #endif</v>
       </c>
       <c r="J72" s="3"/>
@@ -6819,46 +6839,46 @@
         <v>DIO70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E73" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG3_PORT) &amp;&amp; defined(ANALOG3_BIT))
-#define ANALOG3 70
-#define ANALOG3_APB2EN (__rccapb2gpioen__(ANALOG3_PORT))
-#define ANALOG3_GPIO (__gpio__(ANALOG3_PORT))
-#if (ANALOG3_BIT &lt; 8)
-#define ANALOG3_CROFF ANALOG3_BIT
-#define ANALOG3_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG8_PORT) &amp;&amp; defined(ANALOG8_BIT))
+#define ANALOG8 70
+#define ANALOG8_APB2EN (__rccapb2gpioen__(ANALOG8_PORT))
+#define ANALOG8_GPIO (__gpio__(ANALOG8_PORT))
+#if (ANALOG8_BIT &lt; 8)
+#define ANALOG8_CROFF ANALOG8_BIT
+#define ANALOG8_CR CRL
 #else
-#define ANALOG3_CROFF (ANALOG3_BIT&amp;0x05)
-#define ANALOG3_CR CRH
+#define ANALOG8_CROFF (ANALOG8_BIT&amp;0x05)
+#define ANALOG8_CR CRH
 #endif
 #define DIO70 70
-#define DIO70_PORT ANALOG3_PORT
-#define DIO70_BIT ANALOG3_BIT
-#define DIO70_APB2EN ANALOG3_APB2EN
-#define DIO70_GPIO ANALOG3_GPIO
-#define DIO70_CR ANALOG3_CR
-#define DIO70_CROFF ANALOG3_CROFF
+#define DIO70_PORT ANALOG8_PORT
+#define DIO70_BIT ANALOG8_BIT
+#define DIO70_APB2EN ANALOG8_APB2EN
+#define DIO70_GPIO ANALOG8_GPIO
+#define DIO70_CR ANALOG8_CR
+#define DIO70_CROFF ANALOG8_CROFF
 #endif</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG8
+#define ANALOG8_ADMUXREG (1&lt;&lt;8)
+#define DIO70_ADMUXREG (1&lt;&lt;8)
+#endif</v>
+      </c>
+      <c r="I73" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG3
-#define ANALOG3_ADMUXREG (1&lt;&lt;3)
-#define DIO70_ADMUXREG (1&lt;&lt;3)
-#endif</v>
-      </c>
-      <c r="I73" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG3
-mcu_config_analog(ANALOG3);
+        <v>#ifdef ANALOG8
+mcu_config_analog(ANALOG8);
 #endif</v>
       </c>
       <c r="J73" s="3"/>
@@ -6890,46 +6910,46 @@
         <v>DIO71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E74" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG4_PORT) &amp;&amp; defined(ANALOG4_BIT))
-#define ANALOG4 71
-#define ANALOG4_APB2EN (__rccapb2gpioen__(ANALOG4_PORT))
-#define ANALOG4_GPIO (__gpio__(ANALOG4_PORT))
-#if (ANALOG4_BIT &lt; 8)
-#define ANALOG4_CROFF ANALOG4_BIT
-#define ANALOG4_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG9_PORT) &amp;&amp; defined(ANALOG9_BIT))
+#define ANALOG9 71
+#define ANALOG9_APB2EN (__rccapb2gpioen__(ANALOG9_PORT))
+#define ANALOG9_GPIO (__gpio__(ANALOG9_PORT))
+#if (ANALOG9_BIT &lt; 8)
+#define ANALOG9_CROFF ANALOG9_BIT
+#define ANALOG9_CR CRL
 #else
-#define ANALOG4_CROFF (ANALOG4_BIT&amp;0x05)
-#define ANALOG4_CR CRH
+#define ANALOG9_CROFF (ANALOG9_BIT&amp;0x05)
+#define ANALOG9_CR CRH
 #endif
 #define DIO71 71
-#define DIO71_PORT ANALOG4_PORT
-#define DIO71_BIT ANALOG4_BIT
-#define DIO71_APB2EN ANALOG4_APB2EN
-#define DIO71_GPIO ANALOG4_GPIO
-#define DIO71_CR ANALOG4_CR
-#define DIO71_CROFF ANALOG4_CROFF
+#define DIO71_PORT ANALOG9_PORT
+#define DIO71_BIT ANALOG9_BIT
+#define DIO71_APB2EN ANALOG9_APB2EN
+#define DIO71_GPIO ANALOG9_GPIO
+#define DIO71_CR ANALOG9_CR
+#define DIO71_CROFF ANALOG9_CROFF
 #endif</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG9
+#define ANALOG9_ADMUXREG (1&lt;&lt;9)
+#define DIO71_ADMUXREG (1&lt;&lt;9)
+#endif</v>
+      </c>
+      <c r="I74" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG4
-#define ANALOG4_ADMUXREG (1&lt;&lt;4)
-#define DIO71_ADMUXREG (1&lt;&lt;4)
-#endif</v>
-      </c>
-      <c r="I74" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG4
-mcu_config_analog(ANALOG4);
+        <v>#ifdef ANALOG9
+mcu_config_analog(ANALOG9);
 #endif</v>
       </c>
       <c r="J74" s="3"/>
@@ -6961,46 +6981,46 @@
         <v>DIO72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E75" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG5_PORT) &amp;&amp; defined(ANALOG5_BIT))
-#define ANALOG5 72
-#define ANALOG5_APB2EN (__rccapb2gpioen__(ANALOG5_PORT))
-#define ANALOG5_GPIO (__gpio__(ANALOG5_PORT))
-#if (ANALOG5_BIT &lt; 8)
-#define ANALOG5_CROFF ANALOG5_BIT
-#define ANALOG5_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG10_PORT) &amp;&amp; defined(ANALOG10_BIT))
+#define ANALOG10 72
+#define ANALOG10_APB2EN (__rccapb2gpioen__(ANALOG10_PORT))
+#define ANALOG10_GPIO (__gpio__(ANALOG10_PORT))
+#if (ANALOG10_BIT &lt; 8)
+#define ANALOG10_CROFF ANALOG10_BIT
+#define ANALOG10_CR CRL
 #else
-#define ANALOG5_CROFF (ANALOG5_BIT&amp;0x05)
-#define ANALOG5_CR CRH
+#define ANALOG10_CROFF (ANALOG10_BIT&amp;0x05)
+#define ANALOG10_CR CRH
 #endif
 #define DIO72 72
-#define DIO72_PORT ANALOG5_PORT
-#define DIO72_BIT ANALOG5_BIT
-#define DIO72_APB2EN ANALOG5_APB2EN
-#define DIO72_GPIO ANALOG5_GPIO
-#define DIO72_CR ANALOG5_CR
-#define DIO72_CROFF ANALOG5_CROFF
+#define DIO72_PORT ANALOG10_PORT
+#define DIO72_BIT ANALOG10_BIT
+#define DIO72_APB2EN ANALOG10_APB2EN
+#define DIO72_GPIO ANALOG10_GPIO
+#define DIO72_CR ANALOG10_CR
+#define DIO72_CROFF ANALOG10_CROFF
 #endif</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG10
+#define ANALOG10_ADMUXREG (1&lt;&lt;10)
+#define DIO72_ADMUXREG (1&lt;&lt;10)
+#endif</v>
+      </c>
+      <c r="I75" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG5
-#define ANALOG5_ADMUXREG (1&lt;&lt;5)
-#define DIO72_ADMUXREG (1&lt;&lt;5)
-#endif</v>
-      </c>
-      <c r="I75" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG5
-mcu_config_analog(ANALOG5);
+        <v>#ifdef ANALOG10
+mcu_config_analog(ANALOG10);
 #endif</v>
       </c>
       <c r="J75" s="3"/>
@@ -7032,46 +7052,46 @@
         <v>DIO73</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E76" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG6_PORT) &amp;&amp; defined(ANALOG6_BIT))
-#define ANALOG6 73
-#define ANALOG6_APB2EN (__rccapb2gpioen__(ANALOG6_PORT))
-#define ANALOG6_GPIO (__gpio__(ANALOG6_PORT))
-#if (ANALOG6_BIT &lt; 8)
-#define ANALOG6_CROFF ANALOG6_BIT
-#define ANALOG6_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG11_PORT) &amp;&amp; defined(ANALOG11_BIT))
+#define ANALOG11 73
+#define ANALOG11_APB2EN (__rccapb2gpioen__(ANALOG11_PORT))
+#define ANALOG11_GPIO (__gpio__(ANALOG11_PORT))
+#if (ANALOG11_BIT &lt; 8)
+#define ANALOG11_CROFF ANALOG11_BIT
+#define ANALOG11_CR CRL
 #else
-#define ANALOG6_CROFF (ANALOG6_BIT&amp;0x05)
-#define ANALOG6_CR CRH
+#define ANALOG11_CROFF (ANALOG11_BIT&amp;0x05)
+#define ANALOG11_CR CRH
 #endif
 #define DIO73 73
-#define DIO73_PORT ANALOG6_PORT
-#define DIO73_BIT ANALOG6_BIT
-#define DIO73_APB2EN ANALOG6_APB2EN
-#define DIO73_GPIO ANALOG6_GPIO
-#define DIO73_CR ANALOG6_CR
-#define DIO73_CROFF ANALOG6_CROFF
+#define DIO73_PORT ANALOG11_PORT
+#define DIO73_BIT ANALOG11_BIT
+#define DIO73_APB2EN ANALOG11_APB2EN
+#define DIO73_GPIO ANALOG11_GPIO
+#define DIO73_CR ANALOG11_CR
+#define DIO73_CROFF ANALOG11_CROFF
 #endif</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG11
+#define ANALOG11_ADMUXREG (1&lt;&lt;11)
+#define DIO73_ADMUXREG (1&lt;&lt;11)
+#endif</v>
+      </c>
+      <c r="I76" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG6
-#define ANALOG6_ADMUXREG (1&lt;&lt;6)
-#define DIO73_ADMUXREG (1&lt;&lt;6)
-#endif</v>
-      </c>
-      <c r="I76" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG6
-mcu_config_analog(ANALOG6);
+        <v>#ifdef ANALOG11
+mcu_config_analog(ANALOG11);
 #endif</v>
       </c>
       <c r="J76" s="3"/>
@@ -7103,46 +7123,46 @@
         <v>DIO74</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG7_PORT) &amp;&amp; defined(ANALOG7_BIT))
-#define ANALOG7 74
-#define ANALOG7_APB2EN (__rccapb2gpioen__(ANALOG7_PORT))
-#define ANALOG7_GPIO (__gpio__(ANALOG7_PORT))
-#if (ANALOG7_BIT &lt; 8)
-#define ANALOG7_CROFF ANALOG7_BIT
-#define ANALOG7_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG12_PORT) &amp;&amp; defined(ANALOG12_BIT))
+#define ANALOG12 74
+#define ANALOG12_APB2EN (__rccapb2gpioen__(ANALOG12_PORT))
+#define ANALOG12_GPIO (__gpio__(ANALOG12_PORT))
+#if (ANALOG12_BIT &lt; 8)
+#define ANALOG12_CROFF ANALOG12_BIT
+#define ANALOG12_CR CRL
 #else
-#define ANALOG7_CROFF (ANALOG7_BIT&amp;0x05)
-#define ANALOG7_CR CRH
+#define ANALOG12_CROFF (ANALOG12_BIT&amp;0x05)
+#define ANALOG12_CR CRH
 #endif
 #define DIO74 74
-#define DIO74_PORT ANALOG7_PORT
-#define DIO74_BIT ANALOG7_BIT
-#define DIO74_APB2EN ANALOG7_APB2EN
-#define DIO74_GPIO ANALOG7_GPIO
-#define DIO74_CR ANALOG7_CR
-#define DIO74_CROFF ANALOG7_CROFF
+#define DIO74_PORT ANALOG12_PORT
+#define DIO74_BIT ANALOG12_BIT
+#define DIO74_APB2EN ANALOG12_APB2EN
+#define DIO74_GPIO ANALOG12_GPIO
+#define DIO74_CR ANALOG12_CR
+#define DIO74_CROFF ANALOG12_CROFF
 #endif</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG12
+#define ANALOG12_ADMUXREG (1&lt;&lt;12)
+#define DIO74_ADMUXREG (1&lt;&lt;12)
+#endif</v>
+      </c>
+      <c r="I77" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG7
-#define ANALOG7_ADMUXREG (1&lt;&lt;7)
-#define DIO74_ADMUXREG (1&lt;&lt;7)
-#endif</v>
-      </c>
-      <c r="I77" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG7
-mcu_config_analog(ANALOG7);
+        <v>#ifdef ANALOG12
+mcu_config_analog(ANALOG12);
 #endif</v>
       </c>
       <c r="J77" s="3"/>
@@ -7174,46 +7194,46 @@
         <v>DIO75</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG8_PORT) &amp;&amp; defined(ANALOG8_BIT))
-#define ANALOG8 75
-#define ANALOG8_APB2EN (__rccapb2gpioen__(ANALOG8_PORT))
-#define ANALOG8_GPIO (__gpio__(ANALOG8_PORT))
-#if (ANALOG8_BIT &lt; 8)
-#define ANALOG8_CROFF ANALOG8_BIT
-#define ANALOG8_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG13_PORT) &amp;&amp; defined(ANALOG13_BIT))
+#define ANALOG13 75
+#define ANALOG13_APB2EN (__rccapb2gpioen__(ANALOG13_PORT))
+#define ANALOG13_GPIO (__gpio__(ANALOG13_PORT))
+#if (ANALOG13_BIT &lt; 8)
+#define ANALOG13_CROFF ANALOG13_BIT
+#define ANALOG13_CR CRL
 #else
-#define ANALOG8_CROFF (ANALOG8_BIT&amp;0x05)
-#define ANALOG8_CR CRH
+#define ANALOG13_CROFF (ANALOG13_BIT&amp;0x05)
+#define ANALOG13_CR CRH
 #endif
 #define DIO75 75
-#define DIO75_PORT ANALOG8_PORT
-#define DIO75_BIT ANALOG8_BIT
-#define DIO75_APB2EN ANALOG8_APB2EN
-#define DIO75_GPIO ANALOG8_GPIO
-#define DIO75_CR ANALOG8_CR
-#define DIO75_CROFF ANALOG8_CROFF
+#define DIO75_PORT ANALOG13_PORT
+#define DIO75_BIT ANALOG13_BIT
+#define DIO75_APB2EN ANALOG13_APB2EN
+#define DIO75_GPIO ANALOG13_GPIO
+#define DIO75_CR ANALOG13_CR
+#define DIO75_CROFF ANALOG13_CROFF
 #endif</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG13
+#define ANALOG13_ADMUXREG (1&lt;&lt;13)
+#define DIO75_ADMUXREG (1&lt;&lt;13)
+#endif</v>
+      </c>
+      <c r="I78" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG8
-#define ANALOG8_ADMUXREG (1&lt;&lt;8)
-#define DIO75_ADMUXREG (1&lt;&lt;8)
-#endif</v>
-      </c>
-      <c r="I78" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG8
-mcu_config_analog(ANALOG8);
+        <v>#ifdef ANALOG13
+mcu_config_analog(ANALOG13);
 #endif</v>
       </c>
       <c r="J78" s="3"/>
@@ -7245,46 +7265,46 @@
         <v>DIO76</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG9_PORT) &amp;&amp; defined(ANALOG9_BIT))
-#define ANALOG9 76
-#define ANALOG9_APB2EN (__rccapb2gpioen__(ANALOG9_PORT))
-#define ANALOG9_GPIO (__gpio__(ANALOG9_PORT))
-#if (ANALOG9_BIT &lt; 8)
-#define ANALOG9_CROFF ANALOG9_BIT
-#define ANALOG9_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG14_PORT) &amp;&amp; defined(ANALOG14_BIT))
+#define ANALOG14 76
+#define ANALOG14_APB2EN (__rccapb2gpioen__(ANALOG14_PORT))
+#define ANALOG14_GPIO (__gpio__(ANALOG14_PORT))
+#if (ANALOG14_BIT &lt; 8)
+#define ANALOG14_CROFF ANALOG14_BIT
+#define ANALOG14_CR CRL
 #else
-#define ANALOG9_CROFF (ANALOG9_BIT&amp;0x05)
-#define ANALOG9_CR CRH
+#define ANALOG14_CROFF (ANALOG14_BIT&amp;0x05)
+#define ANALOG14_CR CRH
 #endif
 #define DIO76 76
-#define DIO76_PORT ANALOG9_PORT
-#define DIO76_BIT ANALOG9_BIT
-#define DIO76_APB2EN ANALOG9_APB2EN
-#define DIO76_GPIO ANALOG9_GPIO
-#define DIO76_CR ANALOG9_CR
-#define DIO76_CROFF ANALOG9_CROFF
+#define DIO76_PORT ANALOG14_PORT
+#define DIO76_BIT ANALOG14_BIT
+#define DIO76_APB2EN ANALOG14_APB2EN
+#define DIO76_GPIO ANALOG14_GPIO
+#define DIO76_CR ANALOG14_CR
+#define DIO76_CROFF ANALOG14_CROFF
 #endif</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG14
+#define ANALOG14_ADMUXREG (1&lt;&lt;14)
+#define DIO76_ADMUXREG (1&lt;&lt;14)
+#endif</v>
+      </c>
+      <c r="I79" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG9
-#define ANALOG9_ADMUXREG (1&lt;&lt;9)
-#define DIO76_ADMUXREG (1&lt;&lt;9)
-#endif</v>
-      </c>
-      <c r="I79" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG9
-mcu_config_analog(ANALOG9);
+        <v>#ifdef ANALOG14
+mcu_config_analog(ANALOG14);
 #endif</v>
       </c>
       <c r="J79" s="3"/>
@@ -7316,46 +7336,46 @@
         <v>DIO77</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG10_PORT) &amp;&amp; defined(ANALOG10_BIT))
-#define ANALOG10 77
-#define ANALOG10_APB2EN (__rccapb2gpioen__(ANALOG10_PORT))
-#define ANALOG10_GPIO (__gpio__(ANALOG10_PORT))
-#if (ANALOG10_BIT &lt; 8)
-#define ANALOG10_CROFF ANALOG10_BIT
-#define ANALOG10_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(ANALOG15_PORT) &amp;&amp; defined(ANALOG15_BIT))
+#define ANALOG15 77
+#define ANALOG15_APB2EN (__rccapb2gpioen__(ANALOG15_PORT))
+#define ANALOG15_GPIO (__gpio__(ANALOG15_PORT))
+#if (ANALOG15_BIT &lt; 8)
+#define ANALOG15_CROFF ANALOG15_BIT
+#define ANALOG15_CR CRL
 #else
-#define ANALOG10_CROFF (ANALOG10_BIT&amp;0x05)
-#define ANALOG10_CR CRH
+#define ANALOG15_CROFF (ANALOG15_BIT&amp;0x05)
+#define ANALOG15_CR CRH
 #endif
 #define DIO77 77
-#define DIO77_PORT ANALOG10_PORT
-#define DIO77_BIT ANALOG10_BIT
-#define DIO77_APB2EN ANALOG10_APB2EN
-#define DIO77_GPIO ANALOG10_GPIO
-#define DIO77_CR ANALOG10_CR
-#define DIO77_CROFF ANALOG10_CROFF
+#define DIO77_PORT ANALOG15_PORT
+#define DIO77_BIT ANALOG15_BIT
+#define DIO77_APB2EN ANALOG15_APB2EN
+#define DIO77_GPIO ANALOG15_GPIO
+#define DIO77_CR ANALOG15_CR
+#define DIO77_CROFF ANALOG15_CROFF
 #endif</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>#ifdef ANALOG15
+#define ANALOG15_ADMUXREG (1&lt;&lt;15)
+#define DIO77_ADMUXREG (1&lt;&lt;15)
+#endif</v>
+      </c>
+      <c r="I80" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>#ifdef ANALOG10
-#define ANALOG10_ADMUXREG (1&lt;&lt;10)
-#define DIO77_ADMUXREG (1&lt;&lt;10)
-#endif</v>
-      </c>
-      <c r="I80" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG10
-mcu_config_analog(ANALOG10);
+        <v>#ifdef ANALOG15
+mcu_config_analog(ANALOG15);
 #endif</v>
       </c>
       <c r="J80" s="3"/>
@@ -7387,48 +7407,37 @@
         <v>DIO78</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG11_PORT) &amp;&amp; defined(ANALOG11_BIT))
-#define ANALOG11 78
-#define ANALOG11_APB2EN (__rccapb2gpioen__(ANALOG11_PORT))
-#define ANALOG11_GPIO (__gpio__(ANALOG11_PORT))
-#if (ANALOG11_BIT &lt; 8)
-#define ANALOG11_CROFF ANALOG11_BIT
-#define ANALOG11_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(RX_PORT) &amp;&amp; defined(RX_BIT))
+#define RX 78
+#define RX_APB2EN (__rccapb2gpioen__(RX_PORT))
+#define RX_GPIO (__gpio__(RX_PORT))
+#if (RX_BIT &lt; 8)
+#define RX_CROFF RX_BIT
+#define RX_CR CRL
 #else
-#define ANALOG11_CROFF (ANALOG11_BIT&amp;0x05)
-#define ANALOG11_CR CRH
+#define RX_CROFF (RX_BIT&amp;0x05)
+#define RX_CR CRH
 #endif
 #define DIO78 78
-#define DIO78_PORT ANALOG11_PORT
-#define DIO78_BIT ANALOG11_BIT
-#define DIO78_APB2EN ANALOG11_APB2EN
-#define DIO78_GPIO ANALOG11_GPIO
-#define DIO78_CR ANALOG11_CR
-#define DIO78_CROFF ANALOG11_CROFF
+#define DIO78_PORT RX_PORT
+#define DIO78_BIT RX_BIT
+#define DIO78_APB2EN RX_APB2EN
+#define DIO78_GPIO RX_GPIO
+#define DIO78_CR RX_CR
+#define DIO78_CROFF RX_CROFF
 #endif</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef ANALOG11
-#define ANALOG11_ADMUXREG (1&lt;&lt;11)
-#define DIO78_ADMUXREG (1&lt;&lt;11)
-#endif</v>
-      </c>
-      <c r="I81" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG11
-mcu_config_analog(ANALOG11);
-#endif</v>
-      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -7457,47 +7466,49 @@
         <f t="shared" si="0"/>
         <v>DIO79</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="3">
-        <v>12</v>
+      <c r="C82" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG12_PORT) &amp;&amp; defined(ANALOG12_BIT))
-#define ANALOG12 79
-#define ANALOG12_APB2EN (__rccapb2gpioen__(ANALOG12_PORT))
-#define ANALOG12_GPIO (__gpio__(ANALOG12_PORT))
-#if (ANALOG12_BIT &lt; 8)
-#define ANALOG12_CROFF ANALOG12_BIT
-#define ANALOG12_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN0_PORT) &amp;&amp; defined(DIN0_BIT))
+#define DIN0 79
+#define DIN0_APB2EN (__rccapb2gpioen__(DIN0_PORT))
+#define DIN0_GPIO (__gpio__(DIN0_PORT))
+#if (DIN0_BIT &lt; 8)
+#define DIN0_CROFF DIN0_BIT
+#define DIN0_CR CRL
 #else
-#define ANALOG12_CROFF (ANALOG12_BIT&amp;0x05)
-#define ANALOG12_CR CRH
+#define DIN0_CROFF (DIN0_BIT&amp;0x05)
+#define DIN0_CR CRH
 #endif
 #define DIO79 79
-#define DIO79_PORT ANALOG12_PORT
-#define DIO79_BIT ANALOG12_BIT
-#define DIO79_APB2EN ANALOG12_APB2EN
-#define DIO79_GPIO ANALOG12_GPIO
-#define DIO79_CR ANALOG12_CR
-#define DIO79_CROFF ANALOG12_CROFF
+#define DIO79_PORT DIN0_PORT
+#define DIO79_BIT DIN0_BIT
+#define DIO79_APB2EN DIN0_APB2EN
+#define DIO79_GPIO DIN0_GPIO
+#define DIO79_CR DIN0_CR
+#define DIO79_CROFF DIN0_CROFF
 #endif</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef ANALOG12
-#define ANALOG12_ADMUXREG (1&lt;&lt;12)
-#define DIO79_ADMUXREG (1&lt;&lt;12)
-#endif</v>
-      </c>
+      <c r="H82" s="6"/>
       <c r="I82" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG12
-mcu_config_analog(ANALOG12);
+        <f>"#ifdef "&amp;C82&amp;"
+mcu_config_input("&amp;C82&amp;");
+#ifdef "&amp;C82&amp;"_PULLUP
+mcu_config_pullup("&amp;C82&amp;");
+#endif
+#endif"</f>
+        <v>#ifdef DIN0
+mcu_config_input(DIN0);
+#ifdef DIN0_PULLUP
+mcu_config_pullup(DIN0);
+#endif
 #endif</v>
       </c>
       <c r="J82" s="3"/>
@@ -7528,47 +7539,49 @@
         <f t="shared" si="0"/>
         <v>DIO80</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="3">
-        <v>13</v>
+      <c r="C83" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
       </c>
       <c r="E83" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG13_PORT) &amp;&amp; defined(ANALOG13_BIT))
-#define ANALOG13 80
-#define ANALOG13_APB2EN (__rccapb2gpioen__(ANALOG13_PORT))
-#define ANALOG13_GPIO (__gpio__(ANALOG13_PORT))
-#if (ANALOG13_BIT &lt; 8)
-#define ANALOG13_CROFF ANALOG13_BIT
-#define ANALOG13_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN1_PORT) &amp;&amp; defined(DIN1_BIT))
+#define DIN1 80
+#define DIN1_APB2EN (__rccapb2gpioen__(DIN1_PORT))
+#define DIN1_GPIO (__gpio__(DIN1_PORT))
+#if (DIN1_BIT &lt; 8)
+#define DIN1_CROFF DIN1_BIT
+#define DIN1_CR CRL
 #else
-#define ANALOG13_CROFF (ANALOG13_BIT&amp;0x05)
-#define ANALOG13_CR CRH
+#define DIN1_CROFF (DIN1_BIT&amp;0x05)
+#define DIN1_CR CRH
 #endif
 #define DIO80 80
-#define DIO80_PORT ANALOG13_PORT
-#define DIO80_BIT ANALOG13_BIT
-#define DIO80_APB2EN ANALOG13_APB2EN
-#define DIO80_GPIO ANALOG13_GPIO
-#define DIO80_CR ANALOG13_CR
-#define DIO80_CROFF ANALOG13_CROFF
+#define DIO80_PORT DIN1_PORT
+#define DIO80_BIT DIN1_BIT
+#define DIO80_APB2EN DIN1_APB2EN
+#define DIO80_GPIO DIN1_GPIO
+#define DIO80_CR DIN1_CR
+#define DIO80_CROFF DIN1_CROFF
 #endif</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef ANALOG13
-#define ANALOG13_ADMUXREG (1&lt;&lt;13)
-#define DIO80_ADMUXREG (1&lt;&lt;13)
-#endif</v>
-      </c>
+      <c r="H83" s="6"/>
       <c r="I83" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG13
-mcu_config_analog(ANALOG13);
+        <f t="shared" ref="I83:I97" si="11">"#ifdef "&amp;C83&amp;"
+mcu_config_input("&amp;C83&amp;");
+#ifdef "&amp;C83&amp;"_PULLUP
+mcu_config_pullup("&amp;C83&amp;");
+#endif
+#endif"</f>
+        <v>#ifdef DIN1
+mcu_config_input(DIN1);
+#ifdef DIN1_PULLUP
+mcu_config_pullup(DIN1);
+#endif
 #endif</v>
       </c>
       <c r="J83" s="3"/>
@@ -7599,47 +7612,44 @@
         <f t="shared" si="0"/>
         <v>DIO81</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="3">
-        <v>14</v>
+      <c r="C84" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2</v>
       </c>
       <c r="E84" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG14_PORT) &amp;&amp; defined(ANALOG14_BIT))
-#define ANALOG14 81
-#define ANALOG14_APB2EN (__rccapb2gpioen__(ANALOG14_PORT))
-#define ANALOG14_GPIO (__gpio__(ANALOG14_PORT))
-#if (ANALOG14_BIT &lt; 8)
-#define ANALOG14_CROFF ANALOG14_BIT
-#define ANALOG14_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN2_PORT) &amp;&amp; defined(DIN2_BIT))
+#define DIN2 81
+#define DIN2_APB2EN (__rccapb2gpioen__(DIN2_PORT))
+#define DIN2_GPIO (__gpio__(DIN2_PORT))
+#if (DIN2_BIT &lt; 8)
+#define DIN2_CROFF DIN2_BIT
+#define DIN2_CR CRL
 #else
-#define ANALOG14_CROFF (ANALOG14_BIT&amp;0x05)
-#define ANALOG14_CR CRH
+#define DIN2_CROFF (DIN2_BIT&amp;0x05)
+#define DIN2_CR CRH
 #endif
 #define DIO81 81
-#define DIO81_PORT ANALOG14_PORT
-#define DIO81_BIT ANALOG14_BIT
-#define DIO81_APB2EN ANALOG14_APB2EN
-#define DIO81_GPIO ANALOG14_GPIO
-#define DIO81_CR ANALOG14_CR
-#define DIO81_CROFF ANALOG14_CROFF
+#define DIO81_PORT DIN2_PORT
+#define DIO81_BIT DIN2_BIT
+#define DIO81_APB2EN DIN2_APB2EN
+#define DIO81_GPIO DIN2_GPIO
+#define DIO81_CR DIN2_CR
+#define DIO81_CROFF DIN2_CROFF
 #endif</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef ANALOG14
-#define ANALOG14_ADMUXREG (1&lt;&lt;14)
-#define DIO81_ADMUXREG (1&lt;&lt;14)
-#endif</v>
-      </c>
+      <c r="H84" s="6"/>
       <c r="I84" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG14
-mcu_config_analog(ANALOG14);
+        <f t="shared" si="11"/>
+        <v>#ifdef DIN2
+mcu_config_input(DIN2);
+#ifdef DIN2_PULLUP
+mcu_config_pullup(DIN2);
+#endif
 #endif</v>
       </c>
       <c r="J84" s="3"/>
@@ -7670,47 +7680,44 @@
         <f t="shared" si="0"/>
         <v>DIO82</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="3">
-        <v>15</v>
+      <c r="C85" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="7">
+        <v>3</v>
       </c>
       <c r="E85" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(ANALOG15_PORT) &amp;&amp; defined(ANALOG15_BIT))
-#define ANALOG15 82
-#define ANALOG15_APB2EN (__rccapb2gpioen__(ANALOG15_PORT))
-#define ANALOG15_GPIO (__gpio__(ANALOG15_PORT))
-#if (ANALOG15_BIT &lt; 8)
-#define ANALOG15_CROFF ANALOG15_BIT
-#define ANALOG15_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN3_PORT) &amp;&amp; defined(DIN3_BIT))
+#define DIN3 82
+#define DIN3_APB2EN (__rccapb2gpioen__(DIN3_PORT))
+#define DIN3_GPIO (__gpio__(DIN3_PORT))
+#if (DIN3_BIT &lt; 8)
+#define DIN3_CROFF DIN3_BIT
+#define DIN3_CR CRL
 #else
-#define ANALOG15_CROFF (ANALOG15_BIT&amp;0x05)
-#define ANALOG15_CR CRH
+#define DIN3_CROFF (DIN3_BIT&amp;0x05)
+#define DIN3_CR CRH
 #endif
 #define DIO82 82
-#define DIO82_PORT ANALOG15_PORT
-#define DIO82_BIT ANALOG15_BIT
-#define DIO82_APB2EN ANALOG15_APB2EN
-#define DIO82_GPIO ANALOG15_GPIO
-#define DIO82_CR ANALOG15_CR
-#define DIO82_CROFF ANALOG15_CROFF
+#define DIO82_PORT DIN3_PORT
+#define DIO82_BIT DIN3_BIT
+#define DIO82_APB2EN DIN3_APB2EN
+#define DIO82_GPIO DIN3_GPIO
+#define DIO82_CR DIN3_CR
+#define DIO82_CROFF DIN3_CROFF
 #endif</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>#ifdef ANALOG15
-#define ANALOG15_ADMUXREG (1&lt;&lt;15)
-#define DIO82_ADMUXREG (1&lt;&lt;15)
-#endif</v>
-      </c>
+      <c r="H85" s="6"/>
       <c r="I85" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>#ifdef ANALOG15
-mcu_config_analog(ANALOG15);
+        <f t="shared" si="11"/>
+        <v>#ifdef DIN3
+mcu_config_input(DIN3);
+#ifdef DIN3_PULLUP
+mcu_config_pullup(DIN3);
+#endif
 #endif</v>
       </c>
       <c r="J85" s="3"/>
@@ -7741,38 +7748,46 @@
         <f t="shared" si="0"/>
         <v>DIO83</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0</v>
+      <c r="C86" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="7">
+        <v>4</v>
       </c>
       <c r="E86" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(RX_PORT) &amp;&amp; defined(RX_BIT))
-#define RX 83
-#define RX_APB2EN (__rccapb2gpioen__(RX_PORT))
-#define RX_GPIO (__gpio__(RX_PORT))
-#if (RX_BIT &lt; 8)
-#define RX_CROFF RX_BIT
-#define RX_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN4_PORT) &amp;&amp; defined(DIN4_BIT))
+#define DIN4 83
+#define DIN4_APB2EN (__rccapb2gpioen__(DIN4_PORT))
+#define DIN4_GPIO (__gpio__(DIN4_PORT))
+#if (DIN4_BIT &lt; 8)
+#define DIN4_CROFF DIN4_BIT
+#define DIN4_CR CRL
 #else
-#define RX_CROFF (RX_BIT&amp;0x05)
-#define RX_CR CRH
+#define DIN4_CROFF (DIN4_BIT&amp;0x05)
+#define DIN4_CR CRH
 #endif
 #define DIO83 83
-#define DIO83_PORT RX_PORT
-#define DIO83_BIT RX_BIT
-#define DIO83_APB2EN RX_APB2EN
-#define DIO83_GPIO RX_GPIO
-#define DIO83_CR RX_CR
-#define DIO83_CROFF RX_CROFF
+#define DIO83_PORT DIN4_PORT
+#define DIO83_BIT DIN4_BIT
+#define DIO83_APB2EN DIN4_APB2EN
+#define DIO83_GPIO DIN4_GPIO
+#define DIO83_CR DIN4_CR
+#define DIO83_CROFF DIN4_CROFF
 #endif</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="3"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>#ifdef DIN4
+mcu_config_input(DIN4);
+#ifdef DIN4_PULLUP
+mcu_config_pullup(DIN4);
+#endif
+#endif</v>
+      </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -7802,47 +7817,42 @@
         <v>DIO84</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E87" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN0_PORT) &amp;&amp; defined(DIN0_BIT))
-#define DIN0 84
-#define DIN0_APB2EN (__rccapb2gpioen__(DIN0_PORT))
-#define DIN0_GPIO (__gpio__(DIN0_PORT))
-#if (DIN0_BIT &lt; 8)
-#define DIN0_CROFF DIN0_BIT
-#define DIN0_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN5_PORT) &amp;&amp; defined(DIN5_BIT))
+#define DIN5 84
+#define DIN5_APB2EN (__rccapb2gpioen__(DIN5_PORT))
+#define DIN5_GPIO (__gpio__(DIN5_PORT))
+#if (DIN5_BIT &lt; 8)
+#define DIN5_CROFF DIN5_BIT
+#define DIN5_CR CRL
 #else
-#define DIN0_CROFF (DIN0_BIT&amp;0x05)
-#define DIN0_CR CRH
+#define DIN5_CROFF (DIN5_BIT&amp;0x05)
+#define DIN5_CR CRH
 #endif
 #define DIO84 84
-#define DIO84_PORT DIN0_PORT
-#define DIO84_BIT DIN0_BIT
-#define DIO84_APB2EN DIN0_APB2EN
-#define DIO84_GPIO DIN0_GPIO
-#define DIO84_CR DIN0_CR
-#define DIO84_CROFF DIN0_CROFF
+#define DIO84_PORT DIN5_PORT
+#define DIO84_BIT DIN5_BIT
+#define DIO84_APB2EN DIN5_APB2EN
+#define DIO84_GPIO DIN5_GPIO
+#define DIO84_CR DIN5_CR
+#define DIO84_CROFF DIN5_CROFF
 #endif</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="3" t="str">
-        <f>"#ifdef "&amp;C87&amp;"
-mcu_config_input("&amp;C87&amp;");
-#ifdef "&amp;C87&amp;"_PULLUP
-mcu_config_pullup("&amp;C87&amp;");
-#endif
-#endif"</f>
-        <v>#ifdef DIN0
-mcu_config_input(DIN0);
-#ifdef DIN0_PULLUP
-mcu_config_pullup(DIN0);
+        <f t="shared" si="11"/>
+        <v>#ifdef DIN5
+mcu_config_input(DIN5);
+#ifdef DIN5_PULLUP
+mcu_config_pullup(DIN5);
 #endif
 #endif</v>
       </c>
@@ -7875,47 +7885,42 @@
         <v>DIO85</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E88" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN1_PORT) &amp;&amp; defined(DIN1_BIT))
-#define DIN1 85
-#define DIN1_APB2EN (__rccapb2gpioen__(DIN1_PORT))
-#define DIN1_GPIO (__gpio__(DIN1_PORT))
-#if (DIN1_BIT &lt; 8)
-#define DIN1_CROFF DIN1_BIT
-#define DIN1_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN6_PORT) &amp;&amp; defined(DIN6_BIT))
+#define DIN6 85
+#define DIN6_APB2EN (__rccapb2gpioen__(DIN6_PORT))
+#define DIN6_GPIO (__gpio__(DIN6_PORT))
+#if (DIN6_BIT &lt; 8)
+#define DIN6_CROFF DIN6_BIT
+#define DIN6_CR CRL
 #else
-#define DIN1_CROFF (DIN1_BIT&amp;0x05)
-#define DIN1_CR CRH
+#define DIN6_CROFF (DIN6_BIT&amp;0x05)
+#define DIN6_CR CRH
 #endif
 #define DIO85 85
-#define DIO85_PORT DIN1_PORT
-#define DIO85_BIT DIN1_BIT
-#define DIO85_APB2EN DIN1_APB2EN
-#define DIO85_GPIO DIN1_GPIO
-#define DIO85_CR DIN1_CR
-#define DIO85_CROFF DIN1_CROFF
+#define DIO85_PORT DIN6_PORT
+#define DIO85_BIT DIN6_BIT
+#define DIO85_APB2EN DIN6_APB2EN
+#define DIO85_GPIO DIN6_GPIO
+#define DIO85_CR DIN6_CR
+#define DIO85_CROFF DIN6_CROFF
 #endif</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="3" t="str">
-        <f t="shared" ref="I88:I102" si="11">"#ifdef "&amp;C88&amp;"
-mcu_config_input("&amp;C88&amp;");
-#ifdef "&amp;C88&amp;"_PULLUP
-mcu_config_pullup("&amp;C88&amp;");
-#endif
-#endif"</f>
-        <v>#ifdef DIN1
-mcu_config_input(DIN1);
-#ifdef DIN1_PULLUP
-mcu_config_pullup(DIN1);
+        <f t="shared" si="11"/>
+        <v>#ifdef DIN6
+mcu_config_input(DIN6);
+#ifdef DIN6_PULLUP
+mcu_config_pullup(DIN6);
 #endif
 #endif</v>
       </c>
@@ -7948,31 +7953,31 @@
         <v>DIO86</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E89" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN2_PORT) &amp;&amp; defined(DIN2_BIT))
-#define DIN2 86
-#define DIN2_APB2EN (__rccapb2gpioen__(DIN2_PORT))
-#define DIN2_GPIO (__gpio__(DIN2_PORT))
-#if (DIN2_BIT &lt; 8)
-#define DIN2_CROFF DIN2_BIT
-#define DIN2_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN7_PORT) &amp;&amp; defined(DIN7_BIT))
+#define DIN7 86
+#define DIN7_APB2EN (__rccapb2gpioen__(DIN7_PORT))
+#define DIN7_GPIO (__gpio__(DIN7_PORT))
+#if (DIN7_BIT &lt; 8)
+#define DIN7_CROFF DIN7_BIT
+#define DIN7_CR CRL
 #else
-#define DIN2_CROFF (DIN2_BIT&amp;0x05)
-#define DIN2_CR CRH
+#define DIN7_CROFF (DIN7_BIT&amp;0x05)
+#define DIN7_CR CRH
 #endif
 #define DIO86 86
-#define DIO86_PORT DIN2_PORT
-#define DIO86_BIT DIN2_BIT
-#define DIO86_APB2EN DIN2_APB2EN
-#define DIO86_GPIO DIN2_GPIO
-#define DIO86_CR DIN2_CR
-#define DIO86_CROFF DIN2_CROFF
+#define DIO86_PORT DIN7_PORT
+#define DIO86_BIT DIN7_BIT
+#define DIO86_APB2EN DIN7_APB2EN
+#define DIO86_GPIO DIN7_GPIO
+#define DIO86_CR DIN7_CR
+#define DIO86_CROFF DIN7_CROFF
 #endif</v>
       </c>
       <c r="F89" s="6"/>
@@ -7980,10 +7985,10 @@
       <c r="H89" s="6"/>
       <c r="I89" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN2
-mcu_config_input(DIN2);
-#ifdef DIN2_PULLUP
-mcu_config_pullup(DIN2);
+        <v>#ifdef DIN7
+mcu_config_input(DIN7);
+#ifdef DIN7_PULLUP
+mcu_config_pullup(DIN7);
 #endif
 #endif</v>
       </c>
@@ -8016,31 +8021,31 @@
         <v>DIO87</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E90" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN3_PORT) &amp;&amp; defined(DIN3_BIT))
-#define DIN3 87
-#define DIN3_APB2EN (__rccapb2gpioen__(DIN3_PORT))
-#define DIN3_GPIO (__gpio__(DIN3_PORT))
-#if (DIN3_BIT &lt; 8)
-#define DIN3_CROFF DIN3_BIT
-#define DIN3_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN8_PORT) &amp;&amp; defined(DIN8_BIT))
+#define DIN8 87
+#define DIN8_APB2EN (__rccapb2gpioen__(DIN8_PORT))
+#define DIN8_GPIO (__gpio__(DIN8_PORT))
+#if (DIN8_BIT &lt; 8)
+#define DIN8_CROFF DIN8_BIT
+#define DIN8_CR CRL
 #else
-#define DIN3_CROFF (DIN3_BIT&amp;0x05)
-#define DIN3_CR CRH
+#define DIN8_CROFF (DIN8_BIT&amp;0x05)
+#define DIN8_CR CRH
 #endif
 #define DIO87 87
-#define DIO87_PORT DIN3_PORT
-#define DIO87_BIT DIN3_BIT
-#define DIO87_APB2EN DIN3_APB2EN
-#define DIO87_GPIO DIN3_GPIO
-#define DIO87_CR DIN3_CR
-#define DIO87_CROFF DIN3_CROFF
+#define DIO87_PORT DIN8_PORT
+#define DIO87_BIT DIN8_BIT
+#define DIO87_APB2EN DIN8_APB2EN
+#define DIO87_GPIO DIN8_GPIO
+#define DIO87_CR DIN8_CR
+#define DIO87_CROFF DIN8_CROFF
 #endif</v>
       </c>
       <c r="F90" s="6"/>
@@ -8048,10 +8053,10 @@
       <c r="H90" s="6"/>
       <c r="I90" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN3
-mcu_config_input(DIN3);
-#ifdef DIN3_PULLUP
-mcu_config_pullup(DIN3);
+        <v>#ifdef DIN8
+mcu_config_input(DIN8);
+#ifdef DIN8_PULLUP
+mcu_config_pullup(DIN8);
 #endif
 #endif</v>
       </c>
@@ -8084,31 +8089,31 @@
         <v>DIO88</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E91" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN4_PORT) &amp;&amp; defined(DIN4_BIT))
-#define DIN4 88
-#define DIN4_APB2EN (__rccapb2gpioen__(DIN4_PORT))
-#define DIN4_GPIO (__gpio__(DIN4_PORT))
-#if (DIN4_BIT &lt; 8)
-#define DIN4_CROFF DIN4_BIT
-#define DIN4_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN9_PORT) &amp;&amp; defined(DIN9_BIT))
+#define DIN9 88
+#define DIN9_APB2EN (__rccapb2gpioen__(DIN9_PORT))
+#define DIN9_GPIO (__gpio__(DIN9_PORT))
+#if (DIN9_BIT &lt; 8)
+#define DIN9_CROFF DIN9_BIT
+#define DIN9_CR CRL
 #else
-#define DIN4_CROFF (DIN4_BIT&amp;0x05)
-#define DIN4_CR CRH
+#define DIN9_CROFF (DIN9_BIT&amp;0x05)
+#define DIN9_CR CRH
 #endif
 #define DIO88 88
-#define DIO88_PORT DIN4_PORT
-#define DIO88_BIT DIN4_BIT
-#define DIO88_APB2EN DIN4_APB2EN
-#define DIO88_GPIO DIN4_GPIO
-#define DIO88_CR DIN4_CR
-#define DIO88_CROFF DIN4_CROFF
+#define DIO88_PORT DIN9_PORT
+#define DIO88_BIT DIN9_BIT
+#define DIO88_APB2EN DIN9_APB2EN
+#define DIO88_GPIO DIN9_GPIO
+#define DIO88_CR DIN9_CR
+#define DIO88_CROFF DIN9_CROFF
 #endif</v>
       </c>
       <c r="F91" s="6"/>
@@ -8116,10 +8121,10 @@
       <c r="H91" s="6"/>
       <c r="I91" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN4
-mcu_config_input(DIN4);
-#ifdef DIN4_PULLUP
-mcu_config_pullup(DIN4);
+        <v>#ifdef DIN9
+mcu_config_input(DIN9);
+#ifdef DIN9_PULLUP
+mcu_config_pullup(DIN9);
 #endif
 #endif</v>
       </c>
@@ -8152,31 +8157,31 @@
         <v>DIO89</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E92" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN5_PORT) &amp;&amp; defined(DIN5_BIT))
-#define DIN5 89
-#define DIN5_APB2EN (__rccapb2gpioen__(DIN5_PORT))
-#define DIN5_GPIO (__gpio__(DIN5_PORT))
-#if (DIN5_BIT &lt; 8)
-#define DIN5_CROFF DIN5_BIT
-#define DIN5_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN10_PORT) &amp;&amp; defined(DIN10_BIT))
+#define DIN10 89
+#define DIN10_APB2EN (__rccapb2gpioen__(DIN10_PORT))
+#define DIN10_GPIO (__gpio__(DIN10_PORT))
+#if (DIN10_BIT &lt; 8)
+#define DIN10_CROFF DIN10_BIT
+#define DIN10_CR CRL
 #else
-#define DIN5_CROFF (DIN5_BIT&amp;0x05)
-#define DIN5_CR CRH
+#define DIN10_CROFF (DIN10_BIT&amp;0x05)
+#define DIN10_CR CRH
 #endif
 #define DIO89 89
-#define DIO89_PORT DIN5_PORT
-#define DIO89_BIT DIN5_BIT
-#define DIO89_APB2EN DIN5_APB2EN
-#define DIO89_GPIO DIN5_GPIO
-#define DIO89_CR DIN5_CR
-#define DIO89_CROFF DIN5_CROFF
+#define DIO89_PORT DIN10_PORT
+#define DIO89_BIT DIN10_BIT
+#define DIO89_APB2EN DIN10_APB2EN
+#define DIO89_GPIO DIN10_GPIO
+#define DIO89_CR DIN10_CR
+#define DIO89_CROFF DIN10_CROFF
 #endif</v>
       </c>
       <c r="F92" s="6"/>
@@ -8184,10 +8189,10 @@
       <c r="H92" s="6"/>
       <c r="I92" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN5
-mcu_config_input(DIN5);
-#ifdef DIN5_PULLUP
-mcu_config_pullup(DIN5);
+        <v>#ifdef DIN10
+mcu_config_input(DIN10);
+#ifdef DIN10_PULLUP
+mcu_config_pullup(DIN10);
 #endif
 #endif</v>
       </c>
@@ -8220,31 +8225,31 @@
         <v>DIO90</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E93" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN6_PORT) &amp;&amp; defined(DIN6_BIT))
-#define DIN6 90
-#define DIN6_APB2EN (__rccapb2gpioen__(DIN6_PORT))
-#define DIN6_GPIO (__gpio__(DIN6_PORT))
-#if (DIN6_BIT &lt; 8)
-#define DIN6_CROFF DIN6_BIT
-#define DIN6_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN11_PORT) &amp;&amp; defined(DIN11_BIT))
+#define DIN11 90
+#define DIN11_APB2EN (__rccapb2gpioen__(DIN11_PORT))
+#define DIN11_GPIO (__gpio__(DIN11_PORT))
+#if (DIN11_BIT &lt; 8)
+#define DIN11_CROFF DIN11_BIT
+#define DIN11_CR CRL
 #else
-#define DIN6_CROFF (DIN6_BIT&amp;0x05)
-#define DIN6_CR CRH
+#define DIN11_CROFF (DIN11_BIT&amp;0x05)
+#define DIN11_CR CRH
 #endif
 #define DIO90 90
-#define DIO90_PORT DIN6_PORT
-#define DIO90_BIT DIN6_BIT
-#define DIO90_APB2EN DIN6_APB2EN
-#define DIO90_GPIO DIN6_GPIO
-#define DIO90_CR DIN6_CR
-#define DIO90_CROFF DIN6_CROFF
+#define DIO90_PORT DIN11_PORT
+#define DIO90_BIT DIN11_BIT
+#define DIO90_APB2EN DIN11_APB2EN
+#define DIO90_GPIO DIN11_GPIO
+#define DIO90_CR DIN11_CR
+#define DIO90_CROFF DIN11_CROFF
 #endif</v>
       </c>
       <c r="F93" s="6"/>
@@ -8252,10 +8257,10 @@
       <c r="H93" s="6"/>
       <c r="I93" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN6
-mcu_config_input(DIN6);
-#ifdef DIN6_PULLUP
-mcu_config_pullup(DIN6);
+        <v>#ifdef DIN11
+mcu_config_input(DIN11);
+#ifdef DIN11_PULLUP
+mcu_config_pullup(DIN11);
 #endif
 #endif</v>
       </c>
@@ -8288,31 +8293,31 @@
         <v>DIO91</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E94" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN7_PORT) &amp;&amp; defined(DIN7_BIT))
-#define DIN7 91
-#define DIN7_APB2EN (__rccapb2gpioen__(DIN7_PORT))
-#define DIN7_GPIO (__gpio__(DIN7_PORT))
-#if (DIN7_BIT &lt; 8)
-#define DIN7_CROFF DIN7_BIT
-#define DIN7_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN12_PORT) &amp;&amp; defined(DIN12_BIT))
+#define DIN12 91
+#define DIN12_APB2EN (__rccapb2gpioen__(DIN12_PORT))
+#define DIN12_GPIO (__gpio__(DIN12_PORT))
+#if (DIN12_BIT &lt; 8)
+#define DIN12_CROFF DIN12_BIT
+#define DIN12_CR CRL
 #else
-#define DIN7_CROFF (DIN7_BIT&amp;0x05)
-#define DIN7_CR CRH
+#define DIN12_CROFF (DIN12_BIT&amp;0x05)
+#define DIN12_CR CRH
 #endif
 #define DIO91 91
-#define DIO91_PORT DIN7_PORT
-#define DIO91_BIT DIN7_BIT
-#define DIO91_APB2EN DIN7_APB2EN
-#define DIO91_GPIO DIN7_GPIO
-#define DIO91_CR DIN7_CR
-#define DIO91_CROFF DIN7_CROFF
+#define DIO91_PORT DIN12_PORT
+#define DIO91_BIT DIN12_BIT
+#define DIO91_APB2EN DIN12_APB2EN
+#define DIO91_GPIO DIN12_GPIO
+#define DIO91_CR DIN12_CR
+#define DIO91_CROFF DIN12_CROFF
 #endif</v>
       </c>
       <c r="F94" s="6"/>
@@ -8320,10 +8325,10 @@
       <c r="H94" s="6"/>
       <c r="I94" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN7
-mcu_config_input(DIN7);
-#ifdef DIN7_PULLUP
-mcu_config_pullup(DIN7);
+        <v>#ifdef DIN12
+mcu_config_input(DIN12);
+#ifdef DIN12_PULLUP
+mcu_config_pullup(DIN12);
 #endif
 #endif</v>
       </c>
@@ -8356,31 +8361,31 @@
         <v>DIO92</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E95" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN8_PORT) &amp;&amp; defined(DIN8_BIT))
-#define DIN8 92
-#define DIN8_APB2EN (__rccapb2gpioen__(DIN8_PORT))
-#define DIN8_GPIO (__gpio__(DIN8_PORT))
-#if (DIN8_BIT &lt; 8)
-#define DIN8_CROFF DIN8_BIT
-#define DIN8_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN13_PORT) &amp;&amp; defined(DIN13_BIT))
+#define DIN13 92
+#define DIN13_APB2EN (__rccapb2gpioen__(DIN13_PORT))
+#define DIN13_GPIO (__gpio__(DIN13_PORT))
+#if (DIN13_BIT &lt; 8)
+#define DIN13_CROFF DIN13_BIT
+#define DIN13_CR CRL
 #else
-#define DIN8_CROFF (DIN8_BIT&amp;0x05)
-#define DIN8_CR CRH
+#define DIN13_CROFF (DIN13_BIT&amp;0x05)
+#define DIN13_CR CRH
 #endif
 #define DIO92 92
-#define DIO92_PORT DIN8_PORT
-#define DIO92_BIT DIN8_BIT
-#define DIO92_APB2EN DIN8_APB2EN
-#define DIO92_GPIO DIN8_GPIO
-#define DIO92_CR DIN8_CR
-#define DIO92_CROFF DIN8_CROFF
+#define DIO92_PORT DIN13_PORT
+#define DIO92_BIT DIN13_BIT
+#define DIO92_APB2EN DIN13_APB2EN
+#define DIO92_GPIO DIN13_GPIO
+#define DIO92_CR DIN13_CR
+#define DIO92_CROFF DIN13_CROFF
 #endif</v>
       </c>
       <c r="F95" s="6"/>
@@ -8388,10 +8393,10 @@
       <c r="H95" s="6"/>
       <c r="I95" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN8
-mcu_config_input(DIN8);
-#ifdef DIN8_PULLUP
-mcu_config_pullup(DIN8);
+        <v>#ifdef DIN13
+mcu_config_input(DIN13);
+#ifdef DIN13_PULLUP
+mcu_config_pullup(DIN13);
 #endif
 #endif</v>
       </c>
@@ -8424,31 +8429,31 @@
         <v>DIO93</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E96" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN9_PORT) &amp;&amp; defined(DIN9_BIT))
-#define DIN9 93
-#define DIN9_APB2EN (__rccapb2gpioen__(DIN9_PORT))
-#define DIN9_GPIO (__gpio__(DIN9_PORT))
-#if (DIN9_BIT &lt; 8)
-#define DIN9_CROFF DIN9_BIT
-#define DIN9_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN14_PORT) &amp;&amp; defined(DIN14_BIT))
+#define DIN14 93
+#define DIN14_APB2EN (__rccapb2gpioen__(DIN14_PORT))
+#define DIN14_GPIO (__gpio__(DIN14_PORT))
+#if (DIN14_BIT &lt; 8)
+#define DIN14_CROFF DIN14_BIT
+#define DIN14_CR CRL
 #else
-#define DIN9_CROFF (DIN9_BIT&amp;0x05)
-#define DIN9_CR CRH
+#define DIN14_CROFF (DIN14_BIT&amp;0x05)
+#define DIN14_CR CRH
 #endif
 #define DIO93 93
-#define DIO93_PORT DIN9_PORT
-#define DIO93_BIT DIN9_BIT
-#define DIO93_APB2EN DIN9_APB2EN
-#define DIO93_GPIO DIN9_GPIO
-#define DIO93_CR DIN9_CR
-#define DIO93_CROFF DIN9_CROFF
+#define DIO93_PORT DIN14_PORT
+#define DIO93_BIT DIN14_BIT
+#define DIO93_APB2EN DIN14_APB2EN
+#define DIO93_GPIO DIN14_GPIO
+#define DIO93_CR DIN14_CR
+#define DIO93_CROFF DIN14_CROFF
 #endif</v>
       </c>
       <c r="F96" s="6"/>
@@ -8456,10 +8461,10 @@
       <c r="H96" s="6"/>
       <c r="I96" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN9
-mcu_config_input(DIN9);
-#ifdef DIN9_PULLUP
-mcu_config_pullup(DIN9);
+        <v>#ifdef DIN14
+mcu_config_input(DIN14);
+#ifdef DIN14_PULLUP
+mcu_config_pullup(DIN14);
 #endif
 #endif</v>
       </c>
@@ -8483,7 +8488,7 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
     </row>
-    <row r="97" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" s="4" customFormat="1" ht="315.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -8492,31 +8497,31 @@
         <v>DIO94</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E97" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN10_PORT) &amp;&amp; defined(DIN10_BIT))
-#define DIN10 94
-#define DIN10_APB2EN (__rccapb2gpioen__(DIN10_PORT))
-#define DIN10_GPIO (__gpio__(DIN10_PORT))
-#if (DIN10_BIT &lt; 8)
-#define DIN10_CROFF DIN10_BIT
-#define DIN10_CR CRL
+        <f t="shared" si="10"/>
+        <v>#if (defined(DIN15_PORT) &amp;&amp; defined(DIN15_BIT))
+#define DIN15 94
+#define DIN15_APB2EN (__rccapb2gpioen__(DIN15_PORT))
+#define DIN15_GPIO (__gpio__(DIN15_PORT))
+#if (DIN15_BIT &lt; 8)
+#define DIN15_CROFF DIN15_BIT
+#define DIN15_CR CRL
 #else
-#define DIN10_CROFF (DIN10_BIT&amp;0x05)
-#define DIN10_CR CRH
+#define DIN15_CROFF (DIN15_BIT&amp;0x05)
+#define DIN15_CR CRH
 #endif
 #define DIO94 94
-#define DIO94_PORT DIN10_PORT
-#define DIO94_BIT DIN10_BIT
-#define DIO94_APB2EN DIN10_APB2EN
-#define DIO94_GPIO DIN10_GPIO
-#define DIO94_CR DIN10_CR
-#define DIO94_CROFF DIN10_CROFF
+#define DIO94_PORT DIN15_PORT
+#define DIO94_BIT DIN15_BIT
+#define DIO94_APB2EN DIN15_APB2EN
+#define DIO94_GPIO DIN15_GPIO
+#define DIO94_CR DIN15_CR
+#define DIO94_CROFF DIN15_CROFF
 #endif</v>
       </c>
       <c r="F97" s="6"/>
@@ -8524,10 +8529,10 @@
       <c r="H97" s="6"/>
       <c r="I97" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>#ifdef DIN10
-mcu_config_input(DIN10);
-#ifdef DIN10_PULLUP
-mcu_config_pullup(DIN10);
+        <v>#ifdef DIN15
+mcu_config_input(DIN15);
+#ifdef DIN15_PULLUP
+mcu_config_pullup(DIN15);
 #endif
 #endif</v>
       </c>
@@ -8551,345 +8556,155 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>95</v>
-      </c>
-      <c r="B98" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO95</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="7">
-        <v>11</v>
-      </c>
-      <c r="E98" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN11_PORT) &amp;&amp; defined(DIN11_BIT))
-#define DIN11 95
-#define DIN11_APB2EN (__rccapb2gpioen__(DIN11_PORT))
-#define DIN11_GPIO (__gpio__(DIN11_PORT))
-#if (DIN11_BIT &lt; 8)
-#define DIN11_CROFF DIN11_BIT
-#define DIN11_CR CRL
-#else
-#define DIN11_CROFF (DIN11_BIT&amp;0x05)
-#define DIN11_CR CRH
-#endif
-#define DIO95 95
-#define DIO95_PORT DIN11_PORT
-#define DIO95_BIT DIN11_BIT
-#define DIO95_APB2EN DIN11_APB2EN
-#define DIO95_GPIO DIN11_GPIO
-#define DIO95_CR DIN11_CR
-#define DIO95_CROFF DIN11_CROFF
-#endif</v>
-      </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef DIN11
-mcu_config_input(DIN11);
-#ifdef DIN11_PULLUP
-mcu_config_pullup(DIN11);
-#endif
-#endif</v>
-      </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-    </row>
-    <row r="99" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>96</v>
-      </c>
-      <c r="B99" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO96</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="7">
-        <v>12</v>
-      </c>
-      <c r="E99" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN12_PORT) &amp;&amp; defined(DIN12_BIT))
-#define DIN12 96
-#define DIN12_APB2EN (__rccapb2gpioen__(DIN12_PORT))
-#define DIN12_GPIO (__gpio__(DIN12_PORT))
-#if (DIN12_BIT &lt; 8)
-#define DIN12_CROFF DIN12_BIT
-#define DIN12_CR CRL
-#else
-#define DIN12_CROFF (DIN12_BIT&amp;0x05)
-#define DIN12_CR CRH
-#endif
-#define DIO96 96
-#define DIO96_PORT DIN12_PORT
-#define DIO96_BIT DIN12_BIT
-#define DIO96_APB2EN DIN12_APB2EN
-#define DIO96_GPIO DIN12_GPIO
-#define DIO96_CR DIN12_CR
-#define DIO96_CROFF DIN12_CROFF
-#endif</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef DIN12
-mcu_config_input(DIN12);
-#ifdef DIN12_PULLUP
-mcu_config_pullup(DIN12);
-#endif
-#endif</v>
-      </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-    </row>
-    <row r="100" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>97</v>
-      </c>
-      <c r="B100" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO97</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="7">
-        <v>13</v>
-      </c>
-      <c r="E100" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN13_PORT) &amp;&amp; defined(DIN13_BIT))
-#define DIN13 97
-#define DIN13_APB2EN (__rccapb2gpioen__(DIN13_PORT))
-#define DIN13_GPIO (__gpio__(DIN13_PORT))
-#if (DIN13_BIT &lt; 8)
-#define DIN13_CROFF DIN13_BIT
-#define DIN13_CR CRL
-#else
-#define DIN13_CROFF (DIN13_BIT&amp;0x05)
-#define DIN13_CR CRH
-#endif
-#define DIO97 97
-#define DIO97_PORT DIN13_PORT
-#define DIO97_BIT DIN13_BIT
-#define DIO97_APB2EN DIN13_APB2EN
-#define DIO97_GPIO DIN13_GPIO
-#define DIO97_CR DIN13_CR
-#define DIO97_CROFF DIN13_CROFF
-#endif</v>
-      </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef DIN13
-mcu_config_input(DIN13);
-#ifdef DIN13_PULLUP
-mcu_config_pullup(DIN13);
-#endif
-#endif</v>
-      </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-    </row>
-    <row r="101" spans="1:28" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>98</v>
-      </c>
-      <c r="B101" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO98</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" s="7">
-        <v>14</v>
-      </c>
-      <c r="E101" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN14_PORT) &amp;&amp; defined(DIN14_BIT))
-#define DIN14 98
-#define DIN14_APB2EN (__rccapb2gpioen__(DIN14_PORT))
-#define DIN14_GPIO (__gpio__(DIN14_PORT))
-#if (DIN14_BIT &lt; 8)
-#define DIN14_CROFF DIN14_BIT
-#define DIN14_CR CRL
-#else
-#define DIN14_CROFF (DIN14_BIT&amp;0x05)
-#define DIN14_CR CRH
-#endif
-#define DIO98 98
-#define DIO98_PORT DIN14_PORT
-#define DIO98_BIT DIN14_BIT
-#define DIO98_APB2EN DIN14_APB2EN
-#define DIO98_GPIO DIN14_GPIO
-#define DIO98_CR DIN14_CR
-#define DIO98_CROFF DIN14_CROFF
-#endif</v>
-      </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef DIN14
-mcu_config_input(DIN14);
-#ifdef DIN14_PULLUP
-mcu_config_pullup(DIN14);
-#endif
-#endif</v>
-      </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-    </row>
-    <row r="102" spans="1:28" s="4" customFormat="1" ht="327" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>99</v>
-      </c>
-      <c r="B102" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DIO99</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" s="7">
-        <v>15</v>
-      </c>
-      <c r="E102" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>#if (defined(DIN15_PORT) &amp;&amp; defined(DIN15_BIT))
-#define DIN15 99
-#define DIN15_APB2EN (__rccapb2gpioen__(DIN15_PORT))
-#define DIN15_GPIO (__gpio__(DIN15_PORT))
-#if (DIN15_BIT &lt; 8)
-#define DIN15_CROFF DIN15_BIT
-#define DIN15_CR CRL
-#else
-#define DIN15_CROFF (DIN15_BIT&amp;0x05)
-#define DIN15_CR CRH
-#endif
-#define DIO99 99
-#define DIO99_PORT DIN15_PORT
-#define DIO99_BIT DIN15_BIT
-#define DIO99_APB2EN DIN15_APB2EN
-#define DIO99_GPIO DIN15_GPIO
-#define DIO99_CR DIN15_CR
-#define DIO99_CROFF DIN15_CROFF
-#endif</v>
-      </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>#ifdef DIN15
-mcu_config_input(DIN15);
-#ifdef DIN15_PULLUP
-mcu_config_pullup(DIN15);
-#endif
-#endif</v>
-      </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
+    <row r="98" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+    </row>
+    <row r="99" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+    </row>
+    <row r="100" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+    </row>
+    <row r="101" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+    </row>
+    <row r="102" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
     </row>
     <row r="103" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
@@ -35771,156 +35586,6 @@
       <c r="AA998" s="1"/>
       <c r="AB998" s="1"/>
     </row>
-    <row r="999" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-      <c r="Z999" s="1"/>
-      <c r="AA999" s="1"/>
-      <c r="AB999" s="1"/>
-    </row>
-    <row r="1000" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-      <c r="AA1000" s="1"/>
-      <c r="AB1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1"/>
-      <c r="L1001" s="1"/>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-      <c r="AA1001" s="1"/>
-      <c r="AB1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="1"/>
-      <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
-      <c r="I1002" s="1"/>
-      <c r="J1002" s="1"/>
-      <c r="K1002" s="1"/>
-      <c r="L1002" s="1"/>
-      <c r="M1002" s="1"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
-      <c r="P1002" s="1"/>
-      <c r="Q1002" s="1"/>
-      <c r="R1002" s="1"/>
-      <c r="S1002" s="1"/>
-      <c r="T1002" s="1"/>
-      <c r="U1002" s="1"/>
-      <c r="V1002" s="1"/>
-      <c r="W1002" s="1"/>
-      <c r="X1002" s="1"/>
-      <c r="Y1002" s="1"/>
-      <c r="Z1002" s="1"/>
-      <c r="AA1002" s="1"/>
-      <c r="AB1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
-      <c r="G1003" s="1"/>
-      <c r="H1003" s="1"/>
-      <c r="I1003" s="1"/>
-      <c r="J1003" s="1"/>
-      <c r="K1003" s="1"/>
-      <c r="L1003" s="1"/>
-      <c r="M1003" s="1"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
-      <c r="P1003" s="1"/>
-      <c r="Q1003" s="1"/>
-      <c r="R1003" s="1"/>
-      <c r="S1003" s="1"/>
-      <c r="T1003" s="1"/>
-      <c r="U1003" s="1"/>
-      <c r="V1003" s="1"/>
-      <c r="W1003" s="1"/>
-      <c r="X1003" s="1"/>
-      <c r="Y1003" s="1"/>
-      <c r="Z1003" s="1"/>
-      <c r="AA1003" s="1"/>
-      <c r="AB1003" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>

--- a/docs/stm32f1_mcumap_gen.xlsx
+++ b/docs/stm32f1_mcumap_gen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCEM\Documents\GitHub\uCNC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A828E47-B1C1-4325-8372-815E16FED508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5F64D-72F4-4A05-9640-F1FFD7DD1377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>Names</t>
   </si>
@@ -375,12 +375,27 @@
 #define _EXTIRQ(X) EXTIRQ_##X
 #define EXTIRQ(X) _EXTIRQ(X)</t>
   </si>
+  <si>
+    <t>STEPPER1_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER2_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER3_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER4_ENABLE</t>
+  </si>
+  <si>
+    <t>STEPPER5_ENABLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +448,18 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -520,7 +547,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -552,6 +579,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Cor2" xfId="2" builtinId="36"/>
@@ -771,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -864,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B97" si="0">"DIO"&amp;A3</f>
+        <f t="shared" ref="B3:B98" si="0">"DIO"&amp;A3</f>
         <v>DIO0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -6472,7 +6501,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="6" t="str">
-        <f t="shared" ref="E68:E97" si="10">"#if (defined("&amp;C68&amp;"_PORT) &amp;&amp; defined("&amp;C68&amp;"_BIT))
+        <f t="shared" ref="E68:E102" si="10">"#if (defined("&amp;C68&amp;"_PORT) &amp;&amp; defined("&amp;C68&amp;"_BIT))
 #define "&amp;C68&amp;" "&amp;A68&amp;"
 #define "&amp;C68&amp;"_APB2EN (__rccapb2gpioen__("&amp;C68&amp;"_PORT))
 #define "&amp;C68&amp;"_GPIO (__gpio__("&amp;C68&amp;"_PORT))
@@ -8488,7 +8517,7 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
     </row>
-    <row r="97" spans="1:28" s="4" customFormat="1" ht="315.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" s="4" customFormat="1" ht="327" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -8557,15 +8586,52 @@
       <c r="AB97" s="3"/>
     </row>
     <row r="98" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>DIO95</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="16">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>#if (defined(STEPPER1_ENABLE_PORT) &amp;&amp; defined(STEPPER1_ENABLE_BIT))
+#define STEPPER1_ENABLE 95
+#define STEPPER1_ENABLE_APB2EN (__rccapb2gpioen__(STEPPER1_ENABLE_PORT))
+#define STEPPER1_ENABLE_GPIO (__gpio__(STEPPER1_ENABLE_PORT))
+#if (STEPPER1_ENABLE_BIT &lt; 8)
+#define STEPPER1_ENABLE_CROFF STEPPER1_ENABLE_BIT
+#define STEPPER1_ENABLE_CR CRL
+#else
+#define STEPPER1_ENABLE_CROFF (STEPPER1_ENABLE_BIT&amp;0x05)
+#define STEPPER1_ENABLE_CR CRH
+#endif
+#define DIO95 95
+#define DIO95_PORT STEPPER1_ENABLE_PORT
+#define DIO95_BIT STEPPER1_ENABLE_BIT
+#define DIO95_APB2EN STEPPER1_ENABLE_APB2EN
+#define DIO95_GPIO STEPPER1_ENABLE_GPIO
+#define DIO95_CR STEPPER1_ENABLE_CR
+#define DIO95_CROFF STEPPER1_ENABLE_CROFF
+#endif</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="I98" s="3" t="str">
+        <f t="shared" ref="I98:I102" si="12">"#ifdef "&amp;C98&amp;"
+mcu_config_output("&amp;C98&amp;");
+#endif"</f>
+        <v>#ifdef STEPPER1_ENABLE
+mcu_config_output(STEPPER1_ENABLE);
+#endif</v>
+      </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -8587,15 +8653,50 @@
       <c r="AB98" s="1"/>
     </row>
     <row r="99" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3" t="str">
+        <f t="shared" ref="B99:B102" si="13">"DIO"&amp;A99</f>
+        <v>DIO96</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="16">
+        <v>2</v>
+      </c>
+      <c r="E99" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>#if (defined(STEPPER2_ENABLE_PORT) &amp;&amp; defined(STEPPER2_ENABLE_BIT))
+#define STEPPER2_ENABLE 96
+#define STEPPER2_ENABLE_APB2EN (__rccapb2gpioen__(STEPPER2_ENABLE_PORT))
+#define STEPPER2_ENABLE_GPIO (__gpio__(STEPPER2_ENABLE_PORT))
+#if (STEPPER2_ENABLE_BIT &lt; 8)
+#define STEPPER2_ENABLE_CROFF STEPPER2_ENABLE_BIT
+#define STEPPER2_ENABLE_CR CRL
+#else
+#define STEPPER2_ENABLE_CROFF (STEPPER2_ENABLE_BIT&amp;0x05)
+#define STEPPER2_ENABLE_CR CRH
+#endif
+#define DIO96 96
+#define DIO96_PORT STEPPER2_ENABLE_PORT
+#define DIO96_BIT STEPPER2_ENABLE_BIT
+#define DIO96_APB2EN STEPPER2_ENABLE_APB2EN
+#define DIO96_GPIO STEPPER2_ENABLE_GPIO
+#define DIO96_CR STEPPER2_ENABLE_CR
+#define DIO96_CROFF STEPPER2_ENABLE_CROFF
+#endif</v>
+      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>#ifdef STEPPER2_ENABLE
+mcu_config_output(STEPPER2_ENABLE);
+#endif</v>
+      </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -8617,15 +8718,50 @@
       <c r="AB99" s="1"/>
     </row>
     <row r="100" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>DIO97</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="16">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>#if (defined(STEPPER3_ENABLE_PORT) &amp;&amp; defined(STEPPER3_ENABLE_BIT))
+#define STEPPER3_ENABLE 97
+#define STEPPER3_ENABLE_APB2EN (__rccapb2gpioen__(STEPPER3_ENABLE_PORT))
+#define STEPPER3_ENABLE_GPIO (__gpio__(STEPPER3_ENABLE_PORT))
+#if (STEPPER3_ENABLE_BIT &lt; 8)
+#define STEPPER3_ENABLE_CROFF STEPPER3_ENABLE_BIT
+#define STEPPER3_ENABLE_CR CRL
+#else
+#define STEPPER3_ENABLE_CROFF (STEPPER3_ENABLE_BIT&amp;0x05)
+#define STEPPER3_ENABLE_CR CRH
+#endif
+#define DIO97 97
+#define DIO97_PORT STEPPER3_ENABLE_PORT
+#define DIO97_BIT STEPPER3_ENABLE_BIT
+#define DIO97_APB2EN STEPPER3_ENABLE_APB2EN
+#define DIO97_GPIO STEPPER3_ENABLE_GPIO
+#define DIO97_CR STEPPER3_ENABLE_CR
+#define DIO97_CROFF STEPPER3_ENABLE_CROFF
+#endif</v>
+      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="I100" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>#ifdef STEPPER3_ENABLE
+mcu_config_output(STEPPER3_ENABLE);
+#endif</v>
+      </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -8647,15 +8783,50 @@
       <c r="AB100" s="1"/>
     </row>
     <row r="101" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>DIO98</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="16">
+        <v>4</v>
+      </c>
+      <c r="E101" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>#if (defined(STEPPER4_ENABLE_PORT) &amp;&amp; defined(STEPPER4_ENABLE_BIT))
+#define STEPPER4_ENABLE 98
+#define STEPPER4_ENABLE_APB2EN (__rccapb2gpioen__(STEPPER4_ENABLE_PORT))
+#define STEPPER4_ENABLE_GPIO (__gpio__(STEPPER4_ENABLE_PORT))
+#if (STEPPER4_ENABLE_BIT &lt; 8)
+#define STEPPER4_ENABLE_CROFF STEPPER4_ENABLE_BIT
+#define STEPPER4_ENABLE_CR CRL
+#else
+#define STEPPER4_ENABLE_CROFF (STEPPER4_ENABLE_BIT&amp;0x05)
+#define STEPPER4_ENABLE_CR CRH
+#endif
+#define DIO98 98
+#define DIO98_PORT STEPPER4_ENABLE_PORT
+#define DIO98_BIT STEPPER4_ENABLE_BIT
+#define DIO98_APB2EN STEPPER4_ENABLE_APB2EN
+#define DIO98_GPIO STEPPER4_ENABLE_GPIO
+#define DIO98_CR STEPPER4_ENABLE_CR
+#define DIO98_CROFF STEPPER4_ENABLE_CROFF
+#endif</v>
+      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>#ifdef STEPPER4_ENABLE
+mcu_config_output(STEPPER4_ENABLE);
+#endif</v>
+      </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -8677,15 +8848,50 @@
       <c r="AB101" s="1"/>
     </row>
     <row r="102" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>DIO99</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="16">
+        <v>5</v>
+      </c>
+      <c r="E102" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>#if (defined(STEPPER5_ENABLE_PORT) &amp;&amp; defined(STEPPER5_ENABLE_BIT))
+#define STEPPER5_ENABLE 99
+#define STEPPER5_ENABLE_APB2EN (__rccapb2gpioen__(STEPPER5_ENABLE_PORT))
+#define STEPPER5_ENABLE_GPIO (__gpio__(STEPPER5_ENABLE_PORT))
+#if (STEPPER5_ENABLE_BIT &lt; 8)
+#define STEPPER5_ENABLE_CROFF STEPPER5_ENABLE_BIT
+#define STEPPER5_ENABLE_CR CRL
+#else
+#define STEPPER5_ENABLE_CROFF (STEPPER5_ENABLE_BIT&amp;0x05)
+#define STEPPER5_ENABLE_CR CRH
+#endif
+#define DIO99 99
+#define DIO99_PORT STEPPER5_ENABLE_PORT
+#define DIO99_BIT STEPPER5_ENABLE_BIT
+#define DIO99_APB2EN STEPPER5_ENABLE_APB2EN
+#define DIO99_GPIO STEPPER5_ENABLE_GPIO
+#define DIO99_CR STEPPER5_ENABLE_CR
+#define DIO99_CROFF STEPPER5_ENABLE_CROFF
+#endif</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>#ifdef STEPPER5_ENABLE
+mcu_config_output(STEPPER5_ENABLE);
+#endif</v>
+      </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
